--- a/Plantilla_Pricing_Costos_Importacion.xlsx
+++ b/Plantilla_Pricing_Costos_Importacion.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\FernandoOlveraRendon\Documents\Base_Costos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB253B92-E9CF-47AE-8D49-4DA70695CD36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82B8E495-E185-4212-AACC-2FB753286F02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CATALOGO_PRODUCTOS" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3286" uniqueCount="651">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3286" uniqueCount="649">
   <si>
     <t>SKU</t>
   </si>
@@ -445,13 +445,7 @@
     <t>HP-30 Neo (MRI compatible)</t>
   </si>
   <si>
-    <t>HP TCI</t>
-  </si>
-  <si>
     <t>Perfusor con pantalla táctil con modo TCI (sistema de infusión controlada por objetivo). 1 asa HP-81, 1 bracket HP y 1 cable de alimentación.</t>
-  </si>
-  <si>
-    <t>AP TCI</t>
   </si>
   <si>
     <t>IP17B-CTO-02</t>
@@ -2548,8 +2542,8 @@
   <dimension ref="A1:K270"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A30" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B273" sqref="B273"/>
+      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A51" sqref="A51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3615,7 +3609,7 @@
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="B37" t="s">
         <v>109</v>
@@ -3644,7 +3638,7 @@
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="B38" s="4" t="s">
         <v>111</v>
@@ -3673,7 +3667,7 @@
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="B39" s="4" t="s">
         <v>113</v>
@@ -3702,7 +3696,7 @@
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="B40" s="4" t="s">
         <v>114</v>
@@ -3731,7 +3725,7 @@
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="B41" s="4" t="s">
         <v>115</v>
@@ -3760,7 +3754,7 @@
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="B42" s="4" t="s">
         <v>116</v>
@@ -3818,16 +3812,16 @@
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="B44" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="C44" t="s">
         <v>119</v>
       </c>
       <c r="D44" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="E44" t="s">
         <v>14</v>
@@ -3847,16 +3841,16 @@
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="B45" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="C45" t="s">
         <v>119</v>
       </c>
       <c r="D45" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="E45" t="s">
         <v>14</v>
@@ -3879,13 +3873,13 @@
         <v>123</v>
       </c>
       <c r="B46" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="C46" t="s">
         <v>119</v>
       </c>
       <c r="D46" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="E46" t="s">
         <v>14</v>
@@ -3992,10 +3986,10 @@
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="B50" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C50" t="s">
         <v>119</v>
@@ -4018,16 +4012,16 @@
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="B51" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="C51" t="s">
         <v>119</v>
       </c>
       <c r="D51" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="E51" t="s">
         <v>14</v>
@@ -4047,16 +4041,16 @@
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="B52" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="C52" t="s">
         <v>119</v>
       </c>
       <c r="D52" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="E52" t="s">
         <v>14</v>
@@ -4076,16 +4070,16 @@
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="B53" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="C53" t="s">
         <v>119</v>
       </c>
       <c r="D53" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="E53" t="s">
         <v>14</v>
@@ -4105,16 +4099,16 @@
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="B54" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="C54" t="s">
         <v>119</v>
       </c>
       <c r="D54" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="E54" t="s">
         <v>14</v>
@@ -4134,16 +4128,16 @@
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="B55" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="C55" t="s">
         <v>119</v>
       </c>
       <c r="D55" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="E55" t="s">
         <v>14</v>
@@ -4163,16 +4157,16 @@
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="B56" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="C56" t="s">
         <v>119</v>
       </c>
       <c r="D56" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="E56" t="s">
         <v>14</v>
@@ -4192,16 +4186,16 @@
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="B57" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="C57" t="s">
         <v>119</v>
       </c>
       <c r="D57" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="E57" t="s">
         <v>14</v>
@@ -4224,13 +4218,13 @@
         <v>126</v>
       </c>
       <c r="B58" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="C58" t="s">
         <v>119</v>
       </c>
       <c r="D58" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="E58" t="s">
         <v>14</v>
@@ -4250,16 +4244,16 @@
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="B59" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="C59" t="s">
         <v>119</v>
       </c>
       <c r="D59" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="E59" t="s">
         <v>14</v>
@@ -4282,13 +4276,13 @@
         <v>120</v>
       </c>
       <c r="B60" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="C60" t="s">
         <v>119</v>
       </c>
       <c r="D60" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="E60" t="s">
         <v>14</v>
@@ -4308,16 +4302,16 @@
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="B61" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="C61" t="s">
         <v>119</v>
       </c>
       <c r="D61" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="E61" t="s">
         <v>14</v>
@@ -4337,16 +4331,16 @@
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="B62" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="C62" t="s">
         <v>119</v>
       </c>
       <c r="D62" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="E62" t="s">
         <v>14</v>
@@ -4366,16 +4360,16 @@
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
+        <v>628</v>
+      </c>
+      <c r="B63" t="s">
+        <v>629</v>
+      </c>
+      <c r="C63" t="s">
         <v>630</v>
       </c>
-      <c r="B63" t="s">
-        <v>631</v>
-      </c>
-      <c r="C63" t="s">
-        <v>632</v>
-      </c>
       <c r="D63" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="E63" t="s">
         <v>14</v>
@@ -4395,16 +4389,16 @@
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="B64" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="C64" t="s">
         <v>119</v>
       </c>
       <c r="D64" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="E64" t="s">
         <v>14</v>
@@ -4424,16 +4418,16 @@
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="B65" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="C65" t="s">
         <v>119</v>
       </c>
       <c r="D65" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="E65" t="s">
         <v>14</v>
@@ -4453,16 +4447,16 @@
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="B66" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="C66" t="s">
         <v>119</v>
       </c>
       <c r="D66" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="E66" t="s">
         <v>14</v>
@@ -4482,16 +4476,16 @@
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="B67" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="C67" t="s">
         <v>119</v>
       </c>
       <c r="D67" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="E67" t="s">
         <v>14</v>
@@ -4511,16 +4505,16 @@
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="B68" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="C68" t="s">
         <v>119</v>
       </c>
       <c r="D68" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="E68" t="s">
         <v>14</v>
@@ -4540,16 +4534,16 @@
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B69" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C69" t="s">
         <v>119</v>
       </c>
       <c r="D69" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E69" t="s">
         <v>14</v>
@@ -4569,16 +4563,16 @@
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B70" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C70" t="s">
         <v>119</v>
       </c>
       <c r="D70" s="4" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E70" t="s">
         <v>14</v>
@@ -4598,16 +4592,16 @@
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B71" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C71" t="s">
         <v>119</v>
       </c>
       <c r="D71" s="4" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="E71" t="s">
         <v>14</v>
@@ -4627,16 +4621,16 @@
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B72" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C72" t="s">
         <v>119</v>
       </c>
       <c r="D72" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="E72" t="s">
         <v>14</v>
@@ -4656,16 +4650,16 @@
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B73" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C73" t="s">
         <v>119</v>
       </c>
       <c r="D73" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="E73" t="s">
         <v>14</v>
@@ -4685,16 +4679,16 @@
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B74" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C74" t="s">
         <v>119</v>
       </c>
       <c r="D74" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="E74" t="s">
         <v>14</v>
@@ -4714,16 +4708,16 @@
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B75" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C75" t="s">
         <v>119</v>
       </c>
       <c r="D75" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="E75" t="s">
         <v>14</v>
@@ -4743,16 +4737,16 @@
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B76" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C76" t="s">
         <v>119</v>
       </c>
       <c r="D76" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="E76" t="s">
         <v>14</v>
@@ -4772,16 +4766,16 @@
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B77" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C77" t="s">
         <v>119</v>
       </c>
       <c r="D77" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E77" t="s">
         <v>14</v>
@@ -4801,16 +4795,16 @@
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B78" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C78" t="s">
         <v>119</v>
       </c>
       <c r="D78" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="E78" t="s">
         <v>14</v>
@@ -4830,10 +4824,10 @@
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B79" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C79" t="s">
         <v>119</v>
@@ -4856,16 +4850,16 @@
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B80" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C80" t="s">
         <v>119</v>
       </c>
       <c r="D80" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="E80" t="s">
         <v>14</v>
@@ -4885,16 +4879,16 @@
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B81" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C81" t="s">
         <v>119</v>
       </c>
       <c r="D81" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="E81" t="s">
         <v>14</v>
@@ -4914,16 +4908,16 @@
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B82" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C82" t="s">
         <v>119</v>
       </c>
       <c r="D82" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="E82" t="s">
         <v>14</v>
@@ -4943,16 +4937,16 @@
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B83" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C83" t="s">
         <v>119</v>
       </c>
       <c r="D83" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="E83" t="s">
         <v>14</v>
@@ -4972,16 +4966,16 @@
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B84" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C84" t="s">
         <v>119</v>
       </c>
       <c r="D84" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="E84" t="s">
         <v>14</v>
@@ -5001,16 +4995,16 @@
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B85" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C85" t="s">
         <v>119</v>
       </c>
       <c r="D85" s="4" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E85" t="s">
         <v>14</v>
@@ -5030,16 +5024,16 @@
     </row>
     <row r="86" spans="1:9" ht="16" x14ac:dyDescent="0.45">
       <c r="A86" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B86" s="5" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C86" t="s">
         <v>119</v>
       </c>
       <c r="D86" s="4" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E86" t="s">
         <v>14</v>
@@ -5059,16 +5053,16 @@
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B87" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C87" t="s">
         <v>119</v>
       </c>
       <c r="D87" s="4" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E87" t="s">
         <v>14</v>
@@ -5088,16 +5082,16 @@
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B88" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C88" t="s">
         <v>119</v>
       </c>
       <c r="D88" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="E88" t="s">
         <v>14</v>
@@ -5117,16 +5111,16 @@
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B89" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C89" t="s">
         <v>119</v>
       </c>
       <c r="D89" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="E89" t="s">
         <v>14</v>
@@ -5146,10 +5140,10 @@
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B90" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C90" t="s">
         <v>119</v>
@@ -5172,16 +5166,16 @@
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B91" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C91" t="s">
         <v>119</v>
       </c>
       <c r="D91" s="4" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="E91" t="s">
         <v>14</v>
@@ -5201,16 +5195,16 @@
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
+        <v>198</v>
+      </c>
+      <c r="B92" t="s">
+        <v>199</v>
+      </c>
+      <c r="C92" t="s">
         <v>200</v>
       </c>
-      <c r="B92" t="s">
-        <v>201</v>
-      </c>
-      <c r="C92" t="s">
-        <v>202</v>
-      </c>
       <c r="D92" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="E92" t="s">
         <v>14</v>
@@ -5230,16 +5224,16 @@
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B93" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C93" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="D93" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="E93" t="s">
         <v>14</v>
@@ -5259,16 +5253,16 @@
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B94" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="C94" t="s">
         <v>12</v>
       </c>
       <c r="D94" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="E94" t="s">
         <v>14</v>
@@ -5288,16 +5282,16 @@
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="B95" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="C95" t="s">
         <v>12</v>
       </c>
       <c r="D95" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="E95" t="s">
         <v>14</v>
@@ -5317,16 +5311,16 @@
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="B96" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="C96" t="s">
         <v>12</v>
       </c>
       <c r="D96" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="E96" t="s">
         <v>14</v>
@@ -5346,16 +5340,16 @@
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B97" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="C97" t="s">
         <v>12</v>
       </c>
       <c r="D97" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="E97" t="s">
         <v>14</v>
@@ -5375,16 +5369,16 @@
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B98" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="C98" t="s">
         <v>12</v>
       </c>
       <c r="D98" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="E98" t="s">
         <v>14</v>
@@ -5404,16 +5398,16 @@
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="B99" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="C99" t="s">
         <v>12</v>
       </c>
       <c r="D99" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="E99" t="s">
         <v>14</v>
@@ -5433,16 +5427,16 @@
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="B100" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="C100" t="s">
         <v>12</v>
       </c>
       <c r="D100" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="E100" t="s">
         <v>14</v>
@@ -5462,16 +5456,16 @@
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="B101" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="C101" t="s">
         <v>12</v>
       </c>
       <c r="D101" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="E101" t="s">
         <v>14</v>
@@ -5491,16 +5485,16 @@
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="B102" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="C102" t="s">
         <v>12</v>
       </c>
       <c r="D102" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="E102" t="s">
         <v>14</v>
@@ -5520,16 +5514,16 @@
     </row>
     <row r="103" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="B103" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="C103" t="s">
         <v>12</v>
       </c>
       <c r="D103" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="E103" t="s">
         <v>14</v>
@@ -5549,16 +5543,16 @@
     </row>
     <row r="104" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="B104" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="C104" t="s">
         <v>12</v>
       </c>
       <c r="D104" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="E104" t="s">
         <v>14</v>
@@ -5578,16 +5572,16 @@
     </row>
     <row r="105" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B105" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="C105" t="s">
         <v>12</v>
       </c>
       <c r="D105" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="E105" t="s">
         <v>14</v>
@@ -5607,16 +5601,16 @@
     </row>
     <row r="106" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="B106" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="C106" t="s">
         <v>12</v>
       </c>
       <c r="D106" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="E106" t="s">
         <v>14</v>
@@ -5636,16 +5630,16 @@
     </row>
     <row r="107" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B107" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="C107" t="s">
         <v>12</v>
       </c>
       <c r="D107" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="E107" t="s">
         <v>14</v>
@@ -5665,16 +5659,16 @@
     </row>
     <row r="108" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="B108" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="C108" t="s">
         <v>12</v>
       </c>
       <c r="D108" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="E108" t="s">
         <v>14</v>
@@ -5694,16 +5688,16 @@
     </row>
     <row r="109" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="B109" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="C109" t="s">
         <v>12</v>
       </c>
       <c r="D109" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="E109" t="s">
         <v>14</v>
@@ -5723,16 +5717,16 @@
     </row>
     <row r="110" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="B110" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="C110" t="s">
         <v>12</v>
       </c>
       <c r="D110" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="E110" t="s">
         <v>14</v>
@@ -5752,16 +5746,16 @@
     </row>
     <row r="111" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="B111" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="C111" t="s">
         <v>12</v>
       </c>
       <c r="D111" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="E111" t="s">
         <v>14</v>
@@ -5781,16 +5775,16 @@
     </row>
     <row r="112" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="B112" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="C112" t="s">
         <v>12</v>
       </c>
       <c r="D112" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="E112" t="s">
         <v>14</v>
@@ -5810,16 +5804,16 @@
     </row>
     <row r="113" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="B113" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="C113" t="s">
         <v>12</v>
       </c>
       <c r="D113" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="E113" t="s">
         <v>14</v>
@@ -5839,16 +5833,16 @@
     </row>
     <row r="114" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="B114" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="C114" t="s">
         <v>12</v>
       </c>
       <c r="D114" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="E114" t="s">
         <v>14</v>
@@ -5868,16 +5862,16 @@
     </row>
     <row r="115" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="B115" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="C115" t="s">
         <v>12</v>
       </c>
       <c r="D115" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="E115" t="s">
         <v>14</v>
@@ -5897,16 +5891,16 @@
     </row>
     <row r="116" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="B116" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="C116" t="s">
         <v>12</v>
       </c>
       <c r="D116" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="E116" t="s">
         <v>14</v>
@@ -5926,16 +5920,16 @@
     </row>
     <row r="117" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="B117" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="C117" t="s">
         <v>12</v>
       </c>
       <c r="D117" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="E117" t="s">
         <v>14</v>
@@ -5955,16 +5949,16 @@
     </row>
     <row r="118" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="B118" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="C118" t="s">
         <v>12</v>
       </c>
       <c r="D118" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="E118" t="s">
         <v>14</v>
@@ -5984,16 +5978,16 @@
     </row>
     <row r="119" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="B119" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="C119" t="s">
         <v>12</v>
       </c>
       <c r="D119" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="E119" t="s">
         <v>14</v>
@@ -6013,16 +6007,16 @@
     </row>
     <row r="120" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="B120" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="C120" t="s">
         <v>12</v>
       </c>
       <c r="D120" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="E120" t="s">
         <v>14</v>
@@ -6042,16 +6036,16 @@
     </row>
     <row r="121" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="B121" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="C121" t="s">
         <v>12</v>
       </c>
       <c r="D121" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="E121" t="s">
         <v>14</v>
@@ -6071,16 +6065,16 @@
     </row>
     <row r="122" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="B122" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="C122" t="s">
         <v>12</v>
       </c>
       <c r="D122" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="E122" t="s">
         <v>14</v>
@@ -6100,16 +6094,16 @@
     </row>
     <row r="123" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A123" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="B123" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="C123" t="s">
         <v>12</v>
       </c>
       <c r="D123" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="E123" t="s">
         <v>14</v>
@@ -6129,16 +6123,16 @@
     </row>
     <row r="124" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A124" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="B124" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="C124" t="s">
         <v>12</v>
       </c>
       <c r="D124" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="E124" t="s">
         <v>14</v>
@@ -6158,16 +6152,16 @@
     </row>
     <row r="125" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="B125" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="C125" t="s">
         <v>12</v>
       </c>
       <c r="D125" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="E125" t="s">
         <v>14</v>
@@ -6187,16 +6181,16 @@
     </row>
     <row r="126" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A126" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="B126" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="C126" t="s">
         <v>12</v>
       </c>
       <c r="D126" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="E126" t="s">
         <v>14</v>
@@ -6216,16 +6210,16 @@
     </row>
     <row r="127" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="B127" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="C127" t="s">
         <v>12</v>
       </c>
       <c r="D127" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="E127" t="s">
         <v>14</v>
@@ -6245,16 +6239,16 @@
     </row>
     <row r="128" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A128" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="B128" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="C128" t="s">
         <v>12</v>
       </c>
       <c r="D128" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="E128" t="s">
         <v>14</v>
@@ -6274,16 +6268,16 @@
     </row>
     <row r="129" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="B129" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="C129" t="s">
         <v>12</v>
       </c>
       <c r="D129" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="E129" t="s">
         <v>14</v>
@@ -6303,16 +6297,16 @@
     </row>
     <row r="130" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A130" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="B130" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="C130" t="s">
         <v>12</v>
       </c>
       <c r="D130" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="E130" t="s">
         <v>14</v>
@@ -6332,16 +6326,16 @@
     </row>
     <row r="131" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A131" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="B131" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="C131" t="s">
         <v>12</v>
       </c>
       <c r="D131" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="E131" t="s">
         <v>14</v>
@@ -6361,16 +6355,16 @@
     </row>
     <row r="132" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A132" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="B132" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="C132" t="s">
         <v>12</v>
       </c>
       <c r="D132" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="E132" t="s">
         <v>14</v>
@@ -6390,16 +6384,16 @@
     </row>
     <row r="133" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A133" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="B133" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="C133" t="s">
         <v>12</v>
       </c>
       <c r="D133" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="E133" t="s">
         <v>14</v>
@@ -6419,16 +6413,16 @@
     </row>
     <row r="134" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A134" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="B134" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="C134" t="s">
         <v>12</v>
       </c>
       <c r="D134" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="E134" t="s">
         <v>14</v>
@@ -6448,16 +6442,16 @@
     </row>
     <row r="135" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A135" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="B135" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="C135" t="s">
         <v>12</v>
       </c>
       <c r="D135" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="E135" t="s">
         <v>14</v>
@@ -6477,16 +6471,16 @@
     </row>
     <row r="136" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A136" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="B136" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="C136" t="s">
         <v>12</v>
       </c>
       <c r="D136" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="E136" t="s">
         <v>14</v>
@@ -6506,16 +6500,16 @@
     </row>
     <row r="137" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A137" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="B137" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="C137" t="s">
         <v>12</v>
       </c>
       <c r="D137" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="E137" t="s">
         <v>14</v>
@@ -6535,16 +6529,16 @@
     </row>
     <row r="138" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A138" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="B138" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="C138" t="s">
         <v>12</v>
       </c>
       <c r="D138" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="E138" t="s">
         <v>14</v>
@@ -6564,16 +6558,16 @@
     </row>
     <row r="139" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A139" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="B139" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="C139" t="s">
         <v>12</v>
       </c>
       <c r="D139" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="E139" t="s">
         <v>14</v>
@@ -6593,16 +6587,16 @@
     </row>
     <row r="140" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A140" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="B140" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="C140" t="s">
         <v>12</v>
       </c>
       <c r="D140" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="E140" t="s">
         <v>14</v>
@@ -6622,16 +6616,16 @@
     </row>
     <row r="141" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A141" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="B141" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="C141" t="s">
         <v>12</v>
       </c>
       <c r="D141" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="E141" t="s">
         <v>14</v>
@@ -6651,16 +6645,16 @@
     </row>
     <row r="142" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A142" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="B142" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="C142" t="s">
         <v>12</v>
       </c>
       <c r="D142" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="E142" t="s">
         <v>14</v>
@@ -6680,16 +6674,16 @@
     </row>
     <row r="143" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A143" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="B143" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="C143" t="s">
         <v>12</v>
       </c>
       <c r="D143" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="E143" t="s">
         <v>14</v>
@@ -6709,16 +6703,16 @@
     </row>
     <row r="144" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A144" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="B144" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="C144" t="s">
         <v>12</v>
       </c>
       <c r="D144" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="E144" t="s">
         <v>14</v>
@@ -6738,16 +6732,16 @@
     </row>
     <row r="145" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A145" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="B145" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="C145" t="s">
         <v>12</v>
       </c>
       <c r="D145" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="E145" t="s">
         <v>14</v>
@@ -6767,16 +6761,16 @@
     </row>
     <row r="146" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A146" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="B146" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="C146" t="s">
         <v>12</v>
       </c>
       <c r="D146" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="E146" t="s">
         <v>14</v>
@@ -6796,16 +6790,16 @@
     </row>
     <row r="147" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A147" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="B147" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="C147" t="s">
         <v>12</v>
       </c>
       <c r="D147" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="E147" t="s">
         <v>14</v>
@@ -6825,16 +6819,16 @@
     </row>
     <row r="148" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A148" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="B148" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="C148" t="s">
         <v>12</v>
       </c>
       <c r="D148" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="E148" t="s">
         <v>14</v>
@@ -6854,16 +6848,16 @@
     </row>
     <row r="149" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A149" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="B149" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="C149" t="s">
         <v>12</v>
       </c>
       <c r="D149" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="E149" t="s">
         <v>14</v>
@@ -6883,16 +6877,16 @@
     </row>
     <row r="150" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A150" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="B150" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="C150" t="s">
         <v>12</v>
       </c>
       <c r="D150" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="E150" t="s">
         <v>14</v>
@@ -6912,16 +6906,16 @@
     </row>
     <row r="151" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A151" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="B151" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="C151" t="s">
         <v>12</v>
       </c>
       <c r="D151" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="E151" t="s">
         <v>14</v>
@@ -6941,16 +6935,16 @@
     </row>
     <row r="152" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A152" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="B152" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="C152" t="s">
         <v>12</v>
       </c>
       <c r="D152" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="E152" t="s">
         <v>14</v>
@@ -6970,16 +6964,16 @@
     </row>
     <row r="153" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A153" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="B153" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="C153" t="s">
         <v>12</v>
       </c>
       <c r="D153" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="E153" t="s">
         <v>14</v>
@@ -6999,16 +6993,16 @@
     </row>
     <row r="154" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A154" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="B154" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="C154" t="s">
         <v>12</v>
       </c>
       <c r="D154" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="E154" t="s">
         <v>14</v>
@@ -7028,16 +7022,16 @@
     </row>
     <row r="155" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A155" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="B155" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="C155" t="s">
         <v>12</v>
       </c>
       <c r="D155" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="E155" t="s">
         <v>14</v>
@@ -7057,16 +7051,16 @@
     </row>
     <row r="156" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A156" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="B156" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="C156" t="s">
         <v>12</v>
       </c>
       <c r="D156" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="E156" t="s">
         <v>14</v>
@@ -7086,16 +7080,16 @@
     </row>
     <row r="157" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A157" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="B157" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="C157" t="s">
         <v>12</v>
       </c>
       <c r="D157" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="E157" t="s">
         <v>14</v>
@@ -7115,16 +7109,16 @@
     </row>
     <row r="158" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A158" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="B158" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="C158" t="s">
         <v>12</v>
       </c>
       <c r="D158" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="E158" t="s">
         <v>14</v>
@@ -7144,16 +7138,16 @@
     </row>
     <row r="159" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A159" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="B159" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="C159" t="s">
         <v>12</v>
       </c>
       <c r="D159" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="E159" t="s">
         <v>14</v>
@@ -7173,16 +7167,16 @@
     </row>
     <row r="160" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A160" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="B160" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="C160" t="s">
         <v>12</v>
       </c>
       <c r="D160" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="E160" t="s">
         <v>14</v>
@@ -7202,16 +7196,16 @@
     </row>
     <row r="161" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A161" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="B161" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="C161" t="s">
         <v>12</v>
       </c>
       <c r="D161" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="E161" t="s">
         <v>14</v>
@@ -7231,16 +7225,16 @@
     </row>
     <row r="162" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A162" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="B162" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="C162" t="s">
         <v>12</v>
       </c>
       <c r="D162" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="E162" t="s">
         <v>14</v>
@@ -7260,16 +7254,16 @@
     </row>
     <row r="163" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A163" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="B163" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="C163" t="s">
         <v>12</v>
       </c>
       <c r="D163" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="E163" t="s">
         <v>14</v>
@@ -7289,16 +7283,16 @@
     </row>
     <row r="164" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A164" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="B164" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="C164" t="s">
         <v>12</v>
       </c>
       <c r="D164" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="E164" t="s">
         <v>14</v>
@@ -7318,16 +7312,16 @@
     </row>
     <row r="165" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A165" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="B165" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="C165" t="s">
         <v>12</v>
       </c>
       <c r="D165" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="E165" t="s">
         <v>14</v>
@@ -7347,16 +7341,16 @@
     </row>
     <row r="166" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A166" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="B166" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="C166" t="s">
         <v>12</v>
       </c>
       <c r="D166" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="E166" t="s">
         <v>14</v>
@@ -7376,16 +7370,16 @@
     </row>
     <row r="167" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A167" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="B167" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="C167" t="s">
         <v>12</v>
       </c>
       <c r="D167" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="E167" t="s">
         <v>14</v>
@@ -7405,16 +7399,16 @@
     </row>
     <row r="168" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A168" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="B168" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="C168" t="s">
         <v>12</v>
       </c>
       <c r="D168" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="E168" t="s">
         <v>14</v>
@@ -7434,16 +7428,16 @@
     </row>
     <row r="169" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A169" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="B169" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="C169" t="s">
         <v>12</v>
       </c>
       <c r="D169" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="E169" t="s">
         <v>14</v>
@@ -7463,16 +7457,16 @@
     </row>
     <row r="170" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A170" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B170" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="C170" t="s">
         <v>12</v>
       </c>
       <c r="D170" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="E170" t="s">
         <v>14</v>
@@ -7492,16 +7486,16 @@
     </row>
     <row r="171" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A171" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B171" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="C171" t="s">
         <v>12</v>
       </c>
       <c r="D171" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="E171" t="s">
         <v>14</v>
@@ -7521,16 +7515,16 @@
     </row>
     <row r="172" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A172" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="B172" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="C172" t="s">
         <v>12</v>
       </c>
       <c r="D172" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="E172" t="s">
         <v>14</v>
@@ -7550,16 +7544,16 @@
     </row>
     <row r="173" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A173" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="B173" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="C173" t="s">
         <v>12</v>
       </c>
       <c r="D173" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="E173" t="s">
         <v>14</v>
@@ -7579,16 +7573,16 @@
     </row>
     <row r="174" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A174" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="B174" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="C174" t="s">
         <v>12</v>
       </c>
       <c r="D174" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="E174" t="s">
         <v>14</v>
@@ -7608,16 +7602,16 @@
     </row>
     <row r="175" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A175" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="B175" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="C175" t="s">
         <v>12</v>
       </c>
       <c r="D175" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="E175" t="s">
         <v>14</v>
@@ -7637,16 +7631,16 @@
     </row>
     <row r="176" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A176" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="B176" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="C176" t="s">
         <v>12</v>
       </c>
       <c r="D176" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="E176" t="s">
         <v>14</v>
@@ -7666,16 +7660,16 @@
     </row>
     <row r="177" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A177" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="B177" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="C177" t="s">
         <v>12</v>
       </c>
       <c r="D177" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="E177" t="s">
         <v>14</v>
@@ -7695,16 +7689,16 @@
     </row>
     <row r="178" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A178" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="B178" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="C178" t="s">
         <v>12</v>
       </c>
       <c r="D178" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="E178" t="s">
         <v>14</v>
@@ -7724,16 +7718,16 @@
     </row>
     <row r="179" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A179" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="B179" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="C179" t="s">
         <v>12</v>
       </c>
       <c r="D179" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="E179" t="s">
         <v>14</v>
@@ -7753,16 +7747,16 @@
     </row>
     <row r="180" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A180" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="B180" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="C180" t="s">
         <v>12</v>
       </c>
       <c r="D180" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="E180" t="s">
         <v>14</v>
@@ -7782,16 +7776,16 @@
     </row>
     <row r="181" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A181" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="B181" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="C181" t="s">
         <v>12</v>
       </c>
       <c r="D181" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="E181" t="s">
         <v>14</v>
@@ -7811,16 +7805,16 @@
     </row>
     <row r="182" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A182" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="B182" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="C182" t="s">
         <v>12</v>
       </c>
       <c r="D182" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="E182" t="s">
         <v>14</v>
@@ -7840,16 +7834,16 @@
     </row>
     <row r="183" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A183" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="B183" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="C183" t="s">
         <v>12</v>
       </c>
       <c r="D183" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="E183" t="s">
         <v>14</v>
@@ -7869,16 +7863,16 @@
     </row>
     <row r="184" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A184" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="B184" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="C184" t="s">
         <v>12</v>
       </c>
       <c r="D184" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="E184" t="s">
         <v>14</v>
@@ -7898,16 +7892,16 @@
     </row>
     <row r="185" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A185" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="B185" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="C185" t="s">
         <v>12</v>
       </c>
       <c r="D185" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="E185" t="s">
         <v>14</v>
@@ -7927,16 +7921,16 @@
     </row>
     <row r="186" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A186" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="B186" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="C186" t="s">
         <v>12</v>
       </c>
       <c r="D186" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="E186" t="s">
         <v>14</v>
@@ -7956,16 +7950,16 @@
     </row>
     <row r="187" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A187" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="B187" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="C187" t="s">
         <v>12</v>
       </c>
       <c r="D187" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="E187" t="s">
         <v>14</v>
@@ -7985,16 +7979,16 @@
     </row>
     <row r="188" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A188" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B188" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="C188" t="s">
         <v>12</v>
       </c>
       <c r="D188" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="E188" t="s">
         <v>14</v>
@@ -8014,16 +8008,16 @@
     </row>
     <row r="189" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A189" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="B189" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="C189" t="s">
         <v>12</v>
       </c>
       <c r="D189" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="E189" t="s">
         <v>14</v>
@@ -8043,16 +8037,16 @@
     </row>
     <row r="190" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A190" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B190" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="C190" t="s">
         <v>12</v>
       </c>
       <c r="D190" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="E190" t="s">
         <v>14</v>
@@ -8072,16 +8066,16 @@
     </row>
     <row r="191" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A191" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B191" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="C191" t="s">
         <v>12</v>
       </c>
       <c r="D191" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="E191" t="s">
         <v>14</v>
@@ -8101,16 +8095,16 @@
     </row>
     <row r="192" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A192" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B192" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="C192" t="s">
         <v>12</v>
       </c>
       <c r="D192" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="E192" t="s">
         <v>14</v>
@@ -8130,16 +8124,16 @@
     </row>
     <row r="193" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A193" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="B193" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="C193" t="s">
         <v>12</v>
       </c>
       <c r="D193" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="E193" t="s">
         <v>14</v>
@@ -8159,16 +8153,16 @@
     </row>
     <row r="194" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A194" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="B194" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="C194" t="s">
         <v>12</v>
       </c>
       <c r="D194" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="E194" t="s">
         <v>14</v>
@@ -8188,16 +8182,16 @@
     </row>
     <row r="195" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A195" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="B195" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="C195" t="s">
         <v>12</v>
       </c>
       <c r="D195" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="E195" t="s">
         <v>14</v>
@@ -8217,16 +8211,16 @@
     </row>
     <row r="196" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A196" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="B196" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="C196" t="s">
         <v>12</v>
       </c>
       <c r="D196" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="E196" t="s">
         <v>14</v>
@@ -8246,16 +8240,16 @@
     </row>
     <row r="197" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A197" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B197" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="C197" t="s">
         <v>12</v>
       </c>
       <c r="D197" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="E197" t="s">
         <v>14</v>
@@ -8275,16 +8269,16 @@
     </row>
     <row r="198" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A198" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="B198" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="C198" t="s">
         <v>12</v>
       </c>
       <c r="D198" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="E198" t="s">
         <v>14</v>
@@ -8304,16 +8298,16 @@
     </row>
     <row r="199" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A199" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="B199" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="C199" t="s">
         <v>12</v>
       </c>
       <c r="D199" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="E199" t="s">
         <v>14</v>
@@ -8333,16 +8327,16 @@
     </row>
     <row r="200" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A200" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="B200" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="C200" t="s">
         <v>12</v>
       </c>
       <c r="D200" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="E200" t="s">
         <v>14</v>
@@ -8362,16 +8356,16 @@
     </row>
     <row r="201" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A201" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="B201" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="C201" t="s">
         <v>12</v>
       </c>
       <c r="D201" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="E201" t="s">
         <v>14</v>
@@ -8391,16 +8385,16 @@
     </row>
     <row r="202" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A202" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="B202" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="C202" t="s">
         <v>12</v>
       </c>
       <c r="D202" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="E202" t="s">
         <v>14</v>
@@ -8420,16 +8414,16 @@
     </row>
     <row r="203" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A203" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="B203" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="C203" t="s">
         <v>12</v>
       </c>
       <c r="D203" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="E203" t="s">
         <v>14</v>
@@ -8449,16 +8443,16 @@
     </row>
     <row r="204" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A204" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="B204" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="C204" t="s">
         <v>12</v>
       </c>
       <c r="D204" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="E204" t="s">
         <v>14</v>
@@ -8478,16 +8472,16 @@
     </row>
     <row r="205" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A205" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="B205" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="C205" t="s">
         <v>12</v>
       </c>
       <c r="D205" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="E205" t="s">
         <v>14</v>
@@ -8507,16 +8501,16 @@
     </row>
     <row r="206" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A206" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B206" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="C206" t="s">
         <v>12</v>
       </c>
       <c r="D206" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="E206" t="s">
         <v>14</v>
@@ -8536,16 +8530,16 @@
     </row>
     <row r="207" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A207" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="B207" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="C207" t="s">
         <v>12</v>
       </c>
       <c r="D207" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="E207" t="s">
         <v>14</v>
@@ -8565,16 +8559,16 @@
     </row>
     <row r="208" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A208" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="B208" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="C208" t="s">
         <v>12</v>
       </c>
       <c r="D208" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="E208" t="s">
         <v>14</v>
@@ -8594,16 +8588,16 @@
     </row>
     <row r="209" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A209" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B209" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="C209" t="s">
         <v>12</v>
       </c>
       <c r="D209" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="E209" t="s">
         <v>14</v>
@@ -8623,16 +8617,16 @@
     </row>
     <row r="210" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A210" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="B210" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="C210" t="s">
         <v>12</v>
       </c>
       <c r="D210" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="E210" t="s">
         <v>14</v>
@@ -8652,16 +8646,16 @@
     </row>
     <row r="211" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A211" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="B211" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="C211" t="s">
         <v>12</v>
       </c>
       <c r="D211" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="E211" t="s">
         <v>14</v>
@@ -8681,16 +8675,16 @@
     </row>
     <row r="212" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A212" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="B212" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="C212" t="s">
         <v>12</v>
       </c>
       <c r="D212" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="E212" t="s">
         <v>14</v>
@@ -8710,16 +8704,16 @@
     </row>
     <row r="213" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A213" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="B213" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="C213" t="s">
         <v>12</v>
       </c>
       <c r="D213" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="E213" t="s">
         <v>14</v>
@@ -8739,16 +8733,16 @@
     </row>
     <row r="214" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A214" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="B214" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="C214" t="s">
         <v>12</v>
       </c>
       <c r="D214" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="E214" t="s">
         <v>14</v>
@@ -8768,16 +8762,16 @@
     </row>
     <row r="215" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A215" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="B215" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="C215" t="s">
         <v>12</v>
       </c>
       <c r="D215" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="E215" t="s">
         <v>14</v>
@@ -8797,16 +8791,16 @@
     </row>
     <row r="216" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A216" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B216" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="C216" t="s">
         <v>12</v>
       </c>
       <c r="D216" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="E216" t="s">
         <v>14</v>
@@ -8826,16 +8820,16 @@
     </row>
     <row r="217" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A217" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="B217" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="C217" t="s">
         <v>12</v>
       </c>
       <c r="D217" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="E217" t="s">
         <v>14</v>
@@ -8855,16 +8849,16 @@
     </row>
     <row r="218" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A218" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="B218" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="C218" t="s">
         <v>12</v>
       </c>
       <c r="D218" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="E218" t="s">
         <v>14</v>
@@ -8884,16 +8878,16 @@
     </row>
     <row r="219" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A219" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="B219" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="C219" t="s">
         <v>12</v>
       </c>
       <c r="D219" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="E219" t="s">
         <v>14</v>
@@ -8913,16 +8907,16 @@
     </row>
     <row r="220" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A220" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="B220" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="C220" t="s">
         <v>12</v>
       </c>
       <c r="D220" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="E220" t="s">
         <v>14</v>
@@ -8942,16 +8936,16 @@
     </row>
     <row r="221" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A221" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="B221" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="C221" t="s">
         <v>12</v>
       </c>
       <c r="D221" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="E221" t="s">
         <v>14</v>
@@ -8971,16 +8965,16 @@
     </row>
     <row r="222" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A222" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="B222" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="C222" t="s">
         <v>12</v>
       </c>
       <c r="D222" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="E222" t="s">
         <v>14</v>
@@ -9000,16 +8994,16 @@
     </row>
     <row r="223" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A223" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="B223" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="C223" t="s">
         <v>12</v>
       </c>
       <c r="D223" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="E223" t="s">
         <v>14</v>
@@ -9029,16 +9023,16 @@
     </row>
     <row r="224" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A224" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="B224" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="C224" t="s">
         <v>12</v>
       </c>
       <c r="D224" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="E224" t="s">
         <v>14</v>
@@ -9058,16 +9052,16 @@
     </row>
     <row r="225" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A225" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="B225" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="C225" t="s">
         <v>12</v>
       </c>
       <c r="D225" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="E225" t="s">
         <v>14</v>
@@ -9087,16 +9081,16 @@
     </row>
     <row r="226" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A226" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="B226" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="C226" t="s">
         <v>12</v>
       </c>
       <c r="D226" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="E226" t="s">
         <v>14</v>
@@ -9116,16 +9110,16 @@
     </row>
     <row r="227" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A227" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="B227" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="C227" t="s">
         <v>12</v>
       </c>
       <c r="D227" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="E227" t="s">
         <v>14</v>
@@ -9145,16 +9139,16 @@
     </row>
     <row r="228" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A228" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="B228" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="C228" t="s">
         <v>12</v>
       </c>
       <c r="D228" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="E228" t="s">
         <v>14</v>
@@ -9174,16 +9168,16 @@
     </row>
     <row r="229" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A229" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="B229" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="C229" t="s">
         <v>12</v>
       </c>
       <c r="D229" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="E229" t="s">
         <v>14</v>
@@ -9203,16 +9197,16 @@
     </row>
     <row r="230" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A230" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="B230" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="C230" t="s">
         <v>12</v>
       </c>
       <c r="D230" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="E230" t="s">
         <v>14</v>
@@ -9232,16 +9226,16 @@
     </row>
     <row r="231" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A231" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="B231" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="C231" t="s">
         <v>12</v>
       </c>
       <c r="D231" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="E231" t="s">
         <v>14</v>
@@ -9261,16 +9255,16 @@
     </row>
     <row r="232" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A232" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="B232" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="C232" t="s">
         <v>12</v>
       </c>
       <c r="D232" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="E232" t="s">
         <v>14</v>
@@ -9290,16 +9284,16 @@
     </row>
     <row r="233" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A233" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="B233" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="C233" t="s">
         <v>12</v>
       </c>
       <c r="D233" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="E233" t="s">
         <v>14</v>
@@ -9319,16 +9313,16 @@
     </row>
     <row r="234" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A234" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="B234" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="C234" t="s">
         <v>12</v>
       </c>
       <c r="D234" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="E234" t="s">
         <v>14</v>
@@ -9348,16 +9342,16 @@
     </row>
     <row r="235" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A235" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="B235" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="C235" t="s">
         <v>12</v>
       </c>
       <c r="D235" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="E235" t="s">
         <v>14</v>
@@ -9377,16 +9371,16 @@
     </row>
     <row r="236" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A236" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="B236" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="C236" t="s">
         <v>12</v>
       </c>
       <c r="D236" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="E236" t="s">
         <v>14</v>
@@ -9406,16 +9400,16 @@
     </row>
     <row r="237" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A237" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="B237" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="C237" t="s">
         <v>12</v>
       </c>
       <c r="D237" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="E237" t="s">
         <v>14</v>
@@ -9435,16 +9429,16 @@
     </row>
     <row r="238" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A238" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="B238" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="C238" t="s">
         <v>12</v>
       </c>
       <c r="D238" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="E238" t="s">
         <v>14</v>
@@ -9464,16 +9458,16 @@
     </row>
     <row r="239" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A239" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="B239" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="C239" t="s">
         <v>12</v>
       </c>
       <c r="D239" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="E239" t="s">
         <v>14</v>
@@ -9493,16 +9487,16 @@
     </row>
     <row r="240" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A240" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="B240" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="C240" t="s">
         <v>12</v>
       </c>
       <c r="D240" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="E240" t="s">
         <v>14</v>
@@ -9522,16 +9516,16 @@
     </row>
     <row r="241" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A241" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="B241" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="C241" t="s">
         <v>12</v>
       </c>
       <c r="D241" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="E241" t="s">
         <v>14</v>
@@ -9551,16 +9545,16 @@
     </row>
     <row r="242" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A242" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="B242" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="C242" t="s">
         <v>12</v>
       </c>
       <c r="D242" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="E242" t="s">
         <v>14</v>
@@ -9580,16 +9574,16 @@
     </row>
     <row r="243" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A243" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="B243" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="C243" t="s">
         <v>12</v>
       </c>
       <c r="D243" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="E243" t="s">
         <v>14</v>
@@ -9609,16 +9603,16 @@
     </row>
     <row r="244" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A244" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="B244" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="C244" t="s">
         <v>12</v>
       </c>
       <c r="D244" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="E244" t="s">
         <v>14</v>
@@ -9638,16 +9632,16 @@
     </row>
     <row r="245" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A245" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="B245" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="C245" t="s">
         <v>12</v>
       </c>
       <c r="D245" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="E245" t="s">
         <v>14</v>
@@ -9667,16 +9661,16 @@
     </row>
     <row r="246" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A246" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="B246" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="C246" t="s">
         <v>12</v>
       </c>
       <c r="D246" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="E246" t="s">
         <v>14</v>
@@ -9696,16 +9690,16 @@
     </row>
     <row r="247" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A247" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="B247" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="C247" t="s">
         <v>12</v>
       </c>
       <c r="D247" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="E247" t="s">
         <v>14</v>
@@ -9725,16 +9719,16 @@
     </row>
     <row r="248" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A248" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="B248" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="C248" t="s">
         <v>12</v>
       </c>
       <c r="D248" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="E248" t="s">
         <v>14</v>
@@ -9754,16 +9748,16 @@
     </row>
     <row r="249" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A249" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="B249" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="C249" t="s">
         <v>12</v>
       </c>
       <c r="D249" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="E249" t="s">
         <v>14</v>
@@ -9783,16 +9777,16 @@
     </row>
     <row r="250" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A250" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="B250" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="C250" t="s">
         <v>12</v>
       </c>
       <c r="D250" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="E250" t="s">
         <v>14</v>
@@ -9812,16 +9806,16 @@
     </row>
     <row r="251" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A251" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="B251" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="C251" t="s">
         <v>12</v>
       </c>
       <c r="D251" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="E251" t="s">
         <v>14</v>
@@ -9841,16 +9835,16 @@
     </row>
     <row r="252" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A252" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="B252" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="C252" t="s">
         <v>12</v>
       </c>
       <c r="D252" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="E252" t="s">
         <v>14</v>
@@ -9870,16 +9864,16 @@
     </row>
     <row r="253" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A253" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="B253" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="C253" t="s">
         <v>12</v>
       </c>
       <c r="D253" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="E253" t="s">
         <v>14</v>
@@ -9899,16 +9893,16 @@
     </row>
     <row r="254" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A254" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="B254" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="C254" t="s">
         <v>12</v>
       </c>
       <c r="D254" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="E254" t="s">
         <v>14</v>
@@ -9928,16 +9922,16 @@
     </row>
     <row r="255" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A255" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="B255" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="C255" t="s">
         <v>12</v>
       </c>
       <c r="D255" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="E255" t="s">
         <v>14</v>
@@ -9957,16 +9951,16 @@
     </row>
     <row r="256" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A256" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="B256" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="C256" t="s">
         <v>12</v>
       </c>
       <c r="D256" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="E256" t="s">
         <v>14</v>
@@ -9986,16 +9980,16 @@
     </row>
     <row r="257" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A257" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="B257" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="C257" t="s">
         <v>12</v>
       </c>
       <c r="D257" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="E257" t="s">
         <v>14</v>
@@ -10015,16 +10009,16 @@
     </row>
     <row r="258" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A258" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="B258" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="C258" t="s">
         <v>12</v>
       </c>
       <c r="D258" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="E258" t="s">
         <v>14</v>
@@ -10044,16 +10038,16 @@
     </row>
     <row r="259" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A259" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="B259" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="C259" t="s">
         <v>12</v>
       </c>
       <c r="D259" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="E259" t="s">
         <v>14</v>
@@ -10073,16 +10067,16 @@
     </row>
     <row r="260" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A260" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="B260" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="C260" t="s">
         <v>12</v>
       </c>
       <c r="D260" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="E260" t="s">
         <v>14</v>
@@ -10102,16 +10096,16 @@
     </row>
     <row r="261" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A261" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="B261" t="s">
+        <v>583</v>
+      </c>
+      <c r="C261" t="s">
+        <v>12</v>
+      </c>
+      <c r="D261" t="s">
         <v>585</v>
-      </c>
-      <c r="C261" t="s">
-        <v>12</v>
-      </c>
-      <c r="D261" t="s">
-        <v>587</v>
       </c>
       <c r="E261" t="s">
         <v>14</v>
@@ -10131,16 +10125,16 @@
     </row>
     <row r="262" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A262" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="B262" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="C262" t="s">
         <v>12</v>
       </c>
       <c r="D262" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="E262" t="s">
         <v>14</v>
@@ -10160,16 +10154,16 @@
     </row>
     <row r="263" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A263" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="B263" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="C263" t="s">
         <v>12</v>
       </c>
       <c r="D263" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="E263" t="s">
         <v>14</v>
@@ -10189,16 +10183,16 @@
     </row>
     <row r="264" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A264" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="B264" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="C264" t="s">
         <v>12</v>
       </c>
       <c r="D264" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="E264" t="s">
         <v>14</v>
@@ -10218,16 +10212,16 @@
     </row>
     <row r="265" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A265" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="B265" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="C265" t="s">
         <v>12</v>
       </c>
       <c r="D265" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="E265" t="s">
         <v>14</v>
@@ -10247,16 +10241,16 @@
     </row>
     <row r="266" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A266" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="B266" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="C266" t="s">
         <v>12</v>
       </c>
       <c r="D266" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="E266" t="s">
         <v>14</v>
@@ -10276,16 +10270,16 @@
     </row>
     <row r="267" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A267" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="B267" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="C267" t="s">
         <v>12</v>
       </c>
       <c r="D267" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="E267" t="s">
         <v>14</v>
@@ -10305,16 +10299,16 @@
     </row>
     <row r="268" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A268" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="B268" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="C268" t="s">
         <v>12</v>
       </c>
       <c r="D268" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="E268" t="s">
         <v>14</v>
@@ -10334,16 +10328,16 @@
     </row>
     <row r="269" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A269" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="B269" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="C269" t="s">
         <v>119</v>
       </c>
       <c r="D269" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="E269" t="s">
         <v>14</v>
@@ -10363,16 +10357,16 @@
     </row>
     <row r="270" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A270" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="B270" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="C270" t="s">
         <v>119</v>
       </c>
       <c r="D270" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="E270" t="s">
         <v>14</v>
@@ -10414,9 +10408,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G266"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A50" sqref="A50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -10435,16 +10429,16 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>203</v>
+      </c>
+      <c r="C1" t="s">
+        <v>204</v>
+      </c>
+      <c r="D1" t="s">
         <v>205</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>206</v>
-      </c>
-      <c r="D1" t="s">
-        <v>207</v>
-      </c>
-      <c r="E1" t="s">
-        <v>208</v>
       </c>
       <c r="F1" t="s">
         <v>2</v>
@@ -10468,7 +10462,7 @@
         <v>12</v>
       </c>
       <c r="G2" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
@@ -10968,7 +10962,7 @@
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A36" s="4" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="B36">
         <v>0</v>
@@ -10983,7 +10977,7 @@
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A37" s="4" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -10998,7 +10992,7 @@
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A38" s="4" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="B38">
         <v>0</v>
@@ -11013,7 +11007,7 @@
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A39" s="4" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="B39">
         <v>0</v>
@@ -11028,7 +11022,7 @@
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A40" s="4" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="B40">
         <v>0</v>
@@ -11060,7 +11054,7 @@
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A42" s="11" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="B42">
         <v>460</v>
@@ -11078,7 +11072,7 @@
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A43" s="12" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="B43">
         <v>450</v>
@@ -11163,7 +11157,7 @@
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A48" s="4" t="s">
-        <v>132</v>
+        <v>600</v>
       </c>
       <c r="B48">
         <v>0</v>
@@ -11178,7 +11172,7 @@
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A49" s="4" t="s">
-        <v>134</v>
+        <v>601</v>
       </c>
       <c r="B49">
         <v>900</v>
@@ -11195,7 +11189,7 @@
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A50" s="4" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="B50">
         <v>70</v>
@@ -11213,7 +11207,7 @@
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A51" s="4" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="B51">
         <v>650</v>
@@ -11231,7 +11225,7 @@
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A52" s="4" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="B52">
         <v>210</v>
@@ -11249,7 +11243,7 @@
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A53" s="4" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="B53">
         <v>250</v>
@@ -11267,7 +11261,7 @@
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A54" s="4" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="B54">
         <v>300</v>
@@ -11285,7 +11279,7 @@
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A55" s="4" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="B55">
         <v>180</v>
@@ -11321,7 +11315,7 @@
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A57" s="4" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="B57">
         <v>800</v>
@@ -11357,7 +11351,7 @@
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A59" s="4" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="B59">
         <v>0</v>
@@ -11372,7 +11366,7 @@
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A60" s="4" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="B60">
         <v>0</v>
@@ -11387,7 +11381,7 @@
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A61" s="4" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="B61">
         <v>57</v>
@@ -11400,12 +11394,12 @@
         <v>46029</v>
       </c>
       <c r="F61" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A62" s="4" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="B62">
         <v>3000</v>
@@ -11423,7 +11417,7 @@
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A63" s="4" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="B63">
         <v>3000</v>
@@ -11440,7 +11434,7 @@
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A64" s="4" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="B64">
         <v>6000</v>
@@ -11457,7 +11451,7 @@
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A65" s="4" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="B65">
         <v>12000</v>
@@ -11474,7 +11468,7 @@
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A66" s="4" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="B66">
         <v>550</v>
@@ -11491,7 +11485,7 @@
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A67" s="4" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B67">
         <v>5100</v>
@@ -11508,7 +11502,7 @@
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A68" s="4" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B68">
         <v>128</v>
@@ -11525,7 +11519,7 @@
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A69" s="4" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B69">
         <v>192</v>
@@ -11542,7 +11536,7 @@
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A70" s="4" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B70">
         <v>13500</v>
@@ -11559,7 +11553,7 @@
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A71" s="4" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B71">
         <v>1000</v>
@@ -11576,7 +11570,7 @@
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A72" s="4" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B72">
         <v>300</v>
@@ -11593,7 +11587,7 @@
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A73" s="4" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B73">
         <v>300</v>
@@ -11610,7 +11604,7 @@
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A74" s="4" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B74">
         <v>50</v>
@@ -11627,7 +11621,7 @@
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A75" s="4" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B75">
         <v>66</v>
@@ -11644,7 +11638,7 @@
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A76" s="4" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B76">
         <v>100</v>
@@ -11661,7 +11655,7 @@
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A77" s="4" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B77">
         <v>0</v>
@@ -11676,7 +11670,7 @@
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A78" s="4" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B78">
         <v>800</v>
@@ -11693,7 +11687,7 @@
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A79" s="4" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B79">
         <v>800</v>
@@ -11710,7 +11704,7 @@
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A80" s="4" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B80">
         <v>800</v>
@@ -11727,7 +11721,7 @@
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A81" s="4" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B81">
         <v>800</v>
@@ -11744,7 +11738,7 @@
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A82" s="4" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B82">
         <v>1400</v>
@@ -11761,7 +11755,7 @@
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A83" s="4" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B83">
         <v>1200</v>
@@ -11778,7 +11772,7 @@
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A84" s="4" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B84">
         <v>200</v>
@@ -11795,7 +11789,7 @@
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A85" s="4" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B85">
         <v>120</v>
@@ -11812,7 +11806,7 @@
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A86" s="4" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B86">
         <v>3.84</v>
@@ -11829,7 +11823,7 @@
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A87" s="4" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B87">
         <v>3.96</v>
@@ -11846,7 +11840,7 @@
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A88" s="4" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B88">
         <v>0</v>
@@ -11861,7 +11855,7 @@
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A89" s="4" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B89">
         <v>0</v>
@@ -11876,7 +11870,7 @@
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A90" s="4" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B90">
         <v>6</v>
@@ -11888,12 +11882,12 @@
         <v>46028</v>
       </c>
       <c r="F90" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A91" s="4" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B91">
         <v>178</v>
@@ -11905,12 +11899,12 @@
         <v>46028</v>
       </c>
       <c r="F91" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B92">
         <v>0</v>
@@ -11928,7 +11922,7 @@
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="B93">
         <v>0</v>
@@ -11946,7 +11940,7 @@
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="B94">
         <v>0</v>
@@ -11964,7 +11958,7 @@
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B95">
         <v>0</v>
@@ -11982,7 +11976,7 @@
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -12000,7 +11994,7 @@
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -12018,7 +12012,7 @@
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="B98">
         <v>0</v>
@@ -12036,7 +12030,7 @@
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -12054,7 +12048,7 @@
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -12072,7 +12066,7 @@
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="B101">
         <v>0</v>
@@ -12090,7 +12084,7 @@
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -12108,7 +12102,7 @@
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -12126,7 +12120,7 @@
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -12144,7 +12138,7 @@
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B105">
         <v>0</v>
@@ -12162,7 +12156,7 @@
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="B106">
         <v>0</v>
@@ -12180,7 +12174,7 @@
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="B107">
         <v>0</v>
@@ -12198,7 +12192,7 @@
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="B108">
         <v>0</v>
@@ -12216,7 +12210,7 @@
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="B109">
         <v>0</v>
@@ -12234,7 +12228,7 @@
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="B110">
         <v>0</v>
@@ -12252,7 +12246,7 @@
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="B111">
         <v>0</v>
@@ -12270,7 +12264,7 @@
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="B112">
         <v>0</v>
@@ -12288,7 +12282,7 @@
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="B113">
         <v>0</v>
@@ -12306,7 +12300,7 @@
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="B114">
         <v>0</v>
@@ -12324,7 +12318,7 @@
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="B115">
         <v>0</v>
@@ -12342,7 +12336,7 @@
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="B116">
         <v>0</v>
@@ -12360,7 +12354,7 @@
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="B117">
         <v>0</v>
@@ -12378,7 +12372,7 @@
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="B118">
         <v>0</v>
@@ -12396,7 +12390,7 @@
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="B119">
         <v>0</v>
@@ -12414,7 +12408,7 @@
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="B120">
         <v>0</v>
@@ -12432,7 +12426,7 @@
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="B121">
         <v>0</v>
@@ -12450,7 +12444,7 @@
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="B122">
         <v>0</v>
@@ -12468,7 +12462,7 @@
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A123" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="B123">
         <v>0</v>
@@ -12486,7 +12480,7 @@
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A124" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="B124">
         <v>0</v>
@@ -12504,7 +12498,7 @@
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="B125">
         <v>0</v>
@@ -12522,7 +12516,7 @@
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A126" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="B126">
         <v>0</v>
@@ -12540,7 +12534,7 @@
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="B127">
         <v>0</v>
@@ -12558,7 +12552,7 @@
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A128" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="B128">
         <v>0</v>
@@ -12576,7 +12570,7 @@
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="B129">
         <v>0</v>
@@ -12594,7 +12588,7 @@
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A130" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="B130">
         <v>0</v>
@@ -12612,7 +12606,7 @@
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A131" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="B131">
         <v>0</v>
@@ -12630,7 +12624,7 @@
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A132" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="B132">
         <v>0</v>
@@ -12648,7 +12642,7 @@
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A133" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="B133">
         <v>0</v>
@@ -12666,7 +12660,7 @@
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A134" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="B134">
         <v>0</v>
@@ -12684,7 +12678,7 @@
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A135" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="B135">
         <v>0</v>
@@ -12702,7 +12696,7 @@
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A136" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="B136">
         <v>0</v>
@@ -12720,7 +12714,7 @@
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A137" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="B137">
         <v>0</v>
@@ -12738,7 +12732,7 @@
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A138" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="B138">
         <v>0</v>
@@ -12756,7 +12750,7 @@
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A139" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="B139">
         <v>0</v>
@@ -12774,7 +12768,7 @@
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A140" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="B140">
         <v>0</v>
@@ -12792,7 +12786,7 @@
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A141" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="B141">
         <v>0</v>
@@ -12810,7 +12804,7 @@
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A142" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="B142">
         <v>0</v>
@@ -12828,7 +12822,7 @@
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A143" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="B143">
         <v>0</v>
@@ -12846,7 +12840,7 @@
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A144" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="B144">
         <v>0</v>
@@ -12864,7 +12858,7 @@
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A145" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="B145">
         <v>0</v>
@@ -12882,7 +12876,7 @@
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A146" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="B146">
         <v>0</v>
@@ -12900,7 +12894,7 @@
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A147" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="B147">
         <v>0</v>
@@ -12918,7 +12912,7 @@
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A148" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="B148">
         <v>0</v>
@@ -12936,7 +12930,7 @@
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A149" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="B149">
         <v>0</v>
@@ -12954,7 +12948,7 @@
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A150" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="B150">
         <v>0</v>
@@ -12972,7 +12966,7 @@
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A151" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="B151">
         <v>0</v>
@@ -12990,7 +12984,7 @@
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A152" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="B152">
         <v>0</v>
@@ -13008,7 +13002,7 @@
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A153" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="B153">
         <v>0</v>
@@ -13026,7 +13020,7 @@
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A154" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="B154">
         <v>0</v>
@@ -13044,7 +13038,7 @@
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A155" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="B155">
         <v>0</v>
@@ -13062,7 +13056,7 @@
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A156" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="B156">
         <v>0</v>
@@ -13080,7 +13074,7 @@
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A157" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="B157">
         <v>0</v>
@@ -13098,7 +13092,7 @@
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A158" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="B158">
         <v>0</v>
@@ -13116,7 +13110,7 @@
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A159" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="B159">
         <v>0</v>
@@ -13134,7 +13128,7 @@
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A160" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="B160">
         <v>0</v>
@@ -13152,7 +13146,7 @@
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A161" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="B161">
         <v>0</v>
@@ -13170,7 +13164,7 @@
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A162" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="B162">
         <v>0</v>
@@ -13188,7 +13182,7 @@
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A163" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="B163">
         <v>0</v>
@@ -13206,7 +13200,7 @@
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A164" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="B164">
         <v>0</v>
@@ -13224,7 +13218,7 @@
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A165" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="B165">
         <v>0</v>
@@ -13242,7 +13236,7 @@
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A166" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="B166">
         <v>0</v>
@@ -13260,7 +13254,7 @@
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A167" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="B167">
         <v>0</v>
@@ -13278,7 +13272,7 @@
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A168" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B168">
         <v>0</v>
@@ -13296,7 +13290,7 @@
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A169" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B169">
         <v>0</v>
@@ -13314,7 +13308,7 @@
     </row>
     <row r="170" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A170" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="B170">
         <v>0</v>
@@ -13332,7 +13326,7 @@
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A171" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="B171">
         <v>0</v>
@@ -13350,7 +13344,7 @@
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A172" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="B172">
         <v>0</v>
@@ -13368,7 +13362,7 @@
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A173" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="B173">
         <v>0</v>
@@ -13386,7 +13380,7 @@
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A174" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="B174">
         <v>0</v>
@@ -13404,7 +13398,7 @@
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A175" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="B175">
         <v>0</v>
@@ -13422,7 +13416,7 @@
     </row>
     <row r="176" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A176" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="B176">
         <v>0</v>
@@ -13440,7 +13434,7 @@
     </row>
     <row r="177" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A177" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="B177">
         <v>0</v>
@@ -13458,7 +13452,7 @@
     </row>
     <row r="178" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A178" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="B178">
         <v>0</v>
@@ -13476,7 +13470,7 @@
     </row>
     <row r="179" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A179" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="B179">
         <v>0</v>
@@ -13494,7 +13488,7 @@
     </row>
     <row r="180" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A180" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="B180">
         <v>0</v>
@@ -13512,7 +13506,7 @@
     </row>
     <row r="181" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A181" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="B181">
         <v>0</v>
@@ -13530,7 +13524,7 @@
     </row>
     <row r="182" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A182" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="B182">
         <v>0</v>
@@ -13548,7 +13542,7 @@
     </row>
     <row r="183" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A183" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="B183">
         <v>0</v>
@@ -13566,7 +13560,7 @@
     </row>
     <row r="184" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A184" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="B184">
         <v>0</v>
@@ -13584,7 +13578,7 @@
     </row>
     <row r="185" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A185" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="B185">
         <v>0</v>
@@ -13602,7 +13596,7 @@
     </row>
     <row r="186" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A186" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B186">
         <v>0</v>
@@ -13620,7 +13614,7 @@
     </row>
     <row r="187" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A187" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="B187">
         <v>0</v>
@@ -13638,7 +13632,7 @@
     </row>
     <row r="188" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A188" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B188">
         <v>0</v>
@@ -13656,7 +13650,7 @@
     </row>
     <row r="189" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A189" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B189">
         <v>0</v>
@@ -13674,7 +13668,7 @@
     </row>
     <row r="190" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A190" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B190">
         <v>0</v>
@@ -13692,7 +13686,7 @@
     </row>
     <row r="191" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A191" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="B191">
         <v>0</v>
@@ -13710,7 +13704,7 @@
     </row>
     <row r="192" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A192" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="B192">
         <v>0</v>
@@ -13728,7 +13722,7 @@
     </row>
     <row r="193" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A193" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="B193">
         <v>0</v>
@@ -13746,7 +13740,7 @@
     </row>
     <row r="194" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A194" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="B194">
         <v>0</v>
@@ -13764,7 +13758,7 @@
     </row>
     <row r="195" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A195" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B195">
         <v>0</v>
@@ -13782,7 +13776,7 @@
     </row>
     <row r="196" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A196" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="B196">
         <v>0</v>
@@ -13800,7 +13794,7 @@
     </row>
     <row r="197" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A197" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="B197">
         <v>0</v>
@@ -13818,7 +13812,7 @@
     </row>
     <row r="198" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A198" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="B198">
         <v>0</v>
@@ -13836,7 +13830,7 @@
     </row>
     <row r="199" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A199" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="B199">
         <v>0</v>
@@ -13854,7 +13848,7 @@
     </row>
     <row r="200" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A200" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="B200">
         <v>0</v>
@@ -13872,7 +13866,7 @@
     </row>
     <row r="201" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A201" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="B201">
         <v>0</v>
@@ -13890,7 +13884,7 @@
     </row>
     <row r="202" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A202" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="B202">
         <v>0</v>
@@ -13908,7 +13902,7 @@
     </row>
     <row r="203" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A203" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="B203">
         <v>0</v>
@@ -13926,7 +13920,7 @@
     </row>
     <row r="204" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A204" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B204">
         <v>0</v>
@@ -13944,7 +13938,7 @@
     </row>
     <row r="205" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A205" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="B205">
         <v>0</v>
@@ -13962,7 +13956,7 @@
     </row>
     <row r="206" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A206" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="B206">
         <v>0</v>
@@ -13980,7 +13974,7 @@
     </row>
     <row r="207" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A207" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B207">
         <v>0</v>
@@ -13998,7 +13992,7 @@
     </row>
     <row r="208" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A208" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="B208">
         <v>0</v>
@@ -14016,7 +14010,7 @@
     </row>
     <row r="209" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A209" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="B209">
         <v>0</v>
@@ -14034,7 +14028,7 @@
     </row>
     <row r="210" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A210" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="B210">
         <v>0</v>
@@ -14052,7 +14046,7 @@
     </row>
     <row r="211" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A211" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="B211">
         <v>0</v>
@@ -14070,7 +14064,7 @@
     </row>
     <row r="212" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A212" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="B212">
         <v>0</v>
@@ -14088,7 +14082,7 @@
     </row>
     <row r="213" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A213" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="B213">
         <v>0</v>
@@ -14106,7 +14100,7 @@
     </row>
     <row r="214" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A214" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B214">
         <v>0</v>
@@ -14124,7 +14118,7 @@
     </row>
     <row r="215" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A215" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="B215">
         <v>0</v>
@@ -14142,7 +14136,7 @@
     </row>
     <row r="216" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A216" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="B216">
         <v>0</v>
@@ -14160,7 +14154,7 @@
     </row>
     <row r="217" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A217" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="B217">
         <v>0</v>
@@ -14178,7 +14172,7 @@
     </row>
     <row r="218" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A218" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="B218">
         <v>0</v>
@@ -14196,7 +14190,7 @@
     </row>
     <row r="219" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A219" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="B219">
         <v>0</v>
@@ -14214,7 +14208,7 @@
     </row>
     <row r="220" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A220" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="B220">
         <v>0</v>
@@ -14232,7 +14226,7 @@
     </row>
     <row r="221" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A221" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="B221">
         <v>0</v>
@@ -14250,7 +14244,7 @@
     </row>
     <row r="222" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A222" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="B222">
         <v>0</v>
@@ -14268,7 +14262,7 @@
     </row>
     <row r="223" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A223" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="B223">
         <v>0</v>
@@ -14286,7 +14280,7 @@
     </row>
     <row r="224" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A224" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="B224">
         <v>0</v>
@@ -14304,7 +14298,7 @@
     </row>
     <row r="225" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A225" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="B225">
         <v>0</v>
@@ -14322,7 +14316,7 @@
     </row>
     <row r="226" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A226" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="B226">
         <v>0</v>
@@ -14340,7 +14334,7 @@
     </row>
     <row r="227" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A227" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="B227">
         <v>0</v>
@@ -14358,7 +14352,7 @@
     </row>
     <row r="228" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A228" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="B228">
         <v>0</v>
@@ -14376,7 +14370,7 @@
     </row>
     <row r="229" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A229" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="B229">
         <v>0</v>
@@ -14394,7 +14388,7 @@
     </row>
     <row r="230" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A230" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="B230">
         <v>0</v>
@@ -14412,7 +14406,7 @@
     </row>
     <row r="231" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A231" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="B231">
         <v>0</v>
@@ -14430,7 +14424,7 @@
     </row>
     <row r="232" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A232" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="B232">
         <v>0</v>
@@ -14448,7 +14442,7 @@
     </row>
     <row r="233" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A233" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="B233">
         <v>0</v>
@@ -14466,7 +14460,7 @@
     </row>
     <row r="234" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A234" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="B234">
         <v>0</v>
@@ -14484,7 +14478,7 @@
     </row>
     <row r="235" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A235" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="B235">
         <v>0</v>
@@ -14502,7 +14496,7 @@
     </row>
     <row r="236" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A236" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="B236">
         <v>0</v>
@@ -14520,7 +14514,7 @@
     </row>
     <row r="237" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A237" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="B237">
         <v>0</v>
@@ -14538,7 +14532,7 @@
     </row>
     <row r="238" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A238" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="B238">
         <v>0</v>
@@ -14556,7 +14550,7 @@
     </row>
     <row r="239" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A239" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="B239">
         <v>0</v>
@@ -14574,7 +14568,7 @@
     </row>
     <row r="240" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A240" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="B240">
         <v>0</v>
@@ -14592,7 +14586,7 @@
     </row>
     <row r="241" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A241" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="B241">
         <v>0</v>
@@ -14610,7 +14604,7 @@
     </row>
     <row r="242" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A242" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="B242">
         <v>0</v>
@@ -14628,7 +14622,7 @@
     </row>
     <row r="243" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A243" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="B243">
         <v>0</v>
@@ -14646,7 +14640,7 @@
     </row>
     <row r="244" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A244" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="B244">
         <v>0</v>
@@ -14664,7 +14658,7 @@
     </row>
     <row r="245" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A245" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="B245">
         <v>0</v>
@@ -14682,7 +14676,7 @@
     </row>
     <row r="246" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A246" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="B246">
         <v>0</v>
@@ -14700,7 +14694,7 @@
     </row>
     <row r="247" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A247" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="B247">
         <v>0</v>
@@ -14718,7 +14712,7 @@
     </row>
     <row r="248" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A248" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="B248">
         <v>0</v>
@@ -14736,7 +14730,7 @@
     </row>
     <row r="249" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A249" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="B249">
         <v>0</v>
@@ -14754,7 +14748,7 @@
     </row>
     <row r="250" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A250" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="B250">
         <v>0</v>
@@ -14772,7 +14766,7 @@
     </row>
     <row r="251" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A251" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="B251">
         <v>0</v>
@@ -14790,7 +14784,7 @@
     </row>
     <row r="252" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A252" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="B252">
         <v>0</v>
@@ -14808,7 +14802,7 @@
     </row>
     <row r="253" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A253" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="B253">
         <v>0</v>
@@ -14826,7 +14820,7 @@
     </row>
     <row r="254" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A254" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="B254">
         <v>0</v>
@@ -14844,7 +14838,7 @@
     </row>
     <row r="255" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A255" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="B255">
         <v>0</v>
@@ -14862,7 +14856,7 @@
     </row>
     <row r="256" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A256" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="B256">
         <v>0</v>
@@ -14880,7 +14874,7 @@
     </row>
     <row r="257" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A257" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="B257">
         <v>0</v>
@@ -14898,7 +14892,7 @@
     </row>
     <row r="258" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A258" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="B258">
         <v>0</v>
@@ -14916,7 +14910,7 @@
     </row>
     <row r="259" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A259" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="B259">
         <v>0</v>
@@ -14934,7 +14928,7 @@
     </row>
     <row r="260" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A260" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="B260">
         <v>0</v>
@@ -14952,7 +14946,7 @@
     </row>
     <row r="261" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A261" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="B261">
         <v>0</v>
@@ -14970,7 +14964,7 @@
     </row>
     <row r="262" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A262" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="B262">
         <v>0</v>
@@ -14988,7 +14982,7 @@
     </row>
     <row r="263" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A263" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="B263">
         <v>0</v>
@@ -15006,7 +15000,7 @@
     </row>
     <row r="264" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A264" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="B264">
         <v>0</v>
@@ -15024,7 +15018,7 @@
     </row>
     <row r="265" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A265" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="B265">
         <v>0</v>
@@ -15042,7 +15036,7 @@
     </row>
     <row r="266" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A266" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="B266">
         <v>0</v>
@@ -15091,86 +15085,86 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
+        <v>208</v>
+      </c>
+      <c r="B1" t="s">
+        <v>209</v>
+      </c>
+      <c r="C1" t="s">
         <v>210</v>
-      </c>
-      <c r="B1" t="s">
-        <v>211</v>
-      </c>
-      <c r="C1" t="s">
-        <v>212</v>
       </c>
       <c r="D1" t="s">
         <v>1</v>
       </c>
       <c r="F1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B2" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C2">
         <v>0.3</v>
       </c>
       <c r="D2" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="F2" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B3" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C3">
         <v>1.2</v>
       </c>
       <c r="D3" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B4" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C4">
         <v>0.05</v>
       </c>
       <c r="D4" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B5" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C5" s="10">
         <v>3.5000000000000003E-2</v>
       </c>
       <c r="D5" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B6" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C6">
         <v>1.4999999999999999E-2</v>
@@ -15178,10 +15172,10 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="B7" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C7">
         <v>0.1</v>
@@ -15229,27 +15223,27 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B1" t="s">
+        <v>221</v>
+      </c>
+      <c r="C1" t="s">
+        <v>222</v>
+      </c>
+      <c r="D1" t="s">
         <v>223</v>
-      </c>
-      <c r="C1" t="s">
-        <v>224</v>
-      </c>
-      <c r="D1" t="s">
-        <v>225</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B2">
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="D2" s="6">
         <v>46021</v>
@@ -15263,7 +15257,7 @@
         <v>21</v>
       </c>
       <c r="C3" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="D3" s="6">
         <v>46021</v>
@@ -15271,13 +15265,13 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B4">
         <v>22</v>
       </c>
       <c r="C4" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D4" s="6">
         <v>46021</v>
@@ -15285,13 +15279,13 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B5">
         <v>25.5</v>
       </c>
       <c r="C5" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D5" s="6">
         <v>46021</v>
@@ -15359,7 +15353,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:N2000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
@@ -15371,6 +15365,7 @@
     <col min="8" max="11" width="14" customWidth="1"/>
     <col min="12" max="12" width="21" customWidth="1"/>
     <col min="13" max="13" width="19" customWidth="1"/>
+    <col min="14" max="14" width="9.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.35">
@@ -15378,51 +15373,51 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="K1" s="1" t="s">
+        <v>648</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="K1" s="1" t="s">
-        <v>650</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>238</v>
-      </c>
       <c r="N1" s="1" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
-        <v>156</v>
+        <v>117</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C2" t="str">
         <f>_xlfn.XLOOKUP(A2,CATALOGO_PRODUCTOS!A:A,CATALOGO_PRODUCTOS!E:E,"",0)</f>
@@ -15434,7 +15429,7 @@
       </c>
       <c r="E2" s="2">
         <f>_xlfn.XLOOKUP(A2,COSTO_BASE!A:A,COSTO_BASE!B:B,"",0)</f>
-        <v>50</v>
+        <v>375</v>
       </c>
       <c r="F2" s="2">
         <f>_xlfn.XLOOKUP(D2,TIPOS_CAMBIO!A:A,TIPOS_CAMBIO!B:B,"",0)</f>
@@ -15442,7 +15437,7 @@
       </c>
       <c r="G2" s="7">
         <f>$E2*$F2</f>
-        <v>1050</v>
+        <v>7875</v>
       </c>
       <c r="H2" s="8">
         <f>_xlfn.XLOOKUP($B$2,PARAMETROS_IMPORTACION!A:A,PARAMETROS_IMPORTACION!C:C,0,0)</f>
@@ -15466,11 +15461,11 @@
       </c>
       <c r="M2" s="2">
         <f>IF($C2="Importado",$G2*(1+$H2+I2+$J2+$L2),$G2)</f>
-        <v>1470</v>
+        <v>11025</v>
       </c>
       <c r="N2" s="2">
         <f>M2 * (1 + K2)</f>
-        <v>1617.0000000000002</v>
+        <v>12127.500000000002</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.35">
@@ -37487,16 +37482,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>239</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>241</v>
       </c>
     </row>
   </sheetData>

--- a/Plantilla_Pricing_Costos_Importacion.xlsx
+++ b/Plantilla_Pricing_Costos_Importacion.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\FernandoOlveraRendon\Documents\Base_Costos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{905277CC-82E6-412F-96A4-1D42D786F2FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7DC1D7B-4E1B-444C-BA1E-E014D8811FCF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28635" yWindow="-165" windowWidth="29130" windowHeight="15810" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CATALOGO_PRODUCTOS" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1843" uniqueCount="490">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3914" uniqueCount="902">
   <si>
     <t>SKU</t>
   </si>
@@ -1551,6 +1551,1259 @@
   <si>
     <t>HP-80-MRI</t>
   </si>
+  <si>
+    <t>3001-00170-01</t>
+  </si>
+  <si>
+    <t>50ml cassette Cerulean</t>
+  </si>
+  <si>
+    <t>AR2L-050</t>
+  </si>
+  <si>
+    <t>3001-00330-01</t>
+  </si>
+  <si>
+    <t>50ml cassette Transparent</t>
+  </si>
+  <si>
+    <t>3001-00350-01</t>
+  </si>
+  <si>
+    <t>50ml cassette Yellow</t>
+  </si>
+  <si>
+    <t>3001-00370-01</t>
+  </si>
+  <si>
+    <t>50ml cassette Grey</t>
+  </si>
+  <si>
+    <t>3001-00171-01</t>
+  </si>
+  <si>
+    <t>100ml cassette Cerulean</t>
+  </si>
+  <si>
+    <t>AR2L-100</t>
+  </si>
+  <si>
+    <t>3001-00331-01</t>
+  </si>
+  <si>
+    <t>100ml cassette Transparent</t>
+  </si>
+  <si>
+    <t>3001-00351-01</t>
+  </si>
+  <si>
+    <t>100ml cassette Yellow</t>
+  </si>
+  <si>
+    <t>3001-00371-01</t>
+  </si>
+  <si>
+    <t>100ml cassette Grey</t>
+  </si>
+  <si>
+    <t>3001-00172-01</t>
+  </si>
+  <si>
+    <t>150ml cassette Cerulean</t>
+  </si>
+  <si>
+    <t>AR2L-150</t>
+  </si>
+  <si>
+    <t>3001-00332-01</t>
+  </si>
+  <si>
+    <t>150ml cassette Transparent</t>
+  </si>
+  <si>
+    <t>3001-00352-01</t>
+  </si>
+  <si>
+    <t>150ml cassette Yellow</t>
+  </si>
+  <si>
+    <t>3001-00372-01</t>
+  </si>
+  <si>
+    <t>150ml cassette Grey</t>
+  </si>
+  <si>
+    <t>3001-00173-01</t>
+  </si>
+  <si>
+    <t>AR2L-300</t>
+  </si>
+  <si>
+    <t>300ml cassette Cerulean</t>
+  </si>
+  <si>
+    <t>3001-00333-01</t>
+  </si>
+  <si>
+    <t>300ml cassette Transparent</t>
+  </si>
+  <si>
+    <t>3001-00353-01</t>
+  </si>
+  <si>
+    <t>300ml cassette Yellow</t>
+  </si>
+  <si>
+    <t>3001-00373-01</t>
+  </si>
+  <si>
+    <t>300ml cassette Grey</t>
+  </si>
+  <si>
+    <t>3001-00174-01</t>
+  </si>
+  <si>
+    <t>500ml cassette Cerulean</t>
+  </si>
+  <si>
+    <t>AR2L-500</t>
+  </si>
+  <si>
+    <t>3001-00334-01</t>
+  </si>
+  <si>
+    <t>500ml cassette Transparent</t>
+  </si>
+  <si>
+    <t>3001-00354-01</t>
+  </si>
+  <si>
+    <t>500ml cassette Yellow</t>
+  </si>
+  <si>
+    <t>3001-00374-01</t>
+  </si>
+  <si>
+    <t>500ml cassette Grey</t>
+  </si>
+  <si>
+    <t>3001-00175-01</t>
+  </si>
+  <si>
+    <t>3001-00335-01</t>
+  </si>
+  <si>
+    <t>3001-00355-01</t>
+  </si>
+  <si>
+    <t>3001-00375-01</t>
+  </si>
+  <si>
+    <t>3001-00176-01</t>
+  </si>
+  <si>
+    <t>AR2N-100</t>
+  </si>
+  <si>
+    <t>3001-00336-01</t>
+  </si>
+  <si>
+    <t>3001-00356-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">100ml cassette Yellow </t>
+  </si>
+  <si>
+    <t>3001-00376-01</t>
+  </si>
+  <si>
+    <t>3001-00177-01</t>
+  </si>
+  <si>
+    <t>AR2N-150</t>
+  </si>
+  <si>
+    <t>3001-00337-01</t>
+  </si>
+  <si>
+    <t>3001-00357-01</t>
+  </si>
+  <si>
+    <t>3001-00377-01</t>
+  </si>
+  <si>
+    <t>3001-00178-01</t>
+  </si>
+  <si>
+    <t>AR2N-300</t>
+  </si>
+  <si>
+    <t>3001-00338-01</t>
+  </si>
+  <si>
+    <t>3001-00358-01</t>
+  </si>
+  <si>
+    <t>3001-00378-01</t>
+  </si>
+  <si>
+    <t>3001-00179-01</t>
+  </si>
+  <si>
+    <t>3001-00339-01</t>
+  </si>
+  <si>
+    <t>3001-00359-01</t>
+  </si>
+  <si>
+    <t>3001-00379-01</t>
+  </si>
+  <si>
+    <t>AR2N-500</t>
+  </si>
+  <si>
+    <t>3001-00180-01</t>
+  </si>
+  <si>
+    <t>3001-00340-01</t>
+  </si>
+  <si>
+    <t>3001-00360-01</t>
+  </si>
+  <si>
+    <t>3001-00380-01</t>
+  </si>
+  <si>
+    <t>AR2L-050E</t>
+  </si>
+  <si>
+    <t>3001-00181-01</t>
+  </si>
+  <si>
+    <t>3001-00341-01</t>
+  </si>
+  <si>
+    <t>3001-00361-01</t>
+  </si>
+  <si>
+    <t>3001-00381-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 100ml cassette Cerulean</t>
+  </si>
+  <si>
+    <t>AR2L-100E</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 100ml cassette Transparent</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 100ml cassette Yellow</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 100ml cassette Grey</t>
+  </si>
+  <si>
+    <t>3001-00182-01</t>
+  </si>
+  <si>
+    <t>3001-00342-01</t>
+  </si>
+  <si>
+    <t>3001-00362-01</t>
+  </si>
+  <si>
+    <t>3001-00382-01</t>
+  </si>
+  <si>
+    <t>AR2L-150E</t>
+  </si>
+  <si>
+    <t>3001-00183-01</t>
+  </si>
+  <si>
+    <t>3001-00343-01</t>
+  </si>
+  <si>
+    <t>3001-00363-01</t>
+  </si>
+  <si>
+    <t>3001-00383-01</t>
+  </si>
+  <si>
+    <t>AR2L-300E</t>
+  </si>
+  <si>
+    <t>3001-00184-01</t>
+  </si>
+  <si>
+    <t>3001-00344-01</t>
+  </si>
+  <si>
+    <t>3001-00364-01</t>
+  </si>
+  <si>
+    <t>3001-00384-01</t>
+  </si>
+  <si>
+    <t>AR2L-500E</t>
+  </si>
+  <si>
+    <t>3001-00185-01</t>
+  </si>
+  <si>
+    <t>3001-00345-01</t>
+  </si>
+  <si>
+    <t>3001-00365-01</t>
+  </si>
+  <si>
+    <t>3001-00385-01</t>
+  </si>
+  <si>
+    <t>AR2N-050E</t>
+  </si>
+  <si>
+    <t>3001-00186-01</t>
+  </si>
+  <si>
+    <t>3001-00346-01</t>
+  </si>
+  <si>
+    <t>3001-00366-01</t>
+  </si>
+  <si>
+    <t>3001-00386-01</t>
+  </si>
+  <si>
+    <t>AR2N-100E</t>
+  </si>
+  <si>
+    <t>3001-00187-01</t>
+  </si>
+  <si>
+    <t>3001-00347-01</t>
+  </si>
+  <si>
+    <t>3001-00367-01</t>
+  </si>
+  <si>
+    <t>3001-00387-01</t>
+  </si>
+  <si>
+    <t>AR2N-150E</t>
+  </si>
+  <si>
+    <t>3001-00188-01</t>
+  </si>
+  <si>
+    <t>3001-00348-01</t>
+  </si>
+  <si>
+    <t>3001-00368-01</t>
+  </si>
+  <si>
+    <t>3001-00388-01</t>
+  </si>
+  <si>
+    <t>AR2N-300E</t>
+  </si>
+  <si>
+    <t>3001-00189-01</t>
+  </si>
+  <si>
+    <t>3001-00349-01</t>
+  </si>
+  <si>
+    <t>3001-00369-01</t>
+  </si>
+  <si>
+    <t>3001-00389-01</t>
+  </si>
+  <si>
+    <t>AR2N-500E</t>
+  </si>
+  <si>
+    <t>3001-00190-01</t>
+  </si>
+  <si>
+    <t>3001-00390-01</t>
+  </si>
+  <si>
+    <t>3001-00430-01</t>
+  </si>
+  <si>
+    <t>3001-00470-01</t>
+  </si>
+  <si>
+    <t>AR3L-050</t>
+  </si>
+  <si>
+    <t>3001-00191-01</t>
+  </si>
+  <si>
+    <t>3001-00391-01</t>
+  </si>
+  <si>
+    <t>3001-00431-01</t>
+  </si>
+  <si>
+    <t>3001-00471-01</t>
+  </si>
+  <si>
+    <t>AR3L-100</t>
+  </si>
+  <si>
+    <t>3001-00192-01</t>
+  </si>
+  <si>
+    <t>3001-00392-01</t>
+  </si>
+  <si>
+    <t>3001-00432-01</t>
+  </si>
+  <si>
+    <t>3001-00472-01</t>
+  </si>
+  <si>
+    <t>AR3L-150</t>
+  </si>
+  <si>
+    <t>3001-00193-01</t>
+  </si>
+  <si>
+    <t>3001-00393-01</t>
+  </si>
+  <si>
+    <t>3001-00433-01</t>
+  </si>
+  <si>
+    <t>3001-00473-01</t>
+  </si>
+  <si>
+    <t>AR3L-300</t>
+  </si>
+  <si>
+    <t>3001-00194-01</t>
+  </si>
+  <si>
+    <t>3001-00394-01</t>
+  </si>
+  <si>
+    <t>3001-00434-01</t>
+  </si>
+  <si>
+    <t>3001-00474-01</t>
+  </si>
+  <si>
+    <t>AR3L-500</t>
+  </si>
+  <si>
+    <t>3001-00195-01</t>
+  </si>
+  <si>
+    <t>3001-00395-01</t>
+  </si>
+  <si>
+    <t>3001-00435-01</t>
+  </si>
+  <si>
+    <t>3001-00475-01</t>
+  </si>
+  <si>
+    <t>AR3N-050</t>
+  </si>
+  <si>
+    <t>3001-00196-01</t>
+  </si>
+  <si>
+    <t>3001-00396-01</t>
+  </si>
+  <si>
+    <t>3001-00436-01</t>
+  </si>
+  <si>
+    <t>3001-00476-01</t>
+  </si>
+  <si>
+    <t>AR3N-100</t>
+  </si>
+  <si>
+    <t>3001-00197-01</t>
+  </si>
+  <si>
+    <t>3001-00397-01</t>
+  </si>
+  <si>
+    <t>3001-00437-01</t>
+  </si>
+  <si>
+    <t>3001-00477-01</t>
+  </si>
+  <si>
+    <t>AR3N-150</t>
+  </si>
+  <si>
+    <t>3001-00198-01</t>
+  </si>
+  <si>
+    <t>3001-00398-01</t>
+  </si>
+  <si>
+    <t>3001-00438-01</t>
+  </si>
+  <si>
+    <t>3001-00478-01</t>
+  </si>
+  <si>
+    <t>AR3N-300</t>
+  </si>
+  <si>
+    <t>3001-00199-01</t>
+  </si>
+  <si>
+    <t>3001-00399-01</t>
+  </si>
+  <si>
+    <t>3001-00439-01</t>
+  </si>
+  <si>
+    <t>3001-00479-01</t>
+  </si>
+  <si>
+    <t>AR3N-500</t>
+  </si>
+  <si>
+    <t>3001-00200-01</t>
+  </si>
+  <si>
+    <t>3001-00400-01</t>
+  </si>
+  <si>
+    <t>3001-00440-01</t>
+  </si>
+  <si>
+    <t>3001-00480-01</t>
+  </si>
+  <si>
+    <t>AR3L-050E</t>
+  </si>
+  <si>
+    <t>50ml  cassette Cerulean</t>
+  </si>
+  <si>
+    <t>50ml  cassette Transparent</t>
+  </si>
+  <si>
+    <t>50ml  cassette Yellow</t>
+  </si>
+  <si>
+    <t>50ml  cassette Grey</t>
+  </si>
+  <si>
+    <t>3001-00201-01</t>
+  </si>
+  <si>
+    <t>3001-00401-01</t>
+  </si>
+  <si>
+    <t>3001-00441-01</t>
+  </si>
+  <si>
+    <t>3001-00481-01</t>
+  </si>
+  <si>
+    <t>AR3L-100E</t>
+  </si>
+  <si>
+    <t>3001-00202-01</t>
+  </si>
+  <si>
+    <t>3001-00402-01</t>
+  </si>
+  <si>
+    <t>3001-00442-01</t>
+  </si>
+  <si>
+    <t>3001-00482-01</t>
+  </si>
+  <si>
+    <t>AR3L-150E</t>
+  </si>
+  <si>
+    <t>3001-00203-01</t>
+  </si>
+  <si>
+    <t>3001-00403-01</t>
+  </si>
+  <si>
+    <t>3001-00443-01</t>
+  </si>
+  <si>
+    <t>3001-00483-01</t>
+  </si>
+  <si>
+    <t>AR3L-300E</t>
+  </si>
+  <si>
+    <t>3001-00204-01</t>
+  </si>
+  <si>
+    <t>3001-00404-01</t>
+  </si>
+  <si>
+    <t>3001-00444-01</t>
+  </si>
+  <si>
+    <t>3001-00484-01</t>
+  </si>
+  <si>
+    <t>AR3L-500E</t>
+  </si>
+  <si>
+    <t>3001-00205-01</t>
+  </si>
+  <si>
+    <t>3001-00405-01</t>
+  </si>
+  <si>
+    <t>3001-00445-01</t>
+  </si>
+  <si>
+    <t>3001-00485-01</t>
+  </si>
+  <si>
+    <t>AR3N-050E</t>
+  </si>
+  <si>
+    <t>3001-00206-01</t>
+  </si>
+  <si>
+    <t>3001-00406-01</t>
+  </si>
+  <si>
+    <t>3001-00446-01</t>
+  </si>
+  <si>
+    <t>3001-00486-01</t>
+  </si>
+  <si>
+    <t>AR3N-100E</t>
+  </si>
+  <si>
+    <t>3001-00207-01</t>
+  </si>
+  <si>
+    <t>3001-00407-01</t>
+  </si>
+  <si>
+    <t>3001-00447-01</t>
+  </si>
+  <si>
+    <t>3001-00487-01</t>
+  </si>
+  <si>
+    <t>AR3N-150E</t>
+  </si>
+  <si>
+    <t>3001-00208-01</t>
+  </si>
+  <si>
+    <t>3001-00408-01</t>
+  </si>
+  <si>
+    <t>3001-00448-01</t>
+  </si>
+  <si>
+    <t>3001-00488-01</t>
+  </si>
+  <si>
+    <t>AR3N-300E</t>
+  </si>
+  <si>
+    <t>3001-00209-01</t>
+  </si>
+  <si>
+    <t>3001-00409-01</t>
+  </si>
+  <si>
+    <t>3001-00449-01</t>
+  </si>
+  <si>
+    <t>3001-00489-01</t>
+  </si>
+  <si>
+    <t>AR3N-500E</t>
+  </si>
+  <si>
+    <t>3001-00210-01</t>
+  </si>
+  <si>
+    <t>3001-00211-01</t>
+  </si>
+  <si>
+    <t>3001-00212-01</t>
+  </si>
+  <si>
+    <t>3001-00213-01</t>
+  </si>
+  <si>
+    <t>3001-00214-01</t>
+  </si>
+  <si>
+    <t>3001-00215-01</t>
+  </si>
+  <si>
+    <t>3001-00216-01</t>
+  </si>
+  <si>
+    <t>3001-00217-01</t>
+  </si>
+  <si>
+    <t>3001-00218-01</t>
+  </si>
+  <si>
+    <t>3001-00219-01</t>
+  </si>
+  <si>
+    <t>3001-00220-01</t>
+  </si>
+  <si>
+    <t>3001-00221-01</t>
+  </si>
+  <si>
+    <t>3001-00222-01</t>
+  </si>
+  <si>
+    <t>3001-00223-01</t>
+  </si>
+  <si>
+    <t>3001-00224-01</t>
+  </si>
+  <si>
+    <t>3001-00225-01</t>
+  </si>
+  <si>
+    <t>3001-00226-01</t>
+  </si>
+  <si>
+    <t>3001-00227-01</t>
+  </si>
+  <si>
+    <t>3001-00228-01</t>
+  </si>
+  <si>
+    <t>3001-00229-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">50ml orange cassette </t>
+  </si>
+  <si>
+    <t xml:space="preserve">100ml orange cassette </t>
+  </si>
+  <si>
+    <t xml:space="preserve">150ml orange cassette </t>
+  </si>
+  <si>
+    <t xml:space="preserve">300ml orange cassette </t>
+  </si>
+  <si>
+    <t xml:space="preserve">500ml orange cassette </t>
+  </si>
+  <si>
+    <t>AR4L-050</t>
+  </si>
+  <si>
+    <t>AR4L-100</t>
+  </si>
+  <si>
+    <t>AR4L-150</t>
+  </si>
+  <si>
+    <t>AR4L-300</t>
+  </si>
+  <si>
+    <t>AR4L-500</t>
+  </si>
+  <si>
+    <t>AR4N-050</t>
+  </si>
+  <si>
+    <t>AR4N-100</t>
+  </si>
+  <si>
+    <t>AR4N-150</t>
+  </si>
+  <si>
+    <t>AR4N-300</t>
+  </si>
+  <si>
+    <t>AR4N-500</t>
+  </si>
+  <si>
+    <t>AR4L-050E</t>
+  </si>
+  <si>
+    <t>AR4L-100E</t>
+  </si>
+  <si>
+    <t>AR4L-150E</t>
+  </si>
+  <si>
+    <t>AR4L-300E</t>
+  </si>
+  <si>
+    <t>AR4L-500E</t>
+  </si>
+  <si>
+    <t>AR4N-050E</t>
+  </si>
+  <si>
+    <t>AR4N-100E</t>
+  </si>
+  <si>
+    <t>AR4N-150E</t>
+  </si>
+  <si>
+    <t>AR4N-300E</t>
+  </si>
+  <si>
+    <t>AR4N-500E</t>
+  </si>
+  <si>
+    <t>IP21B-CTO-01</t>
+  </si>
+  <si>
+    <t>IP21B-CTO-02</t>
+  </si>
+  <si>
+    <t>IP21B-CTO-03</t>
+  </si>
+  <si>
+    <t>IP21B-CTO-04</t>
+  </si>
+  <si>
+    <t>IP21B-CTO-05</t>
+  </si>
+  <si>
+    <t>IP21B-CTO-06</t>
+  </si>
+  <si>
+    <t>1458-00113-01</t>
+  </si>
+  <si>
+    <t>1299-01266-01</t>
+  </si>
+  <si>
+    <t>1408-00421-01</t>
+  </si>
+  <si>
+    <t>1408-00443-01</t>
+  </si>
+  <si>
+    <t>1408-00452-01</t>
+  </si>
+  <si>
+    <t>1408-00453-01</t>
+  </si>
+  <si>
+    <t>IP27C-CTO-02</t>
+  </si>
+  <si>
+    <t>IP27C-CTO-03</t>
+  </si>
+  <si>
+    <t>1405-00299-01</t>
+  </si>
+  <si>
+    <t>1199-00076-01</t>
+  </si>
+  <si>
+    <t>1457-00018-01</t>
+  </si>
+  <si>
+    <t>1403-00074-01</t>
+  </si>
+  <si>
+    <t>1464-00022-01</t>
+  </si>
+  <si>
+    <t>3.5-inch touscreen ambulatory pump，4xAA Battery，without WIFI，without NB-IoT,with Charge Adapter,
+PCA Controller（Choose from 0.3m or 2m)</t>
+  </si>
+  <si>
+    <t>3.5-inch touscreen ambulatory pump，Lithum Battery，without WIFI，without NB-IoT,with Charge Adapter,
+PCA Controller（Choose from 0.3m or 2m)</t>
+  </si>
+  <si>
+    <t>2.4-inch touscreen ambulatory pump，2xAA Battery，without WIFI，with NB-IoT,
+PCA Controller（Choose from 0.3m or 2m)</t>
+  </si>
+  <si>
+    <t>2.4-inch touscreen ambulatory pump，2xAA Battery，without WIFI，without NB-IoT,
+PCA Controller（Choose from 0.3m or 2m)</t>
+  </si>
+  <si>
+    <t>Optional module for prescription and patient ID scanning.
+Must place order together with P3,P6,P9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Available for Elfensor P series                                                            Must to place order together with Pumps                                               </t>
+  </si>
+  <si>
+    <t>Resuable backpack (380*230*150mm, 420D washed nylon)</t>
+  </si>
+  <si>
+    <t>Resuable backpack (420*280*150mm, 420D washed nylon)</t>
+  </si>
+  <si>
+    <t>Battery for P6 and P9</t>
+  </si>
+  <si>
+    <t>For P6 and P9</t>
+  </si>
+  <si>
+    <t>compatible with 50ml/100ml/150ml Cassette, EVA（Small Size）</t>
+  </si>
+  <si>
+    <t>compatible with 300ml/500ml Cassette, EVA（Large Size）</t>
+  </si>
+  <si>
+    <t>compatible with 50ml/100ml/150ml Cassette, Nylon（Small Size）</t>
+  </si>
+  <si>
+    <t>compatible with 300ml/500ml Cassette, Nylon（Large Size）</t>
+  </si>
+  <si>
+    <t>Elfensor P3</t>
+  </si>
+  <si>
+    <t>Elfensor P6</t>
+  </si>
+  <si>
+    <t>Elfensor P9</t>
+  </si>
+  <si>
+    <t>Elfensor P2</t>
+  </si>
+  <si>
+    <t>Elfensor P5</t>
+  </si>
+  <si>
+    <t>Elfensor P8</t>
+  </si>
+  <si>
+    <t>Scanner Module</t>
+  </si>
+  <si>
+    <t>WIFI module</t>
+  </si>
+  <si>
+    <t>Single Use Bag</t>
+  </si>
+  <si>
+    <t>Reusable Bag</t>
+  </si>
+  <si>
+    <t>PCA Controller wristband</t>
+  </si>
+  <si>
+    <t>Clamp</t>
+  </si>
+  <si>
+    <t>Lithium Battery</t>
+  </si>
+  <si>
+    <t>Pump key</t>
+  </si>
+  <si>
+    <t>USA charge adapter</t>
+  </si>
+  <si>
+    <t>Elfensor P accessory</t>
+  </si>
+  <si>
+    <t>1202-00017-01</t>
+  </si>
+  <si>
+    <t>1404-00105-01</t>
+  </si>
+  <si>
+    <t>1202-00003-01</t>
+  </si>
+  <si>
+    <t>HP30C-CTO-01</t>
+  </si>
+  <si>
+    <t>HP30C-CTO-02</t>
+  </si>
+  <si>
+    <t>Workstation pole clamp</t>
+  </si>
+  <si>
+    <t>HP series pumps carry handle</t>
+  </si>
+  <si>
+    <t>HP series pumps clamp</t>
+  </si>
+  <si>
+    <t>HP series pumps accessories kit, including 1 HP pump clamp,1 HP-81 handle and 1 power cable</t>
+  </si>
+  <si>
+    <t>MP series Accessories Kit, including 1 MP pole clamp,1 MP-81 handle and 1 power cable</t>
+  </si>
+  <si>
+    <t>HP Station Clamp</t>
+  </si>
+  <si>
+    <t>HP-81 Handle</t>
+  </si>
+  <si>
+    <t>HP Pump Pole Clamp</t>
+  </si>
+  <si>
+    <t>HP Pump Accessories Kit</t>
+  </si>
+  <si>
+    <t>MP Series Accessories Kit</t>
+  </si>
+  <si>
+    <t>1202-00353-01</t>
+  </si>
+  <si>
+    <t>1404-00504-01</t>
+  </si>
+  <si>
+    <t>1202-00161-01</t>
+  </si>
+  <si>
+    <t>1202-00161-02</t>
+  </si>
+  <si>
+    <t>1199-00052-02</t>
+  </si>
+  <si>
+    <t>1199-00051-01</t>
+  </si>
+  <si>
+    <t>1202-01112-01</t>
+  </si>
+  <si>
+    <t>1203-00002-01</t>
+  </si>
+  <si>
+    <t>1199-00054-01</t>
+  </si>
+  <si>
+    <t>1419-00086-01</t>
+  </si>
+  <si>
+    <t>1199-00125-01</t>
+  </si>
+  <si>
+    <t>1199-00056-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1419-00125-01  </t>
+  </si>
+  <si>
+    <t>1419-00038-01</t>
+  </si>
+  <si>
+    <t>1199-00002-02</t>
+  </si>
+  <si>
+    <t>1199-00003-02</t>
+  </si>
+  <si>
+    <t>1199-00001-02</t>
+  </si>
+  <si>
+    <t>1202-00194-01</t>
+  </si>
+  <si>
+    <t>1202-00038-01</t>
+  </si>
+  <si>
+    <t>Drive head protector that can lock the 50ml syringe on the pump.</t>
+  </si>
+  <si>
+    <t>To unlock the HP-30 PCA protector.</t>
+  </si>
+  <si>
+    <t>PCA Controller
+mini USB</t>
+  </si>
+  <si>
+    <t>PCA Controller
+Aviation joint</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Monitoring drop of fluid
+Aviation joint</t>
+  </si>
+  <si>
+    <t>Model:MP-3
+Monitoring drop of fluid</t>
+  </si>
+  <si>
+    <t>Bar Code Scanner for HP</t>
+  </si>
+  <si>
+    <t>Model: DS4208
+Bar Code Scanner for MP</t>
+  </si>
+  <si>
+    <t>Model: MP-2
+Nurse call for MP</t>
+  </si>
+  <si>
+    <t>Stylus pen will spring wire</t>
+  </si>
+  <si>
+    <t>IV pole trolley, star base with 4 legs and Medcaptain branded shelf. Basic assembly required. Maximum weight bearing capacity 100kg, suitable for HP-80 eight channels and above. Trolley casters 530x480mm</t>
+  </si>
+  <si>
+    <t>Trolley for MS-100
+IV pole trolley, star base with 4 legs and detachable metal basket and Medcaptain branded shelf. Basic assembly required. 
+Maximum weight bearing capacity 100kg. Trolley casters 530x480mm, bearing capacity of single hook is 2kg
+*Carrying basket is an accessory</t>
+  </si>
+  <si>
+    <t>the detachable metal basket for HP-100</t>
+  </si>
+  <si>
+    <t>IV pole trolley, star base with 5 legs and Medcaptain branded shelf. Basic assembly required. Maximum weight bearing capacity 50kg, suitable for HP-80 four-eight channels. Trolley casters 670x670mm</t>
+  </si>
+  <si>
+    <t>IV pole trolley, star base with 5 legs and Medcaptain branded shelf. Basic assembly required.Maximum weight bearing capacity 30 kg, suitable for HP-80 four channels. Trolley casters 760x760mm.</t>
+  </si>
+  <si>
+    <t>IV pole trolley, star base with 5 legs and push handle. Basic assembly required. Maximum weight bearing capacity 5 kg. Suitable for stand along pump. Trolley casters: 710 x710mm</t>
+  </si>
+  <si>
+    <t>MP series carry handle</t>
+  </si>
+  <si>
+    <t>For SYS-6010,SYS-50,SYS-52&amp;SYS-70</t>
+  </si>
+  <si>
+    <t>HP-30 PCA protector</t>
+  </si>
+  <si>
+    <t>HP-30 PCA protector key</t>
+  </si>
+  <si>
+    <t>PCA Controller mini USB</t>
+  </si>
+  <si>
+    <t>PCA Controller 
+Aviation joint</t>
+  </si>
+  <si>
+    <t>HP Drop sensor
+Aviation joint</t>
+  </si>
+  <si>
+    <t>MP/SYS Drop sensor</t>
+  </si>
+  <si>
+    <t>HP Scanner</t>
+  </si>
+  <si>
+    <t>MP/SYS Scanner</t>
+  </si>
+  <si>
+    <t>MP/SYS Nurse Call</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Touch screen stylus pen </t>
+  </si>
+  <si>
+    <t>HP-100</t>
+  </si>
+  <si>
+    <t>IP-110</t>
+  </si>
+  <si>
+    <t>HP-100 basket</t>
+  </si>
+  <si>
+    <t>MP-110/MP-100 basket</t>
+  </si>
+  <si>
+    <t>MP- 100</t>
+  </si>
+  <si>
+    <t>MP-110</t>
+  </si>
+  <si>
+    <t>MP-120S</t>
+  </si>
+  <si>
+    <t>MP-81</t>
+  </si>
+  <si>
+    <t>MP Pole Clamp</t>
+  </si>
+  <si>
+    <t>1408-00194-01</t>
+  </si>
+  <si>
+    <t>1408-00196-01</t>
+  </si>
+  <si>
+    <t>Travelling case for HP-80 four channels working station and its accessories. Without pump and accessory. Four castors, Size: 600x420x270mm</t>
+  </si>
+  <si>
+    <t>Travelling case for MP-80 three channels working station and its accessories. Without pump and accessory. Four castors. Size: 600x420x270mm</t>
+  </si>
+  <si>
+    <t>HP-80 travel kits</t>
+  </si>
+  <si>
+    <t>MP-80 travel kits</t>
+  </si>
+  <si>
+    <t>1199-00055-01</t>
+  </si>
+  <si>
+    <t>1203-00031-01</t>
+  </si>
+  <si>
+    <t>Heater only
+Heat insulation and safe voltage</t>
+  </si>
+  <si>
+    <t>EP-60 Silicone tube heater</t>
+  </si>
+  <si>
+    <t>Heater</t>
+  </si>
+  <si>
+    <t>DL-SYS5070-OPT</t>
+  </si>
+  <si>
+    <t>Drug Library option of SYS-50/52/70</t>
+  </si>
+  <si>
+    <t>Drug Library</t>
+  </si>
+  <si>
+    <t>WI-SYS-seires</t>
+  </si>
+  <si>
+    <t>Available for HP series, MP series, SYS seires, EP series</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PCA: software de función </t>
+  </si>
+  <si>
+    <t>PCA Package: PCA function software, One controller, One drive head protector, Two keys</t>
+  </si>
+  <si>
+    <t>PCA Accessory kit</t>
+  </si>
 </sst>
 </file>
 
@@ -1559,7 +2812,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1590,6 +2843,12 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1660,9 +2919,6 @@
   </cellStyles>
   <dxfs count="5">
     <dxf>
-      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
-    </dxf>
-    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
@@ -1673,15 +2929,18 @@
       </fill>
     </dxf>
     <dxf>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1696,22 +2955,76 @@
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>396</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>400</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="AutoShape 2" descr="A brief history of WiFi, the possibilities and prospects of wireless data  transmission in the near future - Prog.World">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9E4EDCFF-B374-4BAF-AB58-EEECEC7B702C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5686425" y="1504950"/>
+          <a:ext cx="304800" cy="854075"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="tblCatalogo" displayName="tblCatalogo" ref="A1:K198" headerRowCellStyle="Normal" dataCellStyle="Normal" totalsRowCellStyle="Normal">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="tblCatalogo" displayName="tblCatalogo" ref="A1:K428" headerRowCellStyle="Normal" dataCellStyle="Normal" totalsRowCellStyle="Normal">
+  <autoFilter ref="A1:K428" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K197">
-    <sortCondition sortBy="fontColor" ref="A1:A197" dxfId="3"/>
+    <sortCondition sortBy="fontColor" ref="A1:A197" dxfId="4"/>
   </sortState>
   <tableColumns count="11">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="SKU" dataCellStyle="Normal"/>
-    <tableColumn id="11" xr3:uid="{6BD9AB8E-44C5-4991-9556-F11C89C02E58}" name="Costo_Base" dataDxfId="2"/>
+    <tableColumn id="11" xr3:uid="{6BD9AB8E-44C5-4991-9556-F11C89C02E58}" name="Costo_Base" dataDxfId="3"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Descripción" dataCellStyle="Normal"/>
     <tableColumn id="8" xr3:uid="{9812E481-8413-4CC9-9462-8DAA05822A4E}" name="Proveedor" dataCellStyle="Normal"/>
-    <tableColumn id="9" xr3:uid="{28F8971B-CE55-4F4D-85A7-A32BD43A1134}" name="Model" dataDxfId="4" dataCellStyle="Normal"/>
+    <tableColumn id="9" xr3:uid="{28F8971B-CE55-4F4D-85A7-A32BD43A1134}" name="Model" dataDxfId="2" dataCellStyle="Normal"/>
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Origen" dataCellStyle="Normal"/>
     <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Categoría" dataCellStyle="Normal"/>
     <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Unidad" dataCellStyle="Normal"/>
     <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Moneda_Base" dataCellStyle="Normal"/>
-    <tableColumn id="12" xr3:uid="{571B36F0-1D60-4F76-BD3A-302925AFA610}" name="Fecha_Actualización" dataDxfId="0"/>
+    <tableColumn id="12" xr3:uid="{571B36F0-1D60-4F76-BD3A-302925AFA610}" name="Fecha_Actualización" dataDxfId="1"/>
     <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Activo (Sí/No)" dataCellStyle="Normal"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -2032,11 +3345,11 @@
   <sheetPr>
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
-  <dimension ref="A1:L198"/>
+  <dimension ref="A1:L428"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D1" sqref="D1"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A404" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F432" sqref="F432"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -8549,6 +9862,9 @@
       <c r="D186" t="s">
         <v>74</v>
       </c>
+      <c r="E186" t="s">
+        <v>435</v>
+      </c>
       <c r="F186" t="s">
         <v>14</v>
       </c>
@@ -8988,25 +10304,8077 @@
         <v>77</v>
       </c>
     </row>
+    <row r="199" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A199" s="12" t="s">
+        <v>490</v>
+      </c>
+      <c r="B199" s="13">
+        <v>10</v>
+      </c>
+      <c r="C199" s="12" t="s">
+        <v>491</v>
+      </c>
+      <c r="D199" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="E199" s="14" t="s">
+        <v>492</v>
+      </c>
+      <c r="F199" t="s">
+        <v>14</v>
+      </c>
+      <c r="G199" t="s">
+        <v>76</v>
+      </c>
+      <c r="H199" t="s">
+        <v>16</v>
+      </c>
+      <c r="I199" t="s">
+        <v>17</v>
+      </c>
+      <c r="J199" s="6">
+        <v>46030</v>
+      </c>
+      <c r="K199" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="200" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A200" s="12" t="s">
+        <v>493</v>
+      </c>
+      <c r="B200" s="13">
+        <v>10</v>
+      </c>
+      <c r="C200" s="12" t="s">
+        <v>494</v>
+      </c>
+      <c r="D200" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="E200" s="14" t="s">
+        <v>492</v>
+      </c>
+      <c r="F200" t="s">
+        <v>14</v>
+      </c>
+      <c r="G200" t="s">
+        <v>76</v>
+      </c>
+      <c r="H200" t="s">
+        <v>16</v>
+      </c>
+      <c r="I200" t="s">
+        <v>17</v>
+      </c>
+      <c r="J200" s="6">
+        <v>46030</v>
+      </c>
+      <c r="K200" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="201" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A201" s="12" t="s">
+        <v>495</v>
+      </c>
+      <c r="B201" s="13">
+        <v>10</v>
+      </c>
+      <c r="C201" s="12" t="s">
+        <v>496</v>
+      </c>
+      <c r="D201" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="E201" s="14" t="s">
+        <v>492</v>
+      </c>
+      <c r="F201" t="s">
+        <v>14</v>
+      </c>
+      <c r="G201" t="s">
+        <v>76</v>
+      </c>
+      <c r="H201" t="s">
+        <v>16</v>
+      </c>
+      <c r="I201" t="s">
+        <v>17</v>
+      </c>
+      <c r="J201" s="6">
+        <v>46030</v>
+      </c>
+      <c r="K201" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="202" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A202" s="12" t="s">
+        <v>497</v>
+      </c>
+      <c r="B202" s="13">
+        <v>10</v>
+      </c>
+      <c r="C202" s="12" t="s">
+        <v>498</v>
+      </c>
+      <c r="D202" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="E202" s="14" t="s">
+        <v>492</v>
+      </c>
+      <c r="F202" t="s">
+        <v>14</v>
+      </c>
+      <c r="G202" t="s">
+        <v>76</v>
+      </c>
+      <c r="H202" t="s">
+        <v>16</v>
+      </c>
+      <c r="I202" t="s">
+        <v>17</v>
+      </c>
+      <c r="J202" s="6">
+        <v>46030</v>
+      </c>
+      <c r="K202" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="203" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A203" s="12" t="s">
+        <v>499</v>
+      </c>
+      <c r="B203" s="13">
+        <v>11</v>
+      </c>
+      <c r="C203" s="12" t="s">
+        <v>500</v>
+      </c>
+      <c r="D203" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="E203" s="14" t="s">
+        <v>501</v>
+      </c>
+      <c r="F203" t="s">
+        <v>14</v>
+      </c>
+      <c r="G203" t="s">
+        <v>76</v>
+      </c>
+      <c r="H203" t="s">
+        <v>16</v>
+      </c>
+      <c r="I203" t="s">
+        <v>17</v>
+      </c>
+      <c r="J203" s="6">
+        <v>46030</v>
+      </c>
+      <c r="K203" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="204" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A204" s="12" t="s">
+        <v>502</v>
+      </c>
+      <c r="B204" s="13">
+        <v>11</v>
+      </c>
+      <c r="C204" s="12" t="s">
+        <v>503</v>
+      </c>
+      <c r="D204" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="E204" s="14" t="s">
+        <v>501</v>
+      </c>
+      <c r="F204" t="s">
+        <v>14</v>
+      </c>
+      <c r="G204" t="s">
+        <v>76</v>
+      </c>
+      <c r="H204" t="s">
+        <v>16</v>
+      </c>
+      <c r="I204" t="s">
+        <v>17</v>
+      </c>
+      <c r="J204" s="6">
+        <v>46030</v>
+      </c>
+      <c r="K204" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="205" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A205" s="12" t="s">
+        <v>504</v>
+      </c>
+      <c r="B205" s="13">
+        <v>11</v>
+      </c>
+      <c r="C205" s="12" t="s">
+        <v>505</v>
+      </c>
+      <c r="D205" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="E205" s="14" t="s">
+        <v>501</v>
+      </c>
+      <c r="F205" t="s">
+        <v>14</v>
+      </c>
+      <c r="G205" t="s">
+        <v>76</v>
+      </c>
+      <c r="H205" t="s">
+        <v>16</v>
+      </c>
+      <c r="I205" t="s">
+        <v>17</v>
+      </c>
+      <c r="J205" s="6">
+        <v>46030</v>
+      </c>
+      <c r="K205" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="206" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A206" s="12" t="s">
+        <v>506</v>
+      </c>
+      <c r="B206" s="13">
+        <v>11</v>
+      </c>
+      <c r="C206" s="12" t="s">
+        <v>507</v>
+      </c>
+      <c r="D206" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="E206" s="14" t="s">
+        <v>501</v>
+      </c>
+      <c r="F206" t="s">
+        <v>14</v>
+      </c>
+      <c r="G206" t="s">
+        <v>76</v>
+      </c>
+      <c r="H206" t="s">
+        <v>16</v>
+      </c>
+      <c r="I206" t="s">
+        <v>17</v>
+      </c>
+      <c r="J206" s="6">
+        <v>46030</v>
+      </c>
+      <c r="K206" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="207" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A207" s="12" t="s">
+        <v>508</v>
+      </c>
+      <c r="B207" s="13">
+        <v>12</v>
+      </c>
+      <c r="C207" s="12" t="s">
+        <v>509</v>
+      </c>
+      <c r="D207" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="E207" s="14" t="s">
+        <v>510</v>
+      </c>
+      <c r="F207" t="s">
+        <v>14</v>
+      </c>
+      <c r="G207" t="s">
+        <v>76</v>
+      </c>
+      <c r="H207" t="s">
+        <v>16</v>
+      </c>
+      <c r="I207" t="s">
+        <v>17</v>
+      </c>
+      <c r="J207" s="6">
+        <v>46030</v>
+      </c>
+      <c r="K207" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="208" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A208" s="12" t="s">
+        <v>511</v>
+      </c>
+      <c r="B208" s="13">
+        <v>12</v>
+      </c>
+      <c r="C208" s="12" t="s">
+        <v>512</v>
+      </c>
+      <c r="D208" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="E208" s="14" t="s">
+        <v>510</v>
+      </c>
+      <c r="F208" t="s">
+        <v>14</v>
+      </c>
+      <c r="G208" t="s">
+        <v>76</v>
+      </c>
+      <c r="H208" t="s">
+        <v>16</v>
+      </c>
+      <c r="I208" t="s">
+        <v>17</v>
+      </c>
+      <c r="J208" s="6">
+        <v>46030</v>
+      </c>
+      <c r="K208" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="209" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A209" s="12" t="s">
+        <v>513</v>
+      </c>
+      <c r="B209" s="13">
+        <v>12</v>
+      </c>
+      <c r="C209" s="12" t="s">
+        <v>514</v>
+      </c>
+      <c r="D209" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="E209" s="14" t="s">
+        <v>510</v>
+      </c>
+      <c r="F209" t="s">
+        <v>14</v>
+      </c>
+      <c r="G209" t="s">
+        <v>76</v>
+      </c>
+      <c r="H209" t="s">
+        <v>16</v>
+      </c>
+      <c r="I209" t="s">
+        <v>17</v>
+      </c>
+      <c r="J209" s="6">
+        <v>46030</v>
+      </c>
+      <c r="K209" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="210" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A210" s="12" t="s">
+        <v>515</v>
+      </c>
+      <c r="B210" s="13">
+        <v>12</v>
+      </c>
+      <c r="C210" s="12" t="s">
+        <v>516</v>
+      </c>
+      <c r="D210" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="E210" s="14" t="s">
+        <v>510</v>
+      </c>
+      <c r="F210" t="s">
+        <v>14</v>
+      </c>
+      <c r="G210" t="s">
+        <v>76</v>
+      </c>
+      <c r="H210" t="s">
+        <v>16</v>
+      </c>
+      <c r="I210" t="s">
+        <v>17</v>
+      </c>
+      <c r="J210" s="6">
+        <v>46030</v>
+      </c>
+      <c r="K210" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="211" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A211" s="12" t="s">
+        <v>517</v>
+      </c>
+      <c r="B211" s="13">
+        <v>12</v>
+      </c>
+      <c r="C211" s="12" t="s">
+        <v>519</v>
+      </c>
+      <c r="D211" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="E211" s="14" t="s">
+        <v>518</v>
+      </c>
+      <c r="F211" t="s">
+        <v>14</v>
+      </c>
+      <c r="G211" t="s">
+        <v>76</v>
+      </c>
+      <c r="H211" t="s">
+        <v>16</v>
+      </c>
+      <c r="I211" t="s">
+        <v>17</v>
+      </c>
+      <c r="J211" s="6">
+        <v>46030</v>
+      </c>
+      <c r="K211" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="212" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A212" s="12" t="s">
+        <v>520</v>
+      </c>
+      <c r="B212" s="13">
+        <v>12</v>
+      </c>
+      <c r="C212" s="12" t="s">
+        <v>521</v>
+      </c>
+      <c r="D212" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="E212" s="14" t="s">
+        <v>518</v>
+      </c>
+      <c r="F212" t="s">
+        <v>14</v>
+      </c>
+      <c r="G212" t="s">
+        <v>76</v>
+      </c>
+      <c r="H212" t="s">
+        <v>16</v>
+      </c>
+      <c r="I212" t="s">
+        <v>17</v>
+      </c>
+      <c r="J212" s="6">
+        <v>46030</v>
+      </c>
+      <c r="K212" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="213" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A213" s="12" t="s">
+        <v>522</v>
+      </c>
+      <c r="B213" s="13">
+        <v>12</v>
+      </c>
+      <c r="C213" s="12" t="s">
+        <v>523</v>
+      </c>
+      <c r="D213" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="E213" s="14" t="s">
+        <v>518</v>
+      </c>
+      <c r="F213" t="s">
+        <v>14</v>
+      </c>
+      <c r="G213" t="s">
+        <v>76</v>
+      </c>
+      <c r="H213" t="s">
+        <v>16</v>
+      </c>
+      <c r="I213" t="s">
+        <v>17</v>
+      </c>
+      <c r="J213" s="6">
+        <v>46030</v>
+      </c>
+      <c r="K213" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="214" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A214" s="12" t="s">
+        <v>524</v>
+      </c>
+      <c r="B214" s="13">
+        <v>12</v>
+      </c>
+      <c r="C214" s="12" t="s">
+        <v>525</v>
+      </c>
+      <c r="D214" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="E214" s="14" t="s">
+        <v>518</v>
+      </c>
+      <c r="F214" t="s">
+        <v>14</v>
+      </c>
+      <c r="G214" t="s">
+        <v>76</v>
+      </c>
+      <c r="H214" t="s">
+        <v>16</v>
+      </c>
+      <c r="I214" t="s">
+        <v>17</v>
+      </c>
+      <c r="J214" s="6">
+        <v>46030</v>
+      </c>
+      <c r="K214" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="215" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A215" s="12" t="s">
+        <v>526</v>
+      </c>
+      <c r="B215" s="13">
+        <v>15</v>
+      </c>
+      <c r="C215" s="12" t="s">
+        <v>527</v>
+      </c>
+      <c r="D215" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="E215" s="14" t="s">
+        <v>528</v>
+      </c>
+      <c r="F215" t="s">
+        <v>14</v>
+      </c>
+      <c r="G215" t="s">
+        <v>76</v>
+      </c>
+      <c r="H215" t="s">
+        <v>16</v>
+      </c>
+      <c r="I215" t="s">
+        <v>17</v>
+      </c>
+      <c r="J215" s="6">
+        <v>46030</v>
+      </c>
+      <c r="K215" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="216" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A216" s="12" t="s">
+        <v>529</v>
+      </c>
+      <c r="B216" s="13">
+        <v>15</v>
+      </c>
+      <c r="C216" s="12" t="s">
+        <v>530</v>
+      </c>
+      <c r="D216" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="E216" s="14" t="s">
+        <v>528</v>
+      </c>
+      <c r="F216" t="s">
+        <v>14</v>
+      </c>
+      <c r="G216" t="s">
+        <v>76</v>
+      </c>
+      <c r="H216" t="s">
+        <v>16</v>
+      </c>
+      <c r="I216" t="s">
+        <v>17</v>
+      </c>
+      <c r="J216" s="6">
+        <v>46030</v>
+      </c>
+      <c r="K216" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="217" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A217" s="12" t="s">
+        <v>531</v>
+      </c>
+      <c r="B217" s="13">
+        <v>15</v>
+      </c>
+      <c r="C217" s="12" t="s">
+        <v>532</v>
+      </c>
+      <c r="D217" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="E217" s="14" t="s">
+        <v>528</v>
+      </c>
+      <c r="F217" t="s">
+        <v>14</v>
+      </c>
+      <c r="G217" t="s">
+        <v>76</v>
+      </c>
+      <c r="H217" t="s">
+        <v>16</v>
+      </c>
+      <c r="I217" t="s">
+        <v>17</v>
+      </c>
+      <c r="J217" s="6">
+        <v>46030</v>
+      </c>
+      <c r="K217" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="218" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A218" s="12" t="s">
+        <v>533</v>
+      </c>
+      <c r="B218" s="13">
+        <v>15</v>
+      </c>
+      <c r="C218" s="12" t="s">
+        <v>534</v>
+      </c>
+      <c r="D218" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="E218" s="14" t="s">
+        <v>528</v>
+      </c>
+      <c r="F218" t="s">
+        <v>14</v>
+      </c>
+      <c r="G218" t="s">
+        <v>76</v>
+      </c>
+      <c r="H218" t="s">
+        <v>16</v>
+      </c>
+      <c r="I218" t="s">
+        <v>17</v>
+      </c>
+      <c r="J218" s="6">
+        <v>46030</v>
+      </c>
+      <c r="K218" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="219" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A219" s="12" t="s">
+        <v>535</v>
+      </c>
+      <c r="B219" s="13">
+        <v>10</v>
+      </c>
+      <c r="C219" s="12" t="s">
+        <v>491</v>
+      </c>
+      <c r="D219" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="E219" s="14" t="s">
+        <v>492</v>
+      </c>
+      <c r="F219" t="s">
+        <v>14</v>
+      </c>
+      <c r="G219" t="s">
+        <v>76</v>
+      </c>
+      <c r="H219" t="s">
+        <v>16</v>
+      </c>
+      <c r="I219" t="s">
+        <v>17</v>
+      </c>
+      <c r="J219" s="6">
+        <v>46030</v>
+      </c>
+      <c r="K219" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="220" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A220" s="12" t="s">
+        <v>536</v>
+      </c>
+      <c r="B220" s="13">
+        <v>10</v>
+      </c>
+      <c r="C220" s="12" t="s">
+        <v>494</v>
+      </c>
+      <c r="D220" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="E220" s="14" t="s">
+        <v>492</v>
+      </c>
+      <c r="F220" t="s">
+        <v>14</v>
+      </c>
+      <c r="G220" t="s">
+        <v>76</v>
+      </c>
+      <c r="H220" t="s">
+        <v>16</v>
+      </c>
+      <c r="I220" t="s">
+        <v>17</v>
+      </c>
+      <c r="J220" s="6">
+        <v>46030</v>
+      </c>
+      <c r="K220" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="221" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A221" s="12" t="s">
+        <v>537</v>
+      </c>
+      <c r="B221" s="13">
+        <v>10</v>
+      </c>
+      <c r="C221" s="12" t="s">
+        <v>496</v>
+      </c>
+      <c r="D221" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="E221" s="14" t="s">
+        <v>492</v>
+      </c>
+      <c r="F221" t="s">
+        <v>14</v>
+      </c>
+      <c r="G221" t="s">
+        <v>76</v>
+      </c>
+      <c r="H221" t="s">
+        <v>16</v>
+      </c>
+      <c r="I221" t="s">
+        <v>17</v>
+      </c>
+      <c r="J221" s="6">
+        <v>46030</v>
+      </c>
+      <c r="K221" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="222" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A222" s="12" t="s">
+        <v>538</v>
+      </c>
+      <c r="B222" s="13">
+        <v>10</v>
+      </c>
+      <c r="C222" s="12" t="s">
+        <v>498</v>
+      </c>
+      <c r="D222" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="E222" s="14" t="s">
+        <v>492</v>
+      </c>
+      <c r="F222" t="s">
+        <v>14</v>
+      </c>
+      <c r="G222" t="s">
+        <v>76</v>
+      </c>
+      <c r="H222" t="s">
+        <v>16</v>
+      </c>
+      <c r="I222" t="s">
+        <v>17</v>
+      </c>
+      <c r="J222" s="6">
+        <v>46030</v>
+      </c>
+      <c r="K222" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="223" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A223" s="12" t="s">
+        <v>539</v>
+      </c>
+      <c r="B223" s="13">
+        <v>11</v>
+      </c>
+      <c r="C223" s="12" t="s">
+        <v>500</v>
+      </c>
+      <c r="D223" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="E223" s="14" t="s">
+        <v>540</v>
+      </c>
+      <c r="F223" t="s">
+        <v>14</v>
+      </c>
+      <c r="G223" t="s">
+        <v>76</v>
+      </c>
+      <c r="H223" t="s">
+        <v>16</v>
+      </c>
+      <c r="I223" t="s">
+        <v>17</v>
+      </c>
+      <c r="J223" s="6">
+        <v>46030</v>
+      </c>
+      <c r="K223" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="224" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A224" s="12" t="s">
+        <v>541</v>
+      </c>
+      <c r="B224" s="13">
+        <v>11</v>
+      </c>
+      <c r="C224" s="12" t="s">
+        <v>503</v>
+      </c>
+      <c r="D224" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="E224" s="14" t="s">
+        <v>540</v>
+      </c>
+      <c r="F224" t="s">
+        <v>14</v>
+      </c>
+      <c r="G224" t="s">
+        <v>76</v>
+      </c>
+      <c r="H224" t="s">
+        <v>16</v>
+      </c>
+      <c r="I224" t="s">
+        <v>17</v>
+      </c>
+      <c r="J224" s="6">
+        <v>46030</v>
+      </c>
+      <c r="K224" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="225" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A225" s="12" t="s">
+        <v>542</v>
+      </c>
+      <c r="B225" s="13">
+        <v>11</v>
+      </c>
+      <c r="C225" s="12" t="s">
+        <v>543</v>
+      </c>
+      <c r="D225" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="E225" s="14" t="s">
+        <v>540</v>
+      </c>
+      <c r="F225" t="s">
+        <v>14</v>
+      </c>
+      <c r="G225" t="s">
+        <v>76</v>
+      </c>
+      <c r="H225" t="s">
+        <v>16</v>
+      </c>
+      <c r="I225" t="s">
+        <v>17</v>
+      </c>
+      <c r="J225" s="6">
+        <v>46030</v>
+      </c>
+      <c r="K225" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="226" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A226" s="12" t="s">
+        <v>544</v>
+      </c>
+      <c r="B226" s="13">
+        <v>11</v>
+      </c>
+      <c r="C226" s="12" t="s">
+        <v>507</v>
+      </c>
+      <c r="D226" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="E226" s="14" t="s">
+        <v>540</v>
+      </c>
+      <c r="F226" t="s">
+        <v>14</v>
+      </c>
+      <c r="G226" t="s">
+        <v>76</v>
+      </c>
+      <c r="H226" t="s">
+        <v>16</v>
+      </c>
+      <c r="I226" t="s">
+        <v>17</v>
+      </c>
+      <c r="J226" s="6">
+        <v>46030</v>
+      </c>
+      <c r="K226" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="227" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A227" s="12" t="s">
+        <v>545</v>
+      </c>
+      <c r="B227" s="13">
+        <v>12</v>
+      </c>
+      <c r="C227" s="12" t="s">
+        <v>509</v>
+      </c>
+      <c r="D227" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="E227" s="14" t="s">
+        <v>546</v>
+      </c>
+      <c r="F227" t="s">
+        <v>14</v>
+      </c>
+      <c r="G227" t="s">
+        <v>76</v>
+      </c>
+      <c r="H227" t="s">
+        <v>16</v>
+      </c>
+      <c r="I227" t="s">
+        <v>17</v>
+      </c>
+      <c r="J227" s="6">
+        <v>46030</v>
+      </c>
+      <c r="K227" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="228" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A228" s="12" t="s">
+        <v>547</v>
+      </c>
+      <c r="B228" s="13">
+        <v>12</v>
+      </c>
+      <c r="C228" s="12" t="s">
+        <v>512</v>
+      </c>
+      <c r="D228" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="E228" s="14" t="s">
+        <v>546</v>
+      </c>
+      <c r="F228" t="s">
+        <v>14</v>
+      </c>
+      <c r="G228" t="s">
+        <v>76</v>
+      </c>
+      <c r="H228" t="s">
+        <v>16</v>
+      </c>
+      <c r="I228" t="s">
+        <v>17</v>
+      </c>
+      <c r="J228" s="6">
+        <v>46030</v>
+      </c>
+      <c r="K228" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="229" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A229" s="12" t="s">
+        <v>548</v>
+      </c>
+      <c r="B229" s="13">
+        <v>12</v>
+      </c>
+      <c r="C229" s="12" t="s">
+        <v>514</v>
+      </c>
+      <c r="D229" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="E229" s="14" t="s">
+        <v>546</v>
+      </c>
+      <c r="F229" t="s">
+        <v>14</v>
+      </c>
+      <c r="G229" t="s">
+        <v>76</v>
+      </c>
+      <c r="H229" t="s">
+        <v>16</v>
+      </c>
+      <c r="I229" t="s">
+        <v>17</v>
+      </c>
+      <c r="J229" s="6">
+        <v>46030</v>
+      </c>
+      <c r="K229" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="230" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A230" s="12" t="s">
+        <v>549</v>
+      </c>
+      <c r="B230" s="13">
+        <v>12</v>
+      </c>
+      <c r="C230" s="12" t="s">
+        <v>516</v>
+      </c>
+      <c r="D230" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="E230" s="14" t="s">
+        <v>546</v>
+      </c>
+      <c r="F230" t="s">
+        <v>14</v>
+      </c>
+      <c r="G230" t="s">
+        <v>76</v>
+      </c>
+      <c r="H230" t="s">
+        <v>16</v>
+      </c>
+      <c r="I230" t="s">
+        <v>17</v>
+      </c>
+      <c r="J230" s="6">
+        <v>46030</v>
+      </c>
+      <c r="K230" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="231" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A231" s="12" t="s">
+        <v>550</v>
+      </c>
+      <c r="B231" s="13">
+        <v>13</v>
+      </c>
+      <c r="C231" s="12" t="s">
+        <v>519</v>
+      </c>
+      <c r="D231" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="E231" s="14" t="s">
+        <v>551</v>
+      </c>
+      <c r="F231" t="s">
+        <v>14</v>
+      </c>
+      <c r="G231" t="s">
+        <v>76</v>
+      </c>
+      <c r="H231" t="s">
+        <v>16</v>
+      </c>
+      <c r="I231" t="s">
+        <v>17</v>
+      </c>
+      <c r="J231" s="6">
+        <v>46030</v>
+      </c>
+      <c r="K231" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="232" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A232" s="12" t="s">
+        <v>552</v>
+      </c>
+      <c r="B232" s="13">
+        <v>13</v>
+      </c>
+      <c r="C232" s="12" t="s">
+        <v>521</v>
+      </c>
+      <c r="D232" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="E232" s="14" t="s">
+        <v>551</v>
+      </c>
+      <c r="F232" t="s">
+        <v>14</v>
+      </c>
+      <c r="G232" t="s">
+        <v>76</v>
+      </c>
+      <c r="H232" t="s">
+        <v>16</v>
+      </c>
+      <c r="I232" t="s">
+        <v>17</v>
+      </c>
+      <c r="J232" s="6">
+        <v>46030</v>
+      </c>
+      <c r="K232" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="233" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A233" s="12" t="s">
+        <v>553</v>
+      </c>
+      <c r="B233" s="13">
+        <v>13</v>
+      </c>
+      <c r="C233" s="12" t="s">
+        <v>523</v>
+      </c>
+      <c r="D233" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="E233" s="14" t="s">
+        <v>551</v>
+      </c>
+      <c r="F233" t="s">
+        <v>14</v>
+      </c>
+      <c r="G233" t="s">
+        <v>76</v>
+      </c>
+      <c r="H233" t="s">
+        <v>16</v>
+      </c>
+      <c r="I233" t="s">
+        <v>17</v>
+      </c>
+      <c r="J233" s="6">
+        <v>46030</v>
+      </c>
+      <c r="K233" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="234" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A234" s="12" t="s">
+        <v>554</v>
+      </c>
+      <c r="B234" s="13">
+        <v>13</v>
+      </c>
+      <c r="C234" s="12" t="s">
+        <v>525</v>
+      </c>
+      <c r="D234" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="E234" s="14" t="s">
+        <v>551</v>
+      </c>
+      <c r="F234" t="s">
+        <v>14</v>
+      </c>
+      <c r="G234" t="s">
+        <v>76</v>
+      </c>
+      <c r="H234" t="s">
+        <v>16</v>
+      </c>
+      <c r="I234" t="s">
+        <v>17</v>
+      </c>
+      <c r="J234" s="6">
+        <v>46030</v>
+      </c>
+      <c r="K234" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="235" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A235" s="12" t="s">
+        <v>555</v>
+      </c>
+      <c r="B235" s="13">
+        <v>15.5</v>
+      </c>
+      <c r="C235" s="12" t="s">
+        <v>527</v>
+      </c>
+      <c r="D235" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="E235" s="14" t="s">
+        <v>559</v>
+      </c>
+      <c r="F235" t="s">
+        <v>14</v>
+      </c>
+      <c r="G235" t="s">
+        <v>76</v>
+      </c>
+      <c r="H235" t="s">
+        <v>16</v>
+      </c>
+      <c r="I235" t="s">
+        <v>17</v>
+      </c>
+      <c r="J235" s="6">
+        <v>46030</v>
+      </c>
+      <c r="K235" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="236" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A236" s="12" t="s">
+        <v>556</v>
+      </c>
+      <c r="B236" s="13">
+        <v>15.5</v>
+      </c>
+      <c r="C236" s="12" t="s">
+        <v>530</v>
+      </c>
+      <c r="D236" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="E236" s="14" t="s">
+        <v>559</v>
+      </c>
+      <c r="F236" t="s">
+        <v>14</v>
+      </c>
+      <c r="G236" t="s">
+        <v>76</v>
+      </c>
+      <c r="H236" t="s">
+        <v>16</v>
+      </c>
+      <c r="I236" t="s">
+        <v>17</v>
+      </c>
+      <c r="J236" s="6">
+        <v>46030</v>
+      </c>
+      <c r="K236" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="237" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A237" s="12" t="s">
+        <v>557</v>
+      </c>
+      <c r="B237" s="13">
+        <v>15.5</v>
+      </c>
+      <c r="C237" s="12" t="s">
+        <v>532</v>
+      </c>
+      <c r="D237" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="E237" s="14" t="s">
+        <v>559</v>
+      </c>
+      <c r="F237" t="s">
+        <v>14</v>
+      </c>
+      <c r="G237" t="s">
+        <v>76</v>
+      </c>
+      <c r="H237" t="s">
+        <v>16</v>
+      </c>
+      <c r="I237" t="s">
+        <v>17</v>
+      </c>
+      <c r="J237" s="6">
+        <v>46030</v>
+      </c>
+      <c r="K237" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="238" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A238" s="12" t="s">
+        <v>558</v>
+      </c>
+      <c r="B238" s="13">
+        <v>15.5</v>
+      </c>
+      <c r="C238" s="12" t="s">
+        <v>534</v>
+      </c>
+      <c r="D238" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="E238" s="14" t="s">
+        <v>559</v>
+      </c>
+      <c r="F238" t="s">
+        <v>14</v>
+      </c>
+      <c r="G238" t="s">
+        <v>76</v>
+      </c>
+      <c r="H238" t="s">
+        <v>16</v>
+      </c>
+      <c r="I238" t="s">
+        <v>17</v>
+      </c>
+      <c r="J238" s="6">
+        <v>46030</v>
+      </c>
+      <c r="K238" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="239" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A239" s="12" t="s">
+        <v>560</v>
+      </c>
+      <c r="B239" s="13">
+        <v>11</v>
+      </c>
+      <c r="C239" s="12" t="s">
+        <v>491</v>
+      </c>
+      <c r="D239" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="E239" s="14" t="s">
+        <v>564</v>
+      </c>
+      <c r="F239" t="s">
+        <v>14</v>
+      </c>
+      <c r="G239" t="s">
+        <v>76</v>
+      </c>
+      <c r="H239" t="s">
+        <v>16</v>
+      </c>
+      <c r="I239" t="s">
+        <v>17</v>
+      </c>
+      <c r="J239" s="6">
+        <v>46030</v>
+      </c>
+      <c r="K239" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="240" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A240" s="12" t="s">
+        <v>561</v>
+      </c>
+      <c r="B240" s="13">
+        <v>11</v>
+      </c>
+      <c r="C240" s="12" t="s">
+        <v>494</v>
+      </c>
+      <c r="D240" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="E240" s="14" t="s">
+        <v>564</v>
+      </c>
+      <c r="F240" t="s">
+        <v>14</v>
+      </c>
+      <c r="G240" t="s">
+        <v>76</v>
+      </c>
+      <c r="H240" t="s">
+        <v>16</v>
+      </c>
+      <c r="I240" t="s">
+        <v>17</v>
+      </c>
+      <c r="J240" s="6">
+        <v>46030</v>
+      </c>
+      <c r="K240" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="241" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A241" s="12" t="s">
+        <v>562</v>
+      </c>
+      <c r="B241" s="13">
+        <v>11</v>
+      </c>
+      <c r="C241" s="12" t="s">
+        <v>496</v>
+      </c>
+      <c r="D241" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="E241" s="14" t="s">
+        <v>564</v>
+      </c>
+      <c r="F241" t="s">
+        <v>14</v>
+      </c>
+      <c r="G241" t="s">
+        <v>76</v>
+      </c>
+      <c r="H241" t="s">
+        <v>16</v>
+      </c>
+      <c r="I241" t="s">
+        <v>17</v>
+      </c>
+      <c r="J241" s="6">
+        <v>46030</v>
+      </c>
+      <c r="K241" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="242" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A242" s="12" t="s">
+        <v>563</v>
+      </c>
+      <c r="B242" s="13">
+        <v>11</v>
+      </c>
+      <c r="C242" s="12" t="s">
+        <v>498</v>
+      </c>
+      <c r="D242" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="E242" s="14" t="s">
+        <v>564</v>
+      </c>
+      <c r="F242" t="s">
+        <v>14</v>
+      </c>
+      <c r="G242" t="s">
+        <v>76</v>
+      </c>
+      <c r="H242" t="s">
+        <v>16</v>
+      </c>
+      <c r="I242" t="s">
+        <v>17</v>
+      </c>
+      <c r="J242" s="6">
+        <v>46030</v>
+      </c>
+      <c r="K242" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="243" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A243" s="12" t="s">
+        <v>565</v>
+      </c>
+      <c r="B243" s="13">
+        <v>12</v>
+      </c>
+      <c r="C243" s="12" t="s">
+        <v>569</v>
+      </c>
+      <c r="D243" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="E243" s="14" t="s">
+        <v>570</v>
+      </c>
+      <c r="F243" t="s">
+        <v>14</v>
+      </c>
+      <c r="G243" t="s">
+        <v>76</v>
+      </c>
+      <c r="H243" t="s">
+        <v>16</v>
+      </c>
+      <c r="I243" t="s">
+        <v>17</v>
+      </c>
+      <c r="J243" s="6">
+        <v>46030</v>
+      </c>
+      <c r="K243" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="244" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A244" s="12" t="s">
+        <v>566</v>
+      </c>
+      <c r="B244" s="13">
+        <v>12</v>
+      </c>
+      <c r="C244" s="12" t="s">
+        <v>571</v>
+      </c>
+      <c r="D244" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="E244" s="14" t="s">
+        <v>570</v>
+      </c>
+      <c r="F244" t="s">
+        <v>14</v>
+      </c>
+      <c r="G244" t="s">
+        <v>76</v>
+      </c>
+      <c r="H244" t="s">
+        <v>16</v>
+      </c>
+      <c r="I244" t="s">
+        <v>17</v>
+      </c>
+      <c r="J244" s="6">
+        <v>46030</v>
+      </c>
+      <c r="K244" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="245" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A245" s="12" t="s">
+        <v>567</v>
+      </c>
+      <c r="B245" s="13">
+        <v>12</v>
+      </c>
+      <c r="C245" s="12" t="s">
+        <v>572</v>
+      </c>
+      <c r="D245" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="E245" s="14" t="s">
+        <v>570</v>
+      </c>
+      <c r="F245" t="s">
+        <v>14</v>
+      </c>
+      <c r="G245" t="s">
+        <v>76</v>
+      </c>
+      <c r="H245" t="s">
+        <v>16</v>
+      </c>
+      <c r="I245" t="s">
+        <v>17</v>
+      </c>
+      <c r="J245" s="6">
+        <v>46030</v>
+      </c>
+      <c r="K245" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="246" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A246" s="12" t="s">
+        <v>568</v>
+      </c>
+      <c r="B246" s="13">
+        <v>12</v>
+      </c>
+      <c r="C246" s="12" t="s">
+        <v>573</v>
+      </c>
+      <c r="D246" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="E246" s="14" t="s">
+        <v>570</v>
+      </c>
+      <c r="F246" t="s">
+        <v>14</v>
+      </c>
+      <c r="G246" t="s">
+        <v>76</v>
+      </c>
+      <c r="H246" t="s">
+        <v>16</v>
+      </c>
+      <c r="I246" t="s">
+        <v>17</v>
+      </c>
+      <c r="J246" s="6">
+        <v>46030</v>
+      </c>
+      <c r="K246" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="247" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A247" s="12" t="s">
+        <v>574</v>
+      </c>
+      <c r="B247" s="13">
+        <v>13</v>
+      </c>
+      <c r="C247" s="12" t="s">
+        <v>509</v>
+      </c>
+      <c r="D247" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="E247" s="14" t="s">
+        <v>578</v>
+      </c>
+      <c r="F247" t="s">
+        <v>14</v>
+      </c>
+      <c r="G247" t="s">
+        <v>76</v>
+      </c>
+      <c r="H247" t="s">
+        <v>16</v>
+      </c>
+      <c r="I247" t="s">
+        <v>17</v>
+      </c>
+      <c r="J247" s="6">
+        <v>46030</v>
+      </c>
+      <c r="K247" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="248" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A248" s="12" t="s">
+        <v>575</v>
+      </c>
+      <c r="B248" s="13">
+        <v>13</v>
+      </c>
+      <c r="C248" s="12" t="s">
+        <v>512</v>
+      </c>
+      <c r="D248" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="E248" s="14" t="s">
+        <v>578</v>
+      </c>
+      <c r="F248" t="s">
+        <v>14</v>
+      </c>
+      <c r="G248" t="s">
+        <v>76</v>
+      </c>
+      <c r="H248" t="s">
+        <v>16</v>
+      </c>
+      <c r="I248" t="s">
+        <v>17</v>
+      </c>
+      <c r="J248" s="6">
+        <v>46030</v>
+      </c>
+      <c r="K248" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="249" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A249" s="12" t="s">
+        <v>576</v>
+      </c>
+      <c r="B249" s="13">
+        <v>13</v>
+      </c>
+      <c r="C249" s="12" t="s">
+        <v>514</v>
+      </c>
+      <c r="D249" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="E249" s="14" t="s">
+        <v>578</v>
+      </c>
+      <c r="F249" t="s">
+        <v>14</v>
+      </c>
+      <c r="G249" t="s">
+        <v>76</v>
+      </c>
+      <c r="H249" t="s">
+        <v>16</v>
+      </c>
+      <c r="I249" t="s">
+        <v>17</v>
+      </c>
+      <c r="J249" s="6">
+        <v>46030</v>
+      </c>
+      <c r="K249" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="250" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A250" s="12" t="s">
+        <v>577</v>
+      </c>
+      <c r="B250" s="13">
+        <v>13</v>
+      </c>
+      <c r="C250" s="12" t="s">
+        <v>516</v>
+      </c>
+      <c r="D250" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="E250" s="14" t="s">
+        <v>578</v>
+      </c>
+      <c r="F250" t="s">
+        <v>14</v>
+      </c>
+      <c r="G250" t="s">
+        <v>76</v>
+      </c>
+      <c r="H250" t="s">
+        <v>16</v>
+      </c>
+      <c r="I250" t="s">
+        <v>17</v>
+      </c>
+      <c r="J250" s="6">
+        <v>46030</v>
+      </c>
+      <c r="K250" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="251" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A251" s="12" t="s">
+        <v>579</v>
+      </c>
+      <c r="B251" s="13">
+        <v>14</v>
+      </c>
+      <c r="C251" s="12" t="s">
+        <v>519</v>
+      </c>
+      <c r="D251" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="E251" s="14" t="s">
+        <v>583</v>
+      </c>
+      <c r="F251" t="s">
+        <v>14</v>
+      </c>
+      <c r="G251" t="s">
+        <v>76</v>
+      </c>
+      <c r="H251" t="s">
+        <v>16</v>
+      </c>
+      <c r="I251" t="s">
+        <v>17</v>
+      </c>
+      <c r="J251" s="6">
+        <v>46030</v>
+      </c>
+      <c r="K251" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="252" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A252" s="12" t="s">
+        <v>580</v>
+      </c>
+      <c r="B252" s="13">
+        <v>14</v>
+      </c>
+      <c r="C252" s="12" t="s">
+        <v>521</v>
+      </c>
+      <c r="D252" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="E252" s="14" t="s">
+        <v>583</v>
+      </c>
+      <c r="F252" t="s">
+        <v>14</v>
+      </c>
+      <c r="G252" t="s">
+        <v>76</v>
+      </c>
+      <c r="H252" t="s">
+        <v>16</v>
+      </c>
+      <c r="I252" t="s">
+        <v>17</v>
+      </c>
+      <c r="J252" s="6">
+        <v>46030</v>
+      </c>
+      <c r="K252" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="253" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A253" s="12" t="s">
+        <v>581</v>
+      </c>
+      <c r="B253" s="13">
+        <v>14</v>
+      </c>
+      <c r="C253" s="12" t="s">
+        <v>523</v>
+      </c>
+      <c r="D253" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="E253" s="14" t="s">
+        <v>583</v>
+      </c>
+      <c r="F253" t="s">
+        <v>14</v>
+      </c>
+      <c r="G253" t="s">
+        <v>76</v>
+      </c>
+      <c r="H253" t="s">
+        <v>16</v>
+      </c>
+      <c r="I253" t="s">
+        <v>17</v>
+      </c>
+      <c r="J253" s="6">
+        <v>46030</v>
+      </c>
+      <c r="K253" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="254" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A254" s="12" t="s">
+        <v>582</v>
+      </c>
+      <c r="B254" s="13">
+        <v>14</v>
+      </c>
+      <c r="C254" s="12" t="s">
+        <v>525</v>
+      </c>
+      <c r="D254" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="E254" s="14" t="s">
+        <v>583</v>
+      </c>
+      <c r="F254" t="s">
+        <v>14</v>
+      </c>
+      <c r="G254" t="s">
+        <v>76</v>
+      </c>
+      <c r="H254" t="s">
+        <v>16</v>
+      </c>
+      <c r="I254" t="s">
+        <v>17</v>
+      </c>
+      <c r="J254" s="6">
+        <v>46030</v>
+      </c>
+      <c r="K254" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="255" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A255" s="12" t="s">
+        <v>584</v>
+      </c>
+      <c r="B255" s="13">
+        <v>16.2</v>
+      </c>
+      <c r="C255" s="12" t="s">
+        <v>527</v>
+      </c>
+      <c r="D255" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="E255" s="14" t="s">
+        <v>588</v>
+      </c>
+      <c r="F255" t="s">
+        <v>14</v>
+      </c>
+      <c r="G255" t="s">
+        <v>76</v>
+      </c>
+      <c r="H255" t="s">
+        <v>16</v>
+      </c>
+      <c r="I255" t="s">
+        <v>17</v>
+      </c>
+      <c r="J255" s="6">
+        <v>46030</v>
+      </c>
+      <c r="K255" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="256" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A256" s="12" t="s">
+        <v>585</v>
+      </c>
+      <c r="B256" s="13">
+        <v>16.2</v>
+      </c>
+      <c r="C256" s="12" t="s">
+        <v>530</v>
+      </c>
+      <c r="D256" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="E256" s="14" t="s">
+        <v>588</v>
+      </c>
+      <c r="F256" t="s">
+        <v>14</v>
+      </c>
+      <c r="G256" t="s">
+        <v>76</v>
+      </c>
+      <c r="H256" t="s">
+        <v>16</v>
+      </c>
+      <c r="I256" t="s">
+        <v>17</v>
+      </c>
+      <c r="J256" s="6">
+        <v>46030</v>
+      </c>
+      <c r="K256" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="257" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A257" s="12" t="s">
+        <v>586</v>
+      </c>
+      <c r="B257" s="13">
+        <v>16.2</v>
+      </c>
+      <c r="C257" s="12" t="s">
+        <v>532</v>
+      </c>
+      <c r="D257" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="E257" s="14" t="s">
+        <v>588</v>
+      </c>
+      <c r="F257" t="s">
+        <v>14</v>
+      </c>
+      <c r="G257" t="s">
+        <v>76</v>
+      </c>
+      <c r="H257" t="s">
+        <v>16</v>
+      </c>
+      <c r="I257" t="s">
+        <v>17</v>
+      </c>
+      <c r="J257" s="6">
+        <v>46030</v>
+      </c>
+      <c r="K257" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="258" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A258" s="12" t="s">
+        <v>587</v>
+      </c>
+      <c r="B258" s="13">
+        <v>16.2</v>
+      </c>
+      <c r="C258" s="12" t="s">
+        <v>534</v>
+      </c>
+      <c r="D258" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="E258" s="14" t="s">
+        <v>588</v>
+      </c>
+      <c r="F258" t="s">
+        <v>14</v>
+      </c>
+      <c r="G258" t="s">
+        <v>76</v>
+      </c>
+      <c r="H258" t="s">
+        <v>16</v>
+      </c>
+      <c r="I258" t="s">
+        <v>17</v>
+      </c>
+      <c r="J258" s="6">
+        <v>46030</v>
+      </c>
+      <c r="K258" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="259" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A259" s="12" t="s">
+        <v>589</v>
+      </c>
+      <c r="B259" s="13">
+        <v>11</v>
+      </c>
+      <c r="C259" s="12" t="s">
+        <v>491</v>
+      </c>
+      <c r="D259" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="E259" s="14" t="s">
+        <v>593</v>
+      </c>
+      <c r="F259" t="s">
+        <v>14</v>
+      </c>
+      <c r="G259" t="s">
+        <v>76</v>
+      </c>
+      <c r="H259" t="s">
+        <v>16</v>
+      </c>
+      <c r="I259" t="s">
+        <v>17</v>
+      </c>
+      <c r="J259" s="6">
+        <v>46030</v>
+      </c>
+      <c r="K259" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="260" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A260" s="12" t="s">
+        <v>590</v>
+      </c>
+      <c r="B260" s="13">
+        <v>11</v>
+      </c>
+      <c r="C260" s="12" t="s">
+        <v>494</v>
+      </c>
+      <c r="D260" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="E260" s="14" t="s">
+        <v>593</v>
+      </c>
+      <c r="F260" t="s">
+        <v>14</v>
+      </c>
+      <c r="G260" t="s">
+        <v>76</v>
+      </c>
+      <c r="H260" t="s">
+        <v>16</v>
+      </c>
+      <c r="I260" t="s">
+        <v>17</v>
+      </c>
+      <c r="J260" s="6">
+        <v>46030</v>
+      </c>
+      <c r="K260" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="261" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A261" s="12" t="s">
+        <v>591</v>
+      </c>
+      <c r="B261" s="13">
+        <v>11</v>
+      </c>
+      <c r="C261" s="12" t="s">
+        <v>496</v>
+      </c>
+      <c r="D261" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="E261" s="14" t="s">
+        <v>593</v>
+      </c>
+      <c r="F261" t="s">
+        <v>14</v>
+      </c>
+      <c r="G261" t="s">
+        <v>76</v>
+      </c>
+      <c r="H261" t="s">
+        <v>16</v>
+      </c>
+      <c r="I261" t="s">
+        <v>17</v>
+      </c>
+      <c r="J261" s="6">
+        <v>46030</v>
+      </c>
+      <c r="K261" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="262" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A262" s="12" t="s">
+        <v>592</v>
+      </c>
+      <c r="B262" s="13">
+        <v>11</v>
+      </c>
+      <c r="C262" s="12" t="s">
+        <v>498</v>
+      </c>
+      <c r="D262" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="E262" s="14" t="s">
+        <v>593</v>
+      </c>
+      <c r="F262" t="s">
+        <v>14</v>
+      </c>
+      <c r="G262" t="s">
+        <v>76</v>
+      </c>
+      <c r="H262" t="s">
+        <v>16</v>
+      </c>
+      <c r="I262" t="s">
+        <v>17</v>
+      </c>
+      <c r="J262" s="6">
+        <v>46030</v>
+      </c>
+      <c r="K262" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="263" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A263" s="12" t="s">
+        <v>594</v>
+      </c>
+      <c r="B263" s="13">
+        <v>12</v>
+      </c>
+      <c r="C263" s="12" t="s">
+        <v>500</v>
+      </c>
+      <c r="D263" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="E263" s="14" t="s">
+        <v>598</v>
+      </c>
+      <c r="F263" t="s">
+        <v>14</v>
+      </c>
+      <c r="G263" t="s">
+        <v>76</v>
+      </c>
+      <c r="H263" t="s">
+        <v>16</v>
+      </c>
+      <c r="I263" t="s">
+        <v>17</v>
+      </c>
+      <c r="J263" s="6">
+        <v>46030</v>
+      </c>
+      <c r="K263" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="264" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A264" s="12" t="s">
+        <v>595</v>
+      </c>
+      <c r="B264" s="13">
+        <v>12</v>
+      </c>
+      <c r="C264" s="12" t="s">
+        <v>503</v>
+      </c>
+      <c r="D264" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="E264" s="14" t="s">
+        <v>598</v>
+      </c>
+      <c r="F264" t="s">
+        <v>14</v>
+      </c>
+      <c r="G264" t="s">
+        <v>76</v>
+      </c>
+      <c r="H264" t="s">
+        <v>16</v>
+      </c>
+      <c r="I264" t="s">
+        <v>17</v>
+      </c>
+      <c r="J264" s="6">
+        <v>46030</v>
+      </c>
+      <c r="K264" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="265" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A265" s="12" t="s">
+        <v>596</v>
+      </c>
+      <c r="B265" s="13">
+        <v>12</v>
+      </c>
+      <c r="C265" s="12" t="s">
+        <v>505</v>
+      </c>
+      <c r="D265" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="E265" s="14" t="s">
+        <v>598</v>
+      </c>
+      <c r="F265" t="s">
+        <v>14</v>
+      </c>
+      <c r="G265" t="s">
+        <v>76</v>
+      </c>
+      <c r="H265" t="s">
+        <v>16</v>
+      </c>
+      <c r="I265" t="s">
+        <v>17</v>
+      </c>
+      <c r="J265" s="6">
+        <v>46030</v>
+      </c>
+      <c r="K265" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="266" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A266" s="12" t="s">
+        <v>597</v>
+      </c>
+      <c r="B266" s="13">
+        <v>12</v>
+      </c>
+      <c r="C266" s="12" t="s">
+        <v>507</v>
+      </c>
+      <c r="D266" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="E266" s="14" t="s">
+        <v>598</v>
+      </c>
+      <c r="F266" t="s">
+        <v>14</v>
+      </c>
+      <c r="G266" t="s">
+        <v>76</v>
+      </c>
+      <c r="H266" t="s">
+        <v>16</v>
+      </c>
+      <c r="I266" t="s">
+        <v>17</v>
+      </c>
+      <c r="J266" s="6">
+        <v>46030</v>
+      </c>
+      <c r="K266" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="267" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A267" s="12" t="s">
+        <v>599</v>
+      </c>
+      <c r="B267" s="13">
+        <v>13</v>
+      </c>
+      <c r="C267" s="12" t="s">
+        <v>509</v>
+      </c>
+      <c r="D267" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="E267" s="14" t="s">
+        <v>603</v>
+      </c>
+      <c r="F267" t="s">
+        <v>14</v>
+      </c>
+      <c r="G267" t="s">
+        <v>76</v>
+      </c>
+      <c r="H267" t="s">
+        <v>16</v>
+      </c>
+      <c r="I267" t="s">
+        <v>17</v>
+      </c>
+      <c r="J267" s="6">
+        <v>46030</v>
+      </c>
+      <c r="K267" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="268" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A268" s="12" t="s">
+        <v>600</v>
+      </c>
+      <c r="B268" s="13">
+        <v>13</v>
+      </c>
+      <c r="C268" s="12" t="s">
+        <v>512</v>
+      </c>
+      <c r="D268" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="E268" s="14" t="s">
+        <v>603</v>
+      </c>
+      <c r="F268" t="s">
+        <v>14</v>
+      </c>
+      <c r="G268" t="s">
+        <v>76</v>
+      </c>
+      <c r="H268" t="s">
+        <v>16</v>
+      </c>
+      <c r="I268" t="s">
+        <v>17</v>
+      </c>
+      <c r="J268" s="6">
+        <v>46030</v>
+      </c>
+      <c r="K268" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="269" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A269" s="12" t="s">
+        <v>601</v>
+      </c>
+      <c r="B269" s="13">
+        <v>13</v>
+      </c>
+      <c r="C269" s="12" t="s">
+        <v>514</v>
+      </c>
+      <c r="D269" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="E269" s="14" t="s">
+        <v>603</v>
+      </c>
+      <c r="F269" t="s">
+        <v>14</v>
+      </c>
+      <c r="G269" t="s">
+        <v>76</v>
+      </c>
+      <c r="H269" t="s">
+        <v>16</v>
+      </c>
+      <c r="I269" t="s">
+        <v>17</v>
+      </c>
+      <c r="J269" s="6">
+        <v>46030</v>
+      </c>
+      <c r="K269" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="270" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A270" s="12" t="s">
+        <v>602</v>
+      </c>
+      <c r="B270" s="13">
+        <v>13</v>
+      </c>
+      <c r="C270" s="12" t="s">
+        <v>516</v>
+      </c>
+      <c r="D270" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="E270" s="14" t="s">
+        <v>603</v>
+      </c>
+      <c r="F270" t="s">
+        <v>14</v>
+      </c>
+      <c r="G270" t="s">
+        <v>76</v>
+      </c>
+      <c r="H270" t="s">
+        <v>16</v>
+      </c>
+      <c r="I270" t="s">
+        <v>17</v>
+      </c>
+      <c r="J270" s="6">
+        <v>46030</v>
+      </c>
+      <c r="K270" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="271" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A271" s="12" t="s">
+        <v>604</v>
+      </c>
+      <c r="B271" s="13">
+        <v>14</v>
+      </c>
+      <c r="C271" s="12" t="s">
+        <v>519</v>
+      </c>
+      <c r="D271" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="E271" s="14" t="s">
+        <v>608</v>
+      </c>
+      <c r="F271" t="s">
+        <v>14</v>
+      </c>
+      <c r="G271" t="s">
+        <v>76</v>
+      </c>
+      <c r="H271" t="s">
+        <v>16</v>
+      </c>
+      <c r="I271" t="s">
+        <v>17</v>
+      </c>
+      <c r="J271" s="6">
+        <v>46030</v>
+      </c>
+      <c r="K271" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="272" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A272" s="12" t="s">
+        <v>605</v>
+      </c>
+      <c r="B272" s="13">
+        <v>14</v>
+      </c>
+      <c r="C272" s="12" t="s">
+        <v>521</v>
+      </c>
+      <c r="D272" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="E272" s="14" t="s">
+        <v>608</v>
+      </c>
+      <c r="F272" t="s">
+        <v>14</v>
+      </c>
+      <c r="G272" t="s">
+        <v>76</v>
+      </c>
+      <c r="H272" t="s">
+        <v>16</v>
+      </c>
+      <c r="I272" t="s">
+        <v>17</v>
+      </c>
+      <c r="J272" s="6">
+        <v>46030</v>
+      </c>
+      <c r="K272" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="273" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A273" s="12" t="s">
+        <v>606</v>
+      </c>
+      <c r="B273" s="13">
+        <v>14</v>
+      </c>
+      <c r="C273" s="12" t="s">
+        <v>523</v>
+      </c>
+      <c r="D273" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="E273" s="14" t="s">
+        <v>608</v>
+      </c>
+      <c r="F273" t="s">
+        <v>14</v>
+      </c>
+      <c r="G273" t="s">
+        <v>76</v>
+      </c>
+      <c r="H273" t="s">
+        <v>16</v>
+      </c>
+      <c r="I273" t="s">
+        <v>17</v>
+      </c>
+      <c r="J273" s="6">
+        <v>46030</v>
+      </c>
+      <c r="K273" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="274" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A274" s="12" t="s">
+        <v>607</v>
+      </c>
+      <c r="B274" s="13">
+        <v>14</v>
+      </c>
+      <c r="C274" s="12" t="s">
+        <v>525</v>
+      </c>
+      <c r="D274" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="E274" s="14" t="s">
+        <v>608</v>
+      </c>
+      <c r="F274" t="s">
+        <v>14</v>
+      </c>
+      <c r="G274" t="s">
+        <v>76</v>
+      </c>
+      <c r="H274" t="s">
+        <v>16</v>
+      </c>
+      <c r="I274" t="s">
+        <v>17</v>
+      </c>
+      <c r="J274" s="6">
+        <v>46030</v>
+      </c>
+      <c r="K274" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="275" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A275" s="12" t="s">
+        <v>609</v>
+      </c>
+      <c r="B275" s="13">
+        <v>16.5</v>
+      </c>
+      <c r="C275" s="12" t="s">
+        <v>527</v>
+      </c>
+      <c r="D275" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="E275" s="14" t="s">
+        <v>613</v>
+      </c>
+      <c r="F275" t="s">
+        <v>14</v>
+      </c>
+      <c r="G275" t="s">
+        <v>76</v>
+      </c>
+      <c r="H275" t="s">
+        <v>16</v>
+      </c>
+      <c r="I275" t="s">
+        <v>17</v>
+      </c>
+      <c r="J275" s="6">
+        <v>46030</v>
+      </c>
+      <c r="K275" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="276" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A276" s="12" t="s">
+        <v>610</v>
+      </c>
+      <c r="B276" s="13">
+        <v>16.5</v>
+      </c>
+      <c r="C276" s="12" t="s">
+        <v>530</v>
+      </c>
+      <c r="D276" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="E276" s="14" t="s">
+        <v>613</v>
+      </c>
+      <c r="F276" t="s">
+        <v>14</v>
+      </c>
+      <c r="G276" t="s">
+        <v>76</v>
+      </c>
+      <c r="H276" t="s">
+        <v>16</v>
+      </c>
+      <c r="I276" t="s">
+        <v>17</v>
+      </c>
+      <c r="J276" s="6">
+        <v>46030</v>
+      </c>
+      <c r="K276" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="277" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A277" s="12" t="s">
+        <v>611</v>
+      </c>
+      <c r="B277" s="13">
+        <v>16.5</v>
+      </c>
+      <c r="C277" s="12" t="s">
+        <v>532</v>
+      </c>
+      <c r="D277" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="E277" s="14" t="s">
+        <v>613</v>
+      </c>
+      <c r="F277" t="s">
+        <v>14</v>
+      </c>
+      <c r="G277" t="s">
+        <v>76</v>
+      </c>
+      <c r="H277" t="s">
+        <v>16</v>
+      </c>
+      <c r="I277" t="s">
+        <v>17</v>
+      </c>
+      <c r="J277" s="6">
+        <v>46030</v>
+      </c>
+      <c r="K277" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="278" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A278" s="12" t="s">
+        <v>612</v>
+      </c>
+      <c r="B278" s="13">
+        <v>16.5</v>
+      </c>
+      <c r="C278" s="12" t="s">
+        <v>534</v>
+      </c>
+      <c r="D278" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="E278" s="14" t="s">
+        <v>613</v>
+      </c>
+      <c r="F278" t="s">
+        <v>14</v>
+      </c>
+      <c r="G278" t="s">
+        <v>76</v>
+      </c>
+      <c r="H278" t="s">
+        <v>16</v>
+      </c>
+      <c r="I278" t="s">
+        <v>17</v>
+      </c>
+      <c r="J278" s="6">
+        <v>46030</v>
+      </c>
+      <c r="K278" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="279" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A279" s="12" t="s">
+        <v>614</v>
+      </c>
+      <c r="B279" s="13">
+        <v>13</v>
+      </c>
+      <c r="C279" s="12" t="s">
+        <v>491</v>
+      </c>
+      <c r="D279" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="E279" s="14" t="s">
+        <v>618</v>
+      </c>
+      <c r="F279" t="s">
+        <v>14</v>
+      </c>
+      <c r="G279" t="s">
+        <v>76</v>
+      </c>
+      <c r="H279" t="s">
+        <v>16</v>
+      </c>
+      <c r="I279" t="s">
+        <v>17</v>
+      </c>
+      <c r="J279" s="6">
+        <v>46030</v>
+      </c>
+      <c r="K279" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="280" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A280" s="12" t="s">
+        <v>615</v>
+      </c>
+      <c r="B280" s="13">
+        <v>13</v>
+      </c>
+      <c r="C280" s="12" t="s">
+        <v>494</v>
+      </c>
+      <c r="D280" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="E280" s="14" t="s">
+        <v>618</v>
+      </c>
+      <c r="F280" t="s">
+        <v>14</v>
+      </c>
+      <c r="G280" t="s">
+        <v>76</v>
+      </c>
+      <c r="H280" t="s">
+        <v>16</v>
+      </c>
+      <c r="I280" t="s">
+        <v>17</v>
+      </c>
+      <c r="J280" s="6">
+        <v>46030</v>
+      </c>
+      <c r="K280" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="281" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A281" s="12" t="s">
+        <v>616</v>
+      </c>
+      <c r="B281" s="13">
+        <v>13</v>
+      </c>
+      <c r="C281" s="12" t="s">
+        <v>496</v>
+      </c>
+      <c r="D281" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="E281" s="14" t="s">
+        <v>618</v>
+      </c>
+      <c r="F281" t="s">
+        <v>14</v>
+      </c>
+      <c r="G281" t="s">
+        <v>76</v>
+      </c>
+      <c r="H281" t="s">
+        <v>16</v>
+      </c>
+      <c r="I281" t="s">
+        <v>17</v>
+      </c>
+      <c r="J281" s="6">
+        <v>46030</v>
+      </c>
+      <c r="K281" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="282" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A282" s="12" t="s">
+        <v>617</v>
+      </c>
+      <c r="B282" s="13">
+        <v>13</v>
+      </c>
+      <c r="C282" s="12" t="s">
+        <v>498</v>
+      </c>
+      <c r="D282" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="E282" s="14" t="s">
+        <v>618</v>
+      </c>
+      <c r="F282" t="s">
+        <v>14</v>
+      </c>
+      <c r="G282" t="s">
+        <v>76</v>
+      </c>
+      <c r="H282" t="s">
+        <v>16</v>
+      </c>
+      <c r="I282" t="s">
+        <v>17</v>
+      </c>
+      <c r="J282" s="6">
+        <v>46030</v>
+      </c>
+      <c r="K282" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="283" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A283" s="12" t="s">
+        <v>619</v>
+      </c>
+      <c r="B283" s="13">
+        <v>14</v>
+      </c>
+      <c r="C283" s="12" t="s">
+        <v>500</v>
+      </c>
+      <c r="D283" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="E283" s="14" t="s">
+        <v>623</v>
+      </c>
+      <c r="F283" t="s">
+        <v>14</v>
+      </c>
+      <c r="G283" t="s">
+        <v>76</v>
+      </c>
+      <c r="H283" t="s">
+        <v>16</v>
+      </c>
+      <c r="I283" t="s">
+        <v>17</v>
+      </c>
+      <c r="J283" s="6">
+        <v>46030</v>
+      </c>
+      <c r="K283" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="284" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A284" s="12" t="s">
+        <v>620</v>
+      </c>
+      <c r="B284" s="13">
+        <v>14</v>
+      </c>
+      <c r="C284" s="12" t="s">
+        <v>503</v>
+      </c>
+      <c r="D284" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="E284" s="14" t="s">
+        <v>623</v>
+      </c>
+      <c r="F284" t="s">
+        <v>14</v>
+      </c>
+      <c r="G284" t="s">
+        <v>76</v>
+      </c>
+      <c r="H284" t="s">
+        <v>16</v>
+      </c>
+      <c r="I284" t="s">
+        <v>17</v>
+      </c>
+      <c r="J284" s="6">
+        <v>46030</v>
+      </c>
+      <c r="K284" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="285" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A285" s="12" t="s">
+        <v>621</v>
+      </c>
+      <c r="B285" s="13">
+        <v>14</v>
+      </c>
+      <c r="C285" s="12" t="s">
+        <v>505</v>
+      </c>
+      <c r="D285" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="E285" s="14" t="s">
+        <v>623</v>
+      </c>
+      <c r="F285" t="s">
+        <v>14</v>
+      </c>
+      <c r="G285" t="s">
+        <v>76</v>
+      </c>
+      <c r="H285" t="s">
+        <v>16</v>
+      </c>
+      <c r="I285" t="s">
+        <v>17</v>
+      </c>
+      <c r="J285" s="6">
+        <v>46030</v>
+      </c>
+      <c r="K285" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="286" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A286" s="12" t="s">
+        <v>622</v>
+      </c>
+      <c r="B286" s="13">
+        <v>14</v>
+      </c>
+      <c r="C286" s="12" t="s">
+        <v>507</v>
+      </c>
+      <c r="D286" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="E286" s="14" t="s">
+        <v>623</v>
+      </c>
+      <c r="F286" t="s">
+        <v>14</v>
+      </c>
+      <c r="G286" t="s">
+        <v>76</v>
+      </c>
+      <c r="H286" t="s">
+        <v>16</v>
+      </c>
+      <c r="I286" t="s">
+        <v>17</v>
+      </c>
+      <c r="J286" s="6">
+        <v>46030</v>
+      </c>
+      <c r="K286" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="287" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A287" s="12" t="s">
+        <v>624</v>
+      </c>
+      <c r="B287" s="13">
+        <v>15.5</v>
+      </c>
+      <c r="C287" s="12" t="s">
+        <v>509</v>
+      </c>
+      <c r="D287" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="E287" s="14" t="s">
+        <v>628</v>
+      </c>
+      <c r="F287" t="s">
+        <v>14</v>
+      </c>
+      <c r="G287" t="s">
+        <v>76</v>
+      </c>
+      <c r="H287" t="s">
+        <v>16</v>
+      </c>
+      <c r="I287" t="s">
+        <v>17</v>
+      </c>
+      <c r="J287" s="6">
+        <v>46030</v>
+      </c>
+      <c r="K287" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="288" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A288" s="12" t="s">
+        <v>625</v>
+      </c>
+      <c r="B288" s="13">
+        <v>15.5</v>
+      </c>
+      <c r="C288" s="12" t="s">
+        <v>512</v>
+      </c>
+      <c r="D288" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="E288" s="14" t="s">
+        <v>628</v>
+      </c>
+      <c r="F288" t="s">
+        <v>14</v>
+      </c>
+      <c r="G288" t="s">
+        <v>76</v>
+      </c>
+      <c r="H288" t="s">
+        <v>16</v>
+      </c>
+      <c r="I288" t="s">
+        <v>17</v>
+      </c>
+      <c r="J288" s="6">
+        <v>46030</v>
+      </c>
+      <c r="K288" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="289" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A289" s="12" t="s">
+        <v>626</v>
+      </c>
+      <c r="B289" s="13">
+        <v>15.5</v>
+      </c>
+      <c r="C289" s="12" t="s">
+        <v>514</v>
+      </c>
+      <c r="D289" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="E289" s="14" t="s">
+        <v>628</v>
+      </c>
+      <c r="F289" t="s">
+        <v>14</v>
+      </c>
+      <c r="G289" t="s">
+        <v>76</v>
+      </c>
+      <c r="H289" t="s">
+        <v>16</v>
+      </c>
+      <c r="I289" t="s">
+        <v>17</v>
+      </c>
+      <c r="J289" s="6">
+        <v>46030</v>
+      </c>
+      <c r="K289" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="290" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A290" s="12" t="s">
+        <v>627</v>
+      </c>
+      <c r="B290" s="13">
+        <v>15.5</v>
+      </c>
+      <c r="C290" s="12" t="s">
+        <v>516</v>
+      </c>
+      <c r="D290" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="E290" s="14" t="s">
+        <v>628</v>
+      </c>
+      <c r="F290" t="s">
+        <v>14</v>
+      </c>
+      <c r="G290" t="s">
+        <v>76</v>
+      </c>
+      <c r="H290" t="s">
+        <v>16</v>
+      </c>
+      <c r="I290" t="s">
+        <v>17</v>
+      </c>
+      <c r="J290" s="6">
+        <v>46030</v>
+      </c>
+      <c r="K290" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="291" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A291" s="12" t="s">
+        <v>629</v>
+      </c>
+      <c r="B291" s="13">
+        <v>16.5</v>
+      </c>
+      <c r="C291" s="12" t="s">
+        <v>519</v>
+      </c>
+      <c r="D291" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="E291" s="14" t="s">
+        <v>633</v>
+      </c>
+      <c r="F291" t="s">
+        <v>14</v>
+      </c>
+      <c r="G291" t="s">
+        <v>76</v>
+      </c>
+      <c r="H291" t="s">
+        <v>16</v>
+      </c>
+      <c r="I291" t="s">
+        <v>17</v>
+      </c>
+      <c r="J291" s="6">
+        <v>46030</v>
+      </c>
+      <c r="K291" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="292" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A292" s="12" t="s">
+        <v>630</v>
+      </c>
+      <c r="B292" s="13">
+        <v>16.5</v>
+      </c>
+      <c r="C292" s="12" t="s">
+        <v>521</v>
+      </c>
+      <c r="D292" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="E292" s="14" t="s">
+        <v>633</v>
+      </c>
+      <c r="F292" t="s">
+        <v>14</v>
+      </c>
+      <c r="G292" t="s">
+        <v>76</v>
+      </c>
+      <c r="H292" t="s">
+        <v>16</v>
+      </c>
+      <c r="I292" t="s">
+        <v>17</v>
+      </c>
+      <c r="J292" s="6">
+        <v>46030</v>
+      </c>
+      <c r="K292" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="293" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A293" s="12" t="s">
+        <v>631</v>
+      </c>
+      <c r="B293" s="13">
+        <v>16.5</v>
+      </c>
+      <c r="C293" s="12" t="s">
+        <v>523</v>
+      </c>
+      <c r="D293" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="E293" s="14" t="s">
+        <v>633</v>
+      </c>
+      <c r="F293" t="s">
+        <v>14</v>
+      </c>
+      <c r="G293" t="s">
+        <v>76</v>
+      </c>
+      <c r="H293" t="s">
+        <v>16</v>
+      </c>
+      <c r="I293" t="s">
+        <v>17</v>
+      </c>
+      <c r="J293" s="6">
+        <v>46030</v>
+      </c>
+      <c r="K293" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="294" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A294" s="12" t="s">
+        <v>632</v>
+      </c>
+      <c r="B294" s="13">
+        <v>16.5</v>
+      </c>
+      <c r="C294" s="12" t="s">
+        <v>525</v>
+      </c>
+      <c r="D294" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="E294" s="14" t="s">
+        <v>633</v>
+      </c>
+      <c r="F294" t="s">
+        <v>14</v>
+      </c>
+      <c r="G294" t="s">
+        <v>76</v>
+      </c>
+      <c r="H294" t="s">
+        <v>16</v>
+      </c>
+      <c r="I294" t="s">
+        <v>17</v>
+      </c>
+      <c r="J294" s="6">
+        <v>46030</v>
+      </c>
+      <c r="K294" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="295" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A295" s="12" t="s">
+        <v>634</v>
+      </c>
+      <c r="B295" s="13">
+        <v>18.5</v>
+      </c>
+      <c r="C295" s="12" t="s">
+        <v>527</v>
+      </c>
+      <c r="D295" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="E295" s="14" t="s">
+        <v>638</v>
+      </c>
+      <c r="F295" t="s">
+        <v>14</v>
+      </c>
+      <c r="G295" t="s">
+        <v>76</v>
+      </c>
+      <c r="H295" t="s">
+        <v>16</v>
+      </c>
+      <c r="I295" t="s">
+        <v>17</v>
+      </c>
+      <c r="J295" s="6">
+        <v>46030</v>
+      </c>
+      <c r="K295" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="296" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A296" s="12" t="s">
+        <v>635</v>
+      </c>
+      <c r="B296" s="13">
+        <v>18.5</v>
+      </c>
+      <c r="C296" s="12" t="s">
+        <v>530</v>
+      </c>
+      <c r="D296" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="E296" s="14" t="s">
+        <v>638</v>
+      </c>
+      <c r="F296" t="s">
+        <v>14</v>
+      </c>
+      <c r="G296" t="s">
+        <v>76</v>
+      </c>
+      <c r="H296" t="s">
+        <v>16</v>
+      </c>
+      <c r="I296" t="s">
+        <v>17</v>
+      </c>
+      <c r="J296" s="6">
+        <v>46030</v>
+      </c>
+      <c r="K296" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="297" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A297" s="12" t="s">
+        <v>636</v>
+      </c>
+      <c r="B297" s="13">
+        <v>18.5</v>
+      </c>
+      <c r="C297" s="12" t="s">
+        <v>532</v>
+      </c>
+      <c r="D297" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="E297" s="14" t="s">
+        <v>638</v>
+      </c>
+      <c r="F297" t="s">
+        <v>14</v>
+      </c>
+      <c r="G297" t="s">
+        <v>76</v>
+      </c>
+      <c r="H297" t="s">
+        <v>16</v>
+      </c>
+      <c r="I297" t="s">
+        <v>17</v>
+      </c>
+      <c r="J297" s="6">
+        <v>46030</v>
+      </c>
+      <c r="K297" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="298" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A298" s="12" t="s">
+        <v>637</v>
+      </c>
+      <c r="B298" s="13">
+        <v>18.5</v>
+      </c>
+      <c r="C298" s="12" t="s">
+        <v>534</v>
+      </c>
+      <c r="D298" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="E298" s="14" t="s">
+        <v>638</v>
+      </c>
+      <c r="F298" t="s">
+        <v>14</v>
+      </c>
+      <c r="G298" t="s">
+        <v>76</v>
+      </c>
+      <c r="H298" t="s">
+        <v>16</v>
+      </c>
+      <c r="I298" t="s">
+        <v>17</v>
+      </c>
+      <c r="J298" s="6">
+        <v>46030</v>
+      </c>
+      <c r="K298" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="299" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A299" s="12" t="s">
+        <v>639</v>
+      </c>
+      <c r="B299" s="13">
+        <v>13</v>
+      </c>
+      <c r="C299" s="12" t="s">
+        <v>491</v>
+      </c>
+      <c r="D299" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="E299" s="14" t="s">
+        <v>643</v>
+      </c>
+      <c r="F299" t="s">
+        <v>14</v>
+      </c>
+      <c r="G299" t="s">
+        <v>76</v>
+      </c>
+      <c r="H299" t="s">
+        <v>16</v>
+      </c>
+      <c r="I299" t="s">
+        <v>17</v>
+      </c>
+      <c r="J299" s="6">
+        <v>46030</v>
+      </c>
+      <c r="K299" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="300" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A300" s="12" t="s">
+        <v>640</v>
+      </c>
+      <c r="B300" s="13">
+        <v>13</v>
+      </c>
+      <c r="C300" s="12" t="s">
+        <v>494</v>
+      </c>
+      <c r="D300" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="E300" s="14" t="s">
+        <v>643</v>
+      </c>
+      <c r="F300" t="s">
+        <v>14</v>
+      </c>
+      <c r="G300" t="s">
+        <v>76</v>
+      </c>
+      <c r="H300" t="s">
+        <v>16</v>
+      </c>
+      <c r="I300" t="s">
+        <v>17</v>
+      </c>
+      <c r="J300" s="6">
+        <v>46030</v>
+      </c>
+      <c r="K300" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="301" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A301" s="12" t="s">
+        <v>641</v>
+      </c>
+      <c r="B301" s="13">
+        <v>13</v>
+      </c>
+      <c r="C301" s="12" t="s">
+        <v>496</v>
+      </c>
+      <c r="D301" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="E301" s="14" t="s">
+        <v>643</v>
+      </c>
+      <c r="F301" t="s">
+        <v>14</v>
+      </c>
+      <c r="G301" t="s">
+        <v>76</v>
+      </c>
+      <c r="H301" t="s">
+        <v>16</v>
+      </c>
+      <c r="I301" t="s">
+        <v>17</v>
+      </c>
+      <c r="J301" s="6">
+        <v>46030</v>
+      </c>
+      <c r="K301" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="302" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A302" s="12" t="s">
+        <v>642</v>
+      </c>
+      <c r="B302" s="13">
+        <v>13</v>
+      </c>
+      <c r="C302" s="12" t="s">
+        <v>498</v>
+      </c>
+      <c r="D302" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="E302" s="14" t="s">
+        <v>643</v>
+      </c>
+      <c r="F302" t="s">
+        <v>14</v>
+      </c>
+      <c r="G302" t="s">
+        <v>76</v>
+      </c>
+      <c r="H302" t="s">
+        <v>16</v>
+      </c>
+      <c r="I302" t="s">
+        <v>17</v>
+      </c>
+      <c r="J302" s="6">
+        <v>46030</v>
+      </c>
+      <c r="K302" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="303" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A303" s="12" t="s">
+        <v>644</v>
+      </c>
+      <c r="B303" s="13">
+        <v>14</v>
+      </c>
+      <c r="C303" s="12" t="s">
+        <v>500</v>
+      </c>
+      <c r="D303" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="E303" s="14" t="s">
+        <v>648</v>
+      </c>
+      <c r="F303" t="s">
+        <v>14</v>
+      </c>
+      <c r="G303" t="s">
+        <v>76</v>
+      </c>
+      <c r="H303" t="s">
+        <v>16</v>
+      </c>
+      <c r="I303" t="s">
+        <v>17</v>
+      </c>
+      <c r="J303" s="6">
+        <v>46030</v>
+      </c>
+      <c r="K303" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="304" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A304" s="12" t="s">
+        <v>645</v>
+      </c>
+      <c r="B304" s="13">
+        <v>14</v>
+      </c>
+      <c r="C304" s="12" t="s">
+        <v>503</v>
+      </c>
+      <c r="D304" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="E304" s="14" t="s">
+        <v>648</v>
+      </c>
+      <c r="F304" t="s">
+        <v>14</v>
+      </c>
+      <c r="G304" t="s">
+        <v>76</v>
+      </c>
+      <c r="H304" t="s">
+        <v>16</v>
+      </c>
+      <c r="I304" t="s">
+        <v>17</v>
+      </c>
+      <c r="J304" s="6">
+        <v>46030</v>
+      </c>
+      <c r="K304" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="305" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A305" s="12" t="s">
+        <v>646</v>
+      </c>
+      <c r="B305" s="13">
+        <v>14</v>
+      </c>
+      <c r="C305" s="12" t="s">
+        <v>505</v>
+      </c>
+      <c r="D305" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="E305" s="14" t="s">
+        <v>648</v>
+      </c>
+      <c r="F305" t="s">
+        <v>14</v>
+      </c>
+      <c r="G305" t="s">
+        <v>76</v>
+      </c>
+      <c r="H305" t="s">
+        <v>16</v>
+      </c>
+      <c r="I305" t="s">
+        <v>17</v>
+      </c>
+      <c r="J305" s="6">
+        <v>46030</v>
+      </c>
+      <c r="K305" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="306" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A306" s="12" t="s">
+        <v>647</v>
+      </c>
+      <c r="B306" s="13">
+        <v>14</v>
+      </c>
+      <c r="C306" s="12" t="s">
+        <v>507</v>
+      </c>
+      <c r="D306" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="E306" s="14" t="s">
+        <v>648</v>
+      </c>
+      <c r="F306" t="s">
+        <v>14</v>
+      </c>
+      <c r="G306" t="s">
+        <v>76</v>
+      </c>
+      <c r="H306" t="s">
+        <v>16</v>
+      </c>
+      <c r="I306" t="s">
+        <v>17</v>
+      </c>
+      <c r="J306" s="6">
+        <v>46030</v>
+      </c>
+      <c r="K306" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="307" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A307" s="12" t="s">
+        <v>649</v>
+      </c>
+      <c r="B307" s="13">
+        <v>15.5</v>
+      </c>
+      <c r="C307" s="12" t="s">
+        <v>509</v>
+      </c>
+      <c r="D307" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="E307" s="14" t="s">
+        <v>653</v>
+      </c>
+      <c r="F307" t="s">
+        <v>14</v>
+      </c>
+      <c r="G307" t="s">
+        <v>76</v>
+      </c>
+      <c r="H307" t="s">
+        <v>16</v>
+      </c>
+      <c r="I307" t="s">
+        <v>17</v>
+      </c>
+      <c r="J307" s="6">
+        <v>46030</v>
+      </c>
+      <c r="K307" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="308" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A308" s="12" t="s">
+        <v>650</v>
+      </c>
+      <c r="B308" s="13">
+        <v>15.5</v>
+      </c>
+      <c r="C308" s="12" t="s">
+        <v>512</v>
+      </c>
+      <c r="D308" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="E308" s="14" t="s">
+        <v>653</v>
+      </c>
+      <c r="F308" t="s">
+        <v>14</v>
+      </c>
+      <c r="G308" t="s">
+        <v>76</v>
+      </c>
+      <c r="H308" t="s">
+        <v>16</v>
+      </c>
+      <c r="I308" t="s">
+        <v>17</v>
+      </c>
+      <c r="J308" s="6">
+        <v>46030</v>
+      </c>
+      <c r="K308" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="309" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A309" s="12" t="s">
+        <v>651</v>
+      </c>
+      <c r="B309" s="13">
+        <v>15.5</v>
+      </c>
+      <c r="C309" s="12" t="s">
+        <v>514</v>
+      </c>
+      <c r="D309" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="E309" s="14" t="s">
+        <v>653</v>
+      </c>
+      <c r="F309" t="s">
+        <v>14</v>
+      </c>
+      <c r="G309" t="s">
+        <v>76</v>
+      </c>
+      <c r="H309" t="s">
+        <v>16</v>
+      </c>
+      <c r="I309" t="s">
+        <v>17</v>
+      </c>
+      <c r="J309" s="6">
+        <v>46030</v>
+      </c>
+      <c r="K309" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="310" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A310" s="12" t="s">
+        <v>652</v>
+      </c>
+      <c r="B310" s="13">
+        <v>15.5</v>
+      </c>
+      <c r="C310" s="12" t="s">
+        <v>516</v>
+      </c>
+      <c r="D310" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="E310" s="14" t="s">
+        <v>653</v>
+      </c>
+      <c r="F310" t="s">
+        <v>14</v>
+      </c>
+      <c r="G310" t="s">
+        <v>76</v>
+      </c>
+      <c r="H310" t="s">
+        <v>16</v>
+      </c>
+      <c r="I310" t="s">
+        <v>17</v>
+      </c>
+      <c r="J310" s="6">
+        <v>46030</v>
+      </c>
+      <c r="K310" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="311" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A311" s="12" t="s">
+        <v>654</v>
+      </c>
+      <c r="B311" s="13">
+        <v>16.5</v>
+      </c>
+      <c r="C311" s="12" t="s">
+        <v>519</v>
+      </c>
+      <c r="D311" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="E311" s="14" t="s">
+        <v>658</v>
+      </c>
+      <c r="F311" t="s">
+        <v>14</v>
+      </c>
+      <c r="G311" t="s">
+        <v>76</v>
+      </c>
+      <c r="H311" t="s">
+        <v>16</v>
+      </c>
+      <c r="I311" t="s">
+        <v>17</v>
+      </c>
+      <c r="J311" s="6">
+        <v>46030</v>
+      </c>
+      <c r="K311" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="312" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A312" s="12" t="s">
+        <v>655</v>
+      </c>
+      <c r="B312" s="13">
+        <v>16.5</v>
+      </c>
+      <c r="C312" s="12" t="s">
+        <v>521</v>
+      </c>
+      <c r="D312" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="E312" s="14" t="s">
+        <v>658</v>
+      </c>
+      <c r="F312" t="s">
+        <v>14</v>
+      </c>
+      <c r="G312" t="s">
+        <v>76</v>
+      </c>
+      <c r="H312" t="s">
+        <v>16</v>
+      </c>
+      <c r="I312" t="s">
+        <v>17</v>
+      </c>
+      <c r="J312" s="6">
+        <v>46030</v>
+      </c>
+      <c r="K312" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="313" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A313" s="12" t="s">
+        <v>656</v>
+      </c>
+      <c r="B313" s="13">
+        <v>16.5</v>
+      </c>
+      <c r="C313" s="12" t="s">
+        <v>523</v>
+      </c>
+      <c r="D313" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="E313" s="14" t="s">
+        <v>658</v>
+      </c>
+      <c r="F313" t="s">
+        <v>14</v>
+      </c>
+      <c r="G313" t="s">
+        <v>76</v>
+      </c>
+      <c r="H313" t="s">
+        <v>16</v>
+      </c>
+      <c r="I313" t="s">
+        <v>17</v>
+      </c>
+      <c r="J313" s="6">
+        <v>46030</v>
+      </c>
+      <c r="K313" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="314" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A314" s="12" t="s">
+        <v>657</v>
+      </c>
+      <c r="B314" s="13">
+        <v>16.5</v>
+      </c>
+      <c r="C314" s="12" t="s">
+        <v>525</v>
+      </c>
+      <c r="D314" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="E314" s="14" t="s">
+        <v>658</v>
+      </c>
+      <c r="F314" t="s">
+        <v>14</v>
+      </c>
+      <c r="G314" t="s">
+        <v>76</v>
+      </c>
+      <c r="H314" t="s">
+        <v>16</v>
+      </c>
+      <c r="I314" t="s">
+        <v>17</v>
+      </c>
+      <c r="J314" s="6">
+        <v>46030</v>
+      </c>
+      <c r="K314" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="315" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A315" s="12" t="s">
+        <v>659</v>
+      </c>
+      <c r="B315" s="13">
+        <v>18.5</v>
+      </c>
+      <c r="C315" s="12" t="s">
+        <v>527</v>
+      </c>
+      <c r="D315" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="E315" s="14" t="s">
+        <v>663</v>
+      </c>
+      <c r="F315" t="s">
+        <v>14</v>
+      </c>
+      <c r="G315" t="s">
+        <v>76</v>
+      </c>
+      <c r="H315" t="s">
+        <v>16</v>
+      </c>
+      <c r="I315" t="s">
+        <v>17</v>
+      </c>
+      <c r="J315" s="6">
+        <v>46030</v>
+      </c>
+      <c r="K315" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="316" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A316" s="12" t="s">
+        <v>660</v>
+      </c>
+      <c r="B316" s="13">
+        <v>18.5</v>
+      </c>
+      <c r="C316" s="12" t="s">
+        <v>530</v>
+      </c>
+      <c r="D316" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="E316" s="14" t="s">
+        <v>663</v>
+      </c>
+      <c r="F316" t="s">
+        <v>14</v>
+      </c>
+      <c r="G316" t="s">
+        <v>76</v>
+      </c>
+      <c r="H316" t="s">
+        <v>16</v>
+      </c>
+      <c r="I316" t="s">
+        <v>17</v>
+      </c>
+      <c r="J316" s="6">
+        <v>46030</v>
+      </c>
+      <c r="K316" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="317" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A317" s="12" t="s">
+        <v>661</v>
+      </c>
+      <c r="B317" s="13">
+        <v>18.5</v>
+      </c>
+      <c r="C317" s="12" t="s">
+        <v>532</v>
+      </c>
+      <c r="D317" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="E317" s="14" t="s">
+        <v>663</v>
+      </c>
+      <c r="F317" t="s">
+        <v>14</v>
+      </c>
+      <c r="G317" t="s">
+        <v>76</v>
+      </c>
+      <c r="H317" t="s">
+        <v>16</v>
+      </c>
+      <c r="I317" t="s">
+        <v>17</v>
+      </c>
+      <c r="J317" s="6">
+        <v>46030</v>
+      </c>
+      <c r="K317" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="318" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A318" s="12" t="s">
+        <v>662</v>
+      </c>
+      <c r="B318" s="13">
+        <v>18.5</v>
+      </c>
+      <c r="C318" s="12" t="s">
+        <v>534</v>
+      </c>
+      <c r="D318" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="E318" s="14" t="s">
+        <v>663</v>
+      </c>
+      <c r="F318" t="s">
+        <v>14</v>
+      </c>
+      <c r="G318" t="s">
+        <v>76</v>
+      </c>
+      <c r="H318" t="s">
+        <v>16</v>
+      </c>
+      <c r="I318" t="s">
+        <v>17</v>
+      </c>
+      <c r="J318" s="6">
+        <v>46030</v>
+      </c>
+      <c r="K318" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="319" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A319" s="12" t="s">
+        <v>664</v>
+      </c>
+      <c r="B319" s="13">
+        <v>14</v>
+      </c>
+      <c r="C319" s="12" t="s">
+        <v>669</v>
+      </c>
+      <c r="D319" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="E319" s="14" t="s">
+        <v>668</v>
+      </c>
+      <c r="F319" t="s">
+        <v>14</v>
+      </c>
+      <c r="G319" t="s">
+        <v>76</v>
+      </c>
+      <c r="H319" t="s">
+        <v>16</v>
+      </c>
+      <c r="I319" t="s">
+        <v>17</v>
+      </c>
+      <c r="J319" s="6">
+        <v>46030</v>
+      </c>
+      <c r="K319" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="320" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A320" s="12" t="s">
+        <v>665</v>
+      </c>
+      <c r="B320" s="13">
+        <v>14</v>
+      </c>
+      <c r="C320" s="12" t="s">
+        <v>670</v>
+      </c>
+      <c r="D320" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="E320" s="14" t="s">
+        <v>668</v>
+      </c>
+      <c r="F320" t="s">
+        <v>14</v>
+      </c>
+      <c r="G320" t="s">
+        <v>76</v>
+      </c>
+      <c r="H320" t="s">
+        <v>16</v>
+      </c>
+      <c r="I320" t="s">
+        <v>17</v>
+      </c>
+      <c r="J320" s="6">
+        <v>46030</v>
+      </c>
+      <c r="K320" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="321" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A321" s="12" t="s">
+        <v>666</v>
+      </c>
+      <c r="B321" s="13">
+        <v>14</v>
+      </c>
+      <c r="C321" s="12" t="s">
+        <v>671</v>
+      </c>
+      <c r="D321" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="E321" s="14" t="s">
+        <v>668</v>
+      </c>
+      <c r="F321" t="s">
+        <v>14</v>
+      </c>
+      <c r="G321" t="s">
+        <v>76</v>
+      </c>
+      <c r="H321" t="s">
+        <v>16</v>
+      </c>
+      <c r="I321" t="s">
+        <v>17</v>
+      </c>
+      <c r="J321" s="6">
+        <v>46030</v>
+      </c>
+      <c r="K321" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="322" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A322" s="12" t="s">
+        <v>667</v>
+      </c>
+      <c r="B322" s="13">
+        <v>14</v>
+      </c>
+      <c r="C322" s="12" t="s">
+        <v>672</v>
+      </c>
+      <c r="D322" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="E322" s="14" t="s">
+        <v>668</v>
+      </c>
+      <c r="F322" t="s">
+        <v>14</v>
+      </c>
+      <c r="G322" t="s">
+        <v>76</v>
+      </c>
+      <c r="H322" t="s">
+        <v>16</v>
+      </c>
+      <c r="I322" t="s">
+        <v>17</v>
+      </c>
+      <c r="J322" s="6">
+        <v>46030</v>
+      </c>
+      <c r="K322" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="323" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A323" s="12" t="s">
+        <v>673</v>
+      </c>
+      <c r="B323" s="13">
+        <v>15.5</v>
+      </c>
+      <c r="C323" s="12" t="s">
+        <v>500</v>
+      </c>
+      <c r="D323" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="E323" s="14" t="s">
+        <v>677</v>
+      </c>
+      <c r="F323" t="s">
+        <v>14</v>
+      </c>
+      <c r="G323" t="s">
+        <v>76</v>
+      </c>
+      <c r="H323" t="s">
+        <v>16</v>
+      </c>
+      <c r="I323" t="s">
+        <v>17</v>
+      </c>
+      <c r="J323" s="6">
+        <v>46030</v>
+      </c>
+      <c r="K323" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="324" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A324" s="12" t="s">
+        <v>674</v>
+      </c>
+      <c r="B324" s="13">
+        <v>15.5</v>
+      </c>
+      <c r="C324" s="12" t="s">
+        <v>503</v>
+      </c>
+      <c r="D324" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="E324" s="14" t="s">
+        <v>677</v>
+      </c>
+      <c r="F324" t="s">
+        <v>14</v>
+      </c>
+      <c r="G324" t="s">
+        <v>76</v>
+      </c>
+      <c r="H324" t="s">
+        <v>16</v>
+      </c>
+      <c r="I324" t="s">
+        <v>17</v>
+      </c>
+      <c r="J324" s="6">
+        <v>46030</v>
+      </c>
+      <c r="K324" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="325" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A325" s="12" t="s">
+        <v>675</v>
+      </c>
+      <c r="B325" s="13">
+        <v>15.5</v>
+      </c>
+      <c r="C325" s="12" t="s">
+        <v>505</v>
+      </c>
+      <c r="D325" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="E325" s="14" t="s">
+        <v>677</v>
+      </c>
+      <c r="F325" t="s">
+        <v>14</v>
+      </c>
+      <c r="G325" t="s">
+        <v>76</v>
+      </c>
+      <c r="H325" t="s">
+        <v>16</v>
+      </c>
+      <c r="I325" t="s">
+        <v>17</v>
+      </c>
+      <c r="J325" s="6">
+        <v>46030</v>
+      </c>
+      <c r="K325" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="326" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A326" s="12" t="s">
+        <v>676</v>
+      </c>
+      <c r="B326" s="13">
+        <v>15.5</v>
+      </c>
+      <c r="C326" s="12" t="s">
+        <v>507</v>
+      </c>
+      <c r="D326" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="E326" s="14" t="s">
+        <v>677</v>
+      </c>
+      <c r="F326" t="s">
+        <v>14</v>
+      </c>
+      <c r="G326" t="s">
+        <v>76</v>
+      </c>
+      <c r="H326" t="s">
+        <v>16</v>
+      </c>
+      <c r="I326" t="s">
+        <v>17</v>
+      </c>
+      <c r="J326" s="6">
+        <v>46030</v>
+      </c>
+      <c r="K326" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="327" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A327" s="12" t="s">
+        <v>678</v>
+      </c>
+      <c r="B327" s="13">
+        <v>16.5</v>
+      </c>
+      <c r="C327" s="12" t="s">
+        <v>509</v>
+      </c>
+      <c r="D327" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="E327" s="14" t="s">
+        <v>682</v>
+      </c>
+      <c r="F327" t="s">
+        <v>14</v>
+      </c>
+      <c r="G327" t="s">
+        <v>76</v>
+      </c>
+      <c r="H327" t="s">
+        <v>16</v>
+      </c>
+      <c r="I327" t="s">
+        <v>17</v>
+      </c>
+      <c r="J327" s="6">
+        <v>46030</v>
+      </c>
+      <c r="K327" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="328" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A328" s="12" t="s">
+        <v>679</v>
+      </c>
+      <c r="B328" s="13">
+        <v>16.5</v>
+      </c>
+      <c r="C328" s="12" t="s">
+        <v>512</v>
+      </c>
+      <c r="D328" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="E328" s="14" t="s">
+        <v>682</v>
+      </c>
+      <c r="F328" t="s">
+        <v>14</v>
+      </c>
+      <c r="G328" t="s">
+        <v>76</v>
+      </c>
+      <c r="H328" t="s">
+        <v>16</v>
+      </c>
+      <c r="I328" t="s">
+        <v>17</v>
+      </c>
+      <c r="J328" s="6">
+        <v>46030</v>
+      </c>
+      <c r="K328" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="329" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A329" s="12" t="s">
+        <v>680</v>
+      </c>
+      <c r="B329" s="13">
+        <v>16.5</v>
+      </c>
+      <c r="C329" s="12" t="s">
+        <v>514</v>
+      </c>
+      <c r="D329" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="E329" s="14" t="s">
+        <v>682</v>
+      </c>
+      <c r="F329" t="s">
+        <v>14</v>
+      </c>
+      <c r="G329" t="s">
+        <v>76</v>
+      </c>
+      <c r="H329" t="s">
+        <v>16</v>
+      </c>
+      <c r="I329" t="s">
+        <v>17</v>
+      </c>
+      <c r="J329" s="6">
+        <v>46030</v>
+      </c>
+      <c r="K329" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="330" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A330" s="12" t="s">
+        <v>681</v>
+      </c>
+      <c r="B330" s="13">
+        <v>16.5</v>
+      </c>
+      <c r="C330" s="12" t="s">
+        <v>516</v>
+      </c>
+      <c r="D330" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="E330" s="14" t="s">
+        <v>682</v>
+      </c>
+      <c r="F330" t="s">
+        <v>14</v>
+      </c>
+      <c r="G330" t="s">
+        <v>76</v>
+      </c>
+      <c r="H330" t="s">
+        <v>16</v>
+      </c>
+      <c r="I330" t="s">
+        <v>17</v>
+      </c>
+      <c r="J330" s="6">
+        <v>46030</v>
+      </c>
+      <c r="K330" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="331" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A331" s="12" t="s">
+        <v>683</v>
+      </c>
+      <c r="B331" s="13">
+        <v>17.5</v>
+      </c>
+      <c r="C331" s="12" t="s">
+        <v>519</v>
+      </c>
+      <c r="D331" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="E331" s="14" t="s">
+        <v>687</v>
+      </c>
+      <c r="F331" t="s">
+        <v>14</v>
+      </c>
+      <c r="G331" t="s">
+        <v>76</v>
+      </c>
+      <c r="H331" t="s">
+        <v>16</v>
+      </c>
+      <c r="I331" t="s">
+        <v>17</v>
+      </c>
+      <c r="J331" s="6">
+        <v>46030</v>
+      </c>
+      <c r="K331" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="332" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A332" s="12" t="s">
+        <v>684</v>
+      </c>
+      <c r="B332" s="13">
+        <v>17.5</v>
+      </c>
+      <c r="C332" s="12" t="s">
+        <v>521</v>
+      </c>
+      <c r="D332" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="E332" s="14" t="s">
+        <v>687</v>
+      </c>
+      <c r="F332" t="s">
+        <v>14</v>
+      </c>
+      <c r="G332" t="s">
+        <v>76</v>
+      </c>
+      <c r="H332" t="s">
+        <v>16</v>
+      </c>
+      <c r="I332" t="s">
+        <v>17</v>
+      </c>
+      <c r="J332" s="6">
+        <v>46030</v>
+      </c>
+      <c r="K332" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="333" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A333" s="12" t="s">
+        <v>685</v>
+      </c>
+      <c r="B333" s="13">
+        <v>17.5</v>
+      </c>
+      <c r="C333" s="12" t="s">
+        <v>523</v>
+      </c>
+      <c r="D333" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="E333" s="14" t="s">
+        <v>687</v>
+      </c>
+      <c r="F333" t="s">
+        <v>14</v>
+      </c>
+      <c r="G333" t="s">
+        <v>76</v>
+      </c>
+      <c r="H333" t="s">
+        <v>16</v>
+      </c>
+      <c r="I333" t="s">
+        <v>17</v>
+      </c>
+      <c r="J333" s="6">
+        <v>46030</v>
+      </c>
+      <c r="K333" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="334" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A334" s="12" t="s">
+        <v>686</v>
+      </c>
+      <c r="B334" s="13">
+        <v>17.5</v>
+      </c>
+      <c r="C334" s="12" t="s">
+        <v>525</v>
+      </c>
+      <c r="D334" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="E334" s="14" t="s">
+        <v>687</v>
+      </c>
+      <c r="F334" t="s">
+        <v>14</v>
+      </c>
+      <c r="G334" t="s">
+        <v>76</v>
+      </c>
+      <c r="H334" t="s">
+        <v>16</v>
+      </c>
+      <c r="I334" t="s">
+        <v>17</v>
+      </c>
+      <c r="J334" s="6">
+        <v>46030</v>
+      </c>
+      <c r="K334" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="335" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A335" s="12" t="s">
+        <v>688</v>
+      </c>
+      <c r="B335" s="13">
+        <v>19.5</v>
+      </c>
+      <c r="C335" s="12" t="s">
+        <v>527</v>
+      </c>
+      <c r="D335" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="E335" s="14" t="s">
+        <v>692</v>
+      </c>
+      <c r="F335" t="s">
+        <v>14</v>
+      </c>
+      <c r="G335" t="s">
+        <v>76</v>
+      </c>
+      <c r="H335" t="s">
+        <v>16</v>
+      </c>
+      <c r="I335" t="s">
+        <v>17</v>
+      </c>
+      <c r="J335" s="6">
+        <v>46030</v>
+      </c>
+      <c r="K335" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="336" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A336" s="12" t="s">
+        <v>689</v>
+      </c>
+      <c r="B336" s="13">
+        <v>19.5</v>
+      </c>
+      <c r="C336" s="12" t="s">
+        <v>530</v>
+      </c>
+      <c r="D336" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="E336" s="14" t="s">
+        <v>692</v>
+      </c>
+      <c r="F336" t="s">
+        <v>14</v>
+      </c>
+      <c r="G336" t="s">
+        <v>76</v>
+      </c>
+      <c r="H336" t="s">
+        <v>16</v>
+      </c>
+      <c r="I336" t="s">
+        <v>17</v>
+      </c>
+      <c r="J336" s="6">
+        <v>46030</v>
+      </c>
+      <c r="K336" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="337" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A337" s="12" t="s">
+        <v>690</v>
+      </c>
+      <c r="B337" s="13">
+        <v>19.5</v>
+      </c>
+      <c r="C337" s="12" t="s">
+        <v>532</v>
+      </c>
+      <c r="D337" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="E337" s="14" t="s">
+        <v>692</v>
+      </c>
+      <c r="F337" t="s">
+        <v>14</v>
+      </c>
+      <c r="G337" t="s">
+        <v>76</v>
+      </c>
+      <c r="H337" t="s">
+        <v>16</v>
+      </c>
+      <c r="I337" t="s">
+        <v>17</v>
+      </c>
+      <c r="J337" s="6">
+        <v>46030</v>
+      </c>
+      <c r="K337" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="338" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A338" s="12" t="s">
+        <v>691</v>
+      </c>
+      <c r="B338" s="13">
+        <v>19.5</v>
+      </c>
+      <c r="C338" s="12" t="s">
+        <v>534</v>
+      </c>
+      <c r="D338" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="E338" s="14" t="s">
+        <v>692</v>
+      </c>
+      <c r="F338" t="s">
+        <v>14</v>
+      </c>
+      <c r="G338" t="s">
+        <v>76</v>
+      </c>
+      <c r="H338" t="s">
+        <v>16</v>
+      </c>
+      <c r="I338" t="s">
+        <v>17</v>
+      </c>
+      <c r="J338" s="6">
+        <v>46030</v>
+      </c>
+      <c r="K338" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="339" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A339" s="12" t="s">
+        <v>693</v>
+      </c>
+      <c r="B339" s="13">
+        <v>14</v>
+      </c>
+      <c r="C339" s="12" t="s">
+        <v>491</v>
+      </c>
+      <c r="D339" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="E339" s="14" t="s">
+        <v>697</v>
+      </c>
+      <c r="F339" t="s">
+        <v>14</v>
+      </c>
+      <c r="G339" t="s">
+        <v>76</v>
+      </c>
+      <c r="H339" t="s">
+        <v>16</v>
+      </c>
+      <c r="I339" t="s">
+        <v>17</v>
+      </c>
+      <c r="J339" s="6">
+        <v>46030</v>
+      </c>
+      <c r="K339" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="340" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A340" s="12" t="s">
+        <v>694</v>
+      </c>
+      <c r="B340" s="13">
+        <v>14</v>
+      </c>
+      <c r="C340" s="12" t="s">
+        <v>494</v>
+      </c>
+      <c r="D340" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="E340" s="14" t="s">
+        <v>697</v>
+      </c>
+      <c r="F340" t="s">
+        <v>14</v>
+      </c>
+      <c r="G340" t="s">
+        <v>76</v>
+      </c>
+      <c r="H340" t="s">
+        <v>16</v>
+      </c>
+      <c r="I340" t="s">
+        <v>17</v>
+      </c>
+      <c r="J340" s="6">
+        <v>46030</v>
+      </c>
+      <c r="K340" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="341" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A341" s="12" t="s">
+        <v>695</v>
+      </c>
+      <c r="B341" s="13">
+        <v>14</v>
+      </c>
+      <c r="C341" s="12" t="s">
+        <v>496</v>
+      </c>
+      <c r="D341" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="E341" s="14" t="s">
+        <v>697</v>
+      </c>
+      <c r="F341" t="s">
+        <v>14</v>
+      </c>
+      <c r="G341" t="s">
+        <v>76</v>
+      </c>
+      <c r="H341" t="s">
+        <v>16</v>
+      </c>
+      <c r="I341" t="s">
+        <v>17</v>
+      </c>
+      <c r="J341" s="6">
+        <v>46030</v>
+      </c>
+      <c r="K341" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="342" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A342" s="12" t="s">
+        <v>696</v>
+      </c>
+      <c r="B342" s="13">
+        <v>14</v>
+      </c>
+      <c r="C342" s="12" t="s">
+        <v>498</v>
+      </c>
+      <c r="D342" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="E342" s="14" t="s">
+        <v>697</v>
+      </c>
+      <c r="F342" t="s">
+        <v>14</v>
+      </c>
+      <c r="G342" t="s">
+        <v>76</v>
+      </c>
+      <c r="H342" t="s">
+        <v>16</v>
+      </c>
+      <c r="I342" t="s">
+        <v>17</v>
+      </c>
+      <c r="J342" s="6">
+        <v>46030</v>
+      </c>
+      <c r="K342" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="343" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A343" s="12" t="s">
+        <v>698</v>
+      </c>
+      <c r="B343" s="13">
+        <v>15.5</v>
+      </c>
+      <c r="C343" s="12" t="s">
+        <v>500</v>
+      </c>
+      <c r="D343" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="E343" s="14" t="s">
+        <v>702</v>
+      </c>
+      <c r="F343" t="s">
+        <v>14</v>
+      </c>
+      <c r="G343" t="s">
+        <v>76</v>
+      </c>
+      <c r="H343" t="s">
+        <v>16</v>
+      </c>
+      <c r="I343" t="s">
+        <v>17</v>
+      </c>
+      <c r="J343" s="6">
+        <v>46030</v>
+      </c>
+      <c r="K343" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="344" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A344" s="12" t="s">
+        <v>699</v>
+      </c>
+      <c r="B344" s="13">
+        <v>15.5</v>
+      </c>
+      <c r="C344" s="12" t="s">
+        <v>503</v>
+      </c>
+      <c r="D344" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="E344" s="14" t="s">
+        <v>702</v>
+      </c>
+      <c r="F344" t="s">
+        <v>14</v>
+      </c>
+      <c r="G344" t="s">
+        <v>76</v>
+      </c>
+      <c r="H344" t="s">
+        <v>16</v>
+      </c>
+      <c r="I344" t="s">
+        <v>17</v>
+      </c>
+      <c r="J344" s="6">
+        <v>46030</v>
+      </c>
+      <c r="K344" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="345" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A345" s="12" t="s">
+        <v>700</v>
+      </c>
+      <c r="B345" s="13">
+        <v>15.5</v>
+      </c>
+      <c r="C345" s="12" t="s">
+        <v>505</v>
+      </c>
+      <c r="D345" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="E345" s="14" t="s">
+        <v>702</v>
+      </c>
+      <c r="F345" t="s">
+        <v>14</v>
+      </c>
+      <c r="G345" t="s">
+        <v>76</v>
+      </c>
+      <c r="H345" t="s">
+        <v>16</v>
+      </c>
+      <c r="I345" t="s">
+        <v>17</v>
+      </c>
+      <c r="J345" s="6">
+        <v>46030</v>
+      </c>
+      <c r="K345" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="346" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A346" s="12" t="s">
+        <v>701</v>
+      </c>
+      <c r="B346" s="13">
+        <v>15.5</v>
+      </c>
+      <c r="C346" s="12" t="s">
+        <v>507</v>
+      </c>
+      <c r="D346" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="E346" s="14" t="s">
+        <v>702</v>
+      </c>
+      <c r="F346" t="s">
+        <v>14</v>
+      </c>
+      <c r="G346" t="s">
+        <v>76</v>
+      </c>
+      <c r="H346" t="s">
+        <v>16</v>
+      </c>
+      <c r="I346" t="s">
+        <v>17</v>
+      </c>
+      <c r="J346" s="6">
+        <v>46030</v>
+      </c>
+      <c r="K346" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="347" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A347" s="12" t="s">
+        <v>703</v>
+      </c>
+      <c r="B347" s="13">
+        <v>16.5</v>
+      </c>
+      <c r="C347" s="12" t="s">
+        <v>509</v>
+      </c>
+      <c r="D347" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="E347" s="14" t="s">
+        <v>707</v>
+      </c>
+      <c r="F347" t="s">
+        <v>14</v>
+      </c>
+      <c r="G347" t="s">
+        <v>76</v>
+      </c>
+      <c r="H347" t="s">
+        <v>16</v>
+      </c>
+      <c r="I347" t="s">
+        <v>17</v>
+      </c>
+      <c r="J347" s="6">
+        <v>46030</v>
+      </c>
+      <c r="K347" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="348" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A348" s="12" t="s">
+        <v>704</v>
+      </c>
+      <c r="B348" s="13">
+        <v>16.5</v>
+      </c>
+      <c r="C348" s="12" t="s">
+        <v>512</v>
+      </c>
+      <c r="D348" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="E348" s="14" t="s">
+        <v>707</v>
+      </c>
+      <c r="F348" t="s">
+        <v>14</v>
+      </c>
+      <c r="G348" t="s">
+        <v>76</v>
+      </c>
+      <c r="H348" t="s">
+        <v>16</v>
+      </c>
+      <c r="I348" t="s">
+        <v>17</v>
+      </c>
+      <c r="J348" s="6">
+        <v>46030</v>
+      </c>
+      <c r="K348" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="349" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A349" s="12" t="s">
+        <v>705</v>
+      </c>
+      <c r="B349" s="13">
+        <v>16.5</v>
+      </c>
+      <c r="C349" s="12" t="s">
+        <v>514</v>
+      </c>
+      <c r="D349" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="E349" s="14" t="s">
+        <v>707</v>
+      </c>
+      <c r="F349" t="s">
+        <v>14</v>
+      </c>
+      <c r="G349" t="s">
+        <v>76</v>
+      </c>
+      <c r="H349" t="s">
+        <v>16</v>
+      </c>
+      <c r="I349" t="s">
+        <v>17</v>
+      </c>
+      <c r="J349" s="6">
+        <v>46030</v>
+      </c>
+      <c r="K349" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="350" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A350" s="12" t="s">
+        <v>706</v>
+      </c>
+      <c r="B350" s="13">
+        <v>16.5</v>
+      </c>
+      <c r="C350" s="12" t="s">
+        <v>516</v>
+      </c>
+      <c r="D350" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="E350" s="14" t="s">
+        <v>707</v>
+      </c>
+      <c r="F350" t="s">
+        <v>14</v>
+      </c>
+      <c r="G350" t="s">
+        <v>76</v>
+      </c>
+      <c r="H350" t="s">
+        <v>16</v>
+      </c>
+      <c r="I350" t="s">
+        <v>17</v>
+      </c>
+      <c r="J350" s="6">
+        <v>46030</v>
+      </c>
+      <c r="K350" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="351" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A351" s="12" t="s">
+        <v>708</v>
+      </c>
+      <c r="B351" s="13">
+        <v>17.5</v>
+      </c>
+      <c r="C351" s="12" t="s">
+        <v>519</v>
+      </c>
+      <c r="D351" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="E351" s="14" t="s">
+        <v>712</v>
+      </c>
+      <c r="F351" t="s">
+        <v>14</v>
+      </c>
+      <c r="G351" t="s">
+        <v>76</v>
+      </c>
+      <c r="H351" t="s">
+        <v>16</v>
+      </c>
+      <c r="I351" t="s">
+        <v>17</v>
+      </c>
+      <c r="J351" s="6">
+        <v>46030</v>
+      </c>
+      <c r="K351" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="352" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A352" s="12" t="s">
+        <v>709</v>
+      </c>
+      <c r="B352" s="13">
+        <v>17.5</v>
+      </c>
+      <c r="C352" s="12" t="s">
+        <v>521</v>
+      </c>
+      <c r="D352" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="E352" s="14" t="s">
+        <v>712</v>
+      </c>
+      <c r="F352" t="s">
+        <v>14</v>
+      </c>
+      <c r="G352" t="s">
+        <v>76</v>
+      </c>
+      <c r="H352" t="s">
+        <v>16</v>
+      </c>
+      <c r="I352" t="s">
+        <v>17</v>
+      </c>
+      <c r="J352" s="6">
+        <v>46030</v>
+      </c>
+      <c r="K352" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="353" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A353" s="12" t="s">
+        <v>710</v>
+      </c>
+      <c r="B353" s="13">
+        <v>17.5</v>
+      </c>
+      <c r="C353" s="12" t="s">
+        <v>523</v>
+      </c>
+      <c r="D353" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="E353" s="14" t="s">
+        <v>712</v>
+      </c>
+      <c r="F353" t="s">
+        <v>14</v>
+      </c>
+      <c r="G353" t="s">
+        <v>76</v>
+      </c>
+      <c r="H353" t="s">
+        <v>16</v>
+      </c>
+      <c r="I353" t="s">
+        <v>17</v>
+      </c>
+      <c r="J353" s="6">
+        <v>46030</v>
+      </c>
+      <c r="K353" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="354" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A354" s="12" t="s">
+        <v>711</v>
+      </c>
+      <c r="B354" s="13">
+        <v>17.5</v>
+      </c>
+      <c r="C354" s="12" t="s">
+        <v>525</v>
+      </c>
+      <c r="D354" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="E354" s="14" t="s">
+        <v>712</v>
+      </c>
+      <c r="F354" t="s">
+        <v>14</v>
+      </c>
+      <c r="G354" t="s">
+        <v>76</v>
+      </c>
+      <c r="H354" t="s">
+        <v>16</v>
+      </c>
+      <c r="I354" t="s">
+        <v>17</v>
+      </c>
+      <c r="J354" s="6">
+        <v>46030</v>
+      </c>
+      <c r="K354" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="355" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A355" s="12" t="s">
+        <v>713</v>
+      </c>
+      <c r="B355" s="13">
+        <v>19.5</v>
+      </c>
+      <c r="C355" s="12" t="s">
+        <v>527</v>
+      </c>
+      <c r="D355" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="E355" s="14" t="s">
+        <v>717</v>
+      </c>
+      <c r="F355" t="s">
+        <v>14</v>
+      </c>
+      <c r="G355" t="s">
+        <v>76</v>
+      </c>
+      <c r="H355" t="s">
+        <v>16</v>
+      </c>
+      <c r="I355" t="s">
+        <v>17</v>
+      </c>
+      <c r="J355" s="6">
+        <v>46030</v>
+      </c>
+      <c r="K355" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="356" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A356" s="12" t="s">
+        <v>714</v>
+      </c>
+      <c r="B356" s="13">
+        <v>19.5</v>
+      </c>
+      <c r="C356" s="12" t="s">
+        <v>530</v>
+      </c>
+      <c r="D356" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="E356" s="14" t="s">
+        <v>717</v>
+      </c>
+      <c r="F356" t="s">
+        <v>14</v>
+      </c>
+      <c r="G356" t="s">
+        <v>76</v>
+      </c>
+      <c r="H356" t="s">
+        <v>16</v>
+      </c>
+      <c r="I356" t="s">
+        <v>17</v>
+      </c>
+      <c r="J356" s="6">
+        <v>46030</v>
+      </c>
+      <c r="K356" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="357" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A357" s="12" t="s">
+        <v>715</v>
+      </c>
+      <c r="B357" s="13">
+        <v>19.5</v>
+      </c>
+      <c r="C357" s="12" t="s">
+        <v>532</v>
+      </c>
+      <c r="D357" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="E357" s="14" t="s">
+        <v>717</v>
+      </c>
+      <c r="F357" t="s">
+        <v>14</v>
+      </c>
+      <c r="G357" t="s">
+        <v>76</v>
+      </c>
+      <c r="H357" t="s">
+        <v>16</v>
+      </c>
+      <c r="I357" t="s">
+        <v>17</v>
+      </c>
+      <c r="J357" s="6">
+        <v>46030</v>
+      </c>
+      <c r="K357" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="358" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A358" s="12" t="s">
+        <v>716</v>
+      </c>
+      <c r="B358" s="13">
+        <v>19.5</v>
+      </c>
+      <c r="C358" s="12" t="s">
+        <v>534</v>
+      </c>
+      <c r="D358" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="E358" s="14" t="s">
+        <v>717</v>
+      </c>
+      <c r="F358" t="s">
+        <v>14</v>
+      </c>
+      <c r="G358" t="s">
+        <v>76</v>
+      </c>
+      <c r="H358" t="s">
+        <v>16</v>
+      </c>
+      <c r="I358" t="s">
+        <v>17</v>
+      </c>
+      <c r="J358" s="6">
+        <v>46030</v>
+      </c>
+      <c r="K358" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="359" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A359" s="12" t="s">
+        <v>718</v>
+      </c>
+      <c r="B359" s="13">
+        <v>14</v>
+      </c>
+      <c r="C359" s="12" t="s">
+        <v>738</v>
+      </c>
+      <c r="D359" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="E359" s="14" t="s">
+        <v>743</v>
+      </c>
+      <c r="F359" t="s">
+        <v>14</v>
+      </c>
+      <c r="G359" t="s">
+        <v>76</v>
+      </c>
+      <c r="H359" t="s">
+        <v>16</v>
+      </c>
+      <c r="I359" t="s">
+        <v>17</v>
+      </c>
+      <c r="J359" s="6">
+        <v>46030</v>
+      </c>
+      <c r="K359" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="360" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A360" s="12" t="s">
+        <v>719</v>
+      </c>
+      <c r="B360" s="13">
+        <v>15.5</v>
+      </c>
+      <c r="C360" s="12" t="s">
+        <v>739</v>
+      </c>
+      <c r="D360" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="E360" s="14" t="s">
+        <v>744</v>
+      </c>
+      <c r="F360" t="s">
+        <v>14</v>
+      </c>
+      <c r="G360" t="s">
+        <v>76</v>
+      </c>
+      <c r="H360" t="s">
+        <v>16</v>
+      </c>
+      <c r="I360" t="s">
+        <v>17</v>
+      </c>
+      <c r="J360" s="6">
+        <v>46030</v>
+      </c>
+      <c r="K360" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="361" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A361" s="12" t="s">
+        <v>720</v>
+      </c>
+      <c r="B361" s="13">
+        <v>16.5</v>
+      </c>
+      <c r="C361" s="12" t="s">
+        <v>740</v>
+      </c>
+      <c r="D361" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="E361" s="14" t="s">
+        <v>745</v>
+      </c>
+      <c r="F361" t="s">
+        <v>14</v>
+      </c>
+      <c r="G361" t="s">
+        <v>76</v>
+      </c>
+      <c r="H361" t="s">
+        <v>16</v>
+      </c>
+      <c r="I361" t="s">
+        <v>17</v>
+      </c>
+      <c r="J361" s="6">
+        <v>46030</v>
+      </c>
+      <c r="K361" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="362" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A362" s="12" t="s">
+        <v>721</v>
+      </c>
+      <c r="B362" s="13">
+        <v>17.5</v>
+      </c>
+      <c r="C362" s="12" t="s">
+        <v>741</v>
+      </c>
+      <c r="D362" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="E362" s="14" t="s">
+        <v>746</v>
+      </c>
+      <c r="F362" t="s">
+        <v>14</v>
+      </c>
+      <c r="G362" t="s">
+        <v>76</v>
+      </c>
+      <c r="H362" t="s">
+        <v>16</v>
+      </c>
+      <c r="I362" t="s">
+        <v>17</v>
+      </c>
+      <c r="J362" s="6">
+        <v>46030</v>
+      </c>
+      <c r="K362" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="363" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A363" s="12" t="s">
+        <v>722</v>
+      </c>
+      <c r="B363" s="13">
+        <v>19.5</v>
+      </c>
+      <c r="C363" s="12" t="s">
+        <v>742</v>
+      </c>
+      <c r="D363" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="E363" s="14" t="s">
+        <v>747</v>
+      </c>
+      <c r="F363" t="s">
+        <v>14</v>
+      </c>
+      <c r="G363" t="s">
+        <v>76</v>
+      </c>
+      <c r="H363" t="s">
+        <v>16</v>
+      </c>
+      <c r="I363" t="s">
+        <v>17</v>
+      </c>
+      <c r="J363" s="6">
+        <v>46030</v>
+      </c>
+      <c r="K363" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="364" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A364" s="12" t="s">
+        <v>723</v>
+      </c>
+      <c r="B364" s="13">
+        <v>14</v>
+      </c>
+      <c r="C364" s="12" t="s">
+        <v>738</v>
+      </c>
+      <c r="D364" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="E364" s="14" t="s">
+        <v>748</v>
+      </c>
+      <c r="F364" t="s">
+        <v>14</v>
+      </c>
+      <c r="G364" t="s">
+        <v>76</v>
+      </c>
+      <c r="H364" t="s">
+        <v>16</v>
+      </c>
+      <c r="I364" t="s">
+        <v>17</v>
+      </c>
+      <c r="J364" s="6">
+        <v>46030</v>
+      </c>
+      <c r="K364" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="365" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A365" s="12" t="s">
+        <v>724</v>
+      </c>
+      <c r="B365" s="13">
+        <v>15.5</v>
+      </c>
+      <c r="C365" s="12" t="s">
+        <v>739</v>
+      </c>
+      <c r="D365" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="E365" s="14" t="s">
+        <v>749</v>
+      </c>
+      <c r="F365" t="s">
+        <v>14</v>
+      </c>
+      <c r="G365" t="s">
+        <v>76</v>
+      </c>
+      <c r="H365" t="s">
+        <v>16</v>
+      </c>
+      <c r="I365" t="s">
+        <v>17</v>
+      </c>
+      <c r="J365" s="6">
+        <v>46030</v>
+      </c>
+      <c r="K365" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="366" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A366" s="12" t="s">
+        <v>725</v>
+      </c>
+      <c r="B366" s="13">
+        <v>16.5</v>
+      </c>
+      <c r="C366" s="12" t="s">
+        <v>740</v>
+      </c>
+      <c r="D366" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="E366" s="14" t="s">
+        <v>750</v>
+      </c>
+      <c r="F366" t="s">
+        <v>14</v>
+      </c>
+      <c r="G366" t="s">
+        <v>76</v>
+      </c>
+      <c r="H366" t="s">
+        <v>16</v>
+      </c>
+      <c r="I366" t="s">
+        <v>17</v>
+      </c>
+      <c r="J366" s="6">
+        <v>46030</v>
+      </c>
+      <c r="K366" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="367" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A367" s="12" t="s">
+        <v>726</v>
+      </c>
+      <c r="B367" s="13">
+        <v>17.5</v>
+      </c>
+      <c r="C367" s="12" t="s">
+        <v>741</v>
+      </c>
+      <c r="D367" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="E367" s="14" t="s">
+        <v>751</v>
+      </c>
+      <c r="F367" t="s">
+        <v>14</v>
+      </c>
+      <c r="G367" t="s">
+        <v>76</v>
+      </c>
+      <c r="H367" t="s">
+        <v>16</v>
+      </c>
+      <c r="I367" t="s">
+        <v>17</v>
+      </c>
+      <c r="J367" s="6">
+        <v>46030</v>
+      </c>
+      <c r="K367" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="368" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A368" s="12" t="s">
+        <v>727</v>
+      </c>
+      <c r="B368" s="13">
+        <v>19.5</v>
+      </c>
+      <c r="C368" s="12" t="s">
+        <v>742</v>
+      </c>
+      <c r="D368" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="E368" s="14" t="s">
+        <v>752</v>
+      </c>
+      <c r="F368" t="s">
+        <v>14</v>
+      </c>
+      <c r="G368" t="s">
+        <v>76</v>
+      </c>
+      <c r="H368" t="s">
+        <v>16</v>
+      </c>
+      <c r="I368" t="s">
+        <v>17</v>
+      </c>
+      <c r="J368" s="6">
+        <v>46030</v>
+      </c>
+      <c r="K368" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="369" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A369" s="12" t="s">
+        <v>728</v>
+      </c>
+      <c r="B369" s="13">
+        <v>15.5</v>
+      </c>
+      <c r="C369" s="12" t="s">
+        <v>738</v>
+      </c>
+      <c r="D369" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="E369" s="14" t="s">
+        <v>753</v>
+      </c>
+      <c r="F369" t="s">
+        <v>14</v>
+      </c>
+      <c r="G369" t="s">
+        <v>76</v>
+      </c>
+      <c r="H369" t="s">
+        <v>16</v>
+      </c>
+      <c r="I369" t="s">
+        <v>17</v>
+      </c>
+      <c r="J369" s="6">
+        <v>46030</v>
+      </c>
+      <c r="K369" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="370" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A370" s="12" t="s">
+        <v>729</v>
+      </c>
+      <c r="B370" s="13">
+        <v>16.5</v>
+      </c>
+      <c r="C370" s="12" t="s">
+        <v>739</v>
+      </c>
+      <c r="D370" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="E370" s="14" t="s">
+        <v>754</v>
+      </c>
+      <c r="F370" t="s">
+        <v>14</v>
+      </c>
+      <c r="G370" t="s">
+        <v>76</v>
+      </c>
+      <c r="H370" t="s">
+        <v>16</v>
+      </c>
+      <c r="I370" t="s">
+        <v>17</v>
+      </c>
+      <c r="J370" s="6">
+        <v>46030</v>
+      </c>
+      <c r="K370" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="371" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A371" s="12" t="s">
+        <v>730</v>
+      </c>
+      <c r="B371" s="13">
+        <v>17.5</v>
+      </c>
+      <c r="C371" s="12" t="s">
+        <v>740</v>
+      </c>
+      <c r="D371" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="E371" s="14" t="s">
+        <v>755</v>
+      </c>
+      <c r="F371" t="s">
+        <v>14</v>
+      </c>
+      <c r="G371" t="s">
+        <v>76</v>
+      </c>
+      <c r="H371" t="s">
+        <v>16</v>
+      </c>
+      <c r="I371" t="s">
+        <v>17</v>
+      </c>
+      <c r="J371" s="6">
+        <v>46030</v>
+      </c>
+      <c r="K371" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="372" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A372" s="12" t="s">
+        <v>731</v>
+      </c>
+      <c r="B372" s="13">
+        <v>18.5</v>
+      </c>
+      <c r="C372" s="12" t="s">
+        <v>741</v>
+      </c>
+      <c r="D372" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="E372" s="14" t="s">
+        <v>756</v>
+      </c>
+      <c r="F372" t="s">
+        <v>14</v>
+      </c>
+      <c r="G372" t="s">
+        <v>76</v>
+      </c>
+      <c r="H372" t="s">
+        <v>16</v>
+      </c>
+      <c r="I372" t="s">
+        <v>17</v>
+      </c>
+      <c r="J372" s="6">
+        <v>46030</v>
+      </c>
+      <c r="K372" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="373" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A373" s="12" t="s">
+        <v>732</v>
+      </c>
+      <c r="B373" s="13">
+        <v>20.5</v>
+      </c>
+      <c r="C373" s="12" t="s">
+        <v>742</v>
+      </c>
+      <c r="D373" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="E373" s="14" t="s">
+        <v>757</v>
+      </c>
+      <c r="F373" t="s">
+        <v>14</v>
+      </c>
+      <c r="G373" t="s">
+        <v>76</v>
+      </c>
+      <c r="H373" t="s">
+        <v>16</v>
+      </c>
+      <c r="I373" t="s">
+        <v>17</v>
+      </c>
+      <c r="J373" s="6">
+        <v>46030</v>
+      </c>
+      <c r="K373" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="374" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A374" s="12" t="s">
+        <v>733</v>
+      </c>
+      <c r="B374" s="13">
+        <v>15.5</v>
+      </c>
+      <c r="C374" s="12" t="s">
+        <v>738</v>
+      </c>
+      <c r="D374" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="E374" s="14" t="s">
+        <v>758</v>
+      </c>
+      <c r="F374" t="s">
+        <v>14</v>
+      </c>
+      <c r="G374" t="s">
+        <v>76</v>
+      </c>
+      <c r="H374" t="s">
+        <v>16</v>
+      </c>
+      <c r="I374" t="s">
+        <v>17</v>
+      </c>
+      <c r="J374" s="6">
+        <v>46030</v>
+      </c>
+      <c r="K374" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="375" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A375" s="12" t="s">
+        <v>734</v>
+      </c>
+      <c r="B375" s="13">
+        <v>16.5</v>
+      </c>
+      <c r="C375" s="12" t="s">
+        <v>739</v>
+      </c>
+      <c r="D375" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="E375" s="14" t="s">
+        <v>759</v>
+      </c>
+      <c r="F375" t="s">
+        <v>14</v>
+      </c>
+      <c r="G375" t="s">
+        <v>76</v>
+      </c>
+      <c r="H375" t="s">
+        <v>16</v>
+      </c>
+      <c r="I375" t="s">
+        <v>17</v>
+      </c>
+      <c r="J375" s="6">
+        <v>46030</v>
+      </c>
+      <c r="K375" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="376" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A376" s="12" t="s">
+        <v>735</v>
+      </c>
+      <c r="B376" s="13">
+        <v>17.5</v>
+      </c>
+      <c r="C376" s="12" t="s">
+        <v>740</v>
+      </c>
+      <c r="D376" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="E376" s="14" t="s">
+        <v>760</v>
+      </c>
+      <c r="F376" t="s">
+        <v>14</v>
+      </c>
+      <c r="G376" t="s">
+        <v>76</v>
+      </c>
+      <c r="H376" t="s">
+        <v>16</v>
+      </c>
+      <c r="I376" t="s">
+        <v>17</v>
+      </c>
+      <c r="J376" s="6">
+        <v>46030</v>
+      </c>
+      <c r="K376" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="377" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A377" s="12" t="s">
+        <v>736</v>
+      </c>
+      <c r="B377" s="13">
+        <v>18.5</v>
+      </c>
+      <c r="C377" s="12" t="s">
+        <v>741</v>
+      </c>
+      <c r="D377" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="E377" s="14" t="s">
+        <v>761</v>
+      </c>
+      <c r="F377" t="s">
+        <v>14</v>
+      </c>
+      <c r="G377" t="s">
+        <v>76</v>
+      </c>
+      <c r="H377" t="s">
+        <v>16</v>
+      </c>
+      <c r="I377" t="s">
+        <v>17</v>
+      </c>
+      <c r="J377" s="6">
+        <v>46030</v>
+      </c>
+      <c r="K377" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="378" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A378" s="12" t="s">
+        <v>737</v>
+      </c>
+      <c r="B378" s="13">
+        <v>20.5</v>
+      </c>
+      <c r="C378" s="12" t="s">
+        <v>742</v>
+      </c>
+      <c r="D378" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="E378" s="14" t="s">
+        <v>762</v>
+      </c>
+      <c r="F378" t="s">
+        <v>14</v>
+      </c>
+      <c r="G378" t="s">
+        <v>76</v>
+      </c>
+      <c r="H378" t="s">
+        <v>16</v>
+      </c>
+      <c r="I378" t="s">
+        <v>17</v>
+      </c>
+      <c r="J378" s="6">
+        <v>46030</v>
+      </c>
+      <c r="K378" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="379" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A379" s="12" t="s">
+        <v>763</v>
+      </c>
+      <c r="B379" s="13">
+        <v>725</v>
+      </c>
+      <c r="C379" s="12" t="s">
+        <v>782</v>
+      </c>
+      <c r="D379" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="E379" s="14" t="s">
+        <v>796</v>
+      </c>
+      <c r="F379" t="s">
+        <v>14</v>
+      </c>
+      <c r="G379" t="s">
+        <v>76</v>
+      </c>
+      <c r="H379" t="s">
+        <v>16</v>
+      </c>
+      <c r="I379" t="s">
+        <v>17</v>
+      </c>
+      <c r="J379" s="6">
+        <v>46030</v>
+      </c>
+      <c r="K379" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="380" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A380" s="12" t="s">
+        <v>764</v>
+      </c>
+      <c r="B380" s="13">
+        <v>886</v>
+      </c>
+      <c r="C380" s="12" t="s">
+        <v>783</v>
+      </c>
+      <c r="D380" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="E380" s="14" t="s">
+        <v>797</v>
+      </c>
+      <c r="F380" t="s">
+        <v>14</v>
+      </c>
+      <c r="G380" t="s">
+        <v>76</v>
+      </c>
+      <c r="H380" t="s">
+        <v>16</v>
+      </c>
+      <c r="I380" t="s">
+        <v>17</v>
+      </c>
+      <c r="J380" s="6">
+        <v>46030</v>
+      </c>
+      <c r="K380" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="381" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A381" s="12" t="s">
+        <v>765</v>
+      </c>
+      <c r="B381" s="13">
+        <v>1127</v>
+      </c>
+      <c r="C381" s="12" t="s">
+        <v>783</v>
+      </c>
+      <c r="D381" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="E381" s="14" t="s">
+        <v>798</v>
+      </c>
+      <c r="F381" t="s">
+        <v>14</v>
+      </c>
+      <c r="G381" t="s">
+        <v>76</v>
+      </c>
+      <c r="H381" t="s">
+        <v>16</v>
+      </c>
+      <c r="I381" t="s">
+        <v>17</v>
+      </c>
+      <c r="J381" s="6">
+        <v>46030</v>
+      </c>
+      <c r="K381" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="382" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A382" s="12" t="s">
+        <v>766</v>
+      </c>
+      <c r="B382" s="13">
+        <v>600</v>
+      </c>
+      <c r="C382" s="12" t="s">
+        <v>784</v>
+      </c>
+      <c r="D382" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="E382" s="14" t="s">
+        <v>799</v>
+      </c>
+      <c r="F382" t="s">
+        <v>14</v>
+      </c>
+      <c r="G382" t="s">
+        <v>76</v>
+      </c>
+      <c r="H382" t="s">
+        <v>16</v>
+      </c>
+      <c r="I382" t="s">
+        <v>17</v>
+      </c>
+      <c r="J382" s="6">
+        <v>46030</v>
+      </c>
+      <c r="K382" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="383" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A383" s="12" t="s">
+        <v>767</v>
+      </c>
+      <c r="B383" s="13">
+        <v>600</v>
+      </c>
+      <c r="C383" s="12" t="s">
+        <v>785</v>
+      </c>
+      <c r="D383" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="E383" s="14" t="s">
+        <v>800</v>
+      </c>
+      <c r="F383" t="s">
+        <v>14</v>
+      </c>
+      <c r="G383" t="s">
+        <v>76</v>
+      </c>
+      <c r="H383" t="s">
+        <v>16</v>
+      </c>
+      <c r="I383" t="s">
+        <v>17</v>
+      </c>
+      <c r="J383" s="6">
+        <v>46030</v>
+      </c>
+      <c r="K383" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="384" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A384" s="12" t="s">
+        <v>768</v>
+      </c>
+      <c r="B384" s="13">
+        <v>650</v>
+      </c>
+      <c r="C384" s="12" t="s">
+        <v>785</v>
+      </c>
+      <c r="D384" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="E384" s="14" t="s">
+        <v>801</v>
+      </c>
+      <c r="F384" t="s">
+        <v>14</v>
+      </c>
+      <c r="G384" t="s">
+        <v>76</v>
+      </c>
+      <c r="H384" t="s">
+        <v>16</v>
+      </c>
+      <c r="I384" t="s">
+        <v>17</v>
+      </c>
+      <c r="J384" s="6">
+        <v>46030</v>
+      </c>
+      <c r="K384" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="385" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A385" s="12" t="s">
+        <v>769</v>
+      </c>
+      <c r="B385" s="13">
+        <v>650</v>
+      </c>
+      <c r="C385" s="12" t="s">
+        <v>786</v>
+      </c>
+      <c r="D385" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="E385" s="14" t="s">
+        <v>802</v>
+      </c>
+      <c r="F385" t="s">
+        <v>14</v>
+      </c>
+      <c r="G385" t="s">
+        <v>76</v>
+      </c>
+      <c r="H385" t="s">
+        <v>16</v>
+      </c>
+      <c r="I385" t="s">
+        <v>17</v>
+      </c>
+      <c r="J385" s="6">
+        <v>46030</v>
+      </c>
+      <c r="K385" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="386" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A386" s="12" t="s">
+        <v>770</v>
+      </c>
+      <c r="B386" s="13">
+        <v>110</v>
+      </c>
+      <c r="C386" s="12" t="s">
+        <v>787</v>
+      </c>
+      <c r="D386" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="E386" s="14" t="s">
+        <v>803</v>
+      </c>
+      <c r="F386" t="s">
+        <v>14</v>
+      </c>
+      <c r="G386" t="s">
+        <v>76</v>
+      </c>
+      <c r="H386" t="s">
+        <v>16</v>
+      </c>
+      <c r="I386" t="s">
+        <v>17</v>
+      </c>
+      <c r="J386" s="6">
+        <v>46030</v>
+      </c>
+      <c r="K386" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="387" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A387" s="12" t="s">
+        <v>771</v>
+      </c>
+      <c r="B387" s="13">
+        <v>2</v>
+      </c>
+      <c r="C387" s="12" t="s">
+        <v>792</v>
+      </c>
+      <c r="D387" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="E387" s="14" t="s">
+        <v>804</v>
+      </c>
+      <c r="F387" t="s">
+        <v>14</v>
+      </c>
+      <c r="G387" t="s">
+        <v>76</v>
+      </c>
+      <c r="H387" t="s">
+        <v>16</v>
+      </c>
+      <c r="I387" t="s">
+        <v>17</v>
+      </c>
+      <c r="J387" s="6">
+        <v>46030</v>
+      </c>
+      <c r="K387" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="388" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A388" s="12" t="s">
+        <v>772</v>
+      </c>
+      <c r="B388" s="13">
+        <v>2</v>
+      </c>
+      <c r="C388" s="12" t="s">
+        <v>793</v>
+      </c>
+      <c r="D388" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="E388" s="14" t="s">
+        <v>804</v>
+      </c>
+      <c r="F388" t="s">
+        <v>14</v>
+      </c>
+      <c r="G388" t="s">
+        <v>76</v>
+      </c>
+      <c r="H388" t="s">
+        <v>16</v>
+      </c>
+      <c r="I388" t="s">
+        <v>17</v>
+      </c>
+      <c r="J388" s="6">
+        <v>46030</v>
+      </c>
+      <c r="K388" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="389" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A389" s="12" t="s">
+        <v>773</v>
+      </c>
+      <c r="B389" s="13">
+        <v>18</v>
+      </c>
+      <c r="C389" s="12" t="s">
+        <v>794</v>
+      </c>
+      <c r="D389" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="E389" s="14" t="s">
+        <v>805</v>
+      </c>
+      <c r="F389" t="s">
+        <v>14</v>
+      </c>
+      <c r="G389" t="s">
+        <v>76</v>
+      </c>
+      <c r="H389" t="s">
+        <v>16</v>
+      </c>
+      <c r="I389" t="s">
+        <v>17</v>
+      </c>
+      <c r="J389" s="6">
+        <v>46030</v>
+      </c>
+      <c r="K389" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="390" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A390" s="12" t="s">
+        <v>774</v>
+      </c>
+      <c r="B390" s="13">
+        <v>18</v>
+      </c>
+      <c r="C390" s="12" t="s">
+        <v>795</v>
+      </c>
+      <c r="D390" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="E390" s="14" t="s">
+        <v>805</v>
+      </c>
+      <c r="F390" t="s">
+        <v>14</v>
+      </c>
+      <c r="G390" t="s">
+        <v>76</v>
+      </c>
+      <c r="H390" t="s">
+        <v>16</v>
+      </c>
+      <c r="I390" t="s">
+        <v>17</v>
+      </c>
+      <c r="J390" s="6">
+        <v>46030</v>
+      </c>
+      <c r="K390" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="391" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A391" s="12" t="s">
+        <v>775</v>
+      </c>
+      <c r="B391" s="13">
+        <v>150</v>
+      </c>
+      <c r="C391" s="12" t="s">
+        <v>788</v>
+      </c>
+      <c r="D391" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="E391" s="14" t="s">
+        <v>805</v>
+      </c>
+      <c r="F391" t="s">
+        <v>14</v>
+      </c>
+      <c r="G391" t="s">
+        <v>76</v>
+      </c>
+      <c r="H391" t="s">
+        <v>16</v>
+      </c>
+      <c r="I391" t="s">
+        <v>17</v>
+      </c>
+      <c r="J391" s="6">
+        <v>46030</v>
+      </c>
+      <c r="K391" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="392" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A392" s="12" t="s">
+        <v>776</v>
+      </c>
+      <c r="B392" s="13">
+        <v>175</v>
+      </c>
+      <c r="C392" s="12" t="s">
+        <v>789</v>
+      </c>
+      <c r="D392" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="E392" s="14" t="s">
+        <v>805</v>
+      </c>
+      <c r="F392" t="s">
+        <v>14</v>
+      </c>
+      <c r="G392" t="s">
+        <v>76</v>
+      </c>
+      <c r="H392" t="s">
+        <v>16</v>
+      </c>
+      <c r="I392" t="s">
+        <v>17</v>
+      </c>
+      <c r="J392" s="6">
+        <v>46030</v>
+      </c>
+      <c r="K392" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="393" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A393" s="12" t="s">
+        <v>777</v>
+      </c>
+      <c r="B393" s="13">
+        <v>4</v>
+      </c>
+      <c r="C393" s="12" t="s">
+        <v>811</v>
+      </c>
+      <c r="D393" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="E393" s="14" t="s">
+        <v>806</v>
+      </c>
+      <c r="F393" t="s">
+        <v>14</v>
+      </c>
+      <c r="G393" t="s">
+        <v>76</v>
+      </c>
+      <c r="H393" t="s">
+        <v>16</v>
+      </c>
+      <c r="I393" t="s">
+        <v>17</v>
+      </c>
+      <c r="J393" s="6">
+        <v>46030</v>
+      </c>
+      <c r="K393" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="394" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A394" s="12" t="s">
+        <v>778</v>
+      </c>
+      <c r="B394" s="13">
+        <v>55</v>
+      </c>
+      <c r="C394" s="12" t="s">
+        <v>811</v>
+      </c>
+      <c r="D394" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="E394" s="14" t="s">
+        <v>807</v>
+      </c>
+      <c r="F394" t="s">
+        <v>14</v>
+      </c>
+      <c r="G394" t="s">
+        <v>76</v>
+      </c>
+      <c r="H394" t="s">
+        <v>16</v>
+      </c>
+      <c r="I394" t="s">
+        <v>17</v>
+      </c>
+      <c r="J394" s="6">
+        <v>46030</v>
+      </c>
+      <c r="K394" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="395" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A395" s="12" t="s">
+        <v>779</v>
+      </c>
+      <c r="B395" s="13">
+        <v>110</v>
+      </c>
+      <c r="C395" s="12" t="s">
+        <v>790</v>
+      </c>
+      <c r="D395" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="E395" s="14" t="s">
+        <v>808</v>
+      </c>
+      <c r="F395" t="s">
+        <v>14</v>
+      </c>
+      <c r="G395" t="s">
+        <v>76</v>
+      </c>
+      <c r="H395" t="s">
+        <v>16</v>
+      </c>
+      <c r="I395" t="s">
+        <v>17</v>
+      </c>
+      <c r="J395" s="6">
+        <v>46030</v>
+      </c>
+      <c r="K395" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="396" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A396" s="12" t="s">
+        <v>780</v>
+      </c>
+      <c r="B396" s="13">
+        <v>6</v>
+      </c>
+      <c r="C396" s="12" t="s">
+        <v>811</v>
+      </c>
+      <c r="D396" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="E396" s="14" t="s">
+        <v>809</v>
+      </c>
+      <c r="F396" t="s">
+        <v>14</v>
+      </c>
+      <c r="G396" t="s">
+        <v>76</v>
+      </c>
+      <c r="H396" t="s">
+        <v>16</v>
+      </c>
+      <c r="I396" t="s">
+        <v>17</v>
+      </c>
+      <c r="J396" s="6">
+        <v>46030</v>
+      </c>
+      <c r="K396" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="397" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A397" s="12" t="s">
+        <v>781</v>
+      </c>
+      <c r="B397" s="13">
+        <v>13</v>
+      </c>
+      <c r="C397" s="12" t="s">
+        <v>791</v>
+      </c>
+      <c r="D397" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="E397" s="14" t="s">
+        <v>810</v>
+      </c>
+      <c r="F397" t="s">
+        <v>14</v>
+      </c>
+      <c r="G397" t="s">
+        <v>76</v>
+      </c>
+      <c r="H397" t="s">
+        <v>16</v>
+      </c>
+      <c r="I397" t="s">
+        <v>17</v>
+      </c>
+      <c r="J397" s="6">
+        <v>46030</v>
+      </c>
+      <c r="K397" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="398" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A398" s="12" t="s">
+        <v>812</v>
+      </c>
+      <c r="B398" s="13">
+        <v>50</v>
+      </c>
+      <c r="C398" s="12" t="s">
+        <v>817</v>
+      </c>
+      <c r="D398" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="E398" s="14" t="s">
+        <v>822</v>
+      </c>
+      <c r="F398" t="s">
+        <v>14</v>
+      </c>
+      <c r="G398" t="s">
+        <v>76</v>
+      </c>
+      <c r="H398" t="s">
+        <v>16</v>
+      </c>
+      <c r="I398" t="s">
+        <v>17</v>
+      </c>
+      <c r="J398" s="6">
+        <v>46030</v>
+      </c>
+      <c r="K398" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="399" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A399" s="12" t="s">
+        <v>813</v>
+      </c>
+      <c r="B399" s="13">
+        <v>25</v>
+      </c>
+      <c r="C399" s="12" t="s">
+        <v>818</v>
+      </c>
+      <c r="D399" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="E399" s="14" t="s">
+        <v>823</v>
+      </c>
+      <c r="F399" t="s">
+        <v>14</v>
+      </c>
+      <c r="G399" t="s">
+        <v>76</v>
+      </c>
+      <c r="H399" t="s">
+        <v>16</v>
+      </c>
+      <c r="I399" t="s">
+        <v>17</v>
+      </c>
+      <c r="J399" s="6">
+        <v>46030</v>
+      </c>
+      <c r="K399" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="400" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A400" s="12" t="s">
+        <v>814</v>
+      </c>
+      <c r="B400" s="13">
+        <v>30</v>
+      </c>
+      <c r="C400" s="12" t="s">
+        <v>819</v>
+      </c>
+      <c r="D400" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="E400" s="14" t="s">
+        <v>824</v>
+      </c>
+      <c r="F400" t="s">
+        <v>14</v>
+      </c>
+      <c r="G400" t="s">
+        <v>76</v>
+      </c>
+      <c r="H400" t="s">
+        <v>16</v>
+      </c>
+      <c r="I400" t="s">
+        <v>17</v>
+      </c>
+      <c r="J400" s="6">
+        <v>46030</v>
+      </c>
+      <c r="K400" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="401" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A401" s="12" t="s">
+        <v>815</v>
+      </c>
+      <c r="B401" s="13">
+        <v>35</v>
+      </c>
+      <c r="C401" s="12" t="s">
+        <v>820</v>
+      </c>
+      <c r="D401" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="E401" s="14" t="s">
+        <v>825</v>
+      </c>
+      <c r="F401" t="s">
+        <v>14</v>
+      </c>
+      <c r="G401" t="s">
+        <v>76</v>
+      </c>
+      <c r="H401" t="s">
+        <v>16</v>
+      </c>
+      <c r="I401" t="s">
+        <v>17</v>
+      </c>
+      <c r="J401" s="6">
+        <v>46030</v>
+      </c>
+      <c r="K401" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="402" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A402" s="12" t="s">
+        <v>816</v>
+      </c>
+      <c r="B402" s="13">
+        <v>35</v>
+      </c>
+      <c r="C402" s="12" t="s">
+        <v>821</v>
+      </c>
+      <c r="D402" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="E402" s="14" t="s">
+        <v>826</v>
+      </c>
+      <c r="F402" t="s">
+        <v>14</v>
+      </c>
+      <c r="G402" t="s">
+        <v>76</v>
+      </c>
+      <c r="H402" t="s">
+        <v>16</v>
+      </c>
+      <c r="I402" t="s">
+        <v>17</v>
+      </c>
+      <c r="J402" s="6">
+        <v>46030</v>
+      </c>
+      <c r="K402" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="403" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A403" s="12" t="s">
+        <v>827</v>
+      </c>
+      <c r="B403" s="13">
+        <v>70</v>
+      </c>
+      <c r="C403" s="12" t="s">
+        <v>846</v>
+      </c>
+      <c r="D403" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="E403" s="14" t="s">
+        <v>864</v>
+      </c>
+      <c r="F403" t="s">
+        <v>14</v>
+      </c>
+      <c r="G403" t="s">
+        <v>76</v>
+      </c>
+      <c r="H403" t="s">
+        <v>16</v>
+      </c>
+      <c r="I403" t="s">
+        <v>17</v>
+      </c>
+      <c r="J403" s="6">
+        <v>46030</v>
+      </c>
+      <c r="K403" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="404" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A404" s="12" t="s">
+        <v>828</v>
+      </c>
+      <c r="B404" s="13">
+        <v>8</v>
+      </c>
+      <c r="C404" s="12" t="s">
+        <v>847</v>
+      </c>
+      <c r="D404" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="E404" s="14" t="s">
+        <v>865</v>
+      </c>
+      <c r="F404" t="s">
+        <v>14</v>
+      </c>
+      <c r="G404" t="s">
+        <v>76</v>
+      </c>
+      <c r="H404" t="s">
+        <v>16</v>
+      </c>
+      <c r="I404" t="s">
+        <v>17</v>
+      </c>
+      <c r="J404" s="6">
+        <v>46030</v>
+      </c>
+      <c r="K404" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="405" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A405" s="12" t="s">
+        <v>829</v>
+      </c>
+      <c r="B405" s="13">
+        <v>35</v>
+      </c>
+      <c r="C405" s="12" t="s">
+        <v>848</v>
+      </c>
+      <c r="D405" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="E405" s="14" t="s">
+        <v>866</v>
+      </c>
+      <c r="F405" t="s">
+        <v>14</v>
+      </c>
+      <c r="G405" t="s">
+        <v>76</v>
+      </c>
+      <c r="H405" t="s">
+        <v>16</v>
+      </c>
+      <c r="I405" t="s">
+        <v>17</v>
+      </c>
+      <c r="J405" s="6">
+        <v>46030</v>
+      </c>
+      <c r="K405" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="406" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A406" s="12" t="s">
+        <v>830</v>
+      </c>
+      <c r="B406" s="13">
+        <v>50</v>
+      </c>
+      <c r="C406" s="12" t="s">
+        <v>849</v>
+      </c>
+      <c r="D406" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="E406" s="14" t="s">
+        <v>867</v>
+      </c>
+      <c r="F406" t="s">
+        <v>14</v>
+      </c>
+      <c r="G406" t="s">
+        <v>76</v>
+      </c>
+      <c r="H406" t="s">
+        <v>16</v>
+      </c>
+      <c r="I406" t="s">
+        <v>17</v>
+      </c>
+      <c r="J406" s="6">
+        <v>46030</v>
+      </c>
+      <c r="K406" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="407" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A407" s="12" t="s">
+        <v>831</v>
+      </c>
+      <c r="B407" s="13">
+        <v>50</v>
+      </c>
+      <c r="C407" s="12" t="s">
+        <v>850</v>
+      </c>
+      <c r="D407" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="E407" s="14" t="s">
+        <v>868</v>
+      </c>
+      <c r="F407" t="s">
+        <v>14</v>
+      </c>
+      <c r="G407" t="s">
+        <v>76</v>
+      </c>
+      <c r="H407" t="s">
+        <v>16</v>
+      </c>
+      <c r="I407" t="s">
+        <v>17</v>
+      </c>
+      <c r="J407" s="6">
+        <v>46030</v>
+      </c>
+      <c r="K407" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="408" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A408" s="12" t="s">
+        <v>832</v>
+      </c>
+      <c r="B408" s="13">
+        <v>50</v>
+      </c>
+      <c r="C408" s="12" t="s">
+        <v>851</v>
+      </c>
+      <c r="D408" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="E408" s="14" t="s">
+        <v>869</v>
+      </c>
+      <c r="F408" t="s">
+        <v>14</v>
+      </c>
+      <c r="G408" t="s">
+        <v>76</v>
+      </c>
+      <c r="H408" t="s">
+        <v>16</v>
+      </c>
+      <c r="I408" t="s">
+        <v>17</v>
+      </c>
+      <c r="J408" s="6">
+        <v>46030</v>
+      </c>
+      <c r="K408" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="409" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A409" s="12" t="s">
+        <v>833</v>
+      </c>
+      <c r="B409" s="13">
+        <v>300</v>
+      </c>
+      <c r="C409" s="12" t="s">
+        <v>852</v>
+      </c>
+      <c r="D409" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="E409" s="14" t="s">
+        <v>870</v>
+      </c>
+      <c r="F409" t="s">
+        <v>14</v>
+      </c>
+      <c r="G409" t="s">
+        <v>76</v>
+      </c>
+      <c r="H409" t="s">
+        <v>16</v>
+      </c>
+      <c r="I409" t="s">
+        <v>17</v>
+      </c>
+      <c r="J409" s="6">
+        <v>46030</v>
+      </c>
+      <c r="K409" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="410" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A410" s="12" t="s">
+        <v>834</v>
+      </c>
+      <c r="B410" s="13">
+        <v>300</v>
+      </c>
+      <c r="C410" s="12" t="s">
+        <v>853</v>
+      </c>
+      <c r="D410" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="E410" s="14" t="s">
+        <v>871</v>
+      </c>
+      <c r="F410" t="s">
+        <v>14</v>
+      </c>
+      <c r="G410" t="s">
+        <v>76</v>
+      </c>
+      <c r="H410" t="s">
+        <v>16</v>
+      </c>
+      <c r="I410" t="s">
+        <v>17</v>
+      </c>
+      <c r="J410" s="6">
+        <v>46030</v>
+      </c>
+      <c r="K410" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="411" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A411" s="12" t="s">
+        <v>835</v>
+      </c>
+      <c r="B411" s="13">
+        <v>50</v>
+      </c>
+      <c r="C411" s="12" t="s">
+        <v>854</v>
+      </c>
+      <c r="D411" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="E411" s="14" t="s">
+        <v>872</v>
+      </c>
+      <c r="F411" t="s">
+        <v>14</v>
+      </c>
+      <c r="G411" t="s">
+        <v>76</v>
+      </c>
+      <c r="H411" t="s">
+        <v>16</v>
+      </c>
+      <c r="I411" t="s">
+        <v>17</v>
+      </c>
+      <c r="J411" s="6">
+        <v>46030</v>
+      </c>
+      <c r="K411" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="412" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A412" s="12" t="s">
+        <v>836</v>
+      </c>
+      <c r="B412" s="13">
+        <v>2</v>
+      </c>
+      <c r="C412" s="12" t="s">
+        <v>855</v>
+      </c>
+      <c r="D412" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="E412" s="14" t="s">
+        <v>873</v>
+      </c>
+      <c r="F412" t="s">
+        <v>14</v>
+      </c>
+      <c r="G412" t="s">
+        <v>76</v>
+      </c>
+      <c r="H412" t="s">
+        <v>16</v>
+      </c>
+      <c r="I412" t="s">
+        <v>17</v>
+      </c>
+      <c r="J412" s="6">
+        <v>46030</v>
+      </c>
+      <c r="K412" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="413" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A413" s="12" t="s">
+        <v>837</v>
+      </c>
+      <c r="B413" s="13">
+        <v>800</v>
+      </c>
+      <c r="C413" s="12" t="s">
+        <v>856</v>
+      </c>
+      <c r="D413" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="E413" s="14" t="s">
+        <v>874</v>
+      </c>
+      <c r="F413" t="s">
+        <v>14</v>
+      </c>
+      <c r="G413" t="s">
+        <v>76</v>
+      </c>
+      <c r="H413" t="s">
+        <v>16</v>
+      </c>
+      <c r="I413" t="s">
+        <v>17</v>
+      </c>
+      <c r="J413" s="6">
+        <v>46030</v>
+      </c>
+      <c r="K413" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="414" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A414" s="12" t="s">
+        <v>838</v>
+      </c>
+      <c r="B414" s="13">
+        <v>800</v>
+      </c>
+      <c r="C414" s="12" t="s">
+        <v>857</v>
+      </c>
+      <c r="D414" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="E414" s="14" t="s">
+        <v>875</v>
+      </c>
+      <c r="F414" t="s">
+        <v>14</v>
+      </c>
+      <c r="G414" t="s">
+        <v>76</v>
+      </c>
+      <c r="H414" t="s">
+        <v>16</v>
+      </c>
+      <c r="I414" t="s">
+        <v>17</v>
+      </c>
+      <c r="J414" s="6">
+        <v>46030</v>
+      </c>
+      <c r="K414" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="415" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A415" s="12" t="s">
+        <v>839</v>
+      </c>
+      <c r="B415" s="13">
+        <v>20</v>
+      </c>
+      <c r="C415" s="12" t="s">
+        <v>858</v>
+      </c>
+      <c r="D415" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="E415" s="14" t="s">
+        <v>876</v>
+      </c>
+      <c r="F415" t="s">
+        <v>14</v>
+      </c>
+      <c r="G415" t="s">
+        <v>76</v>
+      </c>
+      <c r="H415" t="s">
+        <v>16</v>
+      </c>
+      <c r="I415" t="s">
+        <v>17</v>
+      </c>
+      <c r="J415" s="6">
+        <v>46030</v>
+      </c>
+      <c r="K415" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="416" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A416" s="12" t="s">
+        <v>840</v>
+      </c>
+      <c r="B416" s="13">
+        <v>15</v>
+      </c>
+      <c r="C416" s="12" t="s">
+        <v>858</v>
+      </c>
+      <c r="D416" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="E416" s="14" t="s">
+        <v>877</v>
+      </c>
+      <c r="F416" t="s">
+        <v>14</v>
+      </c>
+      <c r="G416" t="s">
+        <v>76</v>
+      </c>
+      <c r="H416" t="s">
+        <v>16</v>
+      </c>
+      <c r="I416" t="s">
+        <v>17</v>
+      </c>
+      <c r="J416" s="6">
+        <v>46030</v>
+      </c>
+      <c r="K416" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="417" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A417" s="12" t="s">
+        <v>841</v>
+      </c>
+      <c r="B417" s="13">
+        <v>240</v>
+      </c>
+      <c r="C417" s="12" t="s">
+        <v>859</v>
+      </c>
+      <c r="D417" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="E417" s="14" t="s">
+        <v>878</v>
+      </c>
+      <c r="F417" t="s">
+        <v>14</v>
+      </c>
+      <c r="G417" t="s">
+        <v>76</v>
+      </c>
+      <c r="H417" t="s">
+        <v>16</v>
+      </c>
+      <c r="I417" t="s">
+        <v>17</v>
+      </c>
+      <c r="J417" s="6">
+        <v>46030</v>
+      </c>
+      <c r="K417" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="418" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A418" s="12" t="s">
+        <v>842</v>
+      </c>
+      <c r="B418" s="13">
+        <v>150</v>
+      </c>
+      <c r="C418" s="12" t="s">
+        <v>860</v>
+      </c>
+      <c r="D418" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="E418" s="14" t="s">
+        <v>879</v>
+      </c>
+      <c r="F418" t="s">
+        <v>14</v>
+      </c>
+      <c r="G418" t="s">
+        <v>76</v>
+      </c>
+      <c r="H418" t="s">
+        <v>16</v>
+      </c>
+      <c r="I418" t="s">
+        <v>17</v>
+      </c>
+      <c r="J418" s="6">
+        <v>46030</v>
+      </c>
+      <c r="K418" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="419" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A419" s="12" t="s">
+        <v>843</v>
+      </c>
+      <c r="B419" s="13">
+        <v>50</v>
+      </c>
+      <c r="C419" s="12" t="s">
+        <v>861</v>
+      </c>
+      <c r="D419" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="E419" s="14" t="s">
+        <v>880</v>
+      </c>
+      <c r="F419" t="s">
+        <v>14</v>
+      </c>
+      <c r="G419" t="s">
+        <v>76</v>
+      </c>
+      <c r="H419" t="s">
+        <v>16</v>
+      </c>
+      <c r="I419" t="s">
+        <v>17</v>
+      </c>
+      <c r="J419" s="6">
+        <v>46030</v>
+      </c>
+      <c r="K419" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="420" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A420" s="12" t="s">
+        <v>844</v>
+      </c>
+      <c r="B420" s="13">
+        <v>25</v>
+      </c>
+      <c r="C420" s="12" t="s">
+        <v>862</v>
+      </c>
+      <c r="D420" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="E420" s="14" t="s">
+        <v>881</v>
+      </c>
+      <c r="F420" t="s">
+        <v>14</v>
+      </c>
+      <c r="G420" t="s">
+        <v>76</v>
+      </c>
+      <c r="H420" t="s">
+        <v>16</v>
+      </c>
+      <c r="I420" t="s">
+        <v>17</v>
+      </c>
+      <c r="J420" s="6">
+        <v>46030</v>
+      </c>
+      <c r="K420" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="421" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A421" s="12" t="s">
+        <v>845</v>
+      </c>
+      <c r="B421" s="13">
+        <v>25</v>
+      </c>
+      <c r="C421" s="12" t="s">
+        <v>863</v>
+      </c>
+      <c r="D421" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="E421" s="14" t="s">
+        <v>882</v>
+      </c>
+      <c r="F421" t="s">
+        <v>14</v>
+      </c>
+      <c r="G421" t="s">
+        <v>76</v>
+      </c>
+      <c r="H421" t="s">
+        <v>16</v>
+      </c>
+      <c r="I421" t="s">
+        <v>17</v>
+      </c>
+      <c r="J421" s="6">
+        <v>46030</v>
+      </c>
+      <c r="K421" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="422" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A422" s="12" t="s">
+        <v>883</v>
+      </c>
+      <c r="B422" s="13">
+        <v>300</v>
+      </c>
+      <c r="C422" s="12" t="s">
+        <v>885</v>
+      </c>
+      <c r="D422" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="E422" s="14" t="s">
+        <v>887</v>
+      </c>
+      <c r="F422" t="s">
+        <v>14</v>
+      </c>
+      <c r="G422" t="s">
+        <v>76</v>
+      </c>
+      <c r="H422" t="s">
+        <v>16</v>
+      </c>
+      <c r="I422" t="s">
+        <v>17</v>
+      </c>
+      <c r="J422" s="6">
+        <v>46030</v>
+      </c>
+      <c r="K422" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="423" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A423" s="12" t="s">
+        <v>884</v>
+      </c>
+      <c r="B423" s="13">
+        <v>300</v>
+      </c>
+      <c r="C423" s="12" t="s">
+        <v>886</v>
+      </c>
+      <c r="D423" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="E423" s="14" t="s">
+        <v>888</v>
+      </c>
+      <c r="F423" t="s">
+        <v>14</v>
+      </c>
+      <c r="G423" t="s">
+        <v>76</v>
+      </c>
+      <c r="H423" t="s">
+        <v>16</v>
+      </c>
+      <c r="I423" t="s">
+        <v>17</v>
+      </c>
+      <c r="J423" s="6">
+        <v>46030</v>
+      </c>
+      <c r="K423" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="424" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A424" s="12" t="s">
+        <v>889</v>
+      </c>
+      <c r="B424" s="13">
+        <v>108</v>
+      </c>
+      <c r="C424" s="12" t="s">
+        <v>891</v>
+      </c>
+      <c r="D424" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="E424" s="14" t="s">
+        <v>893</v>
+      </c>
+      <c r="F424" t="s">
+        <v>14</v>
+      </c>
+      <c r="G424" t="s">
+        <v>76</v>
+      </c>
+      <c r="H424" t="s">
+        <v>16</v>
+      </c>
+      <c r="I424" t="s">
+        <v>17</v>
+      </c>
+      <c r="J424" s="6">
+        <v>46030</v>
+      </c>
+      <c r="K424" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="425" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A425" s="12" t="s">
+        <v>890</v>
+      </c>
+      <c r="B425" s="13">
+        <v>150</v>
+      </c>
+      <c r="C425" s="12" t="s">
+        <v>892</v>
+      </c>
+      <c r="D425" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="E425" s="14" t="s">
+        <v>893</v>
+      </c>
+      <c r="F425" t="s">
+        <v>14</v>
+      </c>
+      <c r="G425" t="s">
+        <v>76</v>
+      </c>
+      <c r="H425" t="s">
+        <v>16</v>
+      </c>
+      <c r="I425" t="s">
+        <v>17</v>
+      </c>
+      <c r="J425" s="6">
+        <v>46030</v>
+      </c>
+      <c r="K425" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="426" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A426" s="12" t="s">
+        <v>894</v>
+      </c>
+      <c r="B426" s="13">
+        <v>50</v>
+      </c>
+      <c r="C426" s="12" t="s">
+        <v>895</v>
+      </c>
+      <c r="D426" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="E426" s="14" t="s">
+        <v>896</v>
+      </c>
+      <c r="F426" t="s">
+        <v>14</v>
+      </c>
+      <c r="G426" t="s">
+        <v>76</v>
+      </c>
+      <c r="H426" t="s">
+        <v>16</v>
+      </c>
+      <c r="I426" t="s">
+        <v>17</v>
+      </c>
+      <c r="J426" s="6">
+        <v>46030</v>
+      </c>
+      <c r="K426" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="427" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A427" s="12" t="s">
+        <v>897</v>
+      </c>
+      <c r="B427" s="13">
+        <v>30</v>
+      </c>
+      <c r="C427" s="12" t="s">
+        <v>898</v>
+      </c>
+      <c r="D427" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="E427" s="14" t="s">
+        <v>803</v>
+      </c>
+      <c r="F427" t="s">
+        <v>14</v>
+      </c>
+      <c r="G427" t="s">
+        <v>76</v>
+      </c>
+      <c r="H427" t="s">
+        <v>16</v>
+      </c>
+      <c r="I427" t="s">
+        <v>17</v>
+      </c>
+      <c r="J427" s="6">
+        <v>46030</v>
+      </c>
+      <c r="K427" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="428" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A428" s="12" t="s">
+        <v>899</v>
+      </c>
+      <c r="B428" s="13">
+        <v>300</v>
+      </c>
+      <c r="C428" s="12" t="s">
+        <v>900</v>
+      </c>
+      <c r="D428" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="E428" s="14" t="s">
+        <v>901</v>
+      </c>
+      <c r="F428" t="s">
+        <v>14</v>
+      </c>
+      <c r="G428" t="s">
+        <v>76</v>
+      </c>
+      <c r="H428" t="s">
+        <v>16</v>
+      </c>
+      <c r="I428" t="s">
+        <v>17</v>
+      </c>
+      <c r="J428" s="6">
+        <v>46030</v>
+      </c>
+      <c r="K428" t="s">
+        <v>77</v>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="A2:B198">
-    <cfRule type="duplicateValues" dxfId="1" priority="13"/>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <conditionalFormatting sqref="A2:A428">
+    <cfRule type="duplicateValues" dxfId="0" priority="18"/>
   </conditionalFormatting>
   <dataValidations count="3">
-    <dataValidation type="list" sqref="F199:F2095" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" sqref="F429:F2092" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"Importado,Nacional"</formula1>
     </dataValidation>
-    <dataValidation type="list" sqref="F199:F2095 I199:J2095" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" sqref="F429:F2092 I429:J2092" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"MXN,USD,EUR,GBP"</formula1>
     </dataValidation>
-    <dataValidation type="list" sqref="K199:K2095" xr:uid="{00000000-0002-0000-0000-000002000000}">
+    <dataValidation type="list" sqref="K429:K2092" xr:uid="{00000000-0002-0000-0000-000002000000}">
       <formula1>"Sí,No"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
   <tableParts count="1">
-    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
 </file>
@@ -9360,10 +18728,10 @@
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
-        <v>442</v>
+        <v>100</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="C2" t="str">
         <f>_xlfn.XLOOKUP(A2,CATALOGO_PRODUCTOS!A:A,CATALOGO_PRODUCTOS!F:F,"",0)</f>
@@ -9375,7 +18743,7 @@
       </c>
       <c r="E2" s="2">
         <f>_xlfn.XLOOKUP(A2,CATALOGO_PRODUCTOS!A:A,CATALOGO_PRODUCTOS!B:B,0,0)</f>
-        <v>70</v>
+        <v>1000</v>
       </c>
       <c r="F2" s="2">
         <f>_xlfn.XLOOKUP(D2,TIPOS_CAMBIO!A:A,TIPOS_CAMBIO!B:B,"",0)</f>
@@ -9383,11 +18751,11 @@
       </c>
       <c r="G2" s="7">
         <f>$E2*$F2</f>
-        <v>1470</v>
+        <v>21000</v>
       </c>
       <c r="H2" s="8">
         <f>_xlfn.XLOOKUP($B$2,PARAMETROS_IMPORTACION!A:A,PARAMETROS_IMPORTACION!C:C,0,0)</f>
-        <v>0.3</v>
+        <v>1.2</v>
       </c>
       <c r="I2" s="8">
         <f>_xlfn.XLOOKUP("Seguro",PARAMETROS_IMPORTACION!A:A,PARAMETROS_IMPORTACION!C:C,0,0)</f>
@@ -9407,11 +18775,11 @@
       </c>
       <c r="M2" s="2">
         <f>IF($C2="Importado",$G2*(1+$H2+I2+$J2+$L2),$G2)</f>
-        <v>2058</v>
+        <v>48300.000000000007</v>
       </c>
       <c r="N2" s="2">
         <f>M2 * (1 + K2)</f>
-        <v>2263.8000000000002</v>
+        <v>53130.000000000015</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.35">
@@ -31414,7 +40782,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:D1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>

--- a/Plantilla_Pricing_Costos_Importacion.xlsx
+++ b/Plantilla_Pricing_Costos_Importacion.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\FernandoOlveraRendon\Documents\Base_Costos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94BFE384-098B-443F-9602-C11EE143CDF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5379E5D1-40CD-4F01-B7B2-8E26B3C6267B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3917" uniqueCount="902">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3919" uniqueCount="902">
   <si>
     <t>SKU</t>
   </si>
@@ -3007,7 +3007,6 @@
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="tblCatalogo" displayName="tblCatalogo" ref="A1:K428" headerRowCellStyle="Normal" dataCellStyle="Normal" totalsRowCellStyle="Normal">
-  <autoFilter ref="A1:K428" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K197">
     <sortCondition sortBy="fontColor" ref="A1:A197" dxfId="4"/>
   </sortState>
@@ -3346,7 +3345,7 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -18677,7 +18676,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -18739,7 +18738,7 @@
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
-        <v>813</v>
+        <v>469</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>162</v>
@@ -18754,7 +18753,7 @@
       </c>
       <c r="E2" s="2">
         <f>_xlfn.XLOOKUP(A2,CATALOGO_PRODUCTOS!A:A,CATALOGO_PRODUCTOS!B:B,0,0)</f>
-        <v>35</v>
+        <v>3000</v>
       </c>
       <c r="F2" s="2">
         <f>_xlfn.XLOOKUP(D2,TIPOS_CAMBIO!A:A,TIPOS_CAMBIO!B:B,"",0)</f>
@@ -18762,7 +18761,7 @@
       </c>
       <c r="G2" s="7">
         <f>$E2*$F2</f>
-        <v>735</v>
+        <v>63000</v>
       </c>
       <c r="H2" s="8">
         <f>_xlfn.XLOOKUP($B$2,PARAMETROS_IMPORTACION!A:A,PARAMETROS_IMPORTACION!C:C,0,0)</f>
@@ -18790,24 +18789,72 @@
       </c>
       <c r="N2" s="2">
         <f>IF($C2="Importado",$G2*(1+$H2+I2+$J2+$L2+$M2),$G2)</f>
-        <v>1005.8475000000001</v>
+        <v>86215.5</v>
       </c>
       <c r="O2" s="2">
         <f>N2 * (1 + K2)</f>
-        <v>1106.4322500000001</v>
+        <v>94837.05</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3"/>
-      <c r="K3" s="3"/>
-      <c r="L3" s="3"/>
-      <c r="M3" s="2"/>
-      <c r="N3" s="2"/>
+      <c r="A3" t="s">
+        <v>469</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="C3" t="str">
+        <f>_xlfn.XLOOKUP(A3,CATALOGO_PRODUCTOS!A:A,CATALOGO_PRODUCTOS!F:F,"",0)</f>
+        <v>Importado</v>
+      </c>
+      <c r="D3" t="str">
+        <f>_xlfn.XLOOKUP(A3,CATALOGO_PRODUCTOS!A:A,CATALOGO_PRODUCTOS!I:I,"",0)</f>
+        <v>USD</v>
+      </c>
+      <c r="E3" s="2">
+        <f>_xlfn.XLOOKUP(A3,CATALOGO_PRODUCTOS!A:A,CATALOGO_PRODUCTOS!B:B,0,0)</f>
+        <v>3000</v>
+      </c>
+      <c r="F3" s="2">
+        <f>_xlfn.XLOOKUP(D3,TIPOS_CAMBIO!A:A,TIPOS_CAMBIO!B:B,"",0)</f>
+        <v>21</v>
+      </c>
+      <c r="G3" s="7">
+        <f>$E3*$F3</f>
+        <v>63000</v>
+      </c>
+      <c r="H3" s="8">
+        <f>_xlfn.XLOOKUP($B$3,PARAMETROS_IMPORTACION!A:A,PARAMETROS_IMPORTACION!C:C,0,0)</f>
+        <v>1.2</v>
+      </c>
+      <c r="I3" s="8">
+        <f>_xlfn.XLOOKUP("Seguro",PARAMETROS_IMPORTACION!A:A,PARAMETROS_IMPORTACION!C:C,0,0)</f>
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="J3" s="8">
+        <f>_xlfn.XLOOKUP("Arancel",PARAMETROS_IMPORTACION!A:A,PARAMETROS_IMPORTACION!C:C,0,0)</f>
+        <v>0.05</v>
+      </c>
+      <c r="K3" s="8">
+        <f>_xlfn.XLOOKUP("Mark_up",PARAMETROS_IMPORTACION!A:A,PARAMETROS_IMPORTACION!C:C,0,0)</f>
+        <v>0.1</v>
+      </c>
+      <c r="L3" s="8">
+        <f>_xlfn.XLOOKUP("DTA",PARAMETROS_IMPORTACION!A:A,PARAMETROS_IMPORTACION!C:C,0,0)</f>
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="M3" s="11">
+        <f>_xlfn.XLOOKUP("Honorarios_Aduanales",PARAMETROS_IMPORTACION!A:A,PARAMETROS_IMPORTACION!C:C,0,0)</f>
+        <v>4.4999999999999997E-3</v>
+      </c>
+      <c r="N3" s="2">
+        <f>IF($C3="Importado",$G3*(1+$H3+I3+$J3+$L3+$M3),$G3)</f>
+        <v>142915.5</v>
+      </c>
+      <c r="O3" s="2">
+        <f>N3 * (1 + K3)</f>
+        <v>157207.05000000002</v>
+      </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.35">
       <c r="E4" s="2"/>
@@ -42783,7 +42830,7 @@
           <x14:formula1>
             <xm:f>PARAMETROS_IMPORTACION!$A$2:$A$3</xm:f>
           </x14:formula1>
-          <xm:sqref>B2</xm:sqref>
+          <xm:sqref>B2:B3</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>

--- a/Plantilla_Pricing_Costos_Importacion.xlsx
+++ b/Plantilla_Pricing_Costos_Importacion.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\FernandoOlveraRendon\Documents\Base_Costos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5379E5D1-40CD-4F01-B7B2-8E26B3C6267B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2E50388-3494-41B0-A6F0-C2CC8D2071CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CATALOGO_PRODUCTOS" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3919" uniqueCount="902">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3920" uniqueCount="903">
   <si>
     <t>SKU</t>
   </si>
@@ -2803,6 +2803,9 @@
   </si>
   <si>
     <t>Honorarios_Aduanales</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Equipo  10 aereo y 5 maritimo </t>
   </si>
 </sst>
 </file>
@@ -3343,9 +3346,9 @@
   </sheetPr>
   <dimension ref="A1:L428"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A18" sqref="A18"/>
+      <selection pane="bottomLeft" activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3893,6 +3896,9 @@
       </c>
       <c r="K15" t="s">
         <v>77</v>
+      </c>
+      <c r="L15" t="s">
+        <v>902</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.35">
@@ -18674,9 +18680,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:O2000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomLeft" activeCell="O2" sqref="O2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -18738,7 +18744,7 @@
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
-        <v>469</v>
+        <v>79</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>162</v>
@@ -18753,7 +18759,7 @@
       </c>
       <c r="E2" s="2">
         <f>_xlfn.XLOOKUP(A2,CATALOGO_PRODUCTOS!A:A,CATALOGO_PRODUCTOS!B:B,0,0)</f>
-        <v>3000</v>
+        <v>415</v>
       </c>
       <c r="F2" s="2">
         <f>_xlfn.XLOOKUP(D2,TIPOS_CAMBIO!A:A,TIPOS_CAMBIO!B:B,"",0)</f>
@@ -18761,7 +18767,7 @@
       </c>
       <c r="G2" s="7">
         <f>$E2*$F2</f>
-        <v>63000</v>
+        <v>8715</v>
       </c>
       <c r="H2" s="8">
         <f>_xlfn.XLOOKUP($B$2,PARAMETROS_IMPORTACION!A:A,PARAMETROS_IMPORTACION!C:C,0,0)</f>
@@ -18789,16 +18795,16 @@
       </c>
       <c r="N2" s="2">
         <f>IF($C2="Importado",$G2*(1+$H2+I2+$J2+$L2+$M2),$G2)</f>
-        <v>86215.5</v>
+        <v>11926.477500000001</v>
       </c>
       <c r="O2" s="2">
         <f>N2 * (1 + K2)</f>
-        <v>94837.05</v>
+        <v>13119.125250000003</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>469</v>
+        <v>79</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>166</v>
@@ -18813,7 +18819,7 @@
       </c>
       <c r="E3" s="2">
         <f>_xlfn.XLOOKUP(A3,CATALOGO_PRODUCTOS!A:A,CATALOGO_PRODUCTOS!B:B,0,0)</f>
-        <v>3000</v>
+        <v>415</v>
       </c>
       <c r="F3" s="2">
         <f>_xlfn.XLOOKUP(D3,TIPOS_CAMBIO!A:A,TIPOS_CAMBIO!B:B,"",0)</f>
@@ -18821,7 +18827,7 @@
       </c>
       <c r="G3" s="7">
         <f>$E3*$F3</f>
-        <v>63000</v>
+        <v>8715</v>
       </c>
       <c r="H3" s="8">
         <f>_xlfn.XLOOKUP($B$3,PARAMETROS_IMPORTACION!A:A,PARAMETROS_IMPORTACION!C:C,0,0)</f>
@@ -18849,11 +18855,11 @@
       </c>
       <c r="N3" s="2">
         <f>IF($C3="Importado",$G3*(1+$H3+I3+$J3+$L3+$M3),$G3)</f>
-        <v>142915.5</v>
+        <v>19769.977500000001</v>
       </c>
       <c r="O3" s="2">
         <f>N3 * (1 + K3)</f>
-        <v>157207.05000000002</v>
+        <v>21746.975250000003</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.35">

--- a/Plantilla_Pricing_Costos_Importacion.xlsx
+++ b/Plantilla_Pricing_Costos_Importacion.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\FernandoOlveraRendon\Documents\Base_Costos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2E50388-3494-41B0-A6F0-C2CC8D2071CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E3E88BF-1274-4699-8A1D-390AA3E1B337}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CATALOGO_PRODUCTOS" sheetId="1" r:id="rId1"/>
@@ -3346,7 +3346,7 @@
   </sheetPr>
   <dimension ref="A1:L428"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="L15" sqref="L15"/>
     </sheetView>
@@ -18387,7 +18387,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
+      <selection pane="bottomLeft" activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -18424,7 +18424,7 @@
         <v>163</v>
       </c>
       <c r="C2">
-        <v>0.3</v>
+        <v>0.05</v>
       </c>
       <c r="D2" t="s">
         <v>164</v>
@@ -18441,7 +18441,7 @@
         <v>163</v>
       </c>
       <c r="C3">
-        <v>1.2</v>
+        <v>0.1</v>
       </c>
       <c r="D3" t="s">
         <v>167</v>
@@ -18680,9 +18680,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:O2000"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O2" sqref="O2"/>
+      <selection pane="bottomLeft" activeCell="O3" sqref="O3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -18771,7 +18771,7 @@
       </c>
       <c r="H2" s="8">
         <f>_xlfn.XLOOKUP($B$2,PARAMETROS_IMPORTACION!A:A,PARAMETROS_IMPORTACION!C:C,0,0)</f>
-        <v>0.3</v>
+        <v>0.05</v>
       </c>
       <c r="I2" s="8">
         <f>_xlfn.XLOOKUP("Seguro",PARAMETROS_IMPORTACION!A:A,PARAMETROS_IMPORTACION!C:C,0,0)</f>
@@ -18795,11 +18795,11 @@
       </c>
       <c r="N2" s="2">
         <f>IF($C2="Importado",$G2*(1+$H2+I2+$J2+$L2+$M2),$G2)</f>
-        <v>11926.477500000001</v>
+        <v>9747.7275000000009</v>
       </c>
       <c r="O2" s="2">
         <f>N2 * (1 + K2)</f>
-        <v>13119.125250000003</v>
+        <v>10722.500250000001</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.35">
@@ -18831,7 +18831,7 @@
       </c>
       <c r="H3" s="8">
         <f>_xlfn.XLOOKUP($B$3,PARAMETROS_IMPORTACION!A:A,PARAMETROS_IMPORTACION!C:C,0,0)</f>
-        <v>1.2</v>
+        <v>0.1</v>
       </c>
       <c r="I3" s="8">
         <f>_xlfn.XLOOKUP("Seguro",PARAMETROS_IMPORTACION!A:A,PARAMETROS_IMPORTACION!C:C,0,0)</f>
@@ -18855,11 +18855,11 @@
       </c>
       <c r="N3" s="2">
         <f>IF($C3="Importado",$G3*(1+$H3+I3+$J3+$L3+$M3),$G3)</f>
-        <v>19769.977500000001</v>
+        <v>10183.477500000001</v>
       </c>
       <c r="O3" s="2">
         <f>N3 * (1 + K3)</f>
-        <v>21746.975250000003</v>
+        <v>11201.825250000002</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.35">

--- a/Plantilla_Pricing_Costos_Importacion.xlsx
+++ b/Plantilla_Pricing_Costos_Importacion.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\FernandoOlveraRendon\Documents\Base_Costos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E3E88BF-1274-4699-8A1D-390AA3E1B337}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{800D2B31-CE70-42CF-B85F-4A9A3FC29E98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CATALOGO_PRODUCTOS" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3920" uniqueCount="903">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3921" uniqueCount="904">
   <si>
     <t>SKU</t>
   </si>
@@ -2806,6 +2806,9 @@
   </si>
   <si>
     <t xml:space="preserve">Equipo  10 aereo y 5 maritimo </t>
+  </si>
+  <si>
+    <t>todos los casetes descontar 50%</t>
   </si>
 </sst>
 </file>
@@ -3344,11 +3347,11 @@
   <sheetPr>
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
-  <dimension ref="A1:L428"/>
+  <dimension ref="A1:L429"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L15" sqref="L15"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -10096,7 +10099,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A193" t="s">
         <v>129</v>
       </c>
@@ -10131,7 +10134,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A194" t="s">
         <v>68</v>
       </c>
@@ -10166,7 +10169,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A195" t="s">
         <v>64</v>
       </c>
@@ -10201,7 +10204,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="196" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A196" t="s">
         <v>150</v>
       </c>
@@ -10236,7 +10239,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="197" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A197" t="s">
         <v>153</v>
       </c>
@@ -10271,7 +10274,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="198" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A198" t="s">
         <v>485</v>
       </c>
@@ -10306,7 +10309,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="199" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A199" t="s">
         <v>488</v>
       </c>
@@ -10340,8 +10343,11 @@
       <c r="K199" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="200" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L199">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="200" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A200" t="s">
         <v>491</v>
       </c>
@@ -10375,8 +10381,11 @@
       <c r="K200" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="201" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L200">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="201" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A201" t="s">
         <v>493</v>
       </c>
@@ -10410,8 +10419,11 @@
       <c r="K201" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="202" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L201">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="202" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A202" t="s">
         <v>495</v>
       </c>
@@ -10445,8 +10457,11 @@
       <c r="K202" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="203" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L202">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="203" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A203" t="s">
         <v>497</v>
       </c>
@@ -10480,8 +10495,11 @@
       <c r="K203" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="204" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L203">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="204" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A204" t="s">
         <v>500</v>
       </c>
@@ -10515,8 +10533,11 @@
       <c r="K204" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="205" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L204">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="205" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A205" t="s">
         <v>502</v>
       </c>
@@ -10550,8 +10571,11 @@
       <c r="K205" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="206" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L205">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="206" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A206" t="s">
         <v>504</v>
       </c>
@@ -10585,8 +10609,11 @@
       <c r="K206" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="207" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L206">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="207" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A207" t="s">
         <v>506</v>
       </c>
@@ -10620,8 +10647,11 @@
       <c r="K207" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="208" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L207">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="208" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A208" t="s">
         <v>509</v>
       </c>
@@ -10655,8 +10685,11 @@
       <c r="K208" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="209" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L208">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="209" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A209" t="s">
         <v>511</v>
       </c>
@@ -10690,8 +10723,11 @@
       <c r="K209" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="210" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L209">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="210" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A210" t="s">
         <v>513</v>
       </c>
@@ -10725,8 +10761,11 @@
       <c r="K210" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="211" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L210">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="211" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A211" t="s">
         <v>515</v>
       </c>
@@ -10760,8 +10799,11 @@
       <c r="K211" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="212" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L211">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="212" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A212" t="s">
         <v>518</v>
       </c>
@@ -10795,8 +10837,11 @@
       <c r="K212" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="213" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L212">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="213" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A213" t="s">
         <v>520</v>
       </c>
@@ -10830,8 +10875,11 @@
       <c r="K213" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="214" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L213">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="214" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A214" t="s">
         <v>522</v>
       </c>
@@ -10865,8 +10913,11 @@
       <c r="K214" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="215" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L214">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="215" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A215" t="s">
         <v>524</v>
       </c>
@@ -10900,8 +10951,11 @@
       <c r="K215" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="216" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L215">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="216" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A216" t="s">
         <v>527</v>
       </c>
@@ -10935,8 +10989,11 @@
       <c r="K216" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="217" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L216">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="217" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A217" t="s">
         <v>529</v>
       </c>
@@ -10970,8 +11027,11 @@
       <c r="K217" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="218" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L217">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="218" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A218" t="s">
         <v>531</v>
       </c>
@@ -11005,8 +11065,11 @@
       <c r="K218" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="219" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L218">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="219" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A219" t="s">
         <v>533</v>
       </c>
@@ -11040,8 +11103,11 @@
       <c r="K219" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="220" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L219">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="220" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A220" t="s">
         <v>534</v>
       </c>
@@ -11075,8 +11141,11 @@
       <c r="K220" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="221" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L220">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="221" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A221" t="s">
         <v>535</v>
       </c>
@@ -11110,8 +11179,11 @@
       <c r="K221" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="222" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L221">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="222" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A222" t="s">
         <v>536</v>
       </c>
@@ -11145,8 +11217,11 @@
       <c r="K222" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="223" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L222">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="223" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A223" t="s">
         <v>537</v>
       </c>
@@ -11180,8 +11255,11 @@
       <c r="K223" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="224" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L223">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="224" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A224" t="s">
         <v>539</v>
       </c>
@@ -11215,8 +11293,11 @@
       <c r="K224" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="225" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L224">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="225" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A225" t="s">
         <v>540</v>
       </c>
@@ -11250,8 +11331,11 @@
       <c r="K225" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="226" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L225">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="226" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A226" t="s">
         <v>542</v>
       </c>
@@ -11285,8 +11369,11 @@
       <c r="K226" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="227" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L226">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="227" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A227" t="s">
         <v>543</v>
       </c>
@@ -11320,8 +11407,11 @@
       <c r="K227" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="228" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L227">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="228" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A228" t="s">
         <v>545</v>
       </c>
@@ -11355,8 +11445,11 @@
       <c r="K228" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="229" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L228">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="229" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A229" t="s">
         <v>546</v>
       </c>
@@ -11390,8 +11483,11 @@
       <c r="K229" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="230" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L229">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="230" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A230" t="s">
         <v>547</v>
       </c>
@@ -11425,8 +11521,11 @@
       <c r="K230" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="231" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L230">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="231" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A231" t="s">
         <v>548</v>
       </c>
@@ -11460,8 +11559,11 @@
       <c r="K231" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="232" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L231">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="232" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A232" t="s">
         <v>550</v>
       </c>
@@ -11495,8 +11597,11 @@
       <c r="K232" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="233" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L232">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="233" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A233" t="s">
         <v>551</v>
       </c>
@@ -11530,8 +11635,11 @@
       <c r="K233" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="234" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L233">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="234" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A234" t="s">
         <v>552</v>
       </c>
@@ -11565,8 +11673,11 @@
       <c r="K234" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="235" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L234">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="235" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A235" t="s">
         <v>553</v>
       </c>
@@ -11600,8 +11711,11 @@
       <c r="K235" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="236" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L235">
+        <v>7.75</v>
+      </c>
+    </row>
+    <row r="236" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A236" t="s">
         <v>554</v>
       </c>
@@ -11635,8 +11749,11 @@
       <c r="K236" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="237" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L236">
+        <v>7.75</v>
+      </c>
+    </row>
+    <row r="237" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A237" t="s">
         <v>555</v>
       </c>
@@ -11670,8 +11787,11 @@
       <c r="K237" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="238" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L237">
+        <v>7.75</v>
+      </c>
+    </row>
+    <row r="238" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A238" t="s">
         <v>556</v>
       </c>
@@ -11705,8 +11825,11 @@
       <c r="K238" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="239" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L238">
+        <v>7.75</v>
+      </c>
+    </row>
+    <row r="239" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A239" t="s">
         <v>558</v>
       </c>
@@ -11740,8 +11863,11 @@
       <c r="K239" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="240" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L239">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="240" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A240" t="s">
         <v>559</v>
       </c>
@@ -11775,8 +11901,11 @@
       <c r="K240" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="241" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L240">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="241" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A241" t="s">
         <v>560</v>
       </c>
@@ -11810,8 +11939,11 @@
       <c r="K241" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="242" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L241">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="242" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A242" t="s">
         <v>561</v>
       </c>
@@ -11845,8 +11977,11 @@
       <c r="K242" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="243" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L242">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="243" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A243" t="s">
         <v>563</v>
       </c>
@@ -11880,8 +12015,11 @@
       <c r="K243" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="244" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L243">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="244" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A244" t="s">
         <v>564</v>
       </c>
@@ -11915,8 +12053,11 @@
       <c r="K244" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="245" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L244">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="245" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A245" t="s">
         <v>565</v>
       </c>
@@ -11950,8 +12091,11 @@
       <c r="K245" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="246" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L245">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="246" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A246" t="s">
         <v>566</v>
       </c>
@@ -11985,8 +12129,11 @@
       <c r="K246" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="247" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L246">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="247" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A247" t="s">
         <v>572</v>
       </c>
@@ -12020,8 +12167,11 @@
       <c r="K247" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="248" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L247">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="248" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A248" t="s">
         <v>573</v>
       </c>
@@ -12055,8 +12205,11 @@
       <c r="K248" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="249" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L248">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="249" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A249" t="s">
         <v>574</v>
       </c>
@@ -12090,8 +12243,11 @@
       <c r="K249" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="250" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L249">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="250" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A250" t="s">
         <v>575</v>
       </c>
@@ -12125,8 +12281,11 @@
       <c r="K250" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="251" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L250">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="251" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A251" t="s">
         <v>577</v>
       </c>
@@ -12160,8 +12319,11 @@
       <c r="K251" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="252" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L251">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="252" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A252" t="s">
         <v>578</v>
       </c>
@@ -12195,8 +12357,11 @@
       <c r="K252" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="253" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L252">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="253" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A253" t="s">
         <v>579</v>
       </c>
@@ -12230,8 +12395,11 @@
       <c r="K253" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="254" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L253">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="254" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A254" t="s">
         <v>580</v>
       </c>
@@ -12265,8 +12433,11 @@
       <c r="K254" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="255" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L254">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="255" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A255" t="s">
         <v>582</v>
       </c>
@@ -12300,8 +12471,11 @@
       <c r="K255" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="256" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L255">
+        <v>8.1</v>
+      </c>
+    </row>
+    <row r="256" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A256" t="s">
         <v>583</v>
       </c>
@@ -12335,8 +12509,11 @@
       <c r="K256" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="257" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L256">
+        <v>8.1</v>
+      </c>
+    </row>
+    <row r="257" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A257" t="s">
         <v>584</v>
       </c>
@@ -12370,8 +12547,11 @@
       <c r="K257" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="258" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L257">
+        <v>8.1</v>
+      </c>
+    </row>
+    <row r="258" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A258" t="s">
         <v>585</v>
       </c>
@@ -12405,8 +12585,11 @@
       <c r="K258" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="259" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L258">
+        <v>8.1</v>
+      </c>
+    </row>
+    <row r="259" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A259" t="s">
         <v>587</v>
       </c>
@@ -12440,8 +12623,11 @@
       <c r="K259" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="260" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L259">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="260" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A260" t="s">
         <v>588</v>
       </c>
@@ -12475,8 +12661,11 @@
       <c r="K260" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="261" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L260">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="261" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A261" t="s">
         <v>589</v>
       </c>
@@ -12510,8 +12699,11 @@
       <c r="K261" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="262" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L261">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="262" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A262" t="s">
         <v>590</v>
       </c>
@@ -12545,8 +12737,11 @@
       <c r="K262" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="263" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L262">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="263" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A263" t="s">
         <v>592</v>
       </c>
@@ -12580,8 +12775,11 @@
       <c r="K263" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="264" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L263">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="264" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A264" t="s">
         <v>593</v>
       </c>
@@ -12615,8 +12813,11 @@
       <c r="K264" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="265" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L264">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="265" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A265" t="s">
         <v>594</v>
       </c>
@@ -12650,8 +12851,11 @@
       <c r="K265" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="266" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L265">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="266" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A266" t="s">
         <v>595</v>
       </c>
@@ -12685,8 +12889,11 @@
       <c r="K266" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="267" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L266">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="267" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A267" t="s">
         <v>597</v>
       </c>
@@ -12720,8 +12927,11 @@
       <c r="K267" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="268" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L267">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="268" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A268" t="s">
         <v>598</v>
       </c>
@@ -12755,8 +12965,11 @@
       <c r="K268" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="269" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L268">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="269" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A269" t="s">
         <v>599</v>
       </c>
@@ -12790,8 +13003,11 @@
       <c r="K269" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="270" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L269">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="270" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A270" t="s">
         <v>600</v>
       </c>
@@ -12825,8 +13041,11 @@
       <c r="K270" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="271" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L270">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="271" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A271" t="s">
         <v>602</v>
       </c>
@@ -12860,8 +13079,11 @@
       <c r="K271" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="272" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L271">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="272" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A272" t="s">
         <v>603</v>
       </c>
@@ -12895,8 +13117,11 @@
       <c r="K272" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="273" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L272">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="273" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A273" t="s">
         <v>604</v>
       </c>
@@ -12930,8 +13155,11 @@
       <c r="K273" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="274" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L273">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="274" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A274" t="s">
         <v>605</v>
       </c>
@@ -12965,8 +13193,11 @@
       <c r="K274" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="275" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L274">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="275" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A275" t="s">
         <v>607</v>
       </c>
@@ -13000,8 +13231,11 @@
       <c r="K275" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="276" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L275">
+        <v>8.25</v>
+      </c>
+    </row>
+    <row r="276" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A276" t="s">
         <v>608</v>
       </c>
@@ -13035,8 +13269,11 @@
       <c r="K276" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="277" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L276">
+        <v>8.25</v>
+      </c>
+    </row>
+    <row r="277" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A277" t="s">
         <v>609</v>
       </c>
@@ -13070,8 +13307,11 @@
       <c r="K277" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="278" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L277">
+        <v>8.25</v>
+      </c>
+    </row>
+    <row r="278" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A278" t="s">
         <v>610</v>
       </c>
@@ -13105,8 +13345,11 @@
       <c r="K278" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="279" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L278">
+        <v>8.25</v>
+      </c>
+    </row>
+    <row r="279" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A279" t="s">
         <v>612</v>
       </c>
@@ -13140,8 +13383,11 @@
       <c r="K279" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="280" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L279">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="280" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A280" t="s">
         <v>613</v>
       </c>
@@ -13175,8 +13421,11 @@
       <c r="K280" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="281" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L280">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="281" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A281" t="s">
         <v>614</v>
       </c>
@@ -13210,8 +13459,11 @@
       <c r="K281" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="282" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L281">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="282" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A282" t="s">
         <v>615</v>
       </c>
@@ -13245,8 +13497,11 @@
       <c r="K282" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="283" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L282">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="283" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A283" t="s">
         <v>617</v>
       </c>
@@ -13280,8 +13535,11 @@
       <c r="K283" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="284" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L283">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="284" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A284" t="s">
         <v>618</v>
       </c>
@@ -13315,8 +13573,11 @@
       <c r="K284" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="285" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L284">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="285" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A285" t="s">
         <v>619</v>
       </c>
@@ -13350,8 +13611,11 @@
       <c r="K285" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="286" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L285">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="286" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A286" t="s">
         <v>620</v>
       </c>
@@ -13385,8 +13649,11 @@
       <c r="K286" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="287" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L286">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="287" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A287" t="s">
         <v>622</v>
       </c>
@@ -13420,8 +13687,11 @@
       <c r="K287" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="288" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L287">
+        <v>7.75</v>
+      </c>
+    </row>
+    <row r="288" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A288" t="s">
         <v>623</v>
       </c>
@@ -13455,8 +13725,11 @@
       <c r="K288" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="289" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L288">
+        <v>7.75</v>
+      </c>
+    </row>
+    <row r="289" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A289" t="s">
         <v>624</v>
       </c>
@@ -13490,8 +13763,11 @@
       <c r="K289" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="290" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L289">
+        <v>7.75</v>
+      </c>
+    </row>
+    <row r="290" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A290" t="s">
         <v>625</v>
       </c>
@@ -13525,8 +13801,11 @@
       <c r="K290" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="291" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L290">
+        <v>7.75</v>
+      </c>
+    </row>
+    <row r="291" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A291" t="s">
         <v>627</v>
       </c>
@@ -13560,8 +13839,11 @@
       <c r="K291" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="292" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L291">
+        <v>8.25</v>
+      </c>
+    </row>
+    <row r="292" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A292" t="s">
         <v>628</v>
       </c>
@@ -13595,8 +13877,11 @@
       <c r="K292" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="293" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L292">
+        <v>8.25</v>
+      </c>
+    </row>
+    <row r="293" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A293" t="s">
         <v>629</v>
       </c>
@@ -13630,8 +13915,11 @@
       <c r="K293" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="294" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L293">
+        <v>8.25</v>
+      </c>
+    </row>
+    <row r="294" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A294" t="s">
         <v>630</v>
       </c>
@@ -13665,8 +13953,11 @@
       <c r="K294" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="295" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L294">
+        <v>8.25</v>
+      </c>
+    </row>
+    <row r="295" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A295" t="s">
         <v>632</v>
       </c>
@@ -13700,8 +13991,11 @@
       <c r="K295" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="296" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L295">
+        <v>9.25</v>
+      </c>
+    </row>
+    <row r="296" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A296" t="s">
         <v>633</v>
       </c>
@@ -13735,8 +14029,11 @@
       <c r="K296" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="297" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L296">
+        <v>9.25</v>
+      </c>
+    </row>
+    <row r="297" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A297" t="s">
         <v>634</v>
       </c>
@@ -13770,8 +14067,11 @@
       <c r="K297" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="298" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L297">
+        <v>9.25</v>
+      </c>
+    </row>
+    <row r="298" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A298" t="s">
         <v>635</v>
       </c>
@@ -13805,8 +14105,11 @@
       <c r="K298" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="299" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L298">
+        <v>9.25</v>
+      </c>
+    </row>
+    <row r="299" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A299" t="s">
         <v>637</v>
       </c>
@@ -13840,8 +14143,11 @@
       <c r="K299" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="300" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L299">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="300" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A300" t="s">
         <v>638</v>
       </c>
@@ -13875,8 +14181,11 @@
       <c r="K300" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="301" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L300">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="301" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A301" t="s">
         <v>639</v>
       </c>
@@ -13910,8 +14219,11 @@
       <c r="K301" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="302" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L301">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="302" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A302" t="s">
         <v>640</v>
       </c>
@@ -13945,8 +14257,11 @@
       <c r="K302" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="303" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L302">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="303" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A303" t="s">
         <v>642</v>
       </c>
@@ -13980,8 +14295,11 @@
       <c r="K303" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="304" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L303">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="304" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A304" t="s">
         <v>643</v>
       </c>
@@ -14015,8 +14333,11 @@
       <c r="K304" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="305" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L304">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="305" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A305" t="s">
         <v>644</v>
       </c>
@@ -14050,8 +14371,11 @@
       <c r="K305" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="306" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L305">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="306" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A306" t="s">
         <v>645</v>
       </c>
@@ -14085,8 +14409,11 @@
       <c r="K306" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="307" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L306">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="307" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A307" t="s">
         <v>647</v>
       </c>
@@ -14120,8 +14447,11 @@
       <c r="K307" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="308" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L307">
+        <v>7.75</v>
+      </c>
+    </row>
+    <row r="308" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A308" t="s">
         <v>648</v>
       </c>
@@ -14155,8 +14485,11 @@
       <c r="K308" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="309" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L308">
+        <v>7.75</v>
+      </c>
+    </row>
+    <row r="309" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A309" t="s">
         <v>649</v>
       </c>
@@ -14190,8 +14523,11 @@
       <c r="K309" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="310" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L309">
+        <v>7.75</v>
+      </c>
+    </row>
+    <row r="310" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A310" t="s">
         <v>650</v>
       </c>
@@ -14225,8 +14561,11 @@
       <c r="K310" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="311" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L310">
+        <v>7.75</v>
+      </c>
+    </row>
+    <row r="311" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A311" t="s">
         <v>652</v>
       </c>
@@ -14260,8 +14599,11 @@
       <c r="K311" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="312" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L311">
+        <v>8.25</v>
+      </c>
+    </row>
+    <row r="312" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A312" t="s">
         <v>653</v>
       </c>
@@ -14295,8 +14637,11 @@
       <c r="K312" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="313" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L312">
+        <v>8.25</v>
+      </c>
+    </row>
+    <row r="313" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A313" t="s">
         <v>654</v>
       </c>
@@ -14330,8 +14675,11 @@
       <c r="K313" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="314" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L313">
+        <v>8.25</v>
+      </c>
+    </row>
+    <row r="314" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A314" t="s">
         <v>655</v>
       </c>
@@ -14365,8 +14713,11 @@
       <c r="K314" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="315" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L314">
+        <v>8.25</v>
+      </c>
+    </row>
+    <row r="315" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A315" t="s">
         <v>657</v>
       </c>
@@ -14400,8 +14751,11 @@
       <c r="K315" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="316" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L315">
+        <v>9.25</v>
+      </c>
+    </row>
+    <row r="316" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A316" t="s">
         <v>658</v>
       </c>
@@ -14435,8 +14789,11 @@
       <c r="K316" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="317" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L316">
+        <v>9.25</v>
+      </c>
+    </row>
+    <row r="317" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A317" t="s">
         <v>659</v>
       </c>
@@ -14470,8 +14827,11 @@
       <c r="K317" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="318" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L317">
+        <v>9.25</v>
+      </c>
+    </row>
+    <row r="318" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A318" t="s">
         <v>660</v>
       </c>
@@ -14505,8 +14865,11 @@
       <c r="K318" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="319" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L318">
+        <v>9.25</v>
+      </c>
+    </row>
+    <row r="319" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A319" t="s">
         <v>662</v>
       </c>
@@ -14540,8 +14903,11 @@
       <c r="K319" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="320" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L319">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="320" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A320" t="s">
         <v>663</v>
       </c>
@@ -14575,8 +14941,11 @@
       <c r="K320" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="321" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L320">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="321" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A321" t="s">
         <v>664</v>
       </c>
@@ -14610,8 +14979,11 @@
       <c r="K321" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="322" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L321">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="322" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A322" t="s">
         <v>665</v>
       </c>
@@ -14645,8 +15017,11 @@
       <c r="K322" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="323" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L322">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="323" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A323" t="s">
         <v>671</v>
       </c>
@@ -14680,8 +15055,11 @@
       <c r="K323" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="324" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L323">
+        <v>7.75</v>
+      </c>
+    </row>
+    <row r="324" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A324" t="s">
         <v>672</v>
       </c>
@@ -14715,8 +15093,11 @@
       <c r="K324" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="325" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L324">
+        <v>7.75</v>
+      </c>
+    </row>
+    <row r="325" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A325" t="s">
         <v>673</v>
       </c>
@@ -14750,8 +15131,11 @@
       <c r="K325" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="326" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L325">
+        <v>7.75</v>
+      </c>
+    </row>
+    <row r="326" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A326" t="s">
         <v>674</v>
       </c>
@@ -14785,8 +15169,11 @@
       <c r="K326" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="327" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L326">
+        <v>7.75</v>
+      </c>
+    </row>
+    <row r="327" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A327" t="s">
         <v>676</v>
       </c>
@@ -14820,8 +15207,11 @@
       <c r="K327" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="328" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L327">
+        <v>8.25</v>
+      </c>
+    </row>
+    <row r="328" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A328" t="s">
         <v>677</v>
       </c>
@@ -14855,8 +15245,11 @@
       <c r="K328" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="329" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L328">
+        <v>8.25</v>
+      </c>
+    </row>
+    <row r="329" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A329" t="s">
         <v>678</v>
       </c>
@@ -14890,8 +15283,11 @@
       <c r="K329" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="330" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L329">
+        <v>8.25</v>
+      </c>
+    </row>
+    <row r="330" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A330" t="s">
         <v>679</v>
       </c>
@@ -14925,8 +15321,11 @@
       <c r="K330" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="331" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L330">
+        <v>8.25</v>
+      </c>
+    </row>
+    <row r="331" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A331" t="s">
         <v>681</v>
       </c>
@@ -14960,8 +15359,11 @@
       <c r="K331" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="332" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L331">
+        <v>8.75</v>
+      </c>
+    </row>
+    <row r="332" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A332" t="s">
         <v>682</v>
       </c>
@@ -14995,8 +15397,11 @@
       <c r="K332" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="333" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L332">
+        <v>8.75</v>
+      </c>
+    </row>
+    <row r="333" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A333" t="s">
         <v>683</v>
       </c>
@@ -15030,8 +15435,11 @@
       <c r="K333" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="334" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L333">
+        <v>8.75</v>
+      </c>
+    </row>
+    <row r="334" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A334" t="s">
         <v>684</v>
       </c>
@@ -15065,8 +15473,11 @@
       <c r="K334" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="335" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L334">
+        <v>8.75</v>
+      </c>
+    </row>
+    <row r="335" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A335" t="s">
         <v>686</v>
       </c>
@@ -15100,8 +15511,11 @@
       <c r="K335" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="336" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L335">
+        <v>9.75</v>
+      </c>
+    </row>
+    <row r="336" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A336" t="s">
         <v>687</v>
       </c>
@@ -15135,8 +15549,11 @@
       <c r="K336" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="337" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L336">
+        <v>9.75</v>
+      </c>
+    </row>
+    <row r="337" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A337" t="s">
         <v>688</v>
       </c>
@@ -15170,8 +15587,11 @@
       <c r="K337" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="338" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L337">
+        <v>9.75</v>
+      </c>
+    </row>
+    <row r="338" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A338" t="s">
         <v>689</v>
       </c>
@@ -15205,8 +15625,11 @@
       <c r="K338" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="339" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L338">
+        <v>9.75</v>
+      </c>
+    </row>
+    <row r="339" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A339" t="s">
         <v>691</v>
       </c>
@@ -15240,8 +15663,11 @@
       <c r="K339" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="340" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L339">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="340" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A340" t="s">
         <v>692</v>
       </c>
@@ -15275,8 +15701,11 @@
       <c r="K340" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="341" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L340">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="341" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A341" t="s">
         <v>693</v>
       </c>
@@ -15310,8 +15739,11 @@
       <c r="K341" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="342" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L341">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="342" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A342" t="s">
         <v>694</v>
       </c>
@@ -15345,8 +15777,11 @@
       <c r="K342" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="343" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L342">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="343" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A343" t="s">
         <v>696</v>
       </c>
@@ -15380,8 +15815,11 @@
       <c r="K343" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="344" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L343">
+        <v>7.75</v>
+      </c>
+    </row>
+    <row r="344" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A344" t="s">
         <v>697</v>
       </c>
@@ -15415,8 +15853,11 @@
       <c r="K344" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="345" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L344">
+        <v>7.75</v>
+      </c>
+    </row>
+    <row r="345" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A345" t="s">
         <v>698</v>
       </c>
@@ -15450,8 +15891,11 @@
       <c r="K345" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="346" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L345">
+        <v>7.75</v>
+      </c>
+    </row>
+    <row r="346" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A346" t="s">
         <v>699</v>
       </c>
@@ -15485,8 +15929,11 @@
       <c r="K346" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="347" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L346">
+        <v>7.75</v>
+      </c>
+    </row>
+    <row r="347" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A347" t="s">
         <v>701</v>
       </c>
@@ -15520,8 +15967,11 @@
       <c r="K347" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="348" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L347">
+        <v>8.25</v>
+      </c>
+    </row>
+    <row r="348" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A348" t="s">
         <v>702</v>
       </c>
@@ -15555,8 +16005,11 @@
       <c r="K348" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="349" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L348">
+        <v>8.25</v>
+      </c>
+    </row>
+    <row r="349" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A349" t="s">
         <v>703</v>
       </c>
@@ -15590,8 +16043,11 @@
       <c r="K349" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="350" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L349">
+        <v>8.25</v>
+      </c>
+    </row>
+    <row r="350" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A350" t="s">
         <v>704</v>
       </c>
@@ -15625,8 +16081,11 @@
       <c r="K350" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="351" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L350">
+        <v>8.25</v>
+      </c>
+    </row>
+    <row r="351" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A351" t="s">
         <v>706</v>
       </c>
@@ -15660,8 +16119,11 @@
       <c r="K351" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="352" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L351">
+        <v>8.75</v>
+      </c>
+    </row>
+    <row r="352" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A352" t="s">
         <v>707</v>
       </c>
@@ -15695,8 +16157,11 @@
       <c r="K352" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="353" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L352">
+        <v>8.75</v>
+      </c>
+    </row>
+    <row r="353" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A353" t="s">
         <v>708</v>
       </c>
@@ -15730,8 +16195,11 @@
       <c r="K353" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="354" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L353">
+        <v>8.75</v>
+      </c>
+    </row>
+    <row r="354" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A354" t="s">
         <v>709</v>
       </c>
@@ -15765,8 +16233,11 @@
       <c r="K354" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="355" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L354">
+        <v>8.75</v>
+      </c>
+    </row>
+    <row r="355" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A355" t="s">
         <v>711</v>
       </c>
@@ -15800,8 +16271,11 @@
       <c r="K355" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="356" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L355">
+        <v>9.75</v>
+      </c>
+    </row>
+    <row r="356" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A356" t="s">
         <v>712</v>
       </c>
@@ -15835,8 +16309,11 @@
       <c r="K356" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="357" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L356">
+        <v>9.75</v>
+      </c>
+    </row>
+    <row r="357" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A357" t="s">
         <v>713</v>
       </c>
@@ -15870,8 +16347,11 @@
       <c r="K357" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="358" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L357">
+        <v>9.75</v>
+      </c>
+    </row>
+    <row r="358" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A358" t="s">
         <v>714</v>
       </c>
@@ -15905,8 +16385,11 @@
       <c r="K358" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="359" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L358">
+        <v>9.75</v>
+      </c>
+    </row>
+    <row r="359" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A359" t="s">
         <v>716</v>
       </c>
@@ -15940,8 +16423,11 @@
       <c r="K359" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="360" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L359">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="360" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A360" t="s">
         <v>717</v>
       </c>
@@ -15975,8 +16461,11 @@
       <c r="K360" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="361" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L360">
+        <v>7.75</v>
+      </c>
+    </row>
+    <row r="361" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A361" t="s">
         <v>718</v>
       </c>
@@ -16010,8 +16499,11 @@
       <c r="K361" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="362" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L361">
+        <v>8.25</v>
+      </c>
+    </row>
+    <row r="362" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A362" t="s">
         <v>719</v>
       </c>
@@ -16045,8 +16537,11 @@
       <c r="K362" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="363" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L362">
+        <v>8.75</v>
+      </c>
+    </row>
+    <row r="363" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A363" t="s">
         <v>720</v>
       </c>
@@ -16080,8 +16575,11 @@
       <c r="K363" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="364" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L363">
+        <v>9.75</v>
+      </c>
+    </row>
+    <row r="364" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A364" t="s">
         <v>721</v>
       </c>
@@ -16115,8 +16613,11 @@
       <c r="K364" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="365" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L364">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="365" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A365" t="s">
         <v>722</v>
       </c>
@@ -16150,8 +16651,11 @@
       <c r="K365" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="366" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L365">
+        <v>7.75</v>
+      </c>
+    </row>
+    <row r="366" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A366" t="s">
         <v>723</v>
       </c>
@@ -16185,8 +16689,11 @@
       <c r="K366" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="367" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L366">
+        <v>8.25</v>
+      </c>
+    </row>
+    <row r="367" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A367" t="s">
         <v>724</v>
       </c>
@@ -16220,8 +16727,11 @@
       <c r="K367" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="368" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L367">
+        <v>8.75</v>
+      </c>
+    </row>
+    <row r="368" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A368" t="s">
         <v>725</v>
       </c>
@@ -16255,8 +16765,11 @@
       <c r="K368" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="369" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L368">
+        <v>9.75</v>
+      </c>
+    </row>
+    <row r="369" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A369" t="s">
         <v>726</v>
       </c>
@@ -16290,8 +16803,11 @@
       <c r="K369" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="370" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L369">
+        <v>7.75</v>
+      </c>
+    </row>
+    <row r="370" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A370" t="s">
         <v>727</v>
       </c>
@@ -16325,8 +16841,11 @@
       <c r="K370" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="371" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L370">
+        <v>8.25</v>
+      </c>
+    </row>
+    <row r="371" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A371" t="s">
         <v>728</v>
       </c>
@@ -16360,8 +16879,11 @@
       <c r="K371" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="372" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L371">
+        <v>8.75</v>
+      </c>
+    </row>
+    <row r="372" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A372" t="s">
         <v>729</v>
       </c>
@@ -16395,8 +16917,11 @@
       <c r="K372" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="373" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L372">
+        <v>9.25</v>
+      </c>
+    </row>
+    <row r="373" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A373" t="s">
         <v>730</v>
       </c>
@@ -16430,8 +16955,11 @@
       <c r="K373" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="374" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L373">
+        <v>10.25</v>
+      </c>
+    </row>
+    <row r="374" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A374" t="s">
         <v>731</v>
       </c>
@@ -16465,8 +16993,11 @@
       <c r="K374" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="375" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L374">
+        <v>7.75</v>
+      </c>
+    </row>
+    <row r="375" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A375" t="s">
         <v>732</v>
       </c>
@@ -16500,8 +17031,11 @@
       <c r="K375" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="376" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L375">
+        <v>8.25</v>
+      </c>
+    </row>
+    <row r="376" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A376" t="s">
         <v>733</v>
       </c>
@@ -16535,8 +17069,11 @@
       <c r="K376" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="377" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L376">
+        <v>8.75</v>
+      </c>
+    </row>
+    <row r="377" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A377" t="s">
         <v>734</v>
       </c>
@@ -16570,8 +17107,11 @@
       <c r="K377" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="378" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L377">
+        <v>9.25</v>
+      </c>
+    </row>
+    <row r="378" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A378" t="s">
         <v>735</v>
       </c>
@@ -16605,8 +17145,11 @@
       <c r="K378" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="379" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L378">
+        <v>10.25</v>
+      </c>
+    </row>
+    <row r="379" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A379" t="s">
         <v>761</v>
       </c>
@@ -16641,7 +17184,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="380" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="380" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A380" t="s">
         <v>762</v>
       </c>
@@ -16676,7 +17219,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="381" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="381" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A381" t="s">
         <v>763</v>
       </c>
@@ -16711,7 +17254,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="382" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="382" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A382" t="s">
         <v>764</v>
       </c>
@@ -16746,7 +17289,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="383" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="383" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A383" t="s">
         <v>765</v>
       </c>
@@ -16781,7 +17324,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="384" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="384" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A384" t="s">
         <v>766</v>
       </c>
@@ -17936,7 +18479,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="417" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="417" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A417" t="s">
         <v>839</v>
       </c>
@@ -17971,7 +18514,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="418" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="418" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A418" t="s">
         <v>840</v>
       </c>
@@ -18006,7 +18549,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="419" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="419" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A419" t="s">
         <v>841</v>
       </c>
@@ -18041,7 +18584,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="420" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="420" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A420" t="s">
         <v>842</v>
       </c>
@@ -18076,7 +18619,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="421" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="421" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A421" t="s">
         <v>843</v>
       </c>
@@ -18111,7 +18654,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="422" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="422" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A422" t="s">
         <v>881</v>
       </c>
@@ -18146,7 +18689,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="423" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="423" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A423" t="s">
         <v>882</v>
       </c>
@@ -18181,7 +18724,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="424" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="424" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A424" t="s">
         <v>887</v>
       </c>
@@ -18216,7 +18759,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="425" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="425" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A425" t="s">
         <v>888</v>
       </c>
@@ -18251,7 +18794,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="426" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="426" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A426" t="s">
         <v>892</v>
       </c>
@@ -18286,7 +18829,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="427" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="427" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A427" t="s">
         <v>895</v>
       </c>
@@ -18321,7 +18864,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="428" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="428" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A428" t="s">
         <v>897</v>
       </c>
@@ -18354,6 +18897,11 @@
       </c>
       <c r="K428" t="s">
         <v>77</v>
+      </c>
+    </row>
+    <row r="429" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="L429" t="s">
+        <v>903</v>
       </c>
     </row>
   </sheetData>
@@ -18680,9 +19228,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:O2000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O3" sqref="O3"/>
+      <selection pane="bottomLeft" activeCell="O2" sqref="O2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -18744,10 +19292,10 @@
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
-        <v>79</v>
+        <v>491</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="C2" t="str">
         <f>_xlfn.XLOOKUP(A2,CATALOGO_PRODUCTOS!A:A,CATALOGO_PRODUCTOS!F:F,"",0)</f>
@@ -18759,7 +19307,7 @@
       </c>
       <c r="E2" s="2">
         <f>_xlfn.XLOOKUP(A2,CATALOGO_PRODUCTOS!A:A,CATALOGO_PRODUCTOS!B:B,0,0)</f>
-        <v>415</v>
+        <v>10</v>
       </c>
       <c r="F2" s="2">
         <f>_xlfn.XLOOKUP(D2,TIPOS_CAMBIO!A:A,TIPOS_CAMBIO!B:B,"",0)</f>
@@ -18767,11 +19315,11 @@
       </c>
       <c r="G2" s="7">
         <f>$E2*$F2</f>
-        <v>8715</v>
+        <v>210</v>
       </c>
       <c r="H2" s="8">
         <f>_xlfn.XLOOKUP($B$2,PARAMETROS_IMPORTACION!A:A,PARAMETROS_IMPORTACION!C:C,0,0)</f>
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
       <c r="I2" s="8">
         <f>_xlfn.XLOOKUP("Seguro",PARAMETROS_IMPORTACION!A:A,PARAMETROS_IMPORTACION!C:C,0,0)</f>
@@ -18795,11 +19343,11 @@
       </c>
       <c r="N2" s="2">
         <f>IF($C2="Importado",$G2*(1+$H2+I2+$J2+$L2+$M2),$G2)</f>
-        <v>9747.7275000000009</v>
+        <v>245.38500000000002</v>
       </c>
       <c r="O2" s="2">
         <f>N2 * (1 + K2)</f>
-        <v>10722.500250000001</v>
+        <v>269.92350000000005</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.35">
@@ -18807,7 +19355,7 @@
         <v>79</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="C3" t="str">
         <f>_xlfn.XLOOKUP(A3,CATALOGO_PRODUCTOS!A:A,CATALOGO_PRODUCTOS!F:F,"",0)</f>
@@ -18831,7 +19379,7 @@
       </c>
       <c r="H3" s="8">
         <f>_xlfn.XLOOKUP($B$3,PARAMETROS_IMPORTACION!A:A,PARAMETROS_IMPORTACION!C:C,0,0)</f>
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="I3" s="8">
         <f>_xlfn.XLOOKUP("Seguro",PARAMETROS_IMPORTACION!A:A,PARAMETROS_IMPORTACION!C:C,0,0)</f>
@@ -18855,11 +19403,11 @@
       </c>
       <c r="N3" s="2">
         <f>IF($C3="Importado",$G3*(1+$H3+I3+$J3+$L3+$M3),$G3)</f>
-        <v>10183.477500000001</v>
+        <v>9747.7275000000009</v>
       </c>
       <c r="O3" s="2">
         <f>N3 * (1 + K3)</f>
-        <v>11201.825250000002</v>
+        <v>10722.500250000001</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.35">
@@ -42831,7 +43379,7 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" disablePrompts="1" count="1">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{2890B5D1-F5C9-452F-8DA6-742FF446337F}">
           <x14:formula1>
             <xm:f>PARAMETROS_IMPORTACION!$A$2:$A$3</xm:f>

--- a/Plantilla_Pricing_Costos_Importacion.xlsx
+++ b/Plantilla_Pricing_Costos_Importacion.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\FernandoOlveraRendon\Documents\Base_Costos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{800D2B31-CE70-42CF-B85F-4A9A3FC29E98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D65DC64-6083-471C-A978-5ECA7A7F8F21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/Plantilla_Pricing_Costos_Importacion.xlsx
+++ b/Plantilla_Pricing_Costos_Importacion.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29530"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\FernandoOlveraRendon\Documents\Base_Costos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D65DC64-6083-471C-A978-5ECA7A7F8F21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C5D71FF-9D36-42AB-AB33-A55976D23838}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CATALOGO_PRODUCTOS" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3921" uniqueCount="904">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3929" uniqueCount="904">
   <si>
     <t>SKU</t>
   </si>
@@ -2831,6 +2831,7 @@
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -3349,7 +3350,7 @@
   </sheetPr>
   <dimension ref="A1:L429"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
@@ -19228,9 +19229,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:O2000"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O2" sqref="O2"/>
+      <selection pane="bottomLeft" activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -19292,10 +19293,10 @@
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
-        <v>491</v>
+        <v>572</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="C2" t="str">
         <f>_xlfn.XLOOKUP(A2,CATALOGO_PRODUCTOS!A:A,CATALOGO_PRODUCTOS!F:F,"",0)</f>
@@ -19307,7 +19308,7 @@
       </c>
       <c r="E2" s="2">
         <f>_xlfn.XLOOKUP(A2,CATALOGO_PRODUCTOS!A:A,CATALOGO_PRODUCTOS!B:B,0,0)</f>
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F2" s="2">
         <f>_xlfn.XLOOKUP(D2,TIPOS_CAMBIO!A:A,TIPOS_CAMBIO!B:B,"",0)</f>
@@ -19315,11 +19316,11 @@
       </c>
       <c r="G2" s="7">
         <f>$E2*$F2</f>
-        <v>210</v>
+        <v>273</v>
       </c>
       <c r="H2" s="8">
         <f>_xlfn.XLOOKUP($B$2,PARAMETROS_IMPORTACION!A:A,PARAMETROS_IMPORTACION!C:C,0,0)</f>
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="I2" s="8">
         <f>_xlfn.XLOOKUP("Seguro",PARAMETROS_IMPORTACION!A:A,PARAMETROS_IMPORTACION!C:C,0,0)</f>
@@ -19343,16 +19344,16 @@
       </c>
       <c r="N2" s="2">
         <f>IF($C2="Importado",$G2*(1+$H2+I2+$J2+$L2+$M2),$G2)</f>
-        <v>245.38500000000002</v>
+        <v>305.35050000000001</v>
       </c>
       <c r="O2" s="2">
         <f>N2 * (1 + K2)</f>
-        <v>269.92350000000005</v>
+        <v>335.88555000000002</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>79</v>
+        <v>577</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>162</v>
@@ -19367,7 +19368,7 @@
       </c>
       <c r="E3" s="2">
         <f>_xlfn.XLOOKUP(A3,CATALOGO_PRODUCTOS!A:A,CATALOGO_PRODUCTOS!B:B,0,0)</f>
-        <v>415</v>
+        <v>14</v>
       </c>
       <c r="F3" s="2">
         <f>_xlfn.XLOOKUP(D3,TIPOS_CAMBIO!A:A,TIPOS_CAMBIO!B:B,"",0)</f>
@@ -19375,7 +19376,7 @@
       </c>
       <c r="G3" s="7">
         <f>$E3*$F3</f>
-        <v>8715</v>
+        <v>294</v>
       </c>
       <c r="H3" s="8">
         <f>_xlfn.XLOOKUP($B$3,PARAMETROS_IMPORTACION!A:A,PARAMETROS_IMPORTACION!C:C,0,0)</f>
@@ -19403,60 +19404,252 @@
       </c>
       <c r="N3" s="2">
         <f>IF($C3="Importado",$G3*(1+$H3+I3+$J3+$L3+$M3),$G3)</f>
-        <v>9747.7275000000009</v>
+        <v>328.839</v>
       </c>
       <c r="O3" s="2">
         <f>N3 * (1 + K3)</f>
-        <v>10722.500250000001</v>
+        <v>361.72290000000004</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
-      <c r="K4" s="3"/>
-      <c r="L4" s="3"/>
-      <c r="M4" s="2"/>
-      <c r="N4" s="2"/>
+      <c r="A4" t="s">
+        <v>762</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="C4" t="str">
+        <f>_xlfn.XLOOKUP(A4,CATALOGO_PRODUCTOS!A:A,CATALOGO_PRODUCTOS!F:F,"",0)</f>
+        <v>Importado</v>
+      </c>
+      <c r="D4" t="str">
+        <f>_xlfn.XLOOKUP(A4,CATALOGO_PRODUCTOS!A:A,CATALOGO_PRODUCTOS!I:I,"",0)</f>
+        <v>USD</v>
+      </c>
+      <c r="E4" s="2">
+        <f>_xlfn.XLOOKUP(A4,CATALOGO_PRODUCTOS!A:A,CATALOGO_PRODUCTOS!B:B,0,0)</f>
+        <v>886</v>
+      </c>
+      <c r="F4" s="2">
+        <f>_xlfn.XLOOKUP(D4,TIPOS_CAMBIO!A:A,TIPOS_CAMBIO!B:B,"",0)</f>
+        <v>21</v>
+      </c>
+      <c r="G4" s="7">
+        <f>$E4*$F4</f>
+        <v>18606</v>
+      </c>
+      <c r="H4" s="8">
+        <f>_xlfn.XLOOKUP($B$4,PARAMETROS_IMPORTACION!A:A,PARAMETROS_IMPORTACION!C:C,0,0)</f>
+        <v>0.05</v>
+      </c>
+      <c r="I4" s="8">
+        <f>_xlfn.XLOOKUP("Seguro",PARAMETROS_IMPORTACION!A:A,PARAMETROS_IMPORTACION!C:C,0,0)</f>
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="J4" s="8">
+        <f>_xlfn.XLOOKUP("Arancel",PARAMETROS_IMPORTACION!A:A,PARAMETROS_IMPORTACION!C:C,0,0)</f>
+        <v>0.05</v>
+      </c>
+      <c r="K4" s="8">
+        <f>_xlfn.XLOOKUP("Mark_up",PARAMETROS_IMPORTACION!A:A,PARAMETROS_IMPORTACION!C:C,0,0)</f>
+        <v>0.1</v>
+      </c>
+      <c r="L4" s="8">
+        <f>_xlfn.XLOOKUP("DTA",PARAMETROS_IMPORTACION!A:A,PARAMETROS_IMPORTACION!C:C,0,0)</f>
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="M4" s="11">
+        <f>_xlfn.XLOOKUP("Honorarios_Aduanales",PARAMETROS_IMPORTACION!A:A,PARAMETROS_IMPORTACION!C:C,0,0)</f>
+        <v>4.4999999999999997E-3</v>
+      </c>
+      <c r="N4" s="2">
+        <f>IF($C4="Importado",$G4*(1+$H4+I4+$J4+$L4+$M4),$G4)</f>
+        <v>20810.811000000002</v>
+      </c>
+      <c r="O4" s="2">
+        <f>N4 * (1 + K4)</f>
+        <v>22891.892100000005</v>
+      </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3"/>
-      <c r="K5" s="3"/>
-      <c r="L5" s="3"/>
-      <c r="M5" s="2"/>
-      <c r="N5" s="2"/>
+      <c r="A5" s="4" t="s">
+        <v>572</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="C5" t="str">
+        <f>_xlfn.XLOOKUP(A5,CATALOGO_PRODUCTOS!A:A,CATALOGO_PRODUCTOS!F:F,"",0)</f>
+        <v>Importado</v>
+      </c>
+      <c r="D5" t="str">
+        <f>_xlfn.XLOOKUP(A5,CATALOGO_PRODUCTOS!A:A,CATALOGO_PRODUCTOS!I:I,"",0)</f>
+        <v>USD</v>
+      </c>
+      <c r="E5" s="2">
+        <f>_xlfn.XLOOKUP(A5,CATALOGO_PRODUCTOS!A:A,CATALOGO_PRODUCTOS!B:B,0,0)</f>
+        <v>13</v>
+      </c>
+      <c r="F5" s="2">
+        <f>_xlfn.XLOOKUP(D5,TIPOS_CAMBIO!A:A,TIPOS_CAMBIO!B:B,"",0)</f>
+        <v>21</v>
+      </c>
+      <c r="G5" s="7">
+        <f t="shared" ref="G5:G7" si="0">$E5*$F5</f>
+        <v>273</v>
+      </c>
+      <c r="H5" s="8">
+        <f>_xlfn.XLOOKUP($B$5,PARAMETROS_IMPORTACION!A:A,PARAMETROS_IMPORTACION!C:C,0,0)</f>
+        <v>0.1</v>
+      </c>
+      <c r="I5" s="8">
+        <f>_xlfn.XLOOKUP("Seguro",PARAMETROS_IMPORTACION!A:A,PARAMETROS_IMPORTACION!C:C,0,0)</f>
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="J5" s="8">
+        <f>_xlfn.XLOOKUP("Arancel",PARAMETROS_IMPORTACION!A:A,PARAMETROS_IMPORTACION!C:C,0,0)</f>
+        <v>0.05</v>
+      </c>
+      <c r="K5" s="8">
+        <f>_xlfn.XLOOKUP("Mark_up",PARAMETROS_IMPORTACION!A:A,PARAMETROS_IMPORTACION!C:C,0,0)</f>
+        <v>0.1</v>
+      </c>
+      <c r="L5" s="8">
+        <f>_xlfn.XLOOKUP("DTA",PARAMETROS_IMPORTACION!A:A,PARAMETROS_IMPORTACION!C:C,0,0)</f>
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="M5" s="11">
+        <f>_xlfn.XLOOKUP("Honorarios_Aduanales",PARAMETROS_IMPORTACION!A:A,PARAMETROS_IMPORTACION!C:C,0,0)</f>
+        <v>4.4999999999999997E-3</v>
+      </c>
+      <c r="N5" s="2">
+        <f t="shared" ref="N5:N7" si="1">IF($C5="Importado",$G5*(1+$H5+I5+$J5+$L5+$M5),$G5)</f>
+        <v>319.00050000000005</v>
+      </c>
+      <c r="O5" s="2">
+        <f t="shared" ref="O5:O7" si="2">N5 * (1 + K5)</f>
+        <v>350.90055000000007</v>
+      </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
-      <c r="J6" s="3"/>
-      <c r="K6" s="3"/>
-      <c r="L6" s="3"/>
-      <c r="M6" s="2"/>
-      <c r="N6" s="2"/>
+      <c r="A6" t="s">
+        <v>577</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="C6" t="str">
+        <f>_xlfn.XLOOKUP(A6,CATALOGO_PRODUCTOS!A:A,CATALOGO_PRODUCTOS!F:F,"",0)</f>
+        <v>Importado</v>
+      </c>
+      <c r="D6" t="str">
+        <f>_xlfn.XLOOKUP(A6,CATALOGO_PRODUCTOS!A:A,CATALOGO_PRODUCTOS!I:I,"",0)</f>
+        <v>USD</v>
+      </c>
+      <c r="E6" s="2">
+        <f>_xlfn.XLOOKUP(A6,CATALOGO_PRODUCTOS!A:A,CATALOGO_PRODUCTOS!B:B,0,0)</f>
+        <v>14</v>
+      </c>
+      <c r="F6" s="2">
+        <f>_xlfn.XLOOKUP(D6,TIPOS_CAMBIO!A:A,TIPOS_CAMBIO!B:B,"",0)</f>
+        <v>21</v>
+      </c>
+      <c r="G6" s="7">
+        <f t="shared" si="0"/>
+        <v>294</v>
+      </c>
+      <c r="H6" s="8">
+        <f>_xlfn.XLOOKUP($B$6,PARAMETROS_IMPORTACION!A:A,PARAMETROS_IMPORTACION!C:C,0,0)</f>
+        <v>0.1</v>
+      </c>
+      <c r="I6" s="8">
+        <f>_xlfn.XLOOKUP("Seguro",PARAMETROS_IMPORTACION!A:A,PARAMETROS_IMPORTACION!C:C,0,0)</f>
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="J6" s="8">
+        <f>_xlfn.XLOOKUP("Arancel",PARAMETROS_IMPORTACION!A:A,PARAMETROS_IMPORTACION!C:C,0,0)</f>
+        <v>0.05</v>
+      </c>
+      <c r="K6" s="8">
+        <f>_xlfn.XLOOKUP("Mark_up",PARAMETROS_IMPORTACION!A:A,PARAMETROS_IMPORTACION!C:C,0,0)</f>
+        <v>0.1</v>
+      </c>
+      <c r="L6" s="8">
+        <f>_xlfn.XLOOKUP("DTA",PARAMETROS_IMPORTACION!A:A,PARAMETROS_IMPORTACION!C:C,0,0)</f>
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="M6" s="11">
+        <f>_xlfn.XLOOKUP("Honorarios_Aduanales",PARAMETROS_IMPORTACION!A:A,PARAMETROS_IMPORTACION!C:C,0,0)</f>
+        <v>4.4999999999999997E-3</v>
+      </c>
+      <c r="N6" s="2">
+        <f t="shared" si="1"/>
+        <v>343.53900000000004</v>
+      </c>
+      <c r="O6" s="2">
+        <f t="shared" si="2"/>
+        <v>377.89290000000005</v>
+      </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
-      <c r="J7" s="3"/>
-      <c r="K7" s="3"/>
-      <c r="L7" s="3"/>
-      <c r="M7" s="2"/>
-      <c r="N7" s="2"/>
+      <c r="A7" t="s">
+        <v>762</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="C7" t="str">
+        <f>_xlfn.XLOOKUP(A7,CATALOGO_PRODUCTOS!A:A,CATALOGO_PRODUCTOS!F:F,"",0)</f>
+        <v>Importado</v>
+      </c>
+      <c r="D7" t="str">
+        <f>_xlfn.XLOOKUP(A7,CATALOGO_PRODUCTOS!A:A,CATALOGO_PRODUCTOS!I:I,"",0)</f>
+        <v>USD</v>
+      </c>
+      <c r="E7" s="2">
+        <f>_xlfn.XLOOKUP(A7,CATALOGO_PRODUCTOS!A:A,CATALOGO_PRODUCTOS!B:B,0,0)</f>
+        <v>886</v>
+      </c>
+      <c r="F7" s="2">
+        <f>_xlfn.XLOOKUP(D7,TIPOS_CAMBIO!A:A,TIPOS_CAMBIO!B:B,"",0)</f>
+        <v>21</v>
+      </c>
+      <c r="G7" s="7">
+        <f t="shared" si="0"/>
+        <v>18606</v>
+      </c>
+      <c r="H7" s="8">
+        <f>_xlfn.XLOOKUP($B$7,PARAMETROS_IMPORTACION!A:A,PARAMETROS_IMPORTACION!C:C,0,0)</f>
+        <v>0.1</v>
+      </c>
+      <c r="I7" s="8">
+        <f>_xlfn.XLOOKUP("Seguro",PARAMETROS_IMPORTACION!A:A,PARAMETROS_IMPORTACION!C:C,0,0)</f>
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="J7" s="8">
+        <f>_xlfn.XLOOKUP("Arancel",PARAMETROS_IMPORTACION!A:A,PARAMETROS_IMPORTACION!C:C,0,0)</f>
+        <v>0.05</v>
+      </c>
+      <c r="K7" s="8">
+        <f>_xlfn.XLOOKUP("Mark_up",PARAMETROS_IMPORTACION!A:A,PARAMETROS_IMPORTACION!C:C,0,0)</f>
+        <v>0.1</v>
+      </c>
+      <c r="L7" s="8">
+        <f>_xlfn.XLOOKUP("DTA",PARAMETROS_IMPORTACION!A:A,PARAMETROS_IMPORTACION!C:C,0,0)</f>
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="M7" s="11">
+        <f>_xlfn.XLOOKUP("Honorarios_Aduanales",PARAMETROS_IMPORTACION!A:A,PARAMETROS_IMPORTACION!C:C,0,0)</f>
+        <v>4.4999999999999997E-3</v>
+      </c>
+      <c r="N7" s="2">
+        <f t="shared" si="1"/>
+        <v>21741.111000000001</v>
+      </c>
+      <c r="O7" s="2">
+        <f t="shared" si="2"/>
+        <v>23915.222100000003</v>
+      </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.35">
       <c r="E8" s="2"/>
@@ -43379,12 +43572,12 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" disablePrompts="1" count="1">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{2890B5D1-F5C9-452F-8DA6-742FF446337F}">
           <x14:formula1>
             <xm:f>PARAMETROS_IMPORTACION!$A$2:$A$3</xm:f>
           </x14:formula1>
-          <xm:sqref>B2:B3</xm:sqref>
+          <xm:sqref>B2:B7</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>

--- a/Plantilla_Pricing_Costos_Importacion.xlsx
+++ b/Plantilla_Pricing_Costos_Importacion.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\FernandoOlveraRendon\Documents\Base_Costos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C5D71FF-9D36-42AB-AB33-A55976D23838}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7386DEF-D6D9-4C42-B6DF-57725AF40F6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28635" yWindow="-165" windowWidth="29130" windowHeight="15810" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CATALOGO_PRODUCTOS" sheetId="1" r:id="rId1"/>
@@ -2818,7 +2818,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2860,6 +2860,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -2893,7 +2900,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2912,6 +2919,7 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Hipervínculo" xfId="4" builtinId="8"/>
@@ -2971,7 +2979,7 @@
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>400</xdr:row>
+      <xdr:row>432</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3014,6 +3022,13 @@
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="tblCatalogo" displayName="tblCatalogo" ref="A1:K428" headerRowCellStyle="Normal" dataCellStyle="Normal" totalsRowCellStyle="Normal">
+  <autoFilter ref="A1:K428" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="D0031"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K197">
     <sortCondition sortBy="fontColor" ref="A1:A197" dxfId="4"/>
   </sortState>
@@ -3352,7 +3367,7 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3447,7 +3462,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>304</v>
       </c>
@@ -3482,7 +3497,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>305</v>
       </c>
@@ -3517,7 +3532,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>306</v>
       </c>
@@ -3552,7 +3567,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:12" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>307</v>
       </c>
@@ -3587,7 +3602,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>308</v>
       </c>
@@ -3622,7 +3637,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>253</v>
       </c>
@@ -3657,7 +3672,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>254</v>
       </c>
@@ -3692,7 +3707,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>255</v>
       </c>
@@ -3727,7 +3742,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>256</v>
       </c>
@@ -3762,7 +3777,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>258</v>
       </c>
@@ -3797,7 +3812,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>259</v>
       </c>
@@ -3832,7 +3847,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>469</v>
       </c>
@@ -3867,7 +3882,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>471</v>
       </c>
@@ -3905,7 +3920,7 @@
         <v>902</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>472</v>
       </c>
@@ -3940,7 +3955,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>473</v>
       </c>
@@ -3975,7 +3990,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>474</v>
       </c>
@@ -4010,7 +4025,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>100</v>
       </c>
@@ -4045,7 +4060,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>138</v>
       </c>
@@ -4080,7 +4095,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="21" spans="1:11" ht="16" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:11" ht="16" hidden="1" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
         <v>135</v>
       </c>
@@ -4115,7 +4130,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="22" spans="1:11" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:11" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>112</v>
       </c>
@@ -4150,7 +4165,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>115</v>
       </c>
@@ -4185,7 +4200,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>94</v>
       </c>
@@ -4220,7 +4235,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>106</v>
       </c>
@@ -4255,7 +4270,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>103</v>
       </c>
@@ -4290,7 +4305,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>109</v>
       </c>
@@ -4325,7 +4340,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>141</v>
       </c>
@@ -4360,7 +4375,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>144</v>
       </c>
@@ -4395,7 +4410,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>66</v>
       </c>
@@ -4430,7 +4445,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>51</v>
       </c>
@@ -4465,7 +4480,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>62</v>
       </c>
@@ -4500,7 +4515,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>49</v>
       </c>
@@ -4535,7 +4550,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>47</v>
       </c>
@@ -4570,7 +4585,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>10</v>
       </c>
@@ -4605,7 +4620,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>43</v>
       </c>
@@ -4640,7 +4655,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>38</v>
       </c>
@@ -4675,7 +4690,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>23</v>
       </c>
@@ -4710,7 +4725,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>35</v>
       </c>
@@ -4745,7 +4760,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>40</v>
       </c>
@@ -4780,7 +4795,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>20</v>
       </c>
@@ -4815,7 +4830,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>45</v>
       </c>
@@ -4850,7 +4865,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>26</v>
       </c>
@@ -4885,7 +4900,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>70</v>
       </c>
@@ -4920,7 +4935,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>53</v>
       </c>
@@ -4955,7 +4970,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>55</v>
       </c>
@@ -4990,7 +5005,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>57</v>
       </c>
@@ -5025,7 +5040,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>59</v>
       </c>
@@ -5060,7 +5075,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>29</v>
       </c>
@@ -5095,7 +5110,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>147</v>
       </c>
@@ -5130,7 +5145,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>32</v>
       </c>
@@ -5165,7 +5180,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>431</v>
       </c>
@@ -5200,7 +5215,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>78</v>
       </c>
@@ -5235,7 +5250,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>434</v>
       </c>
@@ -5270,7 +5285,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>448</v>
       </c>
@@ -5305,7 +5320,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>446</v>
       </c>
@@ -5340,7 +5355,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>440</v>
       </c>
@@ -5375,7 +5390,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>442</v>
       </c>
@@ -5410,7 +5425,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>444</v>
       </c>
@@ -5445,7 +5460,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>439</v>
       </c>
@@ -5480,7 +5495,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>456</v>
       </c>
@@ -5515,7 +5530,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>459</v>
       </c>
@@ -5550,7 +5565,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>266</v>
       </c>
@@ -5585,7 +5600,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>267</v>
       </c>
@@ -5620,7 +5635,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>268</v>
       </c>
@@ -5655,7 +5670,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>269</v>
       </c>
@@ -5690,7 +5705,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>264</v>
       </c>
@@ -5725,7 +5740,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>265</v>
       </c>
@@ -5760,7 +5775,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="69" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:11" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>261</v>
       </c>
@@ -5795,7 +5810,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>262</v>
       </c>
@@ -5830,7 +5845,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>263</v>
       </c>
@@ -5865,7 +5880,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>191</v>
       </c>
@@ -5900,7 +5915,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>192</v>
       </c>
@@ -5935,7 +5950,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
         <v>193</v>
       </c>
@@ -5970,7 +5985,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
         <v>260</v>
       </c>
@@ -6005,7 +6020,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
         <v>189</v>
       </c>
@@ -6040,7 +6055,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
         <v>190</v>
       </c>
@@ -6075,7 +6090,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
         <v>275</v>
       </c>
@@ -6110,7 +6125,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
         <v>276</v>
       </c>
@@ -6145,7 +6160,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
         <v>277</v>
       </c>
@@ -6180,7 +6195,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
         <v>272</v>
       </c>
@@ -6215,7 +6230,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
         <v>273</v>
       </c>
@@ -6250,7 +6265,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
         <v>274</v>
       </c>
@@ -6285,7 +6300,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
         <v>270</v>
       </c>
@@ -6320,7 +6335,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
         <v>271</v>
       </c>
@@ -6355,7 +6370,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
         <v>283</v>
       </c>
@@ -6390,7 +6405,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
         <v>280</v>
       </c>
@@ -6425,7 +6440,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
         <v>281</v>
       </c>
@@ -6460,7 +6475,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
         <v>282</v>
       </c>
@@ -6495,7 +6510,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
         <v>278</v>
       </c>
@@ -6530,7 +6545,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
         <v>279</v>
       </c>
@@ -6565,7 +6580,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
         <v>286</v>
       </c>
@@ -6600,7 +6615,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
         <v>287</v>
       </c>
@@ -6635,7 +6650,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
         <v>288</v>
       </c>
@@ -6670,7 +6685,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
         <v>285</v>
       </c>
@@ -6705,7 +6720,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
         <v>284</v>
       </c>
@@ -6740,7 +6755,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
         <v>294</v>
       </c>
@@ -6775,7 +6790,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
         <v>295</v>
       </c>
@@ -6810,7 +6825,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
         <v>291</v>
       </c>
@@ -6845,7 +6860,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
         <v>292</v>
       </c>
@@ -6880,7 +6895,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
         <v>293</v>
       </c>
@@ -6915,7 +6930,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
         <v>289</v>
       </c>
@@ -6950,7 +6965,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
         <v>290</v>
       </c>
@@ -6985,7 +7000,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
         <v>301</v>
       </c>
@@ -7020,7 +7035,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
         <v>302</v>
       </c>
@@ -7055,7 +7070,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
         <v>298</v>
       </c>
@@ -7090,7 +7105,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
         <v>299</v>
       </c>
@@ -7125,7 +7140,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
         <v>300</v>
       </c>
@@ -7160,7 +7175,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
         <v>296</v>
       </c>
@@ -7195,7 +7210,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
         <v>297</v>
       </c>
@@ -7230,7 +7245,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
         <v>251</v>
       </c>
@@ -7265,7 +7280,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
         <v>252</v>
       </c>
@@ -7300,7 +7315,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
         <v>207</v>
       </c>
@@ -7335,7 +7350,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
         <v>208</v>
       </c>
@@ -7370,7 +7385,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
         <v>209</v>
       </c>
@@ -7405,7 +7420,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
         <v>210</v>
       </c>
@@ -7440,7 +7455,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
         <v>205</v>
       </c>
@@ -7475,7 +7490,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
         <v>206</v>
       </c>
@@ -7510,7 +7525,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
         <v>202</v>
       </c>
@@ -7545,7 +7560,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
         <v>203</v>
       </c>
@@ -7580,7 +7595,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
         <v>204</v>
       </c>
@@ -7615,7 +7630,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
         <v>200</v>
       </c>
@@ -7650,7 +7665,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A123" t="s">
         <v>201</v>
       </c>
@@ -7685,7 +7700,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A124" t="s">
         <v>196</v>
       </c>
@@ -7720,7 +7735,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
         <v>197</v>
       </c>
@@ -7755,7 +7770,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A126" t="s">
         <v>198</v>
       </c>
@@ -7790,7 +7805,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
         <v>199</v>
       </c>
@@ -7825,7 +7840,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A128" t="s">
         <v>194</v>
       </c>
@@ -7860,7 +7875,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
         <v>195</v>
       </c>
@@ -7895,7 +7910,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A130" t="s">
         <v>221</v>
       </c>
@@ -7930,7 +7945,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A131" t="s">
         <v>222</v>
       </c>
@@ -7965,7 +7980,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A132" t="s">
         <v>223</v>
       </c>
@@ -8000,7 +8015,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A133" t="s">
         <v>219</v>
       </c>
@@ -8035,7 +8050,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A134" t="s">
         <v>220</v>
       </c>
@@ -8070,7 +8085,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A135" t="s">
         <v>217</v>
       </c>
@@ -8105,7 +8120,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A136" t="s">
         <v>218</v>
       </c>
@@ -8140,7 +8155,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A137" t="s">
         <v>215</v>
       </c>
@@ -8175,7 +8190,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A138" t="s">
         <v>216</v>
       </c>
@@ -8210,7 +8225,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A139" t="s">
         <v>211</v>
       </c>
@@ -8245,7 +8260,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A140" t="s">
         <v>212</v>
       </c>
@@ -8280,7 +8295,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A141" t="s">
         <v>213</v>
       </c>
@@ -8315,7 +8330,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A142" t="s">
         <v>214</v>
       </c>
@@ -8350,7 +8365,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A143" t="s">
         <v>229</v>
       </c>
@@ -8385,7 +8400,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A144" t="s">
         <v>226</v>
       </c>
@@ -8420,7 +8435,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A145" t="s">
         <v>227</v>
       </c>
@@ -8455,7 +8470,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A146" t="s">
         <v>228</v>
       </c>
@@ -8490,7 +8505,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A147" t="s">
         <v>224</v>
       </c>
@@ -8525,7 +8540,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A148" t="s">
         <v>225</v>
       </c>
@@ -8560,7 +8575,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A149" t="s">
         <v>236</v>
       </c>
@@ -8595,7 +8610,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A150" t="s">
         <v>237</v>
       </c>
@@ -8630,7 +8645,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A151" t="s">
         <v>238</v>
       </c>
@@ -8665,7 +8680,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A152" t="s">
         <v>234</v>
       </c>
@@ -8700,7 +8715,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A153" t="s">
         <v>235</v>
       </c>
@@ -8735,7 +8750,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A154" t="s">
         <v>233</v>
       </c>
@@ -8770,7 +8785,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A155" t="s">
         <v>230</v>
       </c>
@@ -8805,7 +8820,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A156" t="s">
         <v>231</v>
       </c>
@@ -8840,7 +8855,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A157" t="s">
         <v>232</v>
       </c>
@@ -8875,7 +8890,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A158" t="s">
         <v>257</v>
       </c>
@@ -8910,7 +8925,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A159" t="s">
         <v>242</v>
       </c>
@@ -8945,7 +8960,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A160" t="s">
         <v>243</v>
       </c>
@@ -8980,7 +8995,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A161" t="s">
         <v>244</v>
       </c>
@@ -9015,7 +9030,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A162" t="s">
         <v>240</v>
       </c>
@@ -9050,7 +9065,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A163" t="s">
         <v>241</v>
       </c>
@@ -9085,7 +9100,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A164" t="s">
         <v>239</v>
       </c>
@@ -9120,7 +9135,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A165" t="s">
         <v>248</v>
       </c>
@@ -9155,7 +9170,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A166" t="s">
         <v>249</v>
       </c>
@@ -9190,7 +9205,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A167" t="s">
         <v>250</v>
       </c>
@@ -9225,7 +9240,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A168" t="s">
         <v>246</v>
       </c>
@@ -9260,7 +9275,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A169" t="s">
         <v>247</v>
       </c>
@@ -9295,7 +9310,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A170" t="s">
         <v>245</v>
       </c>
@@ -9330,7 +9345,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A171" t="s">
         <v>81</v>
       </c>
@@ -9365,7 +9380,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A172" t="s">
         <v>453</v>
       </c>
@@ -9400,7 +9415,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A173" t="s">
         <v>79</v>
       </c>
@@ -9435,7 +9450,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A174" t="s">
         <v>119</v>
       </c>
@@ -9470,7 +9485,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A175" t="s">
         <v>82</v>
       </c>
@@ -9505,7 +9520,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A176" t="s">
         <v>85</v>
       </c>
@@ -9540,7 +9555,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A177" t="s">
         <v>122</v>
       </c>
@@ -9575,7 +9590,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A178" t="s">
         <v>75</v>
       </c>
@@ -9610,7 +9625,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A179" t="s">
         <v>124</v>
       </c>
@@ -9645,7 +9660,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A180" t="s">
         <v>72</v>
       </c>
@@ -9680,7 +9695,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A181" t="s">
         <v>127</v>
       </c>
@@ -9715,7 +9730,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A182" t="s">
         <v>487</v>
       </c>
@@ -9750,7 +9765,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A183" t="s">
         <v>91</v>
       </c>
@@ -9785,7 +9800,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A184" t="s">
         <v>463</v>
       </c>
@@ -9820,7 +9835,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A185" t="s">
         <v>461</v>
       </c>
@@ -9855,7 +9870,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A186" t="s">
         <v>438</v>
       </c>
@@ -9890,7 +9905,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A187" t="s">
         <v>450</v>
       </c>
@@ -9925,7 +9940,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A188" t="s">
         <v>97</v>
       </c>
@@ -9960,7 +9975,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A189" t="s">
         <v>88</v>
       </c>
@@ -9995,7 +10010,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A190" t="s">
         <v>149</v>
       </c>
@@ -10030,7 +10045,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="191" spans="1:11" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:11" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A191" t="s">
         <v>466</v>
       </c>
@@ -10065,7 +10080,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="192" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A192" t="s">
         <v>132</v>
       </c>
@@ -10100,7 +10115,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="193" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A193" t="s">
         <v>129</v>
       </c>
@@ -10135,7 +10150,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="194" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A194" t="s">
         <v>68</v>
       </c>
@@ -10170,7 +10185,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="195" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A195" t="s">
         <v>64</v>
       </c>
@@ -10205,7 +10220,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="196" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A196" t="s">
         <v>150</v>
       </c>
@@ -10240,7 +10255,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="197" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A197" t="s">
         <v>153</v>
       </c>
@@ -10275,7 +10290,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="198" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A198" t="s">
         <v>485</v>
       </c>
@@ -10310,7 +10325,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="199" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A199" t="s">
         <v>488</v>
       </c>
@@ -10348,7 +10363,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="200" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A200" t="s">
         <v>491</v>
       </c>
@@ -10386,7 +10401,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="201" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A201" t="s">
         <v>493</v>
       </c>
@@ -10424,7 +10439,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="202" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A202" t="s">
         <v>495</v>
       </c>
@@ -10462,7 +10477,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="203" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A203" t="s">
         <v>497</v>
       </c>
@@ -10500,7 +10515,7 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="204" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A204" t="s">
         <v>500</v>
       </c>
@@ -10538,7 +10553,7 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="205" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A205" t="s">
         <v>502</v>
       </c>
@@ -10576,7 +10591,7 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="206" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A206" t="s">
         <v>504</v>
       </c>
@@ -10614,7 +10629,7 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="207" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A207" t="s">
         <v>506</v>
       </c>
@@ -10652,7 +10667,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="208" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A208" t="s">
         <v>509</v>
       </c>
@@ -10690,7 +10705,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="209" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A209" t="s">
         <v>511</v>
       </c>
@@ -10728,7 +10743,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="210" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A210" t="s">
         <v>513</v>
       </c>
@@ -10766,7 +10781,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="211" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A211" t="s">
         <v>515</v>
       </c>
@@ -10804,7 +10819,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="212" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A212" t="s">
         <v>518</v>
       </c>
@@ -10842,7 +10857,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="213" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A213" t="s">
         <v>520</v>
       </c>
@@ -10880,7 +10895,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="214" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A214" t="s">
         <v>522</v>
       </c>
@@ -10918,7 +10933,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="215" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A215" t="s">
         <v>524</v>
       </c>
@@ -10956,7 +10971,7 @@
         <v>7.5</v>
       </c>
     </row>
-    <row r="216" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A216" t="s">
         <v>527</v>
       </c>
@@ -10994,7 +11009,7 @@
         <v>7.5</v>
       </c>
     </row>
-    <row r="217" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A217" t="s">
         <v>529</v>
       </c>
@@ -11032,7 +11047,7 @@
         <v>7.5</v>
       </c>
     </row>
-    <row r="218" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A218" t="s">
         <v>531</v>
       </c>
@@ -11070,7 +11085,7 @@
         <v>7.5</v>
       </c>
     </row>
-    <row r="219" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A219" t="s">
         <v>533</v>
       </c>
@@ -11108,7 +11123,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="220" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A220" t="s">
         <v>534</v>
       </c>
@@ -11146,7 +11161,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="221" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A221" t="s">
         <v>535</v>
       </c>
@@ -11184,7 +11199,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="222" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A222" t="s">
         <v>536</v>
       </c>
@@ -11222,7 +11237,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="223" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A223" t="s">
         <v>537</v>
       </c>
@@ -11260,7 +11275,7 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="224" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A224" t="s">
         <v>539</v>
       </c>
@@ -11298,7 +11313,7 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="225" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A225" t="s">
         <v>540</v>
       </c>
@@ -11336,7 +11351,7 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="226" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A226" t="s">
         <v>542</v>
       </c>
@@ -11374,7 +11389,7 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="227" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="227" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A227" t="s">
         <v>543</v>
       </c>
@@ -11412,7 +11427,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="228" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="228" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A228" t="s">
         <v>545</v>
       </c>
@@ -11450,7 +11465,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="229" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="229" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A229" t="s">
         <v>546</v>
       </c>
@@ -11488,7 +11503,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="230" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="230" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A230" t="s">
         <v>547</v>
       </c>
@@ -11526,7 +11541,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="231" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="231" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A231" t="s">
         <v>548</v>
       </c>
@@ -11564,7 +11579,7 @@
         <v>6.5</v>
       </c>
     </row>
-    <row r="232" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="232" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A232" t="s">
         <v>550</v>
       </c>
@@ -11602,7 +11617,7 @@
         <v>6.5</v>
       </c>
     </row>
-    <row r="233" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="233" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A233" t="s">
         <v>551</v>
       </c>
@@ -11640,7 +11655,7 @@
         <v>6.5</v>
       </c>
     </row>
-    <row r="234" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="234" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A234" t="s">
         <v>552</v>
       </c>
@@ -11678,7 +11693,7 @@
         <v>6.5</v>
       </c>
     </row>
-    <row r="235" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="235" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A235" t="s">
         <v>553</v>
       </c>
@@ -11716,7 +11731,7 @@
         <v>7.75</v>
       </c>
     </row>
-    <row r="236" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="236" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A236" t="s">
         <v>554</v>
       </c>
@@ -11754,7 +11769,7 @@
         <v>7.75</v>
       </c>
     </row>
-    <row r="237" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="237" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A237" t="s">
         <v>555</v>
       </c>
@@ -11792,7 +11807,7 @@
         <v>7.75</v>
       </c>
     </row>
-    <row r="238" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="238" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A238" t="s">
         <v>556</v>
       </c>
@@ -11830,7 +11845,7 @@
         <v>7.75</v>
       </c>
     </row>
-    <row r="239" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="239" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A239" t="s">
         <v>558</v>
       </c>
@@ -11868,7 +11883,7 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="240" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="240" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A240" t="s">
         <v>559</v>
       </c>
@@ -11906,7 +11921,7 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="241" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="241" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A241" t="s">
         <v>560</v>
       </c>
@@ -11944,7 +11959,7 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="242" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="242" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A242" t="s">
         <v>561</v>
       </c>
@@ -11982,7 +11997,7 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="243" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="243" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A243" t="s">
         <v>563</v>
       </c>
@@ -12020,7 +12035,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="244" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="244" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A244" t="s">
         <v>564</v>
       </c>
@@ -12058,7 +12073,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="245" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="245" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A245" t="s">
         <v>565</v>
       </c>
@@ -12096,7 +12111,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="246" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="246" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A246" t="s">
         <v>566</v>
       </c>
@@ -12134,7 +12149,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="247" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="247" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A247" t="s">
         <v>572</v>
       </c>
@@ -12172,7 +12187,7 @@
         <v>6.5</v>
       </c>
     </row>
-    <row r="248" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="248" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A248" t="s">
         <v>573</v>
       </c>
@@ -12210,7 +12225,7 @@
         <v>6.5</v>
       </c>
     </row>
-    <row r="249" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="249" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A249" t="s">
         <v>574</v>
       </c>
@@ -12248,7 +12263,7 @@
         <v>6.5</v>
       </c>
     </row>
-    <row r="250" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="250" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A250" t="s">
         <v>575</v>
       </c>
@@ -12286,7 +12301,7 @@
         <v>6.5</v>
       </c>
     </row>
-    <row r="251" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="251" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A251" t="s">
         <v>577</v>
       </c>
@@ -12324,7 +12339,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="252" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="252" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A252" t="s">
         <v>578</v>
       </c>
@@ -12362,7 +12377,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="253" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="253" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A253" t="s">
         <v>579</v>
       </c>
@@ -12400,7 +12415,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="254" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="254" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A254" t="s">
         <v>580</v>
       </c>
@@ -12438,7 +12453,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="255" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="255" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A255" t="s">
         <v>582</v>
       </c>
@@ -12476,7 +12491,7 @@
         <v>8.1</v>
       </c>
     </row>
-    <row r="256" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="256" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A256" t="s">
         <v>583</v>
       </c>
@@ -12514,7 +12529,7 @@
         <v>8.1</v>
       </c>
     </row>
-    <row r="257" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="257" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A257" t="s">
         <v>584</v>
       </c>
@@ -12552,7 +12567,7 @@
         <v>8.1</v>
       </c>
     </row>
-    <row r="258" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="258" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A258" t="s">
         <v>585</v>
       </c>
@@ -12590,7 +12605,7 @@
         <v>8.1</v>
       </c>
     </row>
-    <row r="259" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="259" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A259" t="s">
         <v>587</v>
       </c>
@@ -12628,7 +12643,7 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="260" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="260" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A260" t="s">
         <v>588</v>
       </c>
@@ -12666,7 +12681,7 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="261" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="261" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A261" t="s">
         <v>589</v>
       </c>
@@ -12704,7 +12719,7 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="262" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="262" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A262" t="s">
         <v>590</v>
       </c>
@@ -12742,7 +12757,7 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="263" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="263" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A263" t="s">
         <v>592</v>
       </c>
@@ -12780,7 +12795,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="264" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="264" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A264" t="s">
         <v>593</v>
       </c>
@@ -12818,7 +12833,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="265" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="265" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A265" t="s">
         <v>594</v>
       </c>
@@ -12856,7 +12871,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="266" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="266" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A266" t="s">
         <v>595</v>
       </c>
@@ -12894,7 +12909,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="267" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="267" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A267" t="s">
         <v>597</v>
       </c>
@@ -12932,7 +12947,7 @@
         <v>6.5</v>
       </c>
     </row>
-    <row r="268" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="268" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A268" t="s">
         <v>598</v>
       </c>
@@ -12970,7 +12985,7 @@
         <v>6.5</v>
       </c>
     </row>
-    <row r="269" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="269" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A269" t="s">
         <v>599</v>
       </c>
@@ -13008,7 +13023,7 @@
         <v>6.5</v>
       </c>
     </row>
-    <row r="270" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="270" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A270" t="s">
         <v>600</v>
       </c>
@@ -13046,7 +13061,7 @@
         <v>6.5</v>
       </c>
     </row>
-    <row r="271" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="271" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A271" t="s">
         <v>602</v>
       </c>
@@ -13084,7 +13099,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="272" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="272" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A272" t="s">
         <v>603</v>
       </c>
@@ -13122,7 +13137,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="273" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="273" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A273" t="s">
         <v>604</v>
       </c>
@@ -13160,7 +13175,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="274" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="274" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A274" t="s">
         <v>605</v>
       </c>
@@ -13198,7 +13213,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="275" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="275" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A275" t="s">
         <v>607</v>
       </c>
@@ -13236,7 +13251,7 @@
         <v>8.25</v>
       </c>
     </row>
-    <row r="276" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="276" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A276" t="s">
         <v>608</v>
       </c>
@@ -13274,7 +13289,7 @@
         <v>8.25</v>
       </c>
     </row>
-    <row r="277" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="277" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A277" t="s">
         <v>609</v>
       </c>
@@ -13312,7 +13327,7 @@
         <v>8.25</v>
       </c>
     </row>
-    <row r="278" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="278" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A278" t="s">
         <v>610</v>
       </c>
@@ -13350,7 +13365,7 @@
         <v>8.25</v>
       </c>
     </row>
-    <row r="279" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="279" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A279" t="s">
         <v>612</v>
       </c>
@@ -13388,7 +13403,7 @@
         <v>6.5</v>
       </c>
     </row>
-    <row r="280" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="280" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A280" t="s">
         <v>613</v>
       </c>
@@ -13426,7 +13441,7 @@
         <v>6.5</v>
       </c>
     </row>
-    <row r="281" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="281" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A281" t="s">
         <v>614</v>
       </c>
@@ -13464,7 +13479,7 @@
         <v>6.5</v>
       </c>
     </row>
-    <row r="282" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="282" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A282" t="s">
         <v>615</v>
       </c>
@@ -13502,7 +13517,7 @@
         <v>6.5</v>
       </c>
     </row>
-    <row r="283" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="283" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A283" t="s">
         <v>617</v>
       </c>
@@ -13540,7 +13555,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="284" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="284" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A284" t="s">
         <v>618</v>
       </c>
@@ -13578,7 +13593,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="285" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="285" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A285" t="s">
         <v>619</v>
       </c>
@@ -13616,7 +13631,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="286" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="286" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A286" t="s">
         <v>620</v>
       </c>
@@ -13654,7 +13669,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="287" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="287" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A287" t="s">
         <v>622</v>
       </c>
@@ -13692,7 +13707,7 @@
         <v>7.75</v>
       </c>
     </row>
-    <row r="288" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="288" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A288" t="s">
         <v>623</v>
       </c>
@@ -13730,7 +13745,7 @@
         <v>7.75</v>
       </c>
     </row>
-    <row r="289" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="289" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A289" t="s">
         <v>624</v>
       </c>
@@ -13768,7 +13783,7 @@
         <v>7.75</v>
       </c>
     </row>
-    <row r="290" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="290" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A290" t="s">
         <v>625</v>
       </c>
@@ -13806,7 +13821,7 @@
         <v>7.75</v>
       </c>
     </row>
-    <row r="291" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="291" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A291" t="s">
         <v>627</v>
       </c>
@@ -13844,7 +13859,7 @@
         <v>8.25</v>
       </c>
     </row>
-    <row r="292" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="292" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A292" t="s">
         <v>628</v>
       </c>
@@ -13882,7 +13897,7 @@
         <v>8.25</v>
       </c>
     </row>
-    <row r="293" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="293" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A293" t="s">
         <v>629</v>
       </c>
@@ -13920,7 +13935,7 @@
         <v>8.25</v>
       </c>
     </row>
-    <row r="294" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="294" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A294" t="s">
         <v>630</v>
       </c>
@@ -13958,7 +13973,7 @@
         <v>8.25</v>
       </c>
     </row>
-    <row r="295" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="295" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A295" t="s">
         <v>632</v>
       </c>
@@ -13996,7 +14011,7 @@
         <v>9.25</v>
       </c>
     </row>
-    <row r="296" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="296" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A296" t="s">
         <v>633</v>
       </c>
@@ -14034,7 +14049,7 @@
         <v>9.25</v>
       </c>
     </row>
-    <row r="297" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="297" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A297" t="s">
         <v>634</v>
       </c>
@@ -14072,7 +14087,7 @@
         <v>9.25</v>
       </c>
     </row>
-    <row r="298" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="298" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A298" t="s">
         <v>635</v>
       </c>
@@ -14110,7 +14125,7 @@
         <v>9.25</v>
       </c>
     </row>
-    <row r="299" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="299" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A299" t="s">
         <v>637</v>
       </c>
@@ -14148,7 +14163,7 @@
         <v>6.5</v>
       </c>
     </row>
-    <row r="300" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="300" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A300" t="s">
         <v>638</v>
       </c>
@@ -14186,7 +14201,7 @@
         <v>6.5</v>
       </c>
     </row>
-    <row r="301" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="301" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A301" t="s">
         <v>639</v>
       </c>
@@ -14224,7 +14239,7 @@
         <v>6.5</v>
       </c>
     </row>
-    <row r="302" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="302" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A302" t="s">
         <v>640</v>
       </c>
@@ -14262,7 +14277,7 @@
         <v>6.5</v>
       </c>
     </row>
-    <row r="303" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="303" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A303" t="s">
         <v>642</v>
       </c>
@@ -14300,7 +14315,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="304" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="304" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A304" t="s">
         <v>643</v>
       </c>
@@ -14338,7 +14353,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="305" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="305" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A305" t="s">
         <v>644</v>
       </c>
@@ -14376,7 +14391,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="306" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="306" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A306" t="s">
         <v>645</v>
       </c>
@@ -14414,7 +14429,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="307" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="307" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A307" t="s">
         <v>647</v>
       </c>
@@ -14452,7 +14467,7 @@
         <v>7.75</v>
       </c>
     </row>
-    <row r="308" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="308" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A308" t="s">
         <v>648</v>
       </c>
@@ -14490,7 +14505,7 @@
         <v>7.75</v>
       </c>
     </row>
-    <row r="309" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="309" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A309" t="s">
         <v>649</v>
       </c>
@@ -14528,7 +14543,7 @@
         <v>7.75</v>
       </c>
     </row>
-    <row r="310" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="310" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A310" t="s">
         <v>650</v>
       </c>
@@ -14566,7 +14581,7 @@
         <v>7.75</v>
       </c>
     </row>
-    <row r="311" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="311" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A311" t="s">
         <v>652</v>
       </c>
@@ -14604,7 +14619,7 @@
         <v>8.25</v>
       </c>
     </row>
-    <row r="312" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="312" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A312" t="s">
         <v>653</v>
       </c>
@@ -14642,7 +14657,7 @@
         <v>8.25</v>
       </c>
     </row>
-    <row r="313" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="313" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A313" t="s">
         <v>654</v>
       </c>
@@ -14680,7 +14695,7 @@
         <v>8.25</v>
       </c>
     </row>
-    <row r="314" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="314" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A314" t="s">
         <v>655</v>
       </c>
@@ -14718,7 +14733,7 @@
         <v>8.25</v>
       </c>
     </row>
-    <row r="315" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="315" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A315" t="s">
         <v>657</v>
       </c>
@@ -14756,7 +14771,7 @@
         <v>9.25</v>
       </c>
     </row>
-    <row r="316" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="316" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A316" t="s">
         <v>658</v>
       </c>
@@ -14794,7 +14809,7 @@
         <v>9.25</v>
       </c>
     </row>
-    <row r="317" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="317" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A317" t="s">
         <v>659</v>
       </c>
@@ -14832,7 +14847,7 @@
         <v>9.25</v>
       </c>
     </row>
-    <row r="318" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="318" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A318" t="s">
         <v>660</v>
       </c>
@@ -14870,7 +14885,7 @@
         <v>9.25</v>
       </c>
     </row>
-    <row r="319" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="319" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A319" t="s">
         <v>662</v>
       </c>
@@ -14908,7 +14923,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="320" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="320" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A320" t="s">
         <v>663</v>
       </c>
@@ -14946,7 +14961,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="321" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="321" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A321" t="s">
         <v>664</v>
       </c>
@@ -14984,7 +14999,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="322" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="322" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A322" t="s">
         <v>665</v>
       </c>
@@ -15022,7 +15037,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="323" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="323" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A323" t="s">
         <v>671</v>
       </c>
@@ -15060,7 +15075,7 @@
         <v>7.75</v>
       </c>
     </row>
-    <row r="324" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="324" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A324" t="s">
         <v>672</v>
       </c>
@@ -15098,7 +15113,7 @@
         <v>7.75</v>
       </c>
     </row>
-    <row r="325" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="325" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A325" t="s">
         <v>673</v>
       </c>
@@ -15136,7 +15151,7 @@
         <v>7.75</v>
       </c>
     </row>
-    <row r="326" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="326" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A326" t="s">
         <v>674</v>
       </c>
@@ -15174,7 +15189,7 @@
         <v>7.75</v>
       </c>
     </row>
-    <row r="327" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="327" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A327" t="s">
         <v>676</v>
       </c>
@@ -15212,7 +15227,7 @@
         <v>8.25</v>
       </c>
     </row>
-    <row r="328" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="328" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A328" t="s">
         <v>677</v>
       </c>
@@ -15250,7 +15265,7 @@
         <v>8.25</v>
       </c>
     </row>
-    <row r="329" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="329" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A329" t="s">
         <v>678</v>
       </c>
@@ -15288,7 +15303,7 @@
         <v>8.25</v>
       </c>
     </row>
-    <row r="330" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="330" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A330" t="s">
         <v>679</v>
       </c>
@@ -15326,7 +15341,7 @@
         <v>8.25</v>
       </c>
     </row>
-    <row r="331" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="331" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A331" t="s">
         <v>681</v>
       </c>
@@ -15364,7 +15379,7 @@
         <v>8.75</v>
       </c>
     </row>
-    <row r="332" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="332" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A332" t="s">
         <v>682</v>
       </c>
@@ -15402,7 +15417,7 @@
         <v>8.75</v>
       </c>
     </row>
-    <row r="333" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="333" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A333" t="s">
         <v>683</v>
       </c>
@@ -15440,7 +15455,7 @@
         <v>8.75</v>
       </c>
     </row>
-    <row r="334" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="334" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A334" t="s">
         <v>684</v>
       </c>
@@ -15478,7 +15493,7 @@
         <v>8.75</v>
       </c>
     </row>
-    <row r="335" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="335" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A335" t="s">
         <v>686</v>
       </c>
@@ -15516,7 +15531,7 @@
         <v>9.75</v>
       </c>
     </row>
-    <row r="336" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="336" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A336" t="s">
         <v>687</v>
       </c>
@@ -15554,7 +15569,7 @@
         <v>9.75</v>
       </c>
     </row>
-    <row r="337" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="337" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A337" t="s">
         <v>688</v>
       </c>
@@ -15592,7 +15607,7 @@
         <v>9.75</v>
       </c>
     </row>
-    <row r="338" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="338" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A338" t="s">
         <v>689</v>
       </c>
@@ -15630,7 +15645,7 @@
         <v>9.75</v>
       </c>
     </row>
-    <row r="339" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="339" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A339" t="s">
         <v>691</v>
       </c>
@@ -15668,7 +15683,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="340" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="340" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A340" t="s">
         <v>692</v>
       </c>
@@ -15706,7 +15721,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="341" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="341" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A341" t="s">
         <v>693</v>
       </c>
@@ -15744,7 +15759,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="342" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="342" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A342" t="s">
         <v>694</v>
       </c>
@@ -15782,7 +15797,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="343" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="343" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A343" t="s">
         <v>696</v>
       </c>
@@ -15820,7 +15835,7 @@
         <v>7.75</v>
       </c>
     </row>
-    <row r="344" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="344" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A344" t="s">
         <v>697</v>
       </c>
@@ -15858,7 +15873,7 @@
         <v>7.75</v>
       </c>
     </row>
-    <row r="345" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="345" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A345" t="s">
         <v>698</v>
       </c>
@@ -15896,7 +15911,7 @@
         <v>7.75</v>
       </c>
     </row>
-    <row r="346" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="346" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A346" t="s">
         <v>699</v>
       </c>
@@ -15934,7 +15949,7 @@
         <v>7.75</v>
       </c>
     </row>
-    <row r="347" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="347" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A347" t="s">
         <v>701</v>
       </c>
@@ -15972,7 +15987,7 @@
         <v>8.25</v>
       </c>
     </row>
-    <row r="348" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="348" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A348" t="s">
         <v>702</v>
       </c>
@@ -16010,7 +16025,7 @@
         <v>8.25</v>
       </c>
     </row>
-    <row r="349" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="349" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A349" t="s">
         <v>703</v>
       </c>
@@ -16048,7 +16063,7 @@
         <v>8.25</v>
       </c>
     </row>
-    <row r="350" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="350" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A350" t="s">
         <v>704</v>
       </c>
@@ -16086,7 +16101,7 @@
         <v>8.25</v>
       </c>
     </row>
-    <row r="351" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="351" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A351" t="s">
         <v>706</v>
       </c>
@@ -16124,7 +16139,7 @@
         <v>8.75</v>
       </c>
     </row>
-    <row r="352" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="352" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A352" t="s">
         <v>707</v>
       </c>
@@ -16162,7 +16177,7 @@
         <v>8.75</v>
       </c>
     </row>
-    <row r="353" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="353" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A353" t="s">
         <v>708</v>
       </c>
@@ -16200,7 +16215,7 @@
         <v>8.75</v>
       </c>
     </row>
-    <row r="354" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="354" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A354" t="s">
         <v>709</v>
       </c>
@@ -16238,7 +16253,7 @@
         <v>8.75</v>
       </c>
     </row>
-    <row r="355" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="355" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A355" t="s">
         <v>711</v>
       </c>
@@ -16276,7 +16291,7 @@
         <v>9.75</v>
       </c>
     </row>
-    <row r="356" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="356" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A356" t="s">
         <v>712</v>
       </c>
@@ -16314,7 +16329,7 @@
         <v>9.75</v>
       </c>
     </row>
-    <row r="357" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="357" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A357" t="s">
         <v>713</v>
       </c>
@@ -16352,7 +16367,7 @@
         <v>9.75</v>
       </c>
     </row>
-    <row r="358" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="358" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A358" t="s">
         <v>714</v>
       </c>
@@ -16390,7 +16405,7 @@
         <v>9.75</v>
       </c>
     </row>
-    <row r="359" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="359" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A359" t="s">
         <v>716</v>
       </c>
@@ -16428,7 +16443,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="360" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="360" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A360" t="s">
         <v>717</v>
       </c>
@@ -16466,7 +16481,7 @@
         <v>7.75</v>
       </c>
     </row>
-    <row r="361" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="361" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A361" t="s">
         <v>718</v>
       </c>
@@ -16504,7 +16519,7 @@
         <v>8.25</v>
       </c>
     </row>
-    <row r="362" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="362" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A362" t="s">
         <v>719</v>
       </c>
@@ -16542,7 +16557,7 @@
         <v>8.75</v>
       </c>
     </row>
-    <row r="363" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="363" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A363" t="s">
         <v>720</v>
       </c>
@@ -16580,7 +16595,7 @@
         <v>9.75</v>
       </c>
     </row>
-    <row r="364" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="364" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A364" t="s">
         <v>721</v>
       </c>
@@ -16618,7 +16633,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="365" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="365" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A365" t="s">
         <v>722</v>
       </c>
@@ -16656,7 +16671,7 @@
         <v>7.75</v>
       </c>
     </row>
-    <row r="366" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="366" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A366" t="s">
         <v>723</v>
       </c>
@@ -16694,7 +16709,7 @@
         <v>8.25</v>
       </c>
     </row>
-    <row r="367" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="367" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A367" t="s">
         <v>724</v>
       </c>
@@ -16732,7 +16747,7 @@
         <v>8.75</v>
       </c>
     </row>
-    <row r="368" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="368" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A368" t="s">
         <v>725</v>
       </c>
@@ -16770,7 +16785,7 @@
         <v>9.75</v>
       </c>
     </row>
-    <row r="369" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="369" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A369" t="s">
         <v>726</v>
       </c>
@@ -16808,7 +16823,7 @@
         <v>7.75</v>
       </c>
     </row>
-    <row r="370" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="370" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A370" t="s">
         <v>727</v>
       </c>
@@ -16846,7 +16861,7 @@
         <v>8.25</v>
       </c>
     </row>
-    <row r="371" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="371" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A371" t="s">
         <v>728</v>
       </c>
@@ -16884,7 +16899,7 @@
         <v>8.75</v>
       </c>
     </row>
-    <row r="372" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="372" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A372" t="s">
         <v>729</v>
       </c>
@@ -16922,7 +16937,7 @@
         <v>9.25</v>
       </c>
     </row>
-    <row r="373" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="373" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A373" t="s">
         <v>730</v>
       </c>
@@ -16960,7 +16975,7 @@
         <v>10.25</v>
       </c>
     </row>
-    <row r="374" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="374" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A374" t="s">
         <v>731</v>
       </c>
@@ -16998,7 +17013,7 @@
         <v>7.75</v>
       </c>
     </row>
-    <row r="375" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="375" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A375" t="s">
         <v>732</v>
       </c>
@@ -17036,7 +17051,7 @@
         <v>8.25</v>
       </c>
     </row>
-    <row r="376" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="376" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A376" t="s">
         <v>733</v>
       </c>
@@ -17074,7 +17089,7 @@
         <v>8.75</v>
       </c>
     </row>
-    <row r="377" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="377" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A377" t="s">
         <v>734</v>
       </c>
@@ -17112,7 +17127,7 @@
         <v>9.25</v>
       </c>
     </row>
-    <row r="378" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="378" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A378" t="s">
         <v>735</v>
       </c>
@@ -17150,7 +17165,7 @@
         <v>10.25</v>
       </c>
     </row>
-    <row r="379" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="379" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A379" t="s">
         <v>761</v>
       </c>
@@ -17185,7 +17200,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="380" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="380" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A380" t="s">
         <v>762</v>
       </c>
@@ -17220,7 +17235,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="381" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="381" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A381" t="s">
         <v>763</v>
       </c>
@@ -17255,7 +17270,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="382" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="382" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A382" t="s">
         <v>764</v>
       </c>
@@ -17290,7 +17305,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="383" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="383" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A383" t="s">
         <v>765</v>
       </c>
@@ -17325,7 +17340,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="384" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="384" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A384" t="s">
         <v>766</v>
       </c>
@@ -17360,7 +17375,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="385" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="385" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A385" t="s">
         <v>767</v>
       </c>
@@ -17395,7 +17410,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="386" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="386" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A386" t="s">
         <v>768</v>
       </c>
@@ -17430,7 +17445,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="387" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="387" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A387" t="s">
         <v>769</v>
       </c>
@@ -17465,7 +17480,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="388" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="388" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A388" t="s">
         <v>770</v>
       </c>
@@ -17500,7 +17515,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="389" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="389" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A389" t="s">
         <v>771</v>
       </c>
@@ -17535,7 +17550,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="390" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="390" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A390" t="s">
         <v>772</v>
       </c>
@@ -17570,7 +17585,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="391" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="391" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A391" t="s">
         <v>773</v>
       </c>
@@ -17605,7 +17620,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="392" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="392" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A392" t="s">
         <v>774</v>
       </c>
@@ -17640,7 +17655,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="393" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="393" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A393" t="s">
         <v>775</v>
       </c>
@@ -17675,7 +17690,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="394" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="394" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A394" t="s">
         <v>776</v>
       </c>
@@ -17710,7 +17725,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="395" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="395" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A395" t="s">
         <v>777</v>
       </c>
@@ -17745,7 +17760,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="396" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="396" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A396" t="s">
         <v>778</v>
       </c>
@@ -17780,7 +17795,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="397" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="397" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A397" t="s">
         <v>779</v>
       </c>
@@ -17815,7 +17830,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="398" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="398" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A398" t="s">
         <v>810</v>
       </c>
@@ -17850,7 +17865,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="399" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="399" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A399" t="s">
         <v>811</v>
       </c>
@@ -17885,7 +17900,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="400" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="400" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A400" t="s">
         <v>812</v>
       </c>
@@ -17920,7 +17935,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="401" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="401" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A401" t="s">
         <v>813</v>
       </c>
@@ -17955,7 +17970,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="402" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="402" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A402" t="s">
         <v>814</v>
       </c>
@@ -17990,7 +18005,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="403" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="403" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A403" t="s">
         <v>825</v>
       </c>
@@ -18025,7 +18040,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="404" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="404" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A404" t="s">
         <v>826</v>
       </c>
@@ -18060,7 +18075,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="405" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="405" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A405" t="s">
         <v>827</v>
       </c>
@@ -18095,7 +18110,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="406" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="406" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A406" t="s">
         <v>828</v>
       </c>
@@ -18130,7 +18145,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="407" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="407" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A407" t="s">
         <v>829</v>
       </c>
@@ -18165,7 +18180,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="408" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="408" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A408" t="s">
         <v>830</v>
       </c>
@@ -18200,7 +18215,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="409" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="409" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A409" t="s">
         <v>831</v>
       </c>
@@ -18235,7 +18250,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="410" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="410" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A410" t="s">
         <v>832</v>
       </c>
@@ -18270,7 +18285,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="411" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="411" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A411" t="s">
         <v>833</v>
       </c>
@@ -18305,7 +18320,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="412" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="412" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A412" t="s">
         <v>834</v>
       </c>
@@ -18340,7 +18355,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="413" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="413" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A413" t="s">
         <v>835</v>
       </c>
@@ -18375,7 +18390,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="414" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="414" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A414" t="s">
         <v>836</v>
       </c>
@@ -18410,7 +18425,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="415" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="415" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A415" t="s">
         <v>837</v>
       </c>
@@ -18445,7 +18460,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="416" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="416" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A416" t="s">
         <v>838</v>
       </c>
@@ -18480,7 +18495,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="417" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="417" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A417" t="s">
         <v>839</v>
       </c>
@@ -18515,7 +18530,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="418" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="418" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A418" t="s">
         <v>840</v>
       </c>
@@ -18550,7 +18565,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="419" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="419" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A419" t="s">
         <v>841</v>
       </c>
@@ -18585,7 +18600,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="420" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="420" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A420" t="s">
         <v>842</v>
       </c>
@@ -18620,7 +18635,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="421" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="421" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A421" t="s">
         <v>843</v>
       </c>
@@ -18655,7 +18670,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="422" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="422" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A422" t="s">
         <v>881</v>
       </c>
@@ -18690,7 +18705,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="423" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="423" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A423" t="s">
         <v>882</v>
       </c>
@@ -18725,7 +18740,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="424" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="424" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A424" t="s">
         <v>887</v>
       </c>
@@ -18760,7 +18775,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="425" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="425" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A425" t="s">
         <v>888</v>
       </c>
@@ -18795,7 +18810,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="426" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="426" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A426" t="s">
         <v>892</v>
       </c>
@@ -18830,7 +18845,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="427" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="427" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A427" t="s">
         <v>895</v>
       </c>
@@ -18865,7 +18880,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="428" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="428" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A428" t="s">
         <v>897</v>
       </c>
@@ -19231,7 +19246,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H14" sqref="H14"/>
+      <selection pane="bottomLeft" activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -19292,8 +19307,8 @@
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A2" s="4" t="s">
-        <v>572</v>
+      <c r="A2" s="12" t="s">
+        <v>303</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>162</v>
@@ -19308,7 +19323,7 @@
       </c>
       <c r="E2" s="2">
         <f>_xlfn.XLOOKUP(A2,CATALOGO_PRODUCTOS!A:A,CATALOGO_PRODUCTOS!B:B,0,0)</f>
-        <v>13</v>
+        <v>2.35E-2</v>
       </c>
       <c r="F2" s="2">
         <f>_xlfn.XLOOKUP(D2,TIPOS_CAMBIO!A:A,TIPOS_CAMBIO!B:B,"",0)</f>
@@ -19316,7 +19331,7 @@
       </c>
       <c r="G2" s="7">
         <f>$E2*$F2</f>
-        <v>273</v>
+        <v>0.49349999999999999</v>
       </c>
       <c r="H2" s="8">
         <f>_xlfn.XLOOKUP($B$2,PARAMETROS_IMPORTACION!A:A,PARAMETROS_IMPORTACION!C:C,0,0)</f>
@@ -19344,11 +19359,11 @@
       </c>
       <c r="N2" s="2">
         <f>IF($C2="Importado",$G2*(1+$H2+I2+$J2+$L2+$M2),$G2)</f>
-        <v>305.35050000000001</v>
+        <v>0.55197974999999999</v>
       </c>
       <c r="O2" s="2">
         <f>N2 * (1 + K2)</f>
-        <v>335.88555000000002</v>
+        <v>0.607177725</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.35">

--- a/Plantilla_Pricing_Costos_Importacion.xlsx
+++ b/Plantilla_Pricing_Costos_Importacion.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\FernandoOlveraRendon\Documents\Base_Costos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7386DEF-D6D9-4C42-B6DF-57725AF40F6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C5D71FF-9D36-42AB-AB33-A55976D23838}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28635" yWindow="-165" windowWidth="29130" windowHeight="15810" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CATALOGO_PRODUCTOS" sheetId="1" r:id="rId1"/>
@@ -2818,7 +2818,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2860,13 +2860,6 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -2900,7 +2893,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2919,7 +2912,6 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Hipervínculo" xfId="4" builtinId="8"/>
@@ -2979,7 +2971,7 @@
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>432</xdr:row>
+      <xdr:row>400</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3022,13 +3014,6 @@
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="tblCatalogo" displayName="tblCatalogo" ref="A1:K428" headerRowCellStyle="Normal" dataCellStyle="Normal" totalsRowCellStyle="Normal">
-  <autoFilter ref="A1:K428" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}">
-    <filterColumn colId="0">
-      <filters>
-        <filter val="D0031"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K197">
     <sortCondition sortBy="fontColor" ref="A1:A197" dxfId="4"/>
   </sortState>
@@ -3367,7 +3352,7 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3462,7 +3447,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>304</v>
       </c>
@@ -3497,7 +3482,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>305</v>
       </c>
@@ -3532,7 +3517,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>306</v>
       </c>
@@ -3567,7 +3552,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>307</v>
       </c>
@@ -3602,7 +3587,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>308</v>
       </c>
@@ -3637,7 +3622,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>253</v>
       </c>
@@ -3672,7 +3657,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>254</v>
       </c>
@@ -3707,7 +3692,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>255</v>
       </c>
@@ -3742,7 +3727,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>256</v>
       </c>
@@ -3777,7 +3762,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>258</v>
       </c>
@@ -3812,7 +3797,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>259</v>
       </c>
@@ -3847,7 +3832,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="14" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>469</v>
       </c>
@@ -3882,7 +3867,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="15" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>471</v>
       </c>
@@ -3920,7 +3905,7 @@
         <v>902</v>
       </c>
     </row>
-    <row r="16" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>472</v>
       </c>
@@ -3955,7 +3940,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="17" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>473</v>
       </c>
@@ -3990,7 +3975,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="18" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>474</v>
       </c>
@@ -4025,7 +4010,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="19" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>100</v>
       </c>
@@ -4060,7 +4045,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="20" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>138</v>
       </c>
@@ -4095,7 +4080,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="21" spans="1:11" ht="16" hidden="1" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:11" ht="16" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
         <v>135</v>
       </c>
@@ -4130,7 +4115,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="22" spans="1:11" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:11" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>112</v>
       </c>
@@ -4165,7 +4150,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="23" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>115</v>
       </c>
@@ -4200,7 +4185,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="24" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>94</v>
       </c>
@@ -4235,7 +4220,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="25" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>106</v>
       </c>
@@ -4270,7 +4255,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="26" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>103</v>
       </c>
@@ -4305,7 +4290,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="27" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>109</v>
       </c>
@@ -4340,7 +4325,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="28" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>141</v>
       </c>
@@ -4375,7 +4360,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="29" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>144</v>
       </c>
@@ -4410,7 +4395,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="30" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>66</v>
       </c>
@@ -4445,7 +4430,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="31" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>51</v>
       </c>
@@ -4480,7 +4465,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="32" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>62</v>
       </c>
@@ -4515,7 +4500,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="33" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>49</v>
       </c>
@@ -4550,7 +4535,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="34" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>47</v>
       </c>
@@ -4585,7 +4570,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="35" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>10</v>
       </c>
@@ -4620,7 +4605,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="36" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>43</v>
       </c>
@@ -4655,7 +4640,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="37" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>38</v>
       </c>
@@ -4690,7 +4675,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="38" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>23</v>
       </c>
@@ -4725,7 +4710,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="39" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>35</v>
       </c>
@@ -4760,7 +4745,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="40" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>40</v>
       </c>
@@ -4795,7 +4780,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="41" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>20</v>
       </c>
@@ -4830,7 +4815,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="42" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>45</v>
       </c>
@@ -4865,7 +4850,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="43" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>26</v>
       </c>
@@ -4900,7 +4885,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="44" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>70</v>
       </c>
@@ -4935,7 +4920,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="45" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>53</v>
       </c>
@@ -4970,7 +4955,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="46" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>55</v>
       </c>
@@ -5005,7 +4990,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="47" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>57</v>
       </c>
@@ -5040,7 +5025,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="48" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>59</v>
       </c>
@@ -5075,7 +5060,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="49" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>29</v>
       </c>
@@ -5110,7 +5095,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="50" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>147</v>
       </c>
@@ -5145,7 +5130,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="51" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>32</v>
       </c>
@@ -5180,7 +5165,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="52" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>431</v>
       </c>
@@ -5215,7 +5200,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="53" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>78</v>
       </c>
@@ -5250,7 +5235,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="54" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>434</v>
       </c>
@@ -5285,7 +5270,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="55" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>448</v>
       </c>
@@ -5320,7 +5305,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="56" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>446</v>
       </c>
@@ -5355,7 +5340,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="57" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>440</v>
       </c>
@@ -5390,7 +5375,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="58" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>442</v>
       </c>
@@ -5425,7 +5410,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="59" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>444</v>
       </c>
@@ -5460,7 +5445,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="60" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>439</v>
       </c>
@@ -5495,7 +5480,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="61" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>456</v>
       </c>
@@ -5530,7 +5515,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="62" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>459</v>
       </c>
@@ -5565,7 +5550,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="63" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>266</v>
       </c>
@@ -5600,7 +5585,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="64" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>267</v>
       </c>
@@ -5635,7 +5620,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="65" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>268</v>
       </c>
@@ -5670,7 +5655,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="66" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>269</v>
       </c>
@@ -5705,7 +5690,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="67" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>264</v>
       </c>
@@ -5740,7 +5725,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="68" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>265</v>
       </c>
@@ -5775,7 +5760,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="69" spans="1:11" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>261</v>
       </c>
@@ -5810,7 +5795,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="70" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>262</v>
       </c>
@@ -5845,7 +5830,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="71" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>263</v>
       </c>
@@ -5880,7 +5865,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="72" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>191</v>
       </c>
@@ -5915,7 +5900,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="73" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>192</v>
       </c>
@@ -5950,7 +5935,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="74" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
         <v>193</v>
       </c>
@@ -5985,7 +5970,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="75" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
         <v>260</v>
       </c>
@@ -6020,7 +6005,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="76" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
         <v>189</v>
       </c>
@@ -6055,7 +6040,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="77" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
         <v>190</v>
       </c>
@@ -6090,7 +6075,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="78" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
         <v>275</v>
       </c>
@@ -6125,7 +6110,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="79" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
         <v>276</v>
       </c>
@@ -6160,7 +6145,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="80" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
         <v>277</v>
       </c>
@@ -6195,7 +6180,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="81" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
         <v>272</v>
       </c>
@@ -6230,7 +6215,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="82" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
         <v>273</v>
       </c>
@@ -6265,7 +6250,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="83" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
         <v>274</v>
       </c>
@@ -6300,7 +6285,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="84" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
         <v>270</v>
       </c>
@@ -6335,7 +6320,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="85" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
         <v>271</v>
       </c>
@@ -6370,7 +6355,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="86" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
         <v>283</v>
       </c>
@@ -6405,7 +6390,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="87" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
         <v>280</v>
       </c>
@@ -6440,7 +6425,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="88" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
         <v>281</v>
       </c>
@@ -6475,7 +6460,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="89" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
         <v>282</v>
       </c>
@@ -6510,7 +6495,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="90" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
         <v>278</v>
       </c>
@@ -6545,7 +6530,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="91" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
         <v>279</v>
       </c>
@@ -6580,7 +6565,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="92" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
         <v>286</v>
       </c>
@@ -6615,7 +6600,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="93" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
         <v>287</v>
       </c>
@@ -6650,7 +6635,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="94" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
         <v>288</v>
       </c>
@@ -6685,7 +6670,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="95" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
         <v>285</v>
       </c>
@@ -6720,7 +6705,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="96" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
         <v>284</v>
       </c>
@@ -6755,7 +6740,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="97" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
         <v>294</v>
       </c>
@@ -6790,7 +6775,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="98" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
         <v>295</v>
       </c>
@@ -6825,7 +6810,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="99" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
         <v>291</v>
       </c>
@@ -6860,7 +6845,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="100" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
         <v>292</v>
       </c>
@@ -6895,7 +6880,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="101" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
         <v>293</v>
       </c>
@@ -6930,7 +6915,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="102" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
         <v>289</v>
       </c>
@@ -6965,7 +6950,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="103" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
         <v>290</v>
       </c>
@@ -7000,7 +6985,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="104" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
         <v>301</v>
       </c>
@@ -7035,7 +7020,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="105" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
         <v>302</v>
       </c>
@@ -7070,7 +7055,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="106" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
         <v>298</v>
       </c>
@@ -7105,7 +7090,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="107" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
         <v>299</v>
       </c>
@@ -7140,7 +7125,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="108" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
         <v>300</v>
       </c>
@@ -7175,7 +7160,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="109" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
         <v>296</v>
       </c>
@@ -7210,7 +7195,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="110" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
         <v>297</v>
       </c>
@@ -7245,7 +7230,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="111" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
         <v>251</v>
       </c>
@@ -7280,7 +7265,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="112" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
         <v>252</v>
       </c>
@@ -7315,7 +7300,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="113" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
         <v>207</v>
       </c>
@@ -7350,7 +7335,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="114" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
         <v>208</v>
       </c>
@@ -7385,7 +7370,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="115" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
         <v>209</v>
       </c>
@@ -7420,7 +7405,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="116" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
         <v>210</v>
       </c>
@@ -7455,7 +7440,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="117" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
         <v>205</v>
       </c>
@@ -7490,7 +7475,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="118" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
         <v>206</v>
       </c>
@@ -7525,7 +7510,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="119" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
         <v>202</v>
       </c>
@@ -7560,7 +7545,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="120" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
         <v>203</v>
       </c>
@@ -7595,7 +7580,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="121" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
         <v>204</v>
       </c>
@@ -7630,7 +7615,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="122" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
         <v>200</v>
       </c>
@@ -7665,7 +7650,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="123" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A123" t="s">
         <v>201</v>
       </c>
@@ -7700,7 +7685,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="124" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A124" t="s">
         <v>196</v>
       </c>
@@ -7735,7 +7720,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="125" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
         <v>197</v>
       </c>
@@ -7770,7 +7755,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="126" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A126" t="s">
         <v>198</v>
       </c>
@@ -7805,7 +7790,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="127" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
         <v>199</v>
       </c>
@@ -7840,7 +7825,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="128" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A128" t="s">
         <v>194</v>
       </c>
@@ -7875,7 +7860,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="129" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
         <v>195</v>
       </c>
@@ -7910,7 +7895,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="130" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A130" t="s">
         <v>221</v>
       </c>
@@ -7945,7 +7930,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="131" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A131" t="s">
         <v>222</v>
       </c>
@@ -7980,7 +7965,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="132" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A132" t="s">
         <v>223</v>
       </c>
@@ -8015,7 +8000,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="133" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A133" t="s">
         <v>219</v>
       </c>
@@ -8050,7 +8035,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="134" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A134" t="s">
         <v>220</v>
       </c>
@@ -8085,7 +8070,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="135" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A135" t="s">
         <v>217</v>
       </c>
@@ -8120,7 +8105,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="136" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A136" t="s">
         <v>218</v>
       </c>
@@ -8155,7 +8140,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="137" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A137" t="s">
         <v>215</v>
       </c>
@@ -8190,7 +8175,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="138" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A138" t="s">
         <v>216</v>
       </c>
@@ -8225,7 +8210,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="139" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A139" t="s">
         <v>211</v>
       </c>
@@ -8260,7 +8245,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="140" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A140" t="s">
         <v>212</v>
       </c>
@@ -8295,7 +8280,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="141" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A141" t="s">
         <v>213</v>
       </c>
@@ -8330,7 +8315,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="142" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A142" t="s">
         <v>214</v>
       </c>
@@ -8365,7 +8350,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="143" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A143" t="s">
         <v>229</v>
       </c>
@@ -8400,7 +8385,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="144" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A144" t="s">
         <v>226</v>
       </c>
@@ -8435,7 +8420,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="145" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A145" t="s">
         <v>227</v>
       </c>
@@ -8470,7 +8455,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="146" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A146" t="s">
         <v>228</v>
       </c>
@@ -8505,7 +8490,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="147" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A147" t="s">
         <v>224</v>
       </c>
@@ -8540,7 +8525,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="148" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A148" t="s">
         <v>225</v>
       </c>
@@ -8575,7 +8560,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="149" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A149" t="s">
         <v>236</v>
       </c>
@@ -8610,7 +8595,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="150" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A150" t="s">
         <v>237</v>
       </c>
@@ -8645,7 +8630,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="151" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A151" t="s">
         <v>238</v>
       </c>
@@ -8680,7 +8665,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="152" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A152" t="s">
         <v>234</v>
       </c>
@@ -8715,7 +8700,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="153" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A153" t="s">
         <v>235</v>
       </c>
@@ -8750,7 +8735,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="154" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A154" t="s">
         <v>233</v>
       </c>
@@ -8785,7 +8770,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="155" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A155" t="s">
         <v>230</v>
       </c>
@@ -8820,7 +8805,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="156" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A156" t="s">
         <v>231</v>
       </c>
@@ -8855,7 +8840,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="157" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A157" t="s">
         <v>232</v>
       </c>
@@ -8890,7 +8875,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="158" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A158" t="s">
         <v>257</v>
       </c>
@@ -8925,7 +8910,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="159" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A159" t="s">
         <v>242</v>
       </c>
@@ -8960,7 +8945,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="160" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A160" t="s">
         <v>243</v>
       </c>
@@ -8995,7 +8980,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="161" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A161" t="s">
         <v>244</v>
       </c>
@@ -9030,7 +9015,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="162" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A162" t="s">
         <v>240</v>
       </c>
@@ -9065,7 +9050,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="163" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A163" t="s">
         <v>241</v>
       </c>
@@ -9100,7 +9085,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="164" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A164" t="s">
         <v>239</v>
       </c>
@@ -9135,7 +9120,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="165" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A165" t="s">
         <v>248</v>
       </c>
@@ -9170,7 +9155,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="166" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A166" t="s">
         <v>249</v>
       </c>
@@ -9205,7 +9190,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="167" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A167" t="s">
         <v>250</v>
       </c>
@@ -9240,7 +9225,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="168" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A168" t="s">
         <v>246</v>
       </c>
@@ -9275,7 +9260,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="169" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A169" t="s">
         <v>247</v>
       </c>
@@ -9310,7 +9295,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="170" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A170" t="s">
         <v>245</v>
       </c>
@@ -9345,7 +9330,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="171" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A171" t="s">
         <v>81</v>
       </c>
@@ -9380,7 +9365,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="172" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A172" t="s">
         <v>453</v>
       </c>
@@ -9415,7 +9400,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="173" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A173" t="s">
         <v>79</v>
       </c>
@@ -9450,7 +9435,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="174" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A174" t="s">
         <v>119</v>
       </c>
@@ -9485,7 +9470,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="175" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A175" t="s">
         <v>82</v>
       </c>
@@ -9520,7 +9505,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="176" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A176" t="s">
         <v>85</v>
       </c>
@@ -9555,7 +9540,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="177" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A177" t="s">
         <v>122</v>
       </c>
@@ -9590,7 +9575,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="178" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A178" t="s">
         <v>75</v>
       </c>
@@ -9625,7 +9610,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="179" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A179" t="s">
         <v>124</v>
       </c>
@@ -9660,7 +9645,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="180" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A180" t="s">
         <v>72</v>
       </c>
@@ -9695,7 +9680,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="181" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A181" t="s">
         <v>127</v>
       </c>
@@ -9730,7 +9715,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="182" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A182" t="s">
         <v>487</v>
       </c>
@@ -9765,7 +9750,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="183" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A183" t="s">
         <v>91</v>
       </c>
@@ -9800,7 +9785,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="184" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A184" t="s">
         <v>463</v>
       </c>
@@ -9835,7 +9820,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="185" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A185" t="s">
         <v>461</v>
       </c>
@@ -9870,7 +9855,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="186" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A186" t="s">
         <v>438</v>
       </c>
@@ -9905,7 +9890,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="187" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A187" t="s">
         <v>450</v>
       </c>
@@ -9940,7 +9925,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="188" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A188" t="s">
         <v>97</v>
       </c>
@@ -9975,7 +9960,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="189" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A189" t="s">
         <v>88</v>
       </c>
@@ -10010,7 +9995,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="190" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A190" t="s">
         <v>149</v>
       </c>
@@ -10045,7 +10030,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="191" spans="1:11" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:11" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A191" t="s">
         <v>466</v>
       </c>
@@ -10080,7 +10065,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="192" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A192" t="s">
         <v>132</v>
       </c>
@@ -10115,7 +10100,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="193" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A193" t="s">
         <v>129</v>
       </c>
@@ -10150,7 +10135,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="194" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A194" t="s">
         <v>68</v>
       </c>
@@ -10185,7 +10170,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="195" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A195" t="s">
         <v>64</v>
       </c>
@@ -10220,7 +10205,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="196" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A196" t="s">
         <v>150</v>
       </c>
@@ -10255,7 +10240,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="197" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A197" t="s">
         <v>153</v>
       </c>
@@ -10290,7 +10275,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="198" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A198" t="s">
         <v>485</v>
       </c>
@@ -10325,7 +10310,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="199" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A199" t="s">
         <v>488</v>
       </c>
@@ -10363,7 +10348,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="200" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A200" t="s">
         <v>491</v>
       </c>
@@ -10401,7 +10386,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="201" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A201" t="s">
         <v>493</v>
       </c>
@@ -10439,7 +10424,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="202" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A202" t="s">
         <v>495</v>
       </c>
@@ -10477,7 +10462,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="203" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A203" t="s">
         <v>497</v>
       </c>
@@ -10515,7 +10500,7 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="204" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A204" t="s">
         <v>500</v>
       </c>
@@ -10553,7 +10538,7 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="205" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A205" t="s">
         <v>502</v>
       </c>
@@ -10591,7 +10576,7 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="206" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A206" t="s">
         <v>504</v>
       </c>
@@ -10629,7 +10614,7 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="207" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A207" t="s">
         <v>506</v>
       </c>
@@ -10667,7 +10652,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="208" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A208" t="s">
         <v>509</v>
       </c>
@@ -10705,7 +10690,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="209" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A209" t="s">
         <v>511</v>
       </c>
@@ -10743,7 +10728,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="210" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A210" t="s">
         <v>513</v>
       </c>
@@ -10781,7 +10766,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="211" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A211" t="s">
         <v>515</v>
       </c>
@@ -10819,7 +10804,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="212" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A212" t="s">
         <v>518</v>
       </c>
@@ -10857,7 +10842,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="213" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A213" t="s">
         <v>520</v>
       </c>
@@ -10895,7 +10880,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="214" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A214" t="s">
         <v>522</v>
       </c>
@@ -10933,7 +10918,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="215" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A215" t="s">
         <v>524</v>
       </c>
@@ -10971,7 +10956,7 @@
         <v>7.5</v>
       </c>
     </row>
-    <row r="216" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A216" t="s">
         <v>527</v>
       </c>
@@ -11009,7 +10994,7 @@
         <v>7.5</v>
       </c>
     </row>
-    <row r="217" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A217" t="s">
         <v>529</v>
       </c>
@@ -11047,7 +11032,7 @@
         <v>7.5</v>
       </c>
     </row>
-    <row r="218" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A218" t="s">
         <v>531</v>
       </c>
@@ -11085,7 +11070,7 @@
         <v>7.5</v>
       </c>
     </row>
-    <row r="219" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A219" t="s">
         <v>533</v>
       </c>
@@ -11123,7 +11108,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="220" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A220" t="s">
         <v>534</v>
       </c>
@@ -11161,7 +11146,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="221" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A221" t="s">
         <v>535</v>
       </c>
@@ -11199,7 +11184,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="222" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A222" t="s">
         <v>536</v>
       </c>
@@ -11237,7 +11222,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="223" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A223" t="s">
         <v>537</v>
       </c>
@@ -11275,7 +11260,7 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="224" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A224" t="s">
         <v>539</v>
       </c>
@@ -11313,7 +11298,7 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="225" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A225" t="s">
         <v>540</v>
       </c>
@@ -11351,7 +11336,7 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="226" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A226" t="s">
         <v>542</v>
       </c>
@@ -11389,7 +11374,7 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="227" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="227" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A227" t="s">
         <v>543</v>
       </c>
@@ -11427,7 +11412,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="228" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="228" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A228" t="s">
         <v>545</v>
       </c>
@@ -11465,7 +11450,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="229" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="229" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A229" t="s">
         <v>546</v>
       </c>
@@ -11503,7 +11488,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="230" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="230" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A230" t="s">
         <v>547</v>
       </c>
@@ -11541,7 +11526,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="231" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="231" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A231" t="s">
         <v>548</v>
       </c>
@@ -11579,7 +11564,7 @@
         <v>6.5</v>
       </c>
     </row>
-    <row r="232" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="232" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A232" t="s">
         <v>550</v>
       </c>
@@ -11617,7 +11602,7 @@
         <v>6.5</v>
       </c>
     </row>
-    <row r="233" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="233" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A233" t="s">
         <v>551</v>
       </c>
@@ -11655,7 +11640,7 @@
         <v>6.5</v>
       </c>
     </row>
-    <row r="234" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="234" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A234" t="s">
         <v>552</v>
       </c>
@@ -11693,7 +11678,7 @@
         <v>6.5</v>
       </c>
     </row>
-    <row r="235" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="235" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A235" t="s">
         <v>553</v>
       </c>
@@ -11731,7 +11716,7 @@
         <v>7.75</v>
       </c>
     </row>
-    <row r="236" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="236" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A236" t="s">
         <v>554</v>
       </c>
@@ -11769,7 +11754,7 @@
         <v>7.75</v>
       </c>
     </row>
-    <row r="237" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="237" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A237" t="s">
         <v>555</v>
       </c>
@@ -11807,7 +11792,7 @@
         <v>7.75</v>
       </c>
     </row>
-    <row r="238" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="238" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A238" t="s">
         <v>556</v>
       </c>
@@ -11845,7 +11830,7 @@
         <v>7.75</v>
       </c>
     </row>
-    <row r="239" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="239" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A239" t="s">
         <v>558</v>
       </c>
@@ -11883,7 +11868,7 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="240" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="240" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A240" t="s">
         <v>559</v>
       </c>
@@ -11921,7 +11906,7 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="241" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="241" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A241" t="s">
         <v>560</v>
       </c>
@@ -11959,7 +11944,7 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="242" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="242" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A242" t="s">
         <v>561</v>
       </c>
@@ -11997,7 +11982,7 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="243" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="243" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A243" t="s">
         <v>563</v>
       </c>
@@ -12035,7 +12020,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="244" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="244" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A244" t="s">
         <v>564</v>
       </c>
@@ -12073,7 +12058,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="245" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="245" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A245" t="s">
         <v>565</v>
       </c>
@@ -12111,7 +12096,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="246" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="246" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A246" t="s">
         <v>566</v>
       </c>
@@ -12149,7 +12134,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="247" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="247" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A247" t="s">
         <v>572</v>
       </c>
@@ -12187,7 +12172,7 @@
         <v>6.5</v>
       </c>
     </row>
-    <row r="248" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="248" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A248" t="s">
         <v>573</v>
       </c>
@@ -12225,7 +12210,7 @@
         <v>6.5</v>
       </c>
     </row>
-    <row r="249" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="249" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A249" t="s">
         <v>574</v>
       </c>
@@ -12263,7 +12248,7 @@
         <v>6.5</v>
       </c>
     </row>
-    <row r="250" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="250" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A250" t="s">
         <v>575</v>
       </c>
@@ -12301,7 +12286,7 @@
         <v>6.5</v>
       </c>
     </row>
-    <row r="251" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="251" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A251" t="s">
         <v>577</v>
       </c>
@@ -12339,7 +12324,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="252" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="252" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A252" t="s">
         <v>578</v>
       </c>
@@ -12377,7 +12362,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="253" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="253" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A253" t="s">
         <v>579</v>
       </c>
@@ -12415,7 +12400,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="254" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="254" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A254" t="s">
         <v>580</v>
       </c>
@@ -12453,7 +12438,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="255" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="255" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A255" t="s">
         <v>582</v>
       </c>
@@ -12491,7 +12476,7 @@
         <v>8.1</v>
       </c>
     </row>
-    <row r="256" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="256" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A256" t="s">
         <v>583</v>
       </c>
@@ -12529,7 +12514,7 @@
         <v>8.1</v>
       </c>
     </row>
-    <row r="257" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="257" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A257" t="s">
         <v>584</v>
       </c>
@@ -12567,7 +12552,7 @@
         <v>8.1</v>
       </c>
     </row>
-    <row r="258" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="258" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A258" t="s">
         <v>585</v>
       </c>
@@ -12605,7 +12590,7 @@
         <v>8.1</v>
       </c>
     </row>
-    <row r="259" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="259" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A259" t="s">
         <v>587</v>
       </c>
@@ -12643,7 +12628,7 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="260" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="260" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A260" t="s">
         <v>588</v>
       </c>
@@ -12681,7 +12666,7 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="261" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="261" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A261" t="s">
         <v>589</v>
       </c>
@@ -12719,7 +12704,7 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="262" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="262" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A262" t="s">
         <v>590</v>
       </c>
@@ -12757,7 +12742,7 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="263" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="263" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A263" t="s">
         <v>592</v>
       </c>
@@ -12795,7 +12780,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="264" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="264" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A264" t="s">
         <v>593</v>
       </c>
@@ -12833,7 +12818,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="265" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="265" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A265" t="s">
         <v>594</v>
       </c>
@@ -12871,7 +12856,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="266" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="266" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A266" t="s">
         <v>595</v>
       </c>
@@ -12909,7 +12894,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="267" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="267" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A267" t="s">
         <v>597</v>
       </c>
@@ -12947,7 +12932,7 @@
         <v>6.5</v>
       </c>
     </row>
-    <row r="268" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="268" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A268" t="s">
         <v>598</v>
       </c>
@@ -12985,7 +12970,7 @@
         <v>6.5</v>
       </c>
     </row>
-    <row r="269" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="269" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A269" t="s">
         <v>599</v>
       </c>
@@ -13023,7 +13008,7 @@
         <v>6.5</v>
       </c>
     </row>
-    <row r="270" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="270" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A270" t="s">
         <v>600</v>
       </c>
@@ -13061,7 +13046,7 @@
         <v>6.5</v>
       </c>
     </row>
-    <row r="271" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="271" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A271" t="s">
         <v>602</v>
       </c>
@@ -13099,7 +13084,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="272" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="272" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A272" t="s">
         <v>603</v>
       </c>
@@ -13137,7 +13122,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="273" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="273" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A273" t="s">
         <v>604</v>
       </c>
@@ -13175,7 +13160,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="274" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="274" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A274" t="s">
         <v>605</v>
       </c>
@@ -13213,7 +13198,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="275" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="275" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A275" t="s">
         <v>607</v>
       </c>
@@ -13251,7 +13236,7 @@
         <v>8.25</v>
       </c>
     </row>
-    <row r="276" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="276" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A276" t="s">
         <v>608</v>
       </c>
@@ -13289,7 +13274,7 @@
         <v>8.25</v>
       </c>
     </row>
-    <row r="277" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="277" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A277" t="s">
         <v>609</v>
       </c>
@@ -13327,7 +13312,7 @@
         <v>8.25</v>
       </c>
     </row>
-    <row r="278" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="278" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A278" t="s">
         <v>610</v>
       </c>
@@ -13365,7 +13350,7 @@
         <v>8.25</v>
       </c>
     </row>
-    <row r="279" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="279" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A279" t="s">
         <v>612</v>
       </c>
@@ -13403,7 +13388,7 @@
         <v>6.5</v>
       </c>
     </row>
-    <row r="280" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="280" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A280" t="s">
         <v>613</v>
       </c>
@@ -13441,7 +13426,7 @@
         <v>6.5</v>
       </c>
     </row>
-    <row r="281" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="281" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A281" t="s">
         <v>614</v>
       </c>
@@ -13479,7 +13464,7 @@
         <v>6.5</v>
       </c>
     </row>
-    <row r="282" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="282" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A282" t="s">
         <v>615</v>
       </c>
@@ -13517,7 +13502,7 @@
         <v>6.5</v>
       </c>
     </row>
-    <row r="283" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="283" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A283" t="s">
         <v>617</v>
       </c>
@@ -13555,7 +13540,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="284" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="284" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A284" t="s">
         <v>618</v>
       </c>
@@ -13593,7 +13578,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="285" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="285" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A285" t="s">
         <v>619</v>
       </c>
@@ -13631,7 +13616,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="286" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="286" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A286" t="s">
         <v>620</v>
       </c>
@@ -13669,7 +13654,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="287" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="287" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A287" t="s">
         <v>622</v>
       </c>
@@ -13707,7 +13692,7 @@
         <v>7.75</v>
       </c>
     </row>
-    <row r="288" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="288" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A288" t="s">
         <v>623</v>
       </c>
@@ -13745,7 +13730,7 @@
         <v>7.75</v>
       </c>
     </row>
-    <row r="289" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="289" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A289" t="s">
         <v>624</v>
       </c>
@@ -13783,7 +13768,7 @@
         <v>7.75</v>
       </c>
     </row>
-    <row r="290" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="290" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A290" t="s">
         <v>625</v>
       </c>
@@ -13821,7 +13806,7 @@
         <v>7.75</v>
       </c>
     </row>
-    <row r="291" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="291" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A291" t="s">
         <v>627</v>
       </c>
@@ -13859,7 +13844,7 @@
         <v>8.25</v>
       </c>
     </row>
-    <row r="292" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="292" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A292" t="s">
         <v>628</v>
       </c>
@@ -13897,7 +13882,7 @@
         <v>8.25</v>
       </c>
     </row>
-    <row r="293" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="293" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A293" t="s">
         <v>629</v>
       </c>
@@ -13935,7 +13920,7 @@
         <v>8.25</v>
       </c>
     </row>
-    <row r="294" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="294" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A294" t="s">
         <v>630</v>
       </c>
@@ -13973,7 +13958,7 @@
         <v>8.25</v>
       </c>
     </row>
-    <row r="295" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="295" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A295" t="s">
         <v>632</v>
       </c>
@@ -14011,7 +13996,7 @@
         <v>9.25</v>
       </c>
     </row>
-    <row r="296" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="296" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A296" t="s">
         <v>633</v>
       </c>
@@ -14049,7 +14034,7 @@
         <v>9.25</v>
       </c>
     </row>
-    <row r="297" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="297" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A297" t="s">
         <v>634</v>
       </c>
@@ -14087,7 +14072,7 @@
         <v>9.25</v>
       </c>
     </row>
-    <row r="298" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="298" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A298" t="s">
         <v>635</v>
       </c>
@@ -14125,7 +14110,7 @@
         <v>9.25</v>
       </c>
     </row>
-    <row r="299" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="299" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A299" t="s">
         <v>637</v>
       </c>
@@ -14163,7 +14148,7 @@
         <v>6.5</v>
       </c>
     </row>
-    <row r="300" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="300" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A300" t="s">
         <v>638</v>
       </c>
@@ -14201,7 +14186,7 @@
         <v>6.5</v>
       </c>
     </row>
-    <row r="301" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="301" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A301" t="s">
         <v>639</v>
       </c>
@@ -14239,7 +14224,7 @@
         <v>6.5</v>
       </c>
     </row>
-    <row r="302" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="302" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A302" t="s">
         <v>640</v>
       </c>
@@ -14277,7 +14262,7 @@
         <v>6.5</v>
       </c>
     </row>
-    <row r="303" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="303" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A303" t="s">
         <v>642</v>
       </c>
@@ -14315,7 +14300,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="304" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="304" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A304" t="s">
         <v>643</v>
       </c>
@@ -14353,7 +14338,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="305" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="305" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A305" t="s">
         <v>644</v>
       </c>
@@ -14391,7 +14376,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="306" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="306" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A306" t="s">
         <v>645</v>
       </c>
@@ -14429,7 +14414,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="307" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="307" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A307" t="s">
         <v>647</v>
       </c>
@@ -14467,7 +14452,7 @@
         <v>7.75</v>
       </c>
     </row>
-    <row r="308" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="308" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A308" t="s">
         <v>648</v>
       </c>
@@ -14505,7 +14490,7 @@
         <v>7.75</v>
       </c>
     </row>
-    <row r="309" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="309" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A309" t="s">
         <v>649</v>
       </c>
@@ -14543,7 +14528,7 @@
         <v>7.75</v>
       </c>
     </row>
-    <row r="310" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="310" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A310" t="s">
         <v>650</v>
       </c>
@@ -14581,7 +14566,7 @@
         <v>7.75</v>
       </c>
     </row>
-    <row r="311" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="311" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A311" t="s">
         <v>652</v>
       </c>
@@ -14619,7 +14604,7 @@
         <v>8.25</v>
       </c>
     </row>
-    <row r="312" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="312" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A312" t="s">
         <v>653</v>
       </c>
@@ -14657,7 +14642,7 @@
         <v>8.25</v>
       </c>
     </row>
-    <row r="313" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="313" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A313" t="s">
         <v>654</v>
       </c>
@@ -14695,7 +14680,7 @@
         <v>8.25</v>
       </c>
     </row>
-    <row r="314" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="314" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A314" t="s">
         <v>655</v>
       </c>
@@ -14733,7 +14718,7 @@
         <v>8.25</v>
       </c>
     </row>
-    <row r="315" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="315" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A315" t="s">
         <v>657</v>
       </c>
@@ -14771,7 +14756,7 @@
         <v>9.25</v>
       </c>
     </row>
-    <row r="316" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="316" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A316" t="s">
         <v>658</v>
       </c>
@@ -14809,7 +14794,7 @@
         <v>9.25</v>
       </c>
     </row>
-    <row r="317" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="317" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A317" t="s">
         <v>659</v>
       </c>
@@ -14847,7 +14832,7 @@
         <v>9.25</v>
       </c>
     </row>
-    <row r="318" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="318" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A318" t="s">
         <v>660</v>
       </c>
@@ -14885,7 +14870,7 @@
         <v>9.25</v>
       </c>
     </row>
-    <row r="319" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="319" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A319" t="s">
         <v>662</v>
       </c>
@@ -14923,7 +14908,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="320" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="320" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A320" t="s">
         <v>663</v>
       </c>
@@ -14961,7 +14946,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="321" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="321" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A321" t="s">
         <v>664</v>
       </c>
@@ -14999,7 +14984,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="322" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="322" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A322" t="s">
         <v>665</v>
       </c>
@@ -15037,7 +15022,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="323" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="323" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A323" t="s">
         <v>671</v>
       </c>
@@ -15075,7 +15060,7 @@
         <v>7.75</v>
       </c>
     </row>
-    <row r="324" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="324" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A324" t="s">
         <v>672</v>
       </c>
@@ -15113,7 +15098,7 @@
         <v>7.75</v>
       </c>
     </row>
-    <row r="325" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="325" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A325" t="s">
         <v>673</v>
       </c>
@@ -15151,7 +15136,7 @@
         <v>7.75</v>
       </c>
     </row>
-    <row r="326" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="326" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A326" t="s">
         <v>674</v>
       </c>
@@ -15189,7 +15174,7 @@
         <v>7.75</v>
       </c>
     </row>
-    <row r="327" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="327" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A327" t="s">
         <v>676</v>
       </c>
@@ -15227,7 +15212,7 @@
         <v>8.25</v>
       </c>
     </row>
-    <row r="328" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="328" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A328" t="s">
         <v>677</v>
       </c>
@@ -15265,7 +15250,7 @@
         <v>8.25</v>
       </c>
     </row>
-    <row r="329" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="329" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A329" t="s">
         <v>678</v>
       </c>
@@ -15303,7 +15288,7 @@
         <v>8.25</v>
       </c>
     </row>
-    <row r="330" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="330" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A330" t="s">
         <v>679</v>
       </c>
@@ -15341,7 +15326,7 @@
         <v>8.25</v>
       </c>
     </row>
-    <row r="331" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="331" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A331" t="s">
         <v>681</v>
       </c>
@@ -15379,7 +15364,7 @@
         <v>8.75</v>
       </c>
     </row>
-    <row r="332" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="332" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A332" t="s">
         <v>682</v>
       </c>
@@ -15417,7 +15402,7 @@
         <v>8.75</v>
       </c>
     </row>
-    <row r="333" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="333" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A333" t="s">
         <v>683</v>
       </c>
@@ -15455,7 +15440,7 @@
         <v>8.75</v>
       </c>
     </row>
-    <row r="334" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="334" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A334" t="s">
         <v>684</v>
       </c>
@@ -15493,7 +15478,7 @@
         <v>8.75</v>
       </c>
     </row>
-    <row r="335" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="335" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A335" t="s">
         <v>686</v>
       </c>
@@ -15531,7 +15516,7 @@
         <v>9.75</v>
       </c>
     </row>
-    <row r="336" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="336" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A336" t="s">
         <v>687</v>
       </c>
@@ -15569,7 +15554,7 @@
         <v>9.75</v>
       </c>
     </row>
-    <row r="337" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="337" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A337" t="s">
         <v>688</v>
       </c>
@@ -15607,7 +15592,7 @@
         <v>9.75</v>
       </c>
     </row>
-    <row r="338" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="338" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A338" t="s">
         <v>689</v>
       </c>
@@ -15645,7 +15630,7 @@
         <v>9.75</v>
       </c>
     </row>
-    <row r="339" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="339" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A339" t="s">
         <v>691</v>
       </c>
@@ -15683,7 +15668,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="340" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="340" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A340" t="s">
         <v>692</v>
       </c>
@@ -15721,7 +15706,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="341" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="341" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A341" t="s">
         <v>693</v>
       </c>
@@ -15759,7 +15744,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="342" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="342" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A342" t="s">
         <v>694</v>
       </c>
@@ -15797,7 +15782,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="343" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="343" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A343" t="s">
         <v>696</v>
       </c>
@@ -15835,7 +15820,7 @@
         <v>7.75</v>
       </c>
     </row>
-    <row r="344" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="344" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A344" t="s">
         <v>697</v>
       </c>
@@ -15873,7 +15858,7 @@
         <v>7.75</v>
       </c>
     </row>
-    <row r="345" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="345" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A345" t="s">
         <v>698</v>
       </c>
@@ -15911,7 +15896,7 @@
         <v>7.75</v>
       </c>
     </row>
-    <row r="346" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="346" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A346" t="s">
         <v>699</v>
       </c>
@@ -15949,7 +15934,7 @@
         <v>7.75</v>
       </c>
     </row>
-    <row r="347" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="347" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A347" t="s">
         <v>701</v>
       </c>
@@ -15987,7 +15972,7 @@
         <v>8.25</v>
       </c>
     </row>
-    <row r="348" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="348" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A348" t="s">
         <v>702</v>
       </c>
@@ -16025,7 +16010,7 @@
         <v>8.25</v>
       </c>
     </row>
-    <row r="349" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="349" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A349" t="s">
         <v>703</v>
       </c>
@@ -16063,7 +16048,7 @@
         <v>8.25</v>
       </c>
     </row>
-    <row r="350" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="350" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A350" t="s">
         <v>704</v>
       </c>
@@ -16101,7 +16086,7 @@
         <v>8.25</v>
       </c>
     </row>
-    <row r="351" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="351" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A351" t="s">
         <v>706</v>
       </c>
@@ -16139,7 +16124,7 @@
         <v>8.75</v>
       </c>
     </row>
-    <row r="352" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="352" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A352" t="s">
         <v>707</v>
       </c>
@@ -16177,7 +16162,7 @@
         <v>8.75</v>
       </c>
     </row>
-    <row r="353" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="353" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A353" t="s">
         <v>708</v>
       </c>
@@ -16215,7 +16200,7 @@
         <v>8.75</v>
       </c>
     </row>
-    <row r="354" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="354" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A354" t="s">
         <v>709</v>
       </c>
@@ -16253,7 +16238,7 @@
         <v>8.75</v>
       </c>
     </row>
-    <row r="355" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="355" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A355" t="s">
         <v>711</v>
       </c>
@@ -16291,7 +16276,7 @@
         <v>9.75</v>
       </c>
     </row>
-    <row r="356" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="356" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A356" t="s">
         <v>712</v>
       </c>
@@ -16329,7 +16314,7 @@
         <v>9.75</v>
       </c>
     </row>
-    <row r="357" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="357" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A357" t="s">
         <v>713</v>
       </c>
@@ -16367,7 +16352,7 @@
         <v>9.75</v>
       </c>
     </row>
-    <row r="358" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="358" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A358" t="s">
         <v>714</v>
       </c>
@@ -16405,7 +16390,7 @@
         <v>9.75</v>
       </c>
     </row>
-    <row r="359" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="359" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A359" t="s">
         <v>716</v>
       </c>
@@ -16443,7 +16428,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="360" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="360" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A360" t="s">
         <v>717</v>
       </c>
@@ -16481,7 +16466,7 @@
         <v>7.75</v>
       </c>
     </row>
-    <row r="361" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="361" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A361" t="s">
         <v>718</v>
       </c>
@@ -16519,7 +16504,7 @@
         <v>8.25</v>
       </c>
     </row>
-    <row r="362" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="362" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A362" t="s">
         <v>719</v>
       </c>
@@ -16557,7 +16542,7 @@
         <v>8.75</v>
       </c>
     </row>
-    <row r="363" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="363" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A363" t="s">
         <v>720</v>
       </c>
@@ -16595,7 +16580,7 @@
         <v>9.75</v>
       </c>
     </row>
-    <row r="364" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="364" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A364" t="s">
         <v>721</v>
       </c>
@@ -16633,7 +16618,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="365" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="365" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A365" t="s">
         <v>722</v>
       </c>
@@ -16671,7 +16656,7 @@
         <v>7.75</v>
       </c>
     </row>
-    <row r="366" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="366" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A366" t="s">
         <v>723</v>
       </c>
@@ -16709,7 +16694,7 @@
         <v>8.25</v>
       </c>
     </row>
-    <row r="367" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="367" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A367" t="s">
         <v>724</v>
       </c>
@@ -16747,7 +16732,7 @@
         <v>8.75</v>
       </c>
     </row>
-    <row r="368" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="368" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A368" t="s">
         <v>725</v>
       </c>
@@ -16785,7 +16770,7 @@
         <v>9.75</v>
       </c>
     </row>
-    <row r="369" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="369" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A369" t="s">
         <v>726</v>
       </c>
@@ -16823,7 +16808,7 @@
         <v>7.75</v>
       </c>
     </row>
-    <row r="370" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="370" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A370" t="s">
         <v>727</v>
       </c>
@@ -16861,7 +16846,7 @@
         <v>8.25</v>
       </c>
     </row>
-    <row r="371" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="371" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A371" t="s">
         <v>728</v>
       </c>
@@ -16899,7 +16884,7 @@
         <v>8.75</v>
       </c>
     </row>
-    <row r="372" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="372" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A372" t="s">
         <v>729</v>
       </c>
@@ -16937,7 +16922,7 @@
         <v>9.25</v>
       </c>
     </row>
-    <row r="373" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="373" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A373" t="s">
         <v>730</v>
       </c>
@@ -16975,7 +16960,7 @@
         <v>10.25</v>
       </c>
     </row>
-    <row r="374" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="374" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A374" t="s">
         <v>731</v>
       </c>
@@ -17013,7 +16998,7 @@
         <v>7.75</v>
       </c>
     </row>
-    <row r="375" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="375" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A375" t="s">
         <v>732</v>
       </c>
@@ -17051,7 +17036,7 @@
         <v>8.25</v>
       </c>
     </row>
-    <row r="376" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="376" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A376" t="s">
         <v>733</v>
       </c>
@@ -17089,7 +17074,7 @@
         <v>8.75</v>
       </c>
     </row>
-    <row r="377" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="377" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A377" t="s">
         <v>734</v>
       </c>
@@ -17127,7 +17112,7 @@
         <v>9.25</v>
       </c>
     </row>
-    <row r="378" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="378" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A378" t="s">
         <v>735</v>
       </c>
@@ -17165,7 +17150,7 @@
         <v>10.25</v>
       </c>
     </row>
-    <row r="379" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="379" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A379" t="s">
         <v>761</v>
       </c>
@@ -17200,7 +17185,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="380" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="380" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A380" t="s">
         <v>762</v>
       </c>
@@ -17235,7 +17220,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="381" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="381" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A381" t="s">
         <v>763</v>
       </c>
@@ -17270,7 +17255,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="382" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="382" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A382" t="s">
         <v>764</v>
       </c>
@@ -17305,7 +17290,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="383" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="383" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A383" t="s">
         <v>765</v>
       </c>
@@ -17340,7 +17325,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="384" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="384" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A384" t="s">
         <v>766</v>
       </c>
@@ -17375,7 +17360,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="385" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="385" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A385" t="s">
         <v>767</v>
       </c>
@@ -17410,7 +17395,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="386" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="386" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A386" t="s">
         <v>768</v>
       </c>
@@ -17445,7 +17430,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="387" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="387" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A387" t="s">
         <v>769</v>
       </c>
@@ -17480,7 +17465,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="388" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="388" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A388" t="s">
         <v>770</v>
       </c>
@@ -17515,7 +17500,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="389" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="389" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A389" t="s">
         <v>771</v>
       </c>
@@ -17550,7 +17535,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="390" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="390" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A390" t="s">
         <v>772</v>
       </c>
@@ -17585,7 +17570,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="391" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="391" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A391" t="s">
         <v>773</v>
       </c>
@@ -17620,7 +17605,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="392" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="392" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A392" t="s">
         <v>774</v>
       </c>
@@ -17655,7 +17640,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="393" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="393" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A393" t="s">
         <v>775</v>
       </c>
@@ -17690,7 +17675,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="394" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="394" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A394" t="s">
         <v>776</v>
       </c>
@@ -17725,7 +17710,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="395" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="395" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A395" t="s">
         <v>777</v>
       </c>
@@ -17760,7 +17745,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="396" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="396" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A396" t="s">
         <v>778</v>
       </c>
@@ -17795,7 +17780,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="397" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="397" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A397" t="s">
         <v>779</v>
       </c>
@@ -17830,7 +17815,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="398" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="398" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A398" t="s">
         <v>810</v>
       </c>
@@ -17865,7 +17850,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="399" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="399" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A399" t="s">
         <v>811</v>
       </c>
@@ -17900,7 +17885,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="400" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="400" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A400" t="s">
         <v>812</v>
       </c>
@@ -17935,7 +17920,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="401" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="401" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A401" t="s">
         <v>813</v>
       </c>
@@ -17970,7 +17955,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="402" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="402" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A402" t="s">
         <v>814</v>
       </c>
@@ -18005,7 +17990,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="403" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="403" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A403" t="s">
         <v>825</v>
       </c>
@@ -18040,7 +18025,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="404" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="404" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A404" t="s">
         <v>826</v>
       </c>
@@ -18075,7 +18060,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="405" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="405" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A405" t="s">
         <v>827</v>
       </c>
@@ -18110,7 +18095,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="406" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="406" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A406" t="s">
         <v>828</v>
       </c>
@@ -18145,7 +18130,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="407" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="407" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A407" t="s">
         <v>829</v>
       </c>
@@ -18180,7 +18165,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="408" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="408" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A408" t="s">
         <v>830</v>
       </c>
@@ -18215,7 +18200,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="409" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="409" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A409" t="s">
         <v>831</v>
       </c>
@@ -18250,7 +18235,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="410" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="410" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A410" t="s">
         <v>832</v>
       </c>
@@ -18285,7 +18270,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="411" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="411" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A411" t="s">
         <v>833</v>
       </c>
@@ -18320,7 +18305,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="412" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="412" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A412" t="s">
         <v>834</v>
       </c>
@@ -18355,7 +18340,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="413" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="413" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A413" t="s">
         <v>835</v>
       </c>
@@ -18390,7 +18375,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="414" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="414" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A414" t="s">
         <v>836</v>
       </c>
@@ -18425,7 +18410,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="415" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="415" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A415" t="s">
         <v>837</v>
       </c>
@@ -18460,7 +18445,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="416" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="416" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A416" t="s">
         <v>838</v>
       </c>
@@ -18495,7 +18480,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="417" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="417" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A417" t="s">
         <v>839</v>
       </c>
@@ -18530,7 +18515,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="418" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="418" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A418" t="s">
         <v>840</v>
       </c>
@@ -18565,7 +18550,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="419" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="419" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A419" t="s">
         <v>841</v>
       </c>
@@ -18600,7 +18585,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="420" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="420" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A420" t="s">
         <v>842</v>
       </c>
@@ -18635,7 +18620,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="421" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="421" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A421" t="s">
         <v>843</v>
       </c>
@@ -18670,7 +18655,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="422" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="422" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A422" t="s">
         <v>881</v>
       </c>
@@ -18705,7 +18690,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="423" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="423" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A423" t="s">
         <v>882</v>
       </c>
@@ -18740,7 +18725,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="424" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="424" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A424" t="s">
         <v>887</v>
       </c>
@@ -18775,7 +18760,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="425" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="425" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A425" t="s">
         <v>888</v>
       </c>
@@ -18810,7 +18795,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="426" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="426" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A426" t="s">
         <v>892</v>
       </c>
@@ -18845,7 +18830,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="427" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="427" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A427" t="s">
         <v>895</v>
       </c>
@@ -18880,7 +18865,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="428" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="428" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A428" t="s">
         <v>897</v>
       </c>
@@ -19246,7 +19231,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B12" sqref="B12"/>
+      <selection pane="bottomLeft" activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -19307,8 +19292,8 @@
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A2" s="12" t="s">
-        <v>303</v>
+      <c r="A2" s="4" t="s">
+        <v>572</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>162</v>
@@ -19323,7 +19308,7 @@
       </c>
       <c r="E2" s="2">
         <f>_xlfn.XLOOKUP(A2,CATALOGO_PRODUCTOS!A:A,CATALOGO_PRODUCTOS!B:B,0,0)</f>
-        <v>2.35E-2</v>
+        <v>13</v>
       </c>
       <c r="F2" s="2">
         <f>_xlfn.XLOOKUP(D2,TIPOS_CAMBIO!A:A,TIPOS_CAMBIO!B:B,"",0)</f>
@@ -19331,7 +19316,7 @@
       </c>
       <c r="G2" s="7">
         <f>$E2*$F2</f>
-        <v>0.49349999999999999</v>
+        <v>273</v>
       </c>
       <c r="H2" s="8">
         <f>_xlfn.XLOOKUP($B$2,PARAMETROS_IMPORTACION!A:A,PARAMETROS_IMPORTACION!C:C,0,0)</f>
@@ -19359,11 +19344,11 @@
       </c>
       <c r="N2" s="2">
         <f>IF($C2="Importado",$G2*(1+$H2+I2+$J2+$L2+$M2),$G2)</f>
-        <v>0.55197974999999999</v>
+        <v>305.35050000000001</v>
       </c>
       <c r="O2" s="2">
         <f>N2 * (1 + K2)</f>
-        <v>0.607177725</v>
+        <v>335.88555000000002</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.35">
